--- a/output/Total_time_range_data/河北省/秦皇岛市_学习考察.xlsx
+++ b/output/Total_time_range_data/河北省/秦皇岛市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6430 +436,7035 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>抚宁区副区长陈静朋考察养老中心项目建设</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-07-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=79AE8E13C5530A9B5A14C9ED01D3A32B</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['区副区长陈静朋到南京市建邺区学习考察养老中心项目建设，考察组一行先后到南京市建邺区江心洲银城康养中心、建邺区社会福利院、瑞芝康健兴隆颐养中心、建邺区养老服务质量指导中心、心颐荟康养中心、三槐居家养老服务中心实地参观。区民政局主要及分管负责同志陪同。陈静朋强调：一是要统一思想，提高站位，以本次考察学习为契机，学习南京市先进做法经验，把养老中心项目当作重点民生工程来抓，全力加快推进项目前期工作。二是要充分认识我区较先进地区之间的差距，进一步增强民政养老事业加快发展、高起点发展的紧迫感和危机感。三是探索“政府成立平台公司+先进民营资本”的运营模式，引进高标准技术服务团队，整合医疗、职业教育资源，培养养老服务专业人员，因地制宜推进我区养老中心建设。', '区副区长陈静朋到南京市建邺区学习考察养老中心项目建设，考察组一行先后到南京市建邺区江心洲银城康养中心、建邺区社会福利院、瑞芝康健兴隆颐养中心、建邺区养老服务质量指导中心、心颐荟康养中心、三槐居家养老服务中心实地参观。区民政局主要及分管负责同志陪同。陈静朋强调：一是要统一思想，提高站位，以本次考察学习为契机，学习南京市先进做法经验，把养老中心项目当作重点民生工程来抓，全力加快推进项目前期工作。二是要充分认识我区较先进地区之间的差距，进一步增强民政养老事业加快发展、高起点发展的紧迫感和危机感。三是探索']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>拓展监管思路服务企业发展秦皇岛市生态环境局海港分局组织企业考察学习污染治理工作先进经验</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=72E98E0BF44A6E6F54E01A49FE61D270</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['拓展监管思路 服务企业发展 ——秦皇岛市生态环境局海港分局组织企业考察学习污染治理工作先进经验', '为进一步深化生态环境监管服务，学习借鉴他山之石，全面补齐自身之短，帮助企业解决好污染治理工作难题，近日，秦皇岛市生态环境局海港分局组织中信渤海铝业控股有限公司、中信戴卡股份有限公司、奥科宁克（秦皇岛）铝业有限公司等相关单位负责人赴开发区立中美铝参观学习污染治理工作先进经验。', '活动中，参学人员深入生产车间对铸造产污环节的精细化管理情况进行现场观摩学习，立中美铝负责人详细介绍了新设施和新工艺使用、大气污染防治举措实施等情况。参学人员认真听、仔细看、用心学，现场就生产工艺、污染防治设施建设运行、企业厂区环境管理等内容进行了深入交流探讨。', '考察结束后，考察组成员召开座谈会，对此次考察学习的好经验、好做法进行梳理汇总，一致表示将充分学习借鉴先进企业在节能、降耗、减污、增效方面的工作经验，把学习考察成果变成绿色低碳发展的新思路，努力实现生态效益和经济效益双赢。', '此次考察学习对推动海港区企业健康发展具有重要的借鉴意义。下一步，分局将优化营商环境，坚持服务与管理相结合，以“严”的监管和“优”的服务帮助企业纾难解困，全力确保生态保护和经济发展双促进、双提升。', '此次考察学习对推动海港区企业健康发展具有重要的借鉴意义。下一步，分局将优化营商环境，坚持服务与管理相结合，以']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>省国资委学习考察团来山海关考察新时代文明实践中心建设工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C7B5265BF09705FF1D85900C5C705E43</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['\u200b5月10日，省国资委宣传处处长张瑞娥率领河钢集团、冀中能源集团、河北港口集团、河北建投集团、河北高速集团、河北交投集团、河北建工集团相关部门负责同志，莅临山海关对新时代文明实践中心建设工作展开考察。市委宣传部副部长姚飞，市文明办副主任闫战杰，山海关区委常委、宣传部部长郭大冬陪同。 考察团一行率先抵达山海关区人民检察院新时代文明实践站进行考察观摩。区人民检察院精心培育了“‘未’爱启航”和“山检‘益’行”两个特色志愿服务品牌项目，组建了未成年人保护、长城保护、司法救助、公益诉讼等9支志愿服务队，坚持走好新时代党的群众路线，用志愿服务行动、新时代文明实践拓展工作半径，诠释为民情怀，了解真需求，解决真难处，预防化解社会矛盾纠纷，努力把矛盾纠纷化解在基层、化解在萌芽状态。张瑞娥对区人民检察院所开展的新时代文明实践工作予以高度认可，她指出，我们国有企业需以此次考察观摩为契机，彼此借鉴、交流经验，要深入学习贯彻习近平总书记有关新时代文明实践、志愿服务的重要讲话及重要指示精神，凝聚力量，主动开展新时代文明实践活动，将新时代文明实践工作与党的建设以及企业生产经营中心工作相融合，积极主动地履行社会责任。 其后，考察团一行来到中铁山桥集团新时代文明实践点，对红桥党建馆、红桥文化广场和部分生产车间进行了观摩，了解了山桥的红色党史故事、山桥集团的发展历史以及超强的业绩成果。河钢集团等相关部门负责同志纷纷表示，心灵深受震撼，此次观摩让他们见证了山桥企业和山桥人的伟大，不仅开阔了视野，鼓舞了斗志，更激励着他们要立足本职岗位积极工作，牢记使命，砥砺前行。 最后，考察团一行来到山海关区新时代文明实践中心。中心内，山海关新时代文明实践频道云直播正开展得热火朝天，直播现场老艺人刘宝的《京韵大鼓唱新风》、双伟绿色蔬菜直播带货、“强基工程”——山海关区及时雨书法家志愿服务公益课堂等活动内容形式新颖独特、特色鲜明突出、群众参与度极高，获得了考察团一行的高度赞誉。 近年来，山海关区不断深化拓展文明实践建设的内涵。通过整合各类资源、调动各方力量，聚焦重点、靶向发力，探索新路径、创造新经验、塑造新品牌，推动新时代文明实践中心建设持续提质增效，凝聚起服务群众的各方力量，为群众提供“家门口”的便捷服务，成功打通服务群众的“最后一公里”。', '5月10日，省国资委宣传处处长张瑞娥率领河钢集团、冀中能源集团、河北港口集团、河北建投集团、河北高速集团、河北交投集团、河北建工集团相关部门负责同志，莅临山海关对新时代文明实践中心建设工作展开考察。市委宣传部副部长姚飞，市文明办副主任闫战杰，山海关区委常委、宣传部部长郭大冬陪同。', '考察团一行率先抵达山海关区人民检察院新时代文明实践站进行考察观摩。区人民检察院精心培育了', '“‘未’爱启航”和“山检‘益’行”两个特色志愿服务品牌项目，组建了未成年人保护、长城保护、司法救助、公益诉讼等9支志愿服务队，坚持走好新时代党的群众路线，用志愿服务行动、新时代文明实践拓展工作半径，诠释为民情怀，了解真需求，解决真难处，预防化解社会矛盾纠纷，努力把矛盾纠纷化解在基层、化解在萌芽状态。张瑞娥对区人民检察院所开展的新时代文明实践工作予以高度认可，她指出，我们国有企业需以此次考察观摩为契机，彼此借鉴、交流经验，要深入学习贯彻习近平总书记有关新时代文明实践、志愿服务的重要讲话及重要指示精神，凝聚力量，主动开展新时代文明实践活动，将新时代文明实践工作与党的建设以及企业生产经营中心工作相融合，积极主动地履行社会责任。', '其后，考察团一行来到中铁山桥集团新时代文明实践点，对红桥党建馆、红桥文化广场和部分生产车间进行了观摩，了解了山桥的红色党史故事、山桥集团的发展历史以及超强的业绩成果。河钢集团等相关部门负责同志纷纷表示，心灵深受震撼，此次观摩让他们见证了山桥企业和山桥人的伟大，不仅开阔了视野，鼓舞了斗志，更激励着他们要立足本职岗位积极工作，牢记使命，砥砺前行。', '最后，考察团一行来到山海关区新时代文明实践中心。中心内，山海关新时代文明实践频道云直播正开展得热火朝天，直播现场老艺人刘宝的《京韵大鼓唱新风》、双伟绿色蔬菜直播带货、', '“强基工程”——山海关区及时雨书法家志愿服务公益课堂等活动内容形式新颖独特、特色鲜明突出、群众参与度极高，获得了考察团一行的高度赞誉。', '近年来，山海关区不断深化拓展文明实践建设的内涵。通过整合各类资源、调动各方力量，聚焦重点、靶向发力，探索新路径、创造新经验、塑造新品牌，推动新时代文明实践中心建设持续提质增效，凝聚起服务群众的各方力量，为群众提供']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>抚宁区台营镇到青龙官场乡学习考察电商平台建设</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-03-04</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=ACB8CA53BFAB6864B5B0652D444DF141</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['区台营镇党政班子带领部分村党支部书记以及企业家代表到青龙官场乡学习考察农村电商平台建设及运营情况。', '考察团一行首先到官场乡电子商务服务中心实地观摩，观看了官场乡宣传片，详细了解官场乡电子商务服务中心发展历程及电商', '随后，台营镇与官场乡就电商产业发展进行了深入交流，在了解官场乡电商总体发展情况以及人才队伍建设、电商中心建设运营、产品渠道、仓储物流等方面具体情况后，双方就电商发展的相关细节进行了充分讨论。', '据了解，通过此次学习考察，台营镇对发展电子商务产业有了更加清晰的认识。下一步，台营镇将加强与官场乡深度合作，着力建设台营镇电子商务服务中心，整合优势资源，强化人才培养，把电子商务打造成台营镇特色产业，增加村集体经济收入渠道，打通农产品销售最后一公里，走出一条具有台营特色的乡村振兴之路。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>新疆维吾尔自治区党政代表团到我省考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5671294CD6EE0D6E6DCDFD5B94708376</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['12月9日，新疆维吾尔自治区党政代表团到河北雄安新区考察。新疆维吾尔自治区党委书记、新疆生产建设兵团党委第一书记、第一政委马兴瑞，自治区党委副书记、自治区人民政府主席艾尔肯·吐尼亚孜，自治区党委副书记、兵团政委李邑飞，自治区党委副书记、乌鲁木齐市委书记何忠友；河北省委书记、省人大常委会主任倪岳峰，省委副书记、省长王正谱参加活动。', '在雄安新区考察期间，新疆维吾尔自治区党政代表团来到雄安规划展示中心，详细了解雄安新区整体规划及建设情况；走进东西轴线雄安城际站调度指挥中心，认真听取项目建设进展介绍；来到容东片区城市建设现场，实地察看规划建设情况，感受雄安新区日新月异的城市风貌。', '马兴瑞代表自治区党委、政府和兵团，向河北省长期以来给予新疆的大力支持和无私援助表示感谢。他说，此次学习考察，是新疆贯彻落实习近平总书记视察新疆、听取自治区和兵团工作汇报时重要讲话精神，加快建设现代化区域中心城市，推动经济社会高质量发展的实际行动。建设雄安新区是千年大计、国家大事。河北省坚决贯彻落实习近平总书记、党中央决策部署，坚持从政治上认识、战略上把握、全局上建设，举全省之力推动高水平社会主义现代化城市建设不断展现新气象，为我们树立了标杆、提供了典范。当前新疆正处在高质量发展的重要战略机遇期。我们锚定在国家全局中的战略定位，完整准确全面贯彻新时代党的治疆方略，牢牢把握中国式现代化目标要求，聚力全面深化改革、扩大高水平开放，推动经济社会持续高质量发展。长期以来，新疆和河北依托对口援疆机制，推动交流往来日益密切，互利合作持续深化。希望双方进一步发挥优势，着眼服务国家战略全局，不断拓展各领域合作深度和广度，持续提升产业、创新、新型城镇化建设等方面合作质效，携手谱写协作发展、互利共赢新篇章。', '倪岳峰对自治区党委、政府和兵团一直以来给予河北特别是雄安新区的关心支持表示感谢。他说，设立雄安新区是以习近平同志为核心的党中央作出的一项重大历史性战略选择，是千年大计、国家大事。从谋划选址到规划建设，习近平总书记亲自决策、亲自部署、亲自推动，为高标准高质量建设雄安新区领航指路、把脉定向。全省上下深入贯彻习近平总书记视察河北重要讲话精神，牢牢把握党中央关于雄安新区的功能定位、使命任务和原则要求，扎实推动疏解北京非首都功能各项任务落实，大力推进创新发展和重点项目建设，各项工作取得积极成效。对口援疆是党中央作出的重大决策部署，是河北义不容辞的重大责任。河北将坚持全面援疆、精准援疆、长期援疆，切实把实施重大国家战略与做好对口援疆工作紧密结合起来，把加快河北发展与支持新疆建设紧密结合起来，持续用力开展民生援疆、产业援疆、人才援疆和文化润疆，不断深化经贸、文旅、生态等方面交流合作，共同推动两省区高质量发展迈上新台阶。', '·卡宾、孙红梅、薛斌、杨秀理、都红岩，自治区人民政府秘书长周旭勇；河北省领导张国华、严鹏程、张成中、金晖，省政府秘书长朱浩文参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>河北省党政代表团到新疆学习考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C8854317C50BD9529EA30EA0BE5EC363</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['9月10日至12日，省委书记、省人大常委会主任倪岳峰率河北省党政代表团到新疆学习考察，深入贯彻习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时的重要讲话精神，完整准确全面贯彻新时代党的治疆方略，扎实推动对口援疆和冀新合作迈上新台阶。新疆维吾尔自治区党委书记、新疆生产建设兵团党委第一书记、第一政委马兴瑞，自治区党委副书记、自治区主席艾尔肯·吐尼亚孜，自治区人大常委会主任祖木热提·吾布力，自治区党委副书记、兵团政委李邑飞等参加有关活动。', '在新疆期间，河北省党政代表团先后到尉犁县达西村爱国主义教育基地、尉犁县古勒巴格村、尉犁县食用菌示范园、库尔勒市第二十三中学、新疆邢美矿业有限公司、库尔勒上库高新技术产业开发区石油石化园、铁门关职业技术学院、铁门关市人民医院、库尔勒市孔雀河生态公园等，详细了解新疆经济社会发展和我省对口援疆情况，深入谋划下一阶段冀新合作重点工作。', '9月11日上午，河北省·新疆维吾尔自治区及新疆生产建设兵团对口支援工作座谈会在库尔勒召开。马兴瑞说，习近平总书记时隔一年再次亲临新疆并发表重要讲话，为我们完整准确全面贯彻新时代党的治疆方略、更好建设美丽新疆提供了科学指南，也为深化对口援疆工作注入了新的强大动力。河北始终把对口援疆摆在重要位置，坚持“输血”“造血”并行、财力智力并重、硬件软件并进，为新疆改革发展稳定作出了重要贡献，我代表自治区党委、政府、兵团和全区各族干部群众表示衷心感谢。当前，冀新两地正聚焦总书记赋予的战略定位，牢记嘱托、感恩奋进，燕赵大地经济强省、美丽河北建设不断迈出坚实步伐，天山南北高质量发展势头强劲、美丽新疆建设扎实推进，两地深化交流合作面临新机遇。希望双方以深化对口援疆为抓手，携手服务国家战略，深化京津冀协同发展、雄安新区高标准高质量建设和丝绸之路经济带核心区建设交流对接。携手推进产业发展，推动能源资源、产业技术等优势深度结合，在拓平台、育产业、建园区、落项目上取得新成效。携手巩固民族团结，深入开展文化润疆精品工程，把中华民族共同体意识根植各族群众心灵深处。新疆将扛牢主体责任，积极完善合作机制，推进重点项目落地，推动冀新合作发展开创新局面。', '倪岳峰说，新疆工作在党和国家工作全局中具有特殊重要的地位，事关强国建设、民族复兴大局。在以习近平同志为核心的党中央坚强领导下，自治区党委、政府、兵团和全区各族干部群众牢牢扭住新疆工作总目标，扎实推进事关长治久安的根本性、基础性、长远性工作，经济社会发展和民生改善取得显著成效，创造的经验做法值得河北认真学习借鉴。河北各地各部门要深入学习贯彻习近平总书记重要指示精神和党中央决策部署，把对口援疆作为坚定拥护', '“两个确立”、坚决做到“两个维护”的实际行动，持续强化政治自觉、思想自觉、行动自觉，紧密对接巴州、兵团第二师实际需求，深入实施民生援疆、产业援疆、人才援疆和文化润疆，扎实推动对口援疆工作迈上新台阶。要抓住用好京津冀协同发展、雄安新区建设发展、“一带一路”核心区建设等重大机遇，进一步完善两地合作机制，不断深化经贸合作、文旅合作、生态合作，携手推动高质量发展，共同为全面建设社会主义现代化国家作出积极贡献。', '座谈会上，两省区和兵团领导分别介绍了经济社会发展和对口支援工作情况。会后举行了签约和援助资金交接仪式。', '9月12日，倪岳峰与我省援疆干部人才代表进行座谈交流，认真听取大家发言，希望大家持之以恒强化政治担当，锲而不舍抓好自身建设，把对口援疆各项工作做深做细做实。各级各有关部门要及时了解援疆干部人才的实际需求，做好服务保障工作，切实解决大家的后顾之忧，不断提升对口援疆工作质量和水平。', '·卡宾、木合亚提·加尔木哈买提、杨勇、张文胜，省领导张超超、柯俊、武卫东、严鹏程、张成中、吴晓华、康彦民参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>秦皇岛市档案馆关于巡察整改进展情况的通报</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=A9B66283F7429AEEE7CECF7FFCA48BBE</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['2023年2月3日至3月31日，市委第四巡察组对市档案馆进行了巡察。5月11日反馈了巡察意见。按照巡察工作有关要求，现将巡察整改进展情况予以公布。', '（一）统一思想，提高政治站位。巡察意见反馈后，市档案馆立即召开馆务会，研究部署整改落实工作，确保把思想和行动统一到市委巡察整改工作的部署要求上来。', '2023年6月12日，组织召开了巡察整改专题民主生活会，逐项对照检查，深入查找问题根源，始终做到态度端正、思想统一、政治坚定。', '（二）明确责任，及时安排部署。为确保巡察整改取得实效，市档案馆成立了巡察整改工作领导小组，研究制定了《关于市委第四巡察组反馈意见的整改落实工作方案》，按照', '“台账式管理”和“销号制落实”工作原则，对巡察反馈问题进行逐项梳理，建立问题清单、责任清单、措施清单、效果清单，明确责任人、整改措施和完成时限，确保巡察整改工作各个环节的落实。', '（三）高度重视，第一责任人认真履责。主要负责人高度重视巡察整改工作，把巡察整改作为一项重要的政治责任，主动扛起第一责任人责任，带头盯办重点难点问题，带头落实整改。先后', '7次组织召开会议调度巡察整改工作，听取情况汇报，研究解决问题，督导措施落地，确保件件有落实，事事有回音。同时在严肃认真落实整改的基础上，举一反三，深刻反思，坚持标本兼治，注重长效机制的建立，切实把落实巡察整改要求作为改进作风、推动工作的具体行动。', '24个具体问题，细化66项整改措施。对照问题，一个一个整改，对照措施，一项一项落实，做到立行立改，举一反三，建章立制，确保效果。截至目前24个问题已全部整改完成。', '“贯彻落实中央重大决策部署和省委、市委工作要求不够到位，推动新时代档案事业创新发展有差距”方面', '1.关于“学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神不够系统深入，在学懂弄通做实上还有差距”问题。', '6月15日馆理论学习中心组集中学习了《习近平新时代中国特色社会主义思想专题摘编》中第十八部分25篇重要论述，深刻认识抓好理论学习的重大意义，研究加强和改进理论武装的方式方法。', '二是馆领导班子带头原原本本学习党的二十大报告、党章和习近平总书记关于档案工作重要指示批示，在不断学习中加深理解。结合档案工作实际，把职责摆进去、把工作摆进去，示范引导党员干部结合档案工作学习、宣讲党的二十大精神，形成浓厚氛围。', ',严格学习考勤，明确学习笔记记录要求。建立个人自查、直接领导把关和党总支检查督导的党员干部学习体会质量检查机制，确保学习效果。', '“第一议题”制度落实到位。今年以来馆务会全部落实第一议题学习制度，及时跟进学习习近平总书记重要讲话、重要文章和重要批示精神，在学深悟透、融会贯通上下功夫。', '“分工不分家，档案事业‘一盘棋’意识”，建立了局、馆工作联席会制度，今年上半年，局馆召开3次联席会议，对贯彻落实“十四五”档案事业发展规划实施情况评估工作的具体举措、档案业务指导、档案数据异地备份等重点工作共同研究，共同推进。', '二是坚持党管档案原则，构建局馆齐抓共管档案工作新格局。档案馆全力支持配合市档案局，重点工作随时沟通汇报，充分发挥各自优势，合力推进档案业务深度融合、协同发展。局馆联合开展了《传承红色家风', '——中国共产党人的家风档案展》“6·9国际档案日”系列宣传活动、档案业务督导检查、学习考察等工作。', '一是立足拨付资金不足，只能购置少量设备的实际，在制订业务规范、征集口述历史资料的基础上，制订了年度口述历史档案采集计划，设立口述档案全宗，建立红色口述档案专题。', '6月13日、6月15日分别在秦皇岛晚报、秦皇岛新闻网发布口述对象征集公告，面向社会寻访我市各个历史时期有一定影响力的重要事件、重点工作、重大变迁的亲历者，扩大征集线索渠道。', '五是成立了市档案局（馆）《档案志》工作专班，明确分工，全力推动《档案志》续编工作。', '一是已联合市档案局开通微信公众号，制定了《微信公众号信息发布管理制度》，市档案馆负责本馆和县区档案馆工作信息的收集、整理、审核工作，为社会各界提供更方便快捷的档案服务。', '二是对开放档案目录进行审核，已梳理出市政府、市人力资源社会保障局、市农业农村局等全宗的', '1403条开放档案目录，于5月26日在秦皇岛市人民政府网站发布，之后将定期向社会公布开放档案目录。', '一是严格落实《关于进一步加强档案安全工作的意见》，对档案馆库、档案实体、档案信息等进行全面排查，从严梳理确定档案管理安全风险点，能立行立改的已立行立改，需要专项资金投入整改的已向相关部门申请资金予以解决。', '二是修订、完善《秦皇岛市档案馆突发应急预案》《秦皇岛市档案馆日常突发事件应急预案》，', '2个应急预案覆盖了火灾、地震、水灾等较大突发事件及大楼停电、电梯困人等日常突发事件。此外，组织突发事件逃生演练，提高应急处置能力。', '一是馆主要负责人对重要工作亲自部署、重大问题亲自过问、重点环节亲自协调、重大任务亲自推动，切实履行全面从严治党', '“第一责任人”职责，发挥好示范表率作用。6月27日主持召开馆务（扩大）会，听取班子成员及科室负责人履行“一岗双责”汇报，加大压力传导力度，形成层层推进、齐抓共管的工作机制。', '二是认真学习《关于新形势下党内政治生活的若干准则》，提高对党课教育重要意义的认识。结合档案馆工作和党员干部思想实际，研究确定党课主题，提升党课教育效果，并为党员干部讲专题党课。', '学习会，集中学习《市档案馆落实全面从严治党主体责任“四个清单”》，将全面从严治党与分管工作同布置、同落实、同检查、同考核。', '二是加强日常教育和督促检查。通过谈心谈话、重点检查、听取汇报等方式，了解每名党员干部廉洁从政、工作作风、履职尽责情况及思想状况，真正把教育监督管理落在日常与经常。上半年班子成员开展谈心谈话', '“四风”和作风纪律整治自查自纠，对标党的二十大精神及省市委工作部署，逐条对照纠治重点，查摆问题，制定整改措施。', '二是健全完善馆长接待日制度，明确接待主体、时间与内容，并在秦皇岛市人民政府网站发布，扩大群众对档案工作知晓率。', '一是专门下发《关于推进落实巡察反馈问题整改工作的提示》，对巡察整改工作提出五点明确要求。', '“三重一大”事项监督实施细则（试行）》，通过参加或列席馆务会等形式审核把关“三重一大”事项，对“三重一大”事项提出意见建议，督促“一把手”和领导班子落实全面从严治党主体责任。', '三是制定印发《关于强化干部岗位廉洁风险防控工作的监督措施》，监督干部依法履职，秉公用权。', '四是制发《明纪提示》，通报中纪委网站曝光典型案例，组织党员干部收看警示教育片，持续跟进监督市档案馆严格落实整改政治任务，强化责任落实和自查自纠，推进问题按要求整改到位。', '针对日常监督中谈心谈话较少的问题，纪检组及时召开组务会，研究问题产生的原因及改进措施。深入档案馆跟进监督主体责任落实情况，跟进监督干部岗位风险点防控工作。梳理', '2019年以来提拔调整干部情况，分3批23人次开展集体谈话，确保各项问题整改到位。同时，参加市档案馆巡察整改专题民主生活会，督促梳理巡视巡察及审计工作中发现的问题、原因及整改情况，举一反三落实巡察整改主体责任。', '二是召开专题馆务会，认真学习贯彻习近平总书记关于民主集中制的重要论述，把握内涵要旨和实践要求。', '“三重一大”事项决策制度实施办法》，修订、完善《秦皇岛市档案馆馆务会议事规则》《秦皇岛市馆长办公会议事规则》。', '四是严格决策程序，对提交会议研究事项，班子成员在会前进行充分沟通，酝酿成熟后上会研究，研究事项均能及时形成决议。', '“第一议题”、理论学习中心组、个人自学等方式，再次学习《关于新形势下党内政治生活的若干准则》《县以上党和国家机关党员领导干部民主生活会若干规定》等党内法规，深化班子成员对民主生活会重要意义的认识。', '二是巡察整改专题民主生活会召开前，认真抓好征求意见环节，通过谈心谈话、发放征求意见函等方式广泛征求意见建议，找准问题，为开好民主生活会提供参考和依据。征求到意见建议', '三是民主生活会上县级党员干部自我批评时勇于刀刃向内、揭短亮丑，开展批评时辣味十足、直言不讳，通过', '3位同志缺少的任职和转正材料已按要求进行了补制。同时进一步加强学习，提高认识，严格执行回避制度。', '三是对照干部选拔任用相关要求，集中开展干部选拔任用纪实档案整理工作，制定纪实档案工作模板，将研究干部的会议记录纪要、干部档案、干部选拔任用文书档案等材料作为重点，进行梳理检查，真正做到材料完备、内容规范、有据可查。', '一是馆务会专题学习《党政领导干部选拔任用工作条例》和相关政策法规，理解和掌握《条例》的实质、精神、原则和要求，切实做到严格按原则办事、按制度办事、按程序办事，全面履行选人用人的主体责任。', '二是制定市档案馆干部选拔任用流程，规范干部选拔任用和职务职级晋升会议推荐、谈话调研推荐和政治素质测评等各环节工作程序，有效防止不履行程序、简化程序或变通程序等现象发生。', '三是认真查找人事档案日常管理工作中的不足和弱项，强化业务知识培训。成立人事档案专项核查组，以干部的', '2023年度党建工作目标及任务分工》，厘清领导班子、班子成员、党总支党建工作责任，推动班子严格履行管党治党主体责任。', '“百姓兰台”党建品牌创建工作，把解决业务工作中的难点、堵点问题和提升档案服务水平作为品牌创建的重要内容。建立“党建+业务”学习机制，让“档案工作姓党”深入人心。', '“三会一课”，结合结对共建，通过组织研学活动、志愿服务、联谊联建等多种方式，让组织生活“活”起来。', '“中国共产党发展党员工作细则”专题学习，加强党务干部业务培训，提升工作水平；建立党员发展对象党支部、党总支审查机制，严格党员发展程序，严把发展党员“入口关”。', '“十四五”档案事业发展规划实施情况评估、口述史料采集、档案接收和利用等工作。通过走出去、请进来等方式，同承德、大同市档案馆交流工作经验，解放思想，开阔视野。', '二是全面理顺管理体制和日常运转机制，进一步营造创先争优良好氛围。深学细研档案机构改革精神，落实好局馆工作联席会议制度，合力谋划工作、合力落实工作、合力破解难题，推动全市档案事业良性有序发展。持续开展深化纠正', '三是制定了《秦皇岛市档案馆指南》编写工作计划与工作方案，明确完成时限，积极推进资料收集和后续工作开展。', '一是进一步梳理利用环节，如无特殊情况，实行预约查档，实现立等可取、即办即结，简化民生档案中利用率较高的', '“干部人事调转”档案查阅手续，将主管领导审批权限下放到服务利用窗口，提高工作效率。', '“档案管理服务提升年”活动。开设民生档案查阅利用专门窗口，实行接待利用“一窗受理、首问负责”机制。', '三是加强民生档案查询利用的宣传力度，让更多群众了解跨馆服务异地查档和跨区域联动查档机制，通过', '“跨馆服务、异地出证”方式实现“让数据多跑腿、让群众少跑路”，真正让档案利用服务惠民生暖民心。目前已经与省内外175个市、县（区）档案馆签署了民生档案跨馆利用协议。', '目前，整改工作成效还是阶段性的，下一步馆领导班子将深入贯彻落实市委关于巡察整改的各项工作要求，按照思想不放松、标准不降低、力度不减弱的标准，不断巩固和扩大整改成效，把整改工作不断推向深入。', '（一）深刻把握巡察整改工作的重大意义。坚持把落实全面从严治党要求作为重大政治任务，通过', '“以巡促改、以巡促建、以巡促治”,进一步加强党的领导，切实履行馆领导班子管党治党的主体责任和班子成员的“一岗双责”，推进全面从严治党走向严紧硬。通过巡察反馈问题的整改加强全体党员干部的政治建设、组织建设和作风建设，进一步强化基层党组织的战斗堡垒作用和党员的先锋模范作用，巩固维护好风清气正、干事创业的良好政治生态。', '“后半篇文章”做细做实。坚持把巡察整改作为一项严肃的政治任务，做细做实巡察整改“后半篇”文章。进一步求深化，充分运用整改成果，落实好相关制度，防止问题反弹，确保整改到位，以整改的实际成效推动全面从严治党向纵深发展。', '（三）以巡察整改推动长效机制的建立健全。把深化巡察整改与深化作风建设有机结合，不断健全和完善长效机制，进一步严明党的纪律，加强日常提醒警示和督促检查。坚决纠正有制度不执行或者执行不到位问题，确保各项制度真正发挥刚性约束作用，努力打造政治坚定、勤政务实、敢于担当、纪律严明、清正廉洁的档案干部队伍，为奋力谱写中国式现代化建设河北篇章贡献档案力量。', '欢迎广大干部群众对巡察整改落实情况进行监督。如有意见建议，请及时向我们反映。征求意见时间为']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>山海关区外出考察取真经对标对表谋提升</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-05-04</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=59BAF97F6D5723337D3A118DAE346BD8</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['4月22日至28日，山海关区关城明志学堂——学习贯彻党的二十大精神系列外出学习圆满结束，30余名领导干部来到践行新发展理念的公园城市示范区——成都，学习中国特色现代化城市发展道路的全新探索。', '考察团以学习贯彻党的二十大精神为主线，坚持把汲取先进地区经验方法作为根本任务，认真听取了专家学者关于公园城市建设实践经验、文创产品的意义密码、文旅融合等专题讲座，并前往战旗村、天府新区规划厅、国家超算成都中心等示范点进行实地调研，真正将此行打造成开拓工作思路、提振发展信心的学习之旅。', '在离川返程前，考察团还组织大家分享了考察学习心得，考察团成员作了互相交流。大家纷纷表示，成都五天的行程高效紧凑，一路考察、一路对比、一路思考，开阔了眼界、解放了思想、更新了观念。下一步，将认真消化吸收学习考察成果，切实把学习考察成果转化为谋划工作的新思路、推动发展的新举措，在文旅融合、城市建设、科技创新等工作上迈出更大步伐，以优异成绩为建设国际一流旅游城市先行区做出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>李增光带队到张家口市学习考察乡村振兴工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=8D7AC6B992F3BBBE9A0E35198D18BAA7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['副区长李增光带队到张家口市张北县德胜村、桥东区果子沟村、经开区刘家坑村及赤城县小西沟村、新雪国项目学习考察乡村振兴工作，围绕乡村规划编制、集体土地要素保障、特色产业植入、乡村风貌改善提升等重点内容进行深入调研，为我区纵深推进乡村振兴战略实施开拓了视野和思路。农业农村局、戴河镇、海滨镇、牛头崖镇主要负责同志参加。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>王曦率队赴石家庄学习考察马宇骏陪同张淑云参加</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=80F600279FF3DBBC35E11B1196BC8093</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['本报讯（记者储学敏）如何把习近平总书记视察河北重要讲话和重要指示精神，以及省委十届四次全会部署要求迅速转化为推动工作的创新思路和务实举措，5月24日下午，市委书记王曦率队学习考察石家庄市生物医药产业发展情况，就加强双方产业协作进行深入交流。石家庄市委副书记、市长马宇骏陪同考察。市委副书记张淑云参加学习考察。', '近年来，石家庄市立足产业基础和资源禀赋，坚持把生物医药产业作为贯彻新发展理念、构建新发展格局的重要支撑，加强政策引领，突出创新驱动，强化项目支撑，优化营商环境，不断培育和提升核心竞争力，推动生物医药产业步入高质量发展的良性轨道，加速向千亿级产业集群迈进。王曦一行先后考察了石药集团巨石生物制药有限公司、河北药明生物技术有限公司、华普CpG疫苗佐剂项目现场、石家庄市国际生物医药园规划展馆，认真学习了解产业培育、营商环境等方面经验做法，感受到了石家庄市的巨大发展变化、良好的发展环境，感受到了石家庄市干部群众抢抓机遇、加快发展的决心，进一步开拓了视野、坚定了信心、鼓足了干劲。', '王曦代表市委、市政府感谢石家庄市长期以来对秦皇岛市发展的支持帮助，对石家庄市生物医药产业发展取得的成绩表示祝贺。他表示，秦皇岛市深入学习贯彻习近平总书记视察河北重要讲话和重要指示精神，全面落实省委十届四次全会要求，学习石家庄市推进生物医药产业集群快速发展壮大的鲜活经验，与石家庄市生物医药产业错位发展、合作共赢。在返程的车上，王曦主持召开了学习考察交流总结会，要求相关县区和部门切实增强对标先进“坐不住”、创新突破“等不起”、赶超跨越“慢不得”的危机感和紧迫感，用足用好支持政策，紧扣产业链需求，加快招引一批头部企业和医疗机构，全力推动生命健康产业发展迅速取得明显成效。', '马宇骏对秦皇岛市考察团表示欢迎。他表示，当前全市上下正在深入贯彻落实习近平总书记在河北、在石家庄考察时的重要讲话和重要指示精神，认真落实省委、省政府一系列决策部署，振奋精神、凝聚干劲，推动生物医药、新一代电子信息产业率先突破。此次考察交流为双方互相学习提供了良好契机，希望两地深化交流合作，发挥各自比较优势，共同研究促进经济社会高质量发展的思路举措，在推动省委十届四次全会部署落实见效上作表率，在推进京津冀协同发展中彰显新担当。', '市委常委、秘书长陈玉国，市卫健委、市市场监督管理局、市外事商务局、市发改委、昌黎县、北戴河区、北戴河新区管委主要负责同志参加学习考察。石家庄市政府秘书长宋国宏以及高新区有关部门负责同志陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>河北省党政代表团到北京市学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=E1ACA275FC7D5D319EF592D0D7424C74</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['2月20日，我省党政代表团到北京市学习考察，深入贯彻党的二十大精神，全面落实习近平总书记关于京津冀协同发展重要指示，学习借鉴北京经验，深化京冀务实合作，共同推进重大国家战略实施取得新成效。', '北京市委书记尹力，市委副书记、市长殷勇，市人大常委会主任李秀领，与省委书记、省人大常委会主任倪岳峰，省委副书记、省长王正谱等参加活动。', '在北京市学习考察期间，我省党政代表团来到北京证券交易所，认真听取北交所建设运行和支持河北企业上市情况介绍。在中关村国家自主创新示范区展示中心，代表团观看创新成果展，了解示范区创新发展历程、创新创业生态、前沿技术成果和新技术新产品应用等。在小米集团，代表团走进产品展厅和技术实验室，实地察看最新产品和科技成果。在北京城市副中心，代表团详细听取规划建设情况介绍，与北京市有关负责同志深入交流。', '在两省市工作交流座谈会上，尹力、倪岳峰讲话。殷勇、王正谱分别介绍两省市经济社会发展和推进协同发展有关情况。', '尹力感谢河北省长期以来对北京市的大力支持。他说，今年是全面贯彻落实党的二十大精神的开局之年，京津冀协同发展已进入全面深化实施的新阶段。北京与河北地域一体、文化一脉、人缘相亲，新征程上要共同深入贯彻习近平总书记关于京津冀协同发展的重要讲话和指示批示精神，把握协同发展历史主动，增强责任感使命感紧迫感，坚持优势互补、互利共赢，深化区域合作，使协同发展的成果更多更好地惠及京冀两地人民群众，携手推动中国式现代化在区域协同发展中形成更多生动实践。支持雄安新区建设，统筹全市优质资源，加强常态化对接，支持部分在京高校、医疗机构、科研机构、企事业单位等向雄安新区转移，以首善标准落实好战略合作协议，继续深化教育、医疗、职业培训等领域合作，支持北京市属国企参与雄安新区规划建设、城市管理、生态治理，引导更多北京科技创新资源在雄安新区布局发展。高水平规划建设好北京通州区与河北廊坊北三县一体化高质量发展示范区和北京大兴国际机场临空经济区，打造省际交界地区一体化发展典范。加快建设定位清晰、协调联动的现代化首都都市圈，带动交通、生态、产业、公共服务等重点领域协同发展取得新突破。', '倪岳峰感谢北京市多年来给予河北的支持帮助。他说，在以习近平同志为核心的党中央坚强领导下，北京市坚决履行政治责任，大力支持河北规划建设雄安新区、打赢脱贫攻坚战、加快产业转型升级，河北人民始终铭记在心。河北省坚决服从服务大局，积极承接北京产业、企业、人口转移，全力打造首都', '“两区”，圆满完成北京冬奥会筹办举办任务，努力在对接京津、服务京津中加快发展自己。京津冀协同发展充分彰显了“两个确立”的决定性意义，激励全省上下矢志不渝沿着习近平总书记指引的方向奋勇前进。河北将紧紧扭住疏解北京非首都功能这个“牛鼻子”，加快建设一体化交通网络，强化生态环境联建联防联治，深化产业对接和创新协作，推动京冀重点领域合作取得新突破。要聚焦建设以首都为核心的世界级城市群，积极服务北京城市副中心建设，高标准高质量建设雄安新区，大力推动张北地区发展，合力打造北京新的“两翼”和河北“两翼”。要携手推进中国式现代化展现美好图景，在建设新型能源体系、发展现代商贸物流产业、壮大数字经济、推动养老事业和养老产业协同发展等方面加强合作，为全面建设社会主义现代化国家开好局起好步贡献力量。', '北京市领导夏林茂、赵磊、于英杰、刘宇辉、崔述强，市政府党组成员穆鹏；省领导张超超、张国华、葛海蛟、武卫东、董仚生、吴晓华、胡启生、董兆伟、冉万祥、康彦民，省政府秘书长朱浩文参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>青龙县委副书记王晓光率团学电商</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=88557F1DA8523B6F959D381CA38D9B32</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区发展经验，深入推进“三级书记”抓电商工作落实，3月21日至24日，县委副书记王晓光带领各乡镇负责人、部分村党支部书记到河北肃宁县和山东曹县，就电商产业发展进行学习考察。', '日，考察团一行来到学习考察的第一站——河北肃宁。肃宁县位于河北省中部，该县依托发达的轻工产业和良好的产品供应基础，大力发展电商业，目前全县注册商户3万余家，直接从业人员3万多人，带动就业8万人，年销售额达150亿元，年发单量1.1亿单，连续4年增幅超50%。2020年，第八届中国淘宝村高峰论坛在肃宁举办，肃宁县成为全国首个实现全域淘宝镇的县。', '在肃宁，考察团一行先后实地考察了超级碗创业孵化基地、尚村镇东是堤村、乐海乐器有限公司、万里镇针纺园区、留善寺镇青鲟至鳟电商直播基地、东风养殖有限公司等地。每到一处，考察团都认真聆听、仔细询问，详细了解电商业发展过程中需要破解的瓶颈和制约因素，学习先进的电商运行机制，考察团对肃宁电商平台、直播基地建设，电商企业孵化及人才引进培育等工作给予高度赞赏。', '“电商产业怎么发展才能少走弯路”“怎样才能建设高效顺畅的物流体系，全力打造电商物流强县”……带着问题和思考，23日，考察团一行又来到山东省曹县考察学习。', '曹县位于山东省西南部，该县依托汉服制作、木制品加工、特色农产品等产业，培育电商企业5000余家、网点6万余个，带动35万余人创业就业，年销售额156亿元，年发单量2亿单，位居山东省县域第一，拥有淘宝镇17个、淘宝村实现全覆盖。', '在山东曹县，考察团一行先后来到电子商务公共服务中心、电商公共物流中心、原创汉服产业中心、大集淘宝产业园、大集镇孙庄村、安蔡楼汉服直播基地、山东睿帆工艺品有限公司、黄河故道国家湿地公园等地，通过观看宣传片、听取汇报、现场交流等方式，详细了解曹县电商产业的发展模式、发展理念、品牌建设、组织架构、业务形态等情况。', '考察过程中，大家认真学习、用心思考，普遍表示收获很大。考察团成员纷纷表示，肃宁、曹县的电商产业发展思路清晰、规划科学、目标明确、特色鲜明。通过考察学习，开阔了眼界，看到了差距，明确了努力方向，增强了加快电商发展的责任感和紧迫感，也看到了青龙电商产业发展的未来。', '王晓光对肃宁、曹县电商产业发展的经验做法给予高度赞赏。他强调，此次学习考察是加快落实县委“三级书记”抓电商、“三级书记”抓乡村振兴发展思路的具体举措，大家要以考察学习为契机，充分吸收借鉴先进地区的好理念、好经验、好做法，结合青龙实际，进一步统一思想，拓宽视野，创新工作思路和举措，切实抓好品牌打造、平台建设、数字赋能、招商选商和人才培育等工作，为全面推进乡村振兴，全力打造电商物流强县和北方区域性电商物流配送中心、现代商贸物流基地作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>市直机关妇联春风行动凝聚她力量</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=182D9852073ACB8FFC70EC1A313A1E43</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['本报讯（记者何春蕾 通讯员王颖）“‘春风行动’摸着广大妇女群众的心思做好事、办实事、解难题，站位高、针对性强，必将极大调动妇女姐妹们巾帼建功的积极性……”市住建局妇委会主任王曼薇说。2月26日，以织密妇联组织网络、建设好女职工服务阵地、促进女职工心理健康等十大工程为主要内容的市直机关“关心关爱妇女群众春风行动”正式启动。', '“在市委市直机关工委、市妇联的正确领导和大力支持下，市直机关妇联在深入调查研究的基础上，聚焦市直机关广大妇女群众的所思所盼，启动了这场‘春风行动’，激发广大妇女听党话、感党恩、跟党走的政治热情，以崭新的精神面貌为打造中国式现代化秦皇岛场景贡献巾帼力量。”市委市直机关工委群团工作负责人金松林说，市直各机关各单位将严格按照实施方案有序推进，确保好事办好、实事做实。', '搭建管理平台，大力提升女职工综合素质。他们推动组织触角向最基层延伸，加快机关“会改联”步伐，10月底前市直机关全部建立基层妇女联合会，实现妇联组织全覆盖；深入开展女职工素质大提升行动，积极组织开展各种宣讲辅导、业务培训，以及女职工学习和劳动竞赛，组织妇女干部外出学习考察，进一步开阔视野。', '丰富服务载体，全面关爱女职工身心健康。他们为困难女职工、女职工先进典型等进行“两癌”筛查，并推动将“两癌”筛查纳入各单位职工体检项目中；依托市直机关首家职工心灵驿站，举办市直机关女职工心理健康讲座，解决女职工压力大、困难困惑纾解渠道不畅等心理问题；同时，按照妇女之家“六有标准”，在市科协、市民中心等地建设一批高标准女职工活动之家。', '创新激励机制，倾情助力女职工巾帼建功。他们引领风气之先，精心选树和大力宣传三八红旗手、巾帼建功标兵、百佳妇联执委等先进典型；举办市直机关“巾帼建功新征程”故事会、“对党的二十大报告印象最深刻的一句话”征文活动，开展好市妇联、市直工委、市总工会、团市委四部门联合部署的“巾帼风采「话」港城”活动；此外，推进全市保安员等行业的妇联组织建设，维护好新业态女职工的合法权益。三八妇女节前夕，与市总工会、保险公司共同出资为困难和优秀女保安员送“健康保险大礼包”。', '汇聚各方合力，让凡人善举惠及更多群众。涓涓细流汇聚成河，你我善举显大爱。他们持续开展公益募捐救助困难妇女儿童活动，倡导市直机关广大干部职工走在前、做表率；积极开展春蕾行动助力乡村振兴，在青龙满族自治县官场乡小学、龙王庙镇小学等地，为贫困山区儿童特别是困境儿童和农村留守儿童开展捐资助学活动。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>卢龙县委理论学习中心组召开学习会议</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=1DFE75661611BB5A2CE94F15DAE8D175</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['月23日，县委理论学习中心组召开专题学习会议，深入学习贯彻党的二十大精神。本次学习创新方式，将课堂搬到国家级“小巨人”企业秦皇岛星箭特种玻璃有限公司，旨在更好用习近平新时代中国特色社会主义思想武装头脑，培养爱国主义情怀，凝聚前进动力。', '县委书记张志明带领县委理论学习中心组成员，采取现场观摩和专题学习相结合方式，先后参观了星箭公司的展览大厅、生产车间、党建活动中心。', '秦皇岛星箭特种玻璃有限公司是一家专业从事军民两用特种光学材料及零部件研发和生产的高新技术民营企业，主打航天用特种抗辐照玻璃系列产品，先后荣获国家专精特新“小巨人”企业、国家科技型中小企业等荣誉。近年来，星箭公司发扬敢为人先、开拓创新、勇于攻坚、无私奉献的航天精神，已经成为军工企业和航天工程的优秀供应商，其产品被应用到“神舟五号”至“神舟十号”系列飞船、“天宫一号”和“天宫二号”目标飞行器、“嫦娥一号”至“嫦娥三号”探月卫星及“玉兔”月球车和上百颗卫星。', '参观过程中，理论学习中心组成员详细了解星箭玻璃生产经营、技术创新、产品研发、项目建设等情况，对企业坚持党建引领、强化科技创新的做法进行深入交流。', '报告会上，星箭特种玻璃有限公司董事长卢勇作了宣讲报告，生动讲述了企业发展的历程以及创业过程中的艰辛。', '张志明感谢星箭公司为本次学习考察提供的大力支持，以及关于优化营商环境的意见建议。他指出，与会领导干部要学习发扬“星箭”精神，坚守初心使命，勇于担当作为。要坚定理想信念，扛起政治责任，忠诚拥护“两个确立”，坚决做到“两个维护”。要厚植爱国情怀，不断加强党性修养，永葆对党忠诚的政治本色。要坚定不移改革创新，坚持科技是第一生产力、人才是第一资源、创新是第一动力，不断塑造发展新动能新优势。', '张志明要求，领导干部要亲力亲为，坚持带着使命、带着感情、带着问题，深入基层一线调查研究，有针对性地解决困难和问题，把工作做到实处、做到群众的心坎上。要强化主动服务意识，不断加大以商招商力度，积极营造尊商、敬商、安商的浓厚氛围，拓展“我来办”服务内容，打造“如意办”营商环境品牌。要强化党建引领作用，解放思想、奋发进取，埋头苦干、勇毅前行，以奔跑的姿态狠抓各项工作落实，助力我县经济高质量发展。', '张志明还欢迎星箭公司董事长卢勇到卢龙调研考察，深化友好交往，拓展务实合作，实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>倪岳峰会见坦桑尼亚革命党全国执委研修班一行</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6E688CB5F538B66C33D01E51C038A004</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['（记者四建磊）4月22日至25日，坦桑尼亚革命党总书记丹尼尔·琼格罗率领坦桑尼亚革命党全国执委研修班一行，到我省就产业发展和乡村振兴等进行学习考察。4月23日，省委书记、省人大常委会主任倪岳峰在石家庄会见了研修班一行。', '倪岳峰代表中共河北省委、河北省人民政府，向坦桑尼亚革命党全国执委研修班一行表示热烈欢迎。在简要介绍了河北省情后，倪岳峰说，习近平总书记对河北充满深情、寄予厚望。上个世纪80年代，习近平总书记在正定工作期间，和正定人民“一块苦、一块过、一块干”，给我们留下了宝贵的思想财富、精神财富和实践成果。2012年12月，习近平总书记冒严寒、踏冰雪来到我省阜平县考察，同乡亲们共商脱贫致富之策，向全党全国发出了脱贫攻坚动员令。中共十八大以来，习近平总书记9次视察河北，作出一系列重要指示，特别是亲自谋划推动了京津冀协同发展、雄安新区规划建设、北京冬奥会筹办举办等重大国家战略和国家大事，为河北发展带来了千载难逢的历史机遇。当前，全省上下认真贯彻习近平总书记对河北工作的一系列重要指示精神和党中央决策部署，深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，积极谋划推动中国式现代化的河北场景，燕赵大地成为国内外广泛关注的投资热土。地方合作是中坦合作的重要基础。河北省坚决贯彻落实两国领导人达成的重要共识，大力推动与坦桑尼亚各地的经贸和产业合作。同时，希望加强党际交往，带动民间友好交往，深化教育、文化、旅游等领域交流，推动两国地方合作迈上新台阶。', '丹尼尔·琼格罗对中共河北省委、河北省人民政府的热情接待表示感谢。他说，中国共产党领导中国人民取得了举世瞩目的发展成就，走出了一条符合自身国情的发展道路，为坦桑尼亚树立了榜样。在中国共产党的领导下，河北在经济建设、脱贫攻坚、乡村振兴等方面取得显著成效，成功经验值得坦桑尼亚学习。坦桑尼亚革命党将始终致力于坦中友好，积极营造良好营商环境，推动坦桑尼亚各地与河北的合作走向深入，为河北企业到坦桑尼亚投资发展提供有力保障。', '在我省期间，坦桑尼亚革命党全国执委研修班一行到石家庄市及行唐县、正定县参观考察，详细了解我省在产业发展、乡村振兴等方面的经验做法。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>石门寨镇沙河寨村西瓜喜丰收村民甜心头</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-07-19</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9AFA4442A64DB718B7BA2B09BD412210</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['盛夏七月，走进海港区石门寨镇沙河寨村高汝军的西瓜种植基地，绿油油的西瓜藤蔓一望无际，一个个圆滚滚的西瓜长势喜人，成片的瓜田丰收在望。 “主要是密红898和改良甜九两个品种，一共40亩，每亩产量约一万斤，每亩收入8000元左右。”高汝军笑容满面地说。 沙河寨村地处柳江盆地，有着得天独厚的地理条件，光热资源丰富，使得这里所生产的西瓜皮薄瓤甜汁水多，因此沙河寨西瓜久负盛名。 为进一步提高西瓜产量和市场竞争力，高汝军多方学习考察，一改传统西瓜种植技术，选择国内最新品种双红瓤甜王西瓜种植，配套滴灌设施，安装水肥一体化设备，将灌溉和施肥融为一体，冲施有机肥，科学种植、科学管理，西瓜的品质也在不断提升。 “我们这一茬瓜现在基本上陆续成熟上市了，甜王瓜，含糖量14度，方便储存和运输、不倒瓤。通过这几年的销售，大家都知道这里的西瓜好，从地里直接拉上就走，现在主要就是控水控肥，保证瓜的口感与品质，防虫防病，为九号正式开园做准备。”高汝军说。', '盛夏七月，走进海港区石门寨镇沙河寨村高汝军的西瓜种植基地，绿油油的西瓜藤蔓一望无际，一个个圆滚滚的西瓜长势喜人，成片的瓜田丰收在望。', '“主要是密红898和改良甜九两个品种，一共40亩，每亩产量约一万斤，每亩收入8000元左右。”高汝军笑容满面地说。', '沙河寨村地处柳江盆地，有着得天独厚的地理条件，光热资源丰富，使得这里所生产的西瓜皮薄瓤甜汁水多，因此沙河寨西瓜久负盛名。', '为进一步提高西瓜产量和市场竞争力，高汝军多方学习考察，一改传统西瓜种植技术，选择国内最新品种双红瓤甜王西瓜种植，配套滴灌设施，安装水肥一体化设备，将灌溉和施肥融为一体，冲施有机肥，科学种植、科学管理，西瓜的品质也在不断提升。', '“我们这一茬瓜现在基本上陆续成熟上市了，甜王瓜，含糖量14度，方便储存和运输、不倒瓤。通过这几年的销售，大家都知道这里的西瓜好，从地里直接拉上就走，现在主要就是控水控肥，保证瓜的口感与品质，防虫防病，为九号正式开园做准备。”高汝军说。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>昌黎县对标先进找差距立足实际谋发展</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-07-22</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=48BBE4A545A313743B2844678761E629</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['县委书记宗振华在中国共产党昌黎县第十三次代表大会上提出的“1134”发展思路中指出，“明确一个对标”，就是全面对标浙江，着力实现发展理念、发展模式、发展格局的“迭代升级”。近日我县党政考察团陆续赴浙江省就特色旅游小镇、生态文明建设、产业园区等方面项目进行考察学习。县旅游文广局决心立足本地资源优势，借鉴浙江特色小镇建设，谋划好我县旅游发展，赋能昌黎经济高质量发展。', '六月的江南是最美的季节，青山绿水郁郁葱葱，新兴产业、新兴业态蓬勃发展。考察团一行先后参观了西湖艺创小镇、余杭梦想小镇、柯桥蓝印时尚小镇、深入考察了小镇在发展建设、产业集聚、产旅融合、文旅融合等方面的基本情况。作为我县统筹文化产业发展和旅游资源开发，推动文化产业和旅游产业融合发展职能部门旅游文化广电局主要负责人张辰触动很大。他说，这次到浙江考察，启示很深，感触也颇多，尤其是在推动特色小镇、乡村旅游建设方面，理念新颖，定位准确，建成了艺创小镇', '时尚小镇等一批特色小镇，为经济发展注入了新动力，也为我们昌黎县的旅游文化事业发展提供了很好的经验和思路。', '考察完以后，县旅游文广局多次进行研究座谈，详细分析我县旅游资源和开发现状找差距找不足，认真谋划我县旅游发展思路找方向定路子。县旅游文广局党组书记、局长张辰表示，我县拥有丰富的自然资源和鲜明的特色产业。下一步，将会把此次学习考察作为一个新的起点，进一步在解放思想上下功夫，真正把考察过程中的所学、所思、所得运用到具体工作中去。一是将重点推进葡萄小镇、干红小镇、皮毛小镇等特色小镇建设，充分利用优势产业资源，强化品牌带动，推动特色小镇与旅游、文化产业融合发展。二是加强乡村旅游环境塑造，完善公共基础设施建设。认真学习“余村经验”，进一步优化西山场、条子峪等主要乡村旅游村的游客服务设施功能；推动五峰山村、杏树园村等特色乡村发展，努力提升环境质量和旅游服务水平；扶持长林、艺彩、山水湾等乡村旅游点，打造具有昌黎特色的乡村品牌。三是大力培育新兴产业与旅游业的融合发展，依托中关村生命园昌黎科创基地，着力打造冀东现代商贸物流集聚中心，发挥园区融资平台作用，全力推动文旅融合，赋能昌黎经济高质量发展。', '考察完以后，县旅游文广局多次进行研究座谈，详细分析我县旅游资源和开发现状找差距找不足，认真谋划我县旅游发展思路找方向定路子。县旅游文广局党组书记、局长张辰表示，我县拥有丰富的自然资源和鲜明的特色产业。下一步，将会把此次学习考察作为一个新的起点，进一步在解放思想上下功夫，真正把考察过程中的所学、所思、所得运用到具体工作中去。一是将重点推进葡萄小镇、干红小镇、皮毛小镇等特色小镇建设，充分利用优势产业资源，强化品牌带动，推动特色小镇与旅游、文化产业融合发展。二是加强乡村旅游环境塑造，完善公共基础设施建设。认真学习', '我县党政考察团陆续赴浙江省进行考察学习，全方位聚焦、多角度对照，学习浙江开天辟地、敢为人先的精神，学习浙江勇于改革、大胆创新的精神，学习浙江务实重行、真抓实干的精神，以榜样的启示激扬思想的碰撞、激发奋进的力量。相信在县委县政府的强力推动下，在各级各部门的共同努力下，我们必定能学好先进地区的经验和做法，破除阻碍高质量发展的思想禁锢和体制机制束缚，以新气象新担当新作为推进昌黎绿色转型全面振兴，为实现“十四五”宏伟蓝图，为加快建设新时代沿海强县、魅力昌黎贡献我们自己的力量。', '我县党政考察团陆续赴浙江省进行考察学习，全方位聚焦、多角度对照，学习浙江开天辟地、敢为人先的精神，学习浙江勇于改革、大胆创新的精神，学习浙江务实重行、真抓实干的精神，以榜样的启示激扬思想的碰撞、激发奋进的力量。相信在县委县政府的强力推动下，在各级各部门的共同努力下，我们必定能学好先进地区的经验和做法，破除阻碍高质量发展的思想禁锢和体制机制束缚，以新气象新担当新作为推进昌黎绿色转型全面振兴，为实现']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>携手结对促发展共谱教育援疆新篇章</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-08-02</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D9678AD0F510D7399940EE36680C68A0</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['近日，海港区教体局组织11名教育专家赴新疆巴州博湖县考察交流教育援疆工作，与博湖县教科局班子成员和各中小学、幼儿园主要负责人就博湖县教育工作进行座谈交流。海港区委副书记、博湖县委副书记、秦皇岛市援疆工作前方指挥部指挥长张晶出席会议并讲话。', '张晶指出，海港区和博湖县今年2月份签署了友好城市协议，多年来双方结下了深厚友谊，每年海港区都派党政干部、专家人才、企业家来博湖交流学习考察。自2021年博湖县教育考察团来海港区学习交流考察结对后，开展了一系列线上线下的交流学习研讨，实现了取长补短。这次海港区教育考察团回访，增进了两地师生之间的友谊，促进了深入交流学习，并且带来了新的教育教学理念。今后要进一步加深交流交往交融，在学校管理、教师水平提升、学生交流互动、促进民族团结融合上下功夫，多开展交流互动，相互走访学习。', '座谈交流中，海港区教体局和博湖县教科局的主要负责同志详细介绍了两地教育事业发展现状，表示将进一步深化秦博两地线上联谊、实地考察、交流学习，建立完善的沟通交流和对接机制，加大两地教师、教研双向交流沟通，并以此基础建立健全长效援疆机制。双方就教育教学管理、教师队伍建设、双减、教育援疆等工作进行了交流。会后，海港区教育考察团与博湖县教育系统各中小学、幼儿园进行“结对认亲”，并向结对学校赠送了秦皇岛市文化纪念品。', '座谈交流中，海港区教体局和博湖县教科局的主要负责同志详细介绍了两地教育事业发展现状，表示将进一步深化秦博两地线上联谊、实地考察、交流学习，建立完善的沟通交流和对接机制，加大两地教师、教研双向交流沟通，并以此基础建立健全长效援疆机制。双方就教育教学管理、教师队伍建设、双减、教育援疆等工作进行了交流。会后，海港区教育考察团与博湖县教育系统各中小学、幼儿园进行', '海港区的教育专家们还为博湖县教育系统带去了九场不同主题和内容的专题讲座，全方位、多角度展示和交流了海港区教育教学的全新发展和探索实践，为博湖县教育事业发展带来了新理念、开拓了新领域、传播了新知识、提供了新思路。博湖县各中小学、幼儿园教师1000余人次聆听了专家们的精彩分享，感受颇深，受益匪浅。', '海港区的教育专家们还为博湖县教育系统带去了九场不同主题和内容的专题讲座，全方位、多角度展示和交流了海港区教育教学的全新发展和探索实践，为博湖县教育事业发展带来了新理念、开拓了新领域、传播了新知识、提供了新思路。博湖县各中小学、幼儿园教师']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>冀疆交流交往日益广泛日趋深入</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-08-08</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5CE5514007DDD47362A5C415BC45BC6A</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['（通讯员王新文 记者孙学工）调研考察、对接交流、学习培训、送客入疆……今年夏天，河北省与新疆巴音郭楞蒙古自治州（以下简称巴州）依托对口援疆渠道，广泛开展形式多样的交流交往活动，深入对接合作，密切相互联系，有力地增进了两地感情和民族团结。', '月初，随着巴州党政代表团到石家庄市、保定市、沧州市学习考察，带动了全州各级各部门到河北省考察交流，7月上旬巴州教育局、巴音郭楞职业技术学院、巴州红旗高级技工学校等单位赴河北师范大学、石家庄铁道大学、河北工业职业技术大学、石家庄铁路职业技术学院等院校考察调研，且末县党政代表团、和静县党务工作者和党建指导员考察团、和硕县农业招商团先后到唐山市、邯郸市、张家口市等地学习交流，就深入推进各自领域的对口援疆工作进行对接沟通。', '期间，河北省发改委、河北省军民融合办、河北省文联、邢台市、邯郸市、张家口市以及河北医科大学第四医院、河北工程大学附属医院、石家庄市教育局等单位先后到巴州各县市，就产业援疆、教育援疆、医疗援疆等工作进行调研考察。', '河北与巴州两地教育部门和相关院校也利用暑期，相互开展各种考察交流和学习培训活动。巴州红旗高级技工学校分两批组织13名教学骨干到河北轨道运输职业技术学院进行业务培训；库尔勒市、尉犁县、若羌县组织优秀少先队员代表分赴石家庄市、衡水市、邢台市开展“冀疆少年手拉手高举队旗跟党走”融情夏令营活动，邢台学院、邢台技师学院、廊坊燕京职业技术学院等院校组织教学骨干到对口帮扶的若羌、博湖等县指导职业技能教育和技能人才培养，把河北省先进的教学理念和培养方式引进巴州。', '月底，随着河北省首部援疆题材电影《情满天山》的公映和大型情景歌舞《情系巴音郭楞》在巴州的上演，拉开了河北与巴州文化旅游交往的序幕。邢台市豫剧团送戏到若羌，深入乡村社区、团场连队为各族群众和连队职工演出；尉犁县罗布淖尔艺术团先后到衡水市和狼牙山革命老区进行演出，把原汁原味的新疆歌舞献给河北亲人。', '河北省援疆工作前方指挥部组织巴州各级文化旅游部门，深入河北各地加大巴州文旅宣传推介力度，投入援疆资金300万元组织开展“冀疆情·巴州行”送客入疆系列活动。截止到目前河北省已组织6批次旅游包机输送河北游客入疆400多人，利用援疆干部人才带动赴疆旅游2000余人次。', '据不完全统计，今年暑期河北与巴州相互开展的对口援疆交流交往活动已达30多场次。“河北与巴州的联系日益紧密，充分反映了两地的深厚情谊和对口援疆成效。”巴州党委副书记、河北省援疆工作前方指挥部指挥长徐付军说，我们将继续坚持“引进来”与“走出去”相结合，培养人才与创新精品相结合，规划指导与市场开拓相结合，不断加大文化润疆、旅游强疆、富民兴疆工作力度，使冀疆两地群众在相互交流交往交融中铸牢中华民族共同体意识。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>丁伟率队到海南博鳌乐城国际医疗旅游先行区学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5A288DD02DB66992DCB9DECF3C0B954D</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['本报讯（记者马朝）2月18日，市委副书记、市长丁伟率队到海南博鳌乐城国际医疗旅游先行区学习考察，借鉴先进经验，对接重点项目，促进交流合作，进一步解放思想、奋发进取，着力建好北戴河生命健康产业创新示范区，为全市经济社会高质量发展作出新的更大贡献。', '据了解，海南博鳌乐城国际医疗旅游先行区2013年2月经国务院批准设立，采取“法定机构+平台公司”管理体制，试点发展特许医疗、健康管理、照护康复、医美抗衰等国际医疗旅游相关产业，是内地唯一真实世界数据应用的先行区。', '丁伟先后前往博鳌一龄生命养护中心、博鳌超级医院、上海交通大学医学院瑞金医院海南医院、永不落幕国际创新药械展、颖奕国际医疗中心、招商局集团国际医学产业中心、博鳌公共保税药仓等地，详细了解园区规划建设、产业发展、项目落地、先行先试成果等情况，并就加强博鳌乐城国际医疗旅游先行区和北戴河生命健康产业创新示范区交流互动、推动生命健康产业高质量发展等，与博鳌乐城国际医疗旅游先行区管理局、相关企业机构负责同志进行座谈交流。', '座谈交流时，丁伟表示，秦皇岛作为著名的滨海旅游城市和休闲度假胜地，以北戴河生命健康产业创新示范区为依托，把生命健康产业作为特色主导产业进行重点培育，积极打造中国康养名城。博鳌乐城国际医疗旅游先行区与北戴河生命健康产业创新示范区同为国家健康产业重点园区，在生命健康产业发展、招商引资、项目建设、体制机制创新等方面，积累了很多宝贵经验和先进做法，值得我们学习借鉴。诚挚邀请博鳌乐城国际医疗旅游先行区相关企业机构、专家学者来秦皇岛考察指导，持续深化双方交流合作与产业对接，合力推动生命健康产业高质量发展，为“健康中国”战略实施作出更大贡献。', '丁伟强调，市直各有关部门和北戴河新区要以此次学习考察为契机，认真学习借鉴博鳌乐城国际医疗旅游先行区先进发展经验，充分借势北戴河生命健康产业创新示范区“7+6”国家层面支持政策出台，认真谋划和组织招商引资活动，积极引进一批康养服务机构、医养结合医疗机构，推动一批健康服务业、健康制造业项目落地，打造一批承接国家政策落地的平台载体，加速构建医药养健游五位一体、健康服务业和健康制造业双轮驱动的生命健康产业发展格局。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>对标先进找差距奋发进取开新局昌黎县委副书记县长狄莎率党政考察团赴浙江考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-07-06</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=B9F7482AA2A8E09D4C8D79154393AC8F</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['对标先进找差距 奋发进取开新局 昌黎县委副书记、县长狄莎率党政考察团赴浙江考察学习', '6月20日-22日，县委副书记、县长狄莎率我县党政考察团赴浙江省就特色旅游小镇、生态文明建设、产业园区等方面项目进行考察学习，对标先进、以学促干，加快推动我县产业园区与旅游+生态文明融合发展。县领导冯明瑜、辛昌亮、王常以及县旅游文广局、县发改局、十里铺乡、碣石山管委等单位、乡镇部门主要负责人参加了相关考察活动。', '六月的江南是最美的季节，青山绿水郁郁葱葱，新兴产业、新兴业态蓬勃发展。6月20日上午，考察团一行先后参观了西湖艺创小镇和余杭梦想小镇，深入考察了小镇在发展建设、产业集聚等方面的基本情况。', '西湖艺创小镇由西湖区携手中国美院、浙江音乐学院，采取“政府主导、两院参与”的创新模式共建。小镇定位“艺术+”产业，发挥“名区、名校”双联动效应，打造“全民共享的艺术生活家园、全球文化艺术的交流窗口、全国最强的数字文创基地”。旧水泥厂焕然新生为现代创意办公展示空间，目前，小镇已引进各类文创企业2800余家。梦想小镇是浙江省首批省级特色小镇，小镇定位于“互联网创业小镇”和“天使小镇”双镇融合发展。已累计引进深圳紫金港创客、良仓孵化器等知名孵化器53家以及2家美国硅谷平台落户；集聚创业项目2327个、创业人才19500名，形成了一支以“阿里系、浙大系、海归系、浙商系”为代表的创业“新四军”队伍；218个项目获得百万元以上融资，融资总额达127.25亿元。', '考察团成员纷纷表示，梦想小镇和西湖艺创小镇创造了许多值得借鉴的经验做法, 此次考察大开眼界，收获满满，要把好经验、好做法带回去，运用到实际工作中去，加快推进我县经济发展。', '6月20日下午，考察团一行首先前往安吉县天荒坪镇余村，走进余村公园、数字影院、文化礼堂等处，认真观看绿水青山就是金山银山视频，详细了解余村十余年来坚定不移践行“两山”理念，实现从“矿山经济”向美丽经济转变的生动历程。', '余村是习近平总书记“绿水青山就是金山银山”重要思想发源地，十余年来，余村人在“两山”理念指导下，走出了一条转型发展、绿色发展、和谐发展之路，形成了支部带村、民主管村、生态美村、发展强村、依法治村、平安护村、道德润村、清廉正村的“余村经验”，为推进新时代乡村治理提供了示范样本。2021年，全村实现村集体经济收入801万元，农民人均收入61000元。', '红砖、青石、茅草，青山绿水间，一幢幢各具特色的生态民居映入眼帘。在灵峰街道“小瘾·半日村”民宿村落，考察团与村落相关负责人认真交流，仔细询问经营发展、业态培育、招商引资等方面情况。', '小瘾·半日村（民宿村落）围绕“吃住游购娱养”等休闲经济元素，主推“国家级旅游度假区+小瘾·半日村”区域品牌组合，打造“产业+企业品牌”区域品牌。目前“小瘾·半日村”一期已新改建房屋71幢，运营公司通过分散招租方式引入风格各异的民宿、精品度假酒店和商业配套34家。', '大家一路看、一路听、一路想、一路学，对照先进找差距，立足实际寻措施，纷纷表示，安吉县在生态文明建设、乡村振兴战略实施、共同富裕推动等方面积累了许多好经验好做法，值得学习借鉴。', '6月21日，考察团一行先后到柯桥蓝印时尚小镇、柯桥经济技术开发区进行参观学习，详细了解传统产业改造提升、印染产业集聚升级、特色小镇建设发展、园区建设等情况。', '柯桥蓝印时尚小镇以打造世界一流的绿色纺织印染集聚区为载体，累计投入开发资金99.8亿元，目前已有规上印染企业25家。柯桥经济技术开发区经过二十多年发展，已拥有全国生产规模最大、产业链最完整、市场销量最大和设备最先进的大纺织产业集群，先后荣获国家火炬计划产业基地、中国绿色印染研发生产基地等称号。', '大家表示，通过此次交流考察，看到了柯桥传统产业改造提升后的发展后劲和活力，将积极借鉴柯桥的好经验、好做法、好举措。同时，希望以此次考察为契机，推动两地进一步深化交流合作，分享发展经验，促进共同繁荣发展。', '考察期间，我县还与杭州数亮科技股份有限公司签署了合作协议，共同成立了河北昌黎杭州创新中心，双方将本着优势互补、资源共享、合作共赢的原则，在信息交流、科研创新等领域开展深度合作。狄莎表示，昌黎的发展离不开社会各界的支持，尤其是2021年由杭州数亮科技股份有限公司研发的“昌黎·中国葡萄酒产业指数”，大大提升了碣石山产区的知名度，希望今后双方围绕昌黎县特色产业进一步拓宽合作领域，在充分发挥各自优势的前提下，助力昌黎产业数字化，引领经济迈向新高度。', '考察期间，我县还与杭州数亮科技股份有限公司签署了合作协议，共同成立了河北昌黎杭州创新中心，双方将本着优势互补、资源共享、合作共赢的原则，在信息交流、科研创新等领域开展深度合作。狄莎表示，昌黎的发展离不开社会各界的支持，尤其是', '6月22日，考察团参观考察了万事利丝绸文化博物馆，近距离感受文化创意、现代科技、人工智能与传统丝绸的深度融合。万事利集团是一家以丝绸纺织、文化创意为主业，辅以生物科技、资产经营、金融管理等多产业化的现代企业集团，经过多年发展走出了一条“传统丝绸+移动互联+文化创意+高科技=丝绸经典产业”的转型升级“新丝路”。随后，考察团一行来到了龙坞茶镇详细了解小镇的运营理念、模式和发展前景。龙坞茶镇历史悠久，是西湖龙井最大产区，也是全国第一个以茶文化、茶产业为主的省级特色小镇，区域内有茶园14000多亩，素有“千年茶镇、万担茶乡”之称。', '行程满满的实地考察，不仅让我县考察团成员们开拓了视野，切实感受到了解放思想、开拓创新的魅力，更进一步增强了加快发展的紧迫感和责任感。白天参观学习，晚上总结交流，大家结合考察内容，联系各自工作实际，讲感受、谈体会、思举措。在听取大家的交流发言后，狄莎指出，此次赴浙江学习考察是全面贯彻落实省委十届二次全会精神、助力秦皇岛打造国际一流旅游城市、确保我县特色小镇建设取得新突破的具体行动，考察中大家带着问题，带着思考，带着总结，在学习先进找差距中，解放了思想，提升了认识。', '狄莎强调，当前，我县正处于乘势而上推进高质量发展的关键之年，特色产业和战略性新兴产业蓬勃兴起，一批产业发展项目、 基础设施项目和民生项目正在加速推进。各相关部门要对标先进，进一步深化细化考察学习成果，围绕考察的所见所闻所感，总结出适合自身实际的发展路径，真正把学习成果转化为具体举措具体实践；要真正打开解放思想这个“总开关”，认真学习浙江地区在市场化运作、政府科学经营管理理念、旅游文化产业发展等方面好的经验做法，分析我们与先进地区存在差距的原因，补齐工作短板；要进一步坚定发展信心，始终保持奋发进取的工作状态，一步一个脚印地抓好各项工作落实，为全面建设新时代沿海强县、魅力昌黎作出应有的贡献。', '狄莎强调，当前，我县正处于乘势而上推进高质量发展的关键之年，特色产业和战略性新兴产业蓬勃兴起，一批产业发展项目、']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>王曦率队到安徽省蚌埠市学习考察黄晓武彭寿等陪同考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5BBF3BFB295537B591F2AEA6577CF467</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['本报讯（石伟）6月21日，市委书记王曦率队就新材料产业发展和水生态环境治理到安徽省蚌埠市学习考察。他强调，要深入学习贯彻习近平总书记重要指示批示精神，全面落实省委十届二次全会精神，拿出超常规的决心和举措，投入更多的时间和精力，推动招商引资工作取得新突破。蚌埠市委书记黄晓武，中国工程院院士、中建材集团总工程师、凯盛科技集团董事长、中建材玻璃新材料研究总院党委书记、院长彭寿陪同考察。', '素有“淮上明珠”美誉的蚌埠，硅基新材料、生物基新材料、新能源等产业发展迅速，正在构筑世界级新材料产业基地，高质量打造“材料之都”。王曦一行先后到凯盛科技新型显示产业园、凯盛光伏材料有限公司、中国玻璃新材料科技产业园学习考察，详细了解企业生产经营、科技创新、工艺流程、产品应用等情况，与彭寿和相关企业高管进行了深入交流，当看到0.12mm电子信息显示玻璃、铜铟镓硒薄膜太阳能电池、30微米柔性可折叠玻璃、8.5代浮法TFT-LCD玻璃基板等产品时，王曦对蚌埠强大的创新研发和产品制造能力表示惊叹，对中建材玻璃新材料研究总院始终坚持科技自立自强、勇于突破“卡脖子”技术的做法表示高度赞赏。王曦表示，市委、市政府将拿出最优环境、最高效率全力服务凯盛科技集团在秦发展，共同推动合作项目早落地早建设早投产，促进新材料产业蓬勃发展。', '淮河穿蚌埠市区而过，境内长147公里，水旱灾害防御任务十分繁重。4000多年前，大禹治水在此劈山导淮、召会诸侯，留下“三过家门而不入”的动人传说。当前正在实施的“靓淮河”工程可实现提高防洪标准、修复淮河生态、改善城市交通、优化人居环境、拓展城市空间的综合效益。在淮河圈堤，王曦一行看到淮河两岸生机勃勃，“靓淮河”工程如火如荼推进，对这一民生工程、民心工程给予高度评价。', '淮河两岸创新浪潮涌动，代表团成员为之震撼、为之振奋，抢抓机遇的使命感、紧迫感越来越强烈。王曦在考察中说，蚌埠产业基础雄厚，科教资源丰富，创新主体活跃，特别是拥有以中建材玻璃新材料研究总院为代表的一批国家级科研院所，为硅基等新材料产业发展提供了强大支撑和源源动力。希望两市进一步加强互动交流，相互学习借鉴，携手实现高质量发展。同时欢迎凯盛集团立足产业链布局，利用秦皇岛比较优势，到秦皇岛投资发展，实现合作共赢。', '黄晓武向代表团一行的到来表示欢迎。他说，蚌埠是淮河生态经济带和皖北地区中心城市，当前正围绕“改作风、优环境，抓招商、推创新，增投资、建项目，惠民生、创幸福”工作主线，大力发展新型显示、新能源、新材料等战略性新兴产业，着力打造“创新之城、材料之都、制造高地、幸福蚌埠”。秦皇岛市生态环境优美，历史文化厚重，正在大力发展的生命健康、文体旅游、汽车零部件、电子信息、高端装备制造、粮油食品加工、新型材料、临港物流等特色主导产业，与蚌埠产业发展有很多契合点。希望双方以此次交流为新起点，加强对接合作，推进优势互补，实现互利双赢，努力形成高质量的跨区域合作成果。', '市领导陈玉国、刘学彬、高向阳，以及抚宁区、山海关区和有关市直部门负责人参加学习考察。蚌埠市委常委、秘书长王庆武陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>抚宁区副区长李青带队到卢龙县学习考察巩固拓展脱贫攻坚成果工作</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-07-12</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D357AC80649AB82B401FA4315970F9CF</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['区副区长李青带队到卢龙县学习考察巩固拓展脱贫攻坚成果工作，区农业农村局、教体局、民政局、住建局、卫健局、医保局、水务局、人社局、残联及各乡镇（街道）相关负责同志参加活动。考察组一行首先在卢龙县防贫中心参加座谈会，了解卢龙县巩固脱贫攻坚成果工作，并与相关部门交流了“立帮快扶”“菜单点帮”工作机制以及防贫公益岗、低保提标、产业奖补等工作做法。随后，借助镇村巩固拓展脱贫攻坚成果档案，认真学习了“精准防返贫、筑牢稳脱贫”“构建3410防贫监测机制、构筑防止返贫铜墙铁壁”“擦亮乡村振兴底色、打造特色花苑村庄”等特色经验做法。李青强调：一是要加强与卢龙县的对接联系，认真学习卢龙县好做法好经验，结合我区实际深刻查找工作中的问题和差距，进一步探索新思路、新举措，多措并举补短板、强弱项。二是要用好用足各项政策，确保脱贫人口和防贫监测对象稳定持续增收。三是要坚持党委、政府的规划引领，做好防贫监测帮扶工作，进一步巩固拓展脱贫攻坚成果，助力乡村振兴。', '区副区长李青带队到卢龙县学习考察巩固拓展脱贫攻坚成果工作，区农业农村局、教体局、民政局、住建局、卫健局、医保局、水务局、人社局、残联及各乡镇（街道）相关负责同志参加活动。考察组一行首先在卢龙县防贫中心参加座谈会，了解卢龙县巩固脱贫攻坚成果工作，并与相关部门交流了']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>我市颁布实施人才新政</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-05-27</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=BFFBFBFEE5A88C188E0180DFD0C64854</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['本报讯（记者郭娜）实施“人才贷”政策、“港城英才”支持计划，建设创新创业“三个平台”……5月26日，市政府新闻办召开秦皇岛市实施人才新政新闻发布会，介绍我市改版升级后的人才新政相关情况。', '近日，市委、市政府出台了《关于加快推进新时代人才强秦建设的若干措施》，对我市原有人才政策进行了优化整合，明确了25条具体措施，体现了坚持党管人才原则，涵盖了人才引、育、管、用各个方面。', '其中，“港城英才”支持计划是从2022年开始，每三年从全市自然科学、哲学和社会科学、管理科学和工程技术领域评选100名包括“秦皇岛市领军人才”“秦皇岛市创新创业人才”“秦皇岛市青年拔尖人才”在内的系列“港城英才”。', '新评选的“港城英才”纳入港城英才服务卡持卡人才范围，在管理服务期内享受政治、经济、工作等方面待遇。“港城英才”申报的科研项目优先审批、重点支持，科研经费确保专款专用。科研成果的开发应用，所在单位和有关部门在政策、经费等方面予以优惠。同时，我市将积极创造条件，有计划地组织市高层次人才参加国内外学术交流、研修深造和学习考察等等。“人才贷”政策是指由秦皇岛银行向获得认定的高层次人才、人才企业提供免抵押、无担保、利率低、期限灵活的纯信用贷款，财政予以适当的贴息补助，帮助人才和企业解决融资难问题。', '同时，颁布实施的人才新政加大了对产学研、科技创新、人力资源产业园三个平台载体的支持力度。发挥我市高校聚集优势，调动高校、企业两个积极性，建立企业需求信息和高校科研成果发布平台，开通供需对接“直通车”，促成更多科研成果在我市转化。加快聚集一批国家级、国际化的研发机构，打造一批高层次科技创新平台，鼓励有条件的县区根据市场需求建立独立的人力资源产业园。', '在引进高技能人才和高校毕业生方面，我市发挥各类职技院校积极性，以企业发展需求为出发点，建设高技能人才培训基地、技能大师工作室，探索新型企业学徒制，构建以学生就业为导向的“订单式”人才培养模式，稳步推进从职技院校毕业生中招聘事业单位工作人员，为企事业单位“量身定做”高素质技术技能型人才。同时实施“人才安居工程”，以租赁型人才公寓作为主要载体，以产权型人才公寓、人才房租补助为补充，向在秦无房的各类人才提供安居服务。', '此外，为把《关于加快推进新时代人才强秦建设的若干措施》落到实处，我市研究制定了《秦皇岛市“港城英才”支持计划（试行）》等5个配套文件，鼓励人才创新创业，推动人才作用发挥，最大限度把人才资源转化为人才资本。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>加快建设一流国际旅游城市系列北戴河新区专场新闻发布会</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-06-14</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=EF91935982EB5E44942BD3143015D3A0</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['今天上午，“加快建设一流国际旅游城市”系列北戴河新区专场新闻发布会在市政府新闻发布厅召开。实况如下：', '大家上午好！很高兴参加“加快建设一流国际旅游城市”新闻发布会，与大家一起分享北戴河新区建设一流国际旅游城市的成果。在此，我谨代表北戴河新区工管委，向长期以来关心和支持新区经济社会发展的各界人士表示衷心感谢！', '新区自2011年1月实体组建，辖区北起戴河，南至滦河，西接京哈铁路和沿海高速公路，东到渤海海域，总面积425.8平方公里，海岸线82公里，目前托管区面积253平方公里。新区是国家级生命健康产业创新示范区建设主战场，是全市经济功能区，是一片充满活力、承载希望的创业热土。这里生态环境优良，拥有22万亩森林湿地，华北最大潟湖七里海，20公里海洋大漠风光，是“中国最美八大海岸”之一；这里旅游资源丰富，汇集着“阳光、海水、沙滩、气候、森林、湖泊、沙山、温泉、鸟类、田园”等十大旅游资源；这里发展前景无限。作为首个国家生命健康产业创新示范区，具有一事一议、先行先试等政策优势。同时拥有国家首批健康旅游示范基地、现代服务业综合改革、旅游业综合改革、养老服务业综合改革、绿色节能、智慧城市试点等“国字号”名片。', '党的十八大以来，新区工管委坚持以习近平新时代中国特色社会主义思想为指导，全面落实中央决策部署和省市工作要求，全力搭平台、抓项目、聚产业、优生态、打基础、惠民生，经济社会发展驶入快车道。“十三五”期间，地区生产总值由2016年的33.3亿元增加到2020年的46.6亿元；固定资产投资由57.8亿元增加到85.9亿元；一般公共预算收入由4.3亿元增加到10.1亿元。2021年全年完成GDP51.3亿元，固定资产投资88.8亿元，一般公共预算收入12亿元，主要经济指标增速保持位居全市前列。“十四五”实现良好开局。今年一季度，7项重点指标中，5项指标增速排名全市前三，GDP、规上工业增加值、实际利用外资等3项指标排名全市第一，实现首季“开门红”。今年上半年预计完成GDP19亿元，同比增长7.5%；预计完成固投42.6亿元，同比增长13%；预计一般公共预算收入完成3.89亿元。', '市第十三次党代会提出“建设一流国际旅游城市发展”战略，是落实省委决策部署的重大举措。新区作为京津冀协同发展中疏解非首都核心功能的重要滨海空间和中国北方沿海不可多得的钻石级开发宝地，全面落实市委、市政府决策部署。特别是今年以来，立足自身发展实际，依托独特发展优势，进一步明确了发展定位、发展方向和发展路径，确立了“二次创业再出发，勇当一流国际旅游城市建设排头兵”总思路，坚守高质量发展根本不动摇，统筹推进示范区、新区和高新区“三区一体”建设，全面掀起“二次创业”热潮，汇聚起建设一流国际旅游城市的磅礴力量。', '为了科学编制建设一流国际旅游城市规划蓝本，以国际化的发展视角和标准体系指导建设工作，聘请承担国家建设世界级旅游城市规划编制单位——中国旅游研究院编制建设一流国际旅游城市规划，明确“1234”工作总思路。即以建设一流国际旅游城市排头兵为目标，突出康养、旅游两大主导产业，融合海洋、文化、体育三大发展领域，打造“全球健康产业新高地、世界康养旅游新蓝海、国际品牌交流新名片、一流营商发展新环境”四大工程体系，推动一流国际旅游城市蓝图变成“施工图”。同时，建立“8+1”9个工作专班，全力推进项目建设、改革创新、生态保护等重点工作。', '将产业作为建设一流国际旅游城市的重要支撑，持续推动“医药养健游”大健康产业格局创新发展。医疗方面，投资5.5亿元建成国际健康城；投资14.1亿元建成15万平方米生命科学园，已入孵10个高端医疗项目，其中全省首家中外合资潘纳茜诊疗中心等8个优质医疗机构对外运营，北京化工大学公共检测平台取得CMA和PCR资质，康姿百德康复项目实现运营，华是肿瘤医学中心即将运营。医养方面，星月湾国际滨海健康度假综合体项目一期、鹏瑞利一站式国际康养城等项目稳步推进；京东创新型智能康养示范园区和智谷创新创业科技研发中心项目扎实推进。医药方面，石药生物医药研发、现代化中药示范基地、爱晖药业口服溶剂滴剂等项目加快建设。医械方面，完成2.5万平方米的医疗器械产业港一期建设，二期项目正在修改设计方案；河北省药品医疗器械检验研究院分院挂牌运营，东大医疗器械产业园、福美健康科技园加速建设，康泰医学医疗器械产业园正式开工。健康旅游方面，阿那亚黄金海岸社区“邮轮式”康养旅游度假模式领跑全国，帆船航海、温泉、体育、旅游体验线路入选国家级“国庆黄金周体育旅游线路”，万豪酒店实现试运营。', '强化招引，积蓄后劲。一是明方向。聚焦产业发展定位，绘制“541”十大产业招商地图，结合新区产业现状制定产业链上下游企业招引清单，找准头部企业“建链”、找准关键企业“补链”、找准核心企业“强链”，设立9个产业链招商专班，发挥小组团灵活精干优势开展招引工作。二是拓渠道。主动转变招商思路，开展“云端招商”，利用腾讯会议、微信等网络平台在线招商，先后与京东集团等连线对接，实现“封控不断联”。聘请阿那亚、蔚蓝海岸等5家重点企业负责人为招商大使，启动“凤还巢”计划，梳理积累知名秦皇岛籍企业家、侨商侨领等，建立人脉资源信息库，用好感情牌、亲情牌。三是抓落地。成立重点企业项目专班，实行全流程服务，疏解企业痛点难点，推动项目建设落地。中帆协北方基地正式落户，集帆船培训、帆船赛事和帆船产业发展为一体的体育产业集群加快形成。总投资约11.25亿元的医疗器械产业园等8个项目实现签约。星月湾项目加快办理选址核准手续。储备中科院微生物所酵母、合成生物、北京百奥源节能环保产业材料与装备等在谈项目13个。与北大肿瘤医院建设国家医学中心，与北大第一医院、北京中医药大学东方医院建设国家区域医疗中心等项目进展顺利。', '一是积极创建国字号品牌。提出年内争创“国家全域旅游示范区、国家级夜间文化和旅游消费集聚区、国家级休闲购物街区”目标，全力开展创建工作。目前已成功创建省级全域旅游示范区，阿那亚黄金海岸社区获评国家级夜间文化和旅游消费集聚区及省级旅游休闲购物街区。二是加快推进体育名城建设。借势中帆协北方基地正式落户新区，提升“体育+”产业带动功能，加快形成集帆船培训、帆船赛事、帆船教育和帆船产业发展为一体的体育示范集群；5月6日，国家帆船帆板队队员在北戴河新区蔚蓝海岸正式开启夏季训练，备战2022年杭州亚运会及2024年巴黎奥运会。三是拓展国际会议交流。对海南博鳌乐城国际医疗旅游先行区国际合作事项、会议等情况进行全面学习考察，不断提升北戴河新区生命科学峰会等办会水平。', '“硬环境”方面，持续开展污染防治攻坚战，绿色发展底色更加明亮。全面推进蓝天、碧水、地绿、海清四大生态治理工程，让空气更清新、水体更洁净、土壤更安全、岸线更美丽。实施140公里道路建设，滨海新大道、前程大街、锦绣路等主干道建成通车，“四纵十横”交通路网基本建立，机场、高铁、高速立体环绕的“快旅慢游、便捷新区”交通体系逐步形成。水电气讯等各类管网基本完成整合并纳入地下综合管廊。阿尔卡迪亚国际会议中心等一批高端服务配套对外开放。“软环境”方面，持续强化政策、品牌等发展支撑，为一流国际旅游城市建设赋能增效。上报需国家层面支撑政策13条，得到国家发改委、国家卫健委等相关部委明确支持，如在国外批准上市，尚未获得我国注册批准的药品和医疗器械，授权省政府批准，在示范区内指定医疗机构使用等；成功争取28项省级行政许可事项下放。出台企业创新发展奖励十条办法，产业发展扶持政策进一步完善。成立项目落地服务中心，实现项目建设从立项到运营服务全生命周期管理。“一会四函”、“标准地+承诺制”、先建后验改革加快推进，改革红利加快释放。', '新区拥有宝贵的沙滩岸线，丰富的旅游资源，良好的基础条件，这些决定了新区有条件也必须担当起一流国际旅游城市排头兵的重任。下一步，我们将紧紧围绕“二次创业再出发，勇当一流国际旅游城市建设排头兵”总思路，锚定经济发展，坚守高质量发展根本不动摇，完善确立“541”十大产业体系，着力实施筑巢引凤、夯基固本、搭台唱戏、富民安区“四大工程”，力争到“十四五”末将新区打造成全省“增长潜力最大、创新意识最强、体制机制最活、发展增速最快、生态环境最美、干部状态最好”的区域，持续提升新区旅游品质，引领全市旅游向高端迈进，为加快建设一流国际旅游城市作出新区贡献。', '秦皇岛晚报记者：孟局长您好！北戴河新区旅游产业发展的成功，成为全市旅游的样板和先锋，那么我们在旅游要素建设，特别是品牌建设方面有哪些成果？我们旅游业未来的发展思路是怎么样的？', '北戴河新区旅游文化体育广电局局长孟凡刚：这几年，北戴河新区经过不断努力，文旅事业收获了一些荣誉：2020年，成功创建河北省全域旅游示范区；阿那亚获评中国休闲度假八个优秀案例之一；2021年，成功承办了全市第三届旅游产业发展大会；阿那亚获评河北省旅游休闲购物街区；2022年，阿那亚获评第二批国家级夜间文化和旅游消费集聚区。今年我们又提出争创国家级全域旅游示范区和省级旅游度假区。', '随着经济社会的发展和人民生活水平的提高，人们对旅游的需求也在发生改变，旅游消费不断升级，我们将在“产业支撑”“配套服务”“形象宣传”等方面下功夫，打造设施完善、产品丰富、要素齐全、环境优良的旅游业发展升级版，以高质量旅游供给增强人民群众的获得感、幸福感。一是多业态融合，构建产业新格局。以北戴河生命健康产业创新示范区为平台，加速旅游与健康产业融合发展，依托资源优势，在旅游产品中植入康疗元素，实现旅游人群与康养人群的相互转化；二是多元化发展，丰富旅游供给体系。加快推进魔法城、渔田小镇等旅游综合体等特色项目建设，培育新型旅游业态；万豪酒店等一批高星级酒店正式运营，形成布局合理、主题鲜明的高端酒店集群；完善购物体系，打造一批以阿那亚、蔚蓝海岸等为主的休闲街区、美食街区、文化街区，开发一批海产品、农产品、文创产品等特色旅游商品，延伸旅游消费链；发展夜间旅游产品，打造具有地域特色的演艺产品，逐步形成集夜秀、夜演、夜宴等为一体的夜游组团。三是实施精准营销，树立新区旅游新形象。采取主题营销、媒体营销、节事营销等多种营销策略，深耕京津冀重点市场，拓展中远程市场，巩固新区品牌认知度。', '网易新闻记者：顾主任您好！北戴河生命健康产业创新示范区核心区在北戴河新区，发展大健康产业是北戴河新区的特色亮点，北戴河新区近年来如何推进这项工作，取得了哪些成就？', '北戴河新区国际健康城开发建设办公室主任顾少杰：北戴河生命健康产业创新示范区是经国务院同意设立的，规划范围包括北戴河区、北戴河新区、北戴河国际机场空港区，面积约520平方公里。示范区空间布局为“一核五区”，核心区位于北戴河新区。示范区既是助推京津冀协同发展的重要创新平台，也是疏解北京非首都功能的重要承载地。产业定位为：围绕健康服务业、健康制造业和健康农业三大板块，构建高端医疗服务和生物医药产业双轮驱动体系，打造医疗器械、康复保健、养生养老、健康金融、健康管理、健康旅游、健康农业协调发展的产业格局，形成“医药养健游”五位一体生命健康产业集群。', '自2016年9月28日生命健康产业创新示范区获批以来，我们始终坚持世界眼光、高点定位、创新发展。目前已在产业集聚、平台建设、政策争取等方面取得积极进展，正朝着建设一流国际旅游城市、打造“医药养健游”五位一体生命健康产业集群目标大步迈进。', '一是大力发展医疗、医药、医养产业。医疗产业方面，与北京中医药大学东方医院签署合作协议，完成国家答辩工作，打造国家中医区域医疗中心；与北京大学肿瘤医院签署成果确认函，谋划建设国家癌症医学中心；积极推进与北京大学第一医院创建国家综合性区域医疗中心工作。医药产业方面，石药集团生物医药研发基地即将完工；爱晖药业取得盐酸美金刚口服液和小儿盐酸氨溴索滴剂国家首仿药注册证书，口服溶液剂和滴剂生产制造项目开工建设；河北省药品医疗器械检验研究院分院签约挂牌，康泰医学医疗器械产业园开工建设。医养产业方面，鹏瑞利一站式国际康养城、滨海健康等项目稳步推进。', '二是重点打造生命健康产业承接平台。生命科学园孵化运营项目取得新突破，园区入驻10家医疗项目，其中，全省首家中外合资医疗机构—潘纳茜诊疗中心成功申报“创新免疫保护下干细胞治疗糖尿病及下肢静脉闭塞”国家临床研究项目，远盟精准医学平台实验室承接新区核酸检测业务，北京化工大学环渤海生物产业研究院于今年取得CMA和PCR资质。与天津肿瘤医院郝希山院士合作的华是国际肿瘤医学中心即将运营。与龙头企业京东集团洽谈合作取得新进展，建设创新型智能康养示范园区、京东智谷创新示范区，将建成京东北方副中心，更好助力示范区产业发展、人才集聚。医疗器械产业港发展建设跑出新速度，爱晖药业、中药研发基地及北京化工大学中试平台等相继入驻，产业港二期即将开工。福美健康科技园、东大科技园等建设加速推进。', '三是积极争取示范区发展政策。国家层面，梳理上报需国家支持13条政策清单，市委、市政府主要领导亲自带队推进，获国家发改委、卫健委等部委充分肯定和明确支持。国家发改委支持示范区建设国家医学中心和国家区域医疗中心，除已获批的北医三院秦皇岛医院作为心血管国家区域医疗中心外，支持建设国家癌症筛查中心、老年病国家区域医疗中心和中医学科国家区域医疗中心，成为承接京津冀医疗教育非首都功能疏解的重要平台。省级层面，省政府办公厅在出台支持31条政策基础上，再次下放医疗广告审查、医师执业注册等28项省级行政许可事项，已完成所有省级权限委托承接工作；省自贸区领导小组支持示范区同步享有河北自贸试验区生命健康产业领域相关政策，为提升示范区综合竞争力和对外开放影响力打下坚实基础。市级层面，制定了示范区产业发展扶持政策27条，企业创新发展奖励十条，在纳税奖励、产业扶持等方面对企业政策予以支持，并对重大项目明确“一企一策、一事一议”机制。', '长城新媒体记者：孟局长您好！中帆协北方总部基地落户北戴河新区，为什么中帆协在众多沿海地区选择北戴河新区作为落脚点？中帆协落户将会对北戴河新区帆船帆板运动起到哪些推动作用？', '北戴河新区旅游文化体育广电局局长孟凡刚：首先，北戴河新区拥有非常适合开展水上运动的优良岸线资源。区域内岸线总长82公里，占据全市岸线总长的一半。海域沙软潮平、温度适宜、风力稳定，全年有7个月左右的时间适合开展帆船运动。得天独厚的地理优势、水域条件，为广大帆船帆板运动爱好者提供了理想的运动场所。新区也成为中国帆船发展城市版图中最具活力地区之一。中国第一个帆板世界冠军、中国帆船帆板运动协会主席张小冬在亲历蔚蓝海岸帆船航海基地后曾表示“北戴河新区拥有浑然天成的海洋资源和优质的风力条件，已成为举办帆船赛事、开展帆船运动的理想选择地，是中国帆板队重要的发展根基城市之一，是世界公认的优秀海上体育运动赛场之一”。', '一是良好的办赛基础。在市体育局的大力支持下，新区相继承办了中国帆船城市发展研讨会、全国帆板锦标赛、全国帆船锦标赛、二青会帆船比赛、河北省青少年帆船锦标赛、秦皇岛国际帆船赛等多项国家级、省级赛事及活动。新区远洋蔚蓝海岸也先后获批了“国家体育产业示范项目”“河北省体育产业示范项目”。在各类赛事活动的引领下，新区热爱帆船帆板运动的人与日俱增，社会参与度日益高涨，先后成立了瑞龙帆帆船运动俱乐部、英洋帆船游艇俱乐部、自然动力水上运动俱乐部、飞驰水上运动俱乐部、阿那亚帆船帆板运动俱乐部5家航海运动俱乐部，在推动大众帆船帆板运动方面起到了积极作用。', '二是新区工管委对帆船帆板运动发展高度重视。在水上运动项目建设、政策资金支持等方面给予了大力支持，目前新区阿那亚、葡萄岛都先后建设了82个游艇泊位，为助力帆船帆板运动奠定了基础条件。', '基于以上原因，中帆协与新区深度合作的信心倍增，于3月16日与秦皇岛市政府、新区工管委、远洋集团控股有限公司共同签署了《中国帆船帆板运动协会北方总部基地框架协议书》，中帆协北方总部基地在新区正式落户，开启了新区帆船帆板运动新（划）时代的跨越。今年5月，“2022年秦皇岛帆船季”系列活动已经启帷，本次帆船季活动包括全国帆板锦标赛暨杭州亚运会帆板资格赛、全国青少年帆船联赛、河北省第十六届运动会帆船比赛、中国帆船帆板运动协会北方总部基地揭牌仪式、中国帆船帆板运动协会年度工作会议、全国青少年帆船夏令营、青少年业余帆船选手访问交流、国家帆船帆板队集训、小学生帆船运动“万人培训”等系列赛事及活动。相信这些赛事活动的陆续举办，必将对新区体育、旅游、文化方面产生新的推动力，推进体育旅游融合发展，促进新区体育产业发展，扩大新区知名度和影响力，助力我市一流国际旅游城市建设。', '未来，新区将不断完善基础设施，建设公共游艇码头，打造海上运动、体育赛事、海洋旅游、休闲娱乐等为一体的北方体育帆船基地示范区。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>抚宁区考察青龙县乡村电子商务并签订乡村振兴战略协议</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-03-07</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9429B190E114EF3B30BA9F74B84BFB65</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['开局共谋新思路，乡村振兴谱新篇。为加快推动大新寨镇省级乡村振兴示范区创建进程，抚宁区委组织部和青龙县委组织部创新工作思路，合作探索“党建引领、跨区联动、互学互鉴，携手共促”的乡村振兴新模式。 2月28日下午，区委常委、组织部部长刘大江带领大新寨镇相关负责同志以“小团组观摩”的形式，到青龙县官场乡学习考察农村电商平台建设及运营工作，并与官场乡签订乡村振兴战略合作框架协议。青龙满族自治县委常委、组织部部长尹强，官场乡全体党政领导班子成员参加活动。 “零距离”观摩虚心求教。考察团一行首先到官场乡电子商务服务中心实地观摩，“零距离”开眼界、学经验、谋创新。讲解员认真讲解了电商中心“从无到有、从弱到强”的创新历程、产业发展的新思路和先进的运营模式，参加学习考察的人员认真聆听，不时询问，认真记录，一致表示官场乡电商发展理念先进、思路清晰、措施得力，将在今后工作中认真学习借鉴。 “面对面”交流互通有无。官场乡党委书记李栋系统介绍了官场乡率先成立全市唯一乡级集体股份经济合作联合总社，以党建为引领，通过“党建+合作社”模式，成立电子商务中心，不断发展壮大村集体经济的历程。 两个县区的常委组织部长分别肯定了双方在乡村振兴工作方面的先进经验和做法，并表示，这次学习考察活动是党建引领乡村振兴跨区联动的首次尝试，也是互学互鉴、共促振兴的有益实践。抚宁区、青龙县将秉承互学共进原则，持续加强合作、深入对接，在招商引资、乡村旅游、电商产业等方面开展战略合作，有效促进两个县区乡村振兴共赢发展。 “点对点”协议合作共赢。为实现深度合作、优势互补，大新寨镇党委书记孙宁、官场乡党委书记李栋分别代表大新寨镇、官场乡签订乡村振兴战略合作框架协议，抚宁区委常委、组织部长刘大江，青龙县委常委、组织部长尹强共同见证了协议成功签订。 （抚宁发布）', '开局共谋新思路，乡村振兴谱新篇。为加快推动大新寨镇省级乡村振兴示范区创建进程，抚宁区委组织部和青龙县委组织部创新工作思路，合作探索', '2月28日下午，区委常委、组织部部长刘大江带领大新寨镇相关负责同志以“小团组观摩”的形式，到青龙县官场乡学习考察农村电商平台建设及运营工作，并与官场乡签订乡村振兴战略合作框架协议。青龙满族自治县委常委、组织部部长尹强，官场乡全体党政领导班子成员参加活动。', '“零距离”观摩虚心求教。考察团一行首先到官场乡电子商务服务中心实地观摩，“零距离”开眼界、学经验、谋创新。讲解员认真讲解了电商中心“从无到有、从弱到强”的创新历程、产业发展的新思路和先进的运营模式，参加学习考察的人员认真聆听，不时询问，认真记录，一致表示官场乡电商发展理念先进、思路清晰、措施得力，将在今后工作中认真学习借鉴。', '“面对面”交流互通有无。官场乡党委书记李栋系统介绍了官场乡率先成立全市唯一乡级集体股份经济合作联合总社，以党建为引领，通过“党建+合作社”模式，成立电子商务中心，不断发展壮大村集体经济的历程。', '两个县区的常委组织部长分别肯定了双方在乡村振兴工作方面的先进经验和做法，并表示，这次学习考察活动是党建引领乡村振兴跨区联动的首次尝试，也是互学互鉴、共促振兴的有益实践。抚宁区、青龙县将秉承互学共进原则，持续加强合作、深入对接，在招商引资、乡村旅游、电商产业等方面开展战略合作，有效促进两个县区乡村振兴共赢发展。', '“点对点”协议合作共赢。为实现深度合作、优势互补，大新寨镇党委书记孙宁、官场乡党委书记李栋分别代表大新寨镇、官场乡签订乡村振兴战略合作框架协议，抚宁区委常委、组织部长刘大江，青龙县委常委、组织部长尹强共同见证了协议成功签订。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>北戴河区教育和体育局到秦皇岛市第七中学进行实地考察学习</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-01-17</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C60DFE1EE70E2CE14D1B5DA560370BDA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['为进一步提高区域教育教学水平，1月17日，北戴河区教育和体育局班子成员、各中学校长、副校长及相关股室负责人为成员的“对标海港区中小学教育学习考察团”继续到秦皇岛市第七中学进行实地考察学习，并针对集团化办学、教师激励机制、教学教研、德育工作等方面进行深入交流研讨。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>小村庄捧起旅游大饭碗</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021-10-29</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=8783CB154C0E2AB8F956C2A612474B88</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['位于海港区北部山区的房庄村，距今已有400多年历史。近年来，当地将美丽乡村建设与古村落保护相结合，对古村落进行科学修复，并依托当地深厚的历史文化底蕴和自然资源，发展古村落民宿相关旅游业，让全村吃上了“旅游饭”。', '走进房庄村，只见远处高山层峦叠嶂，明长城蜿蜒曲折，近处街道干净整洁，绿树成荫，一座座古朴的民居错落有致，清幽恬淡、风景如画。高山漂流、河谷漂流等游玩项目开始迎来一批批游客，山谷中常常回荡起一串串嬉闹欢笑声，村里一家挨一家的“农家乐”又升起袅袅炊烟，但过去的房庄村却不是这个样。', '走进房庄村，只见远处高山层峦叠嶂，明长城蜿蜒曲折，近处街道干净整洁，绿树成荫，一座座古朴的民居错落有致，清幽恬淡、风景如画。高山漂流、河谷漂流等游玩项目开始迎来一批批游客，山谷中常常回荡起一串串嬉闹欢笑声，村里一家挨一家的', '石门寨镇房庄村村民李枝繁说：“以前很少有愿意嫁这边来的，因为我们这边是宁往南走一寸，不往北走一尺，就是说能往南面走，绝不往北面走的，因为北面这面很穷。”', '2011年，房庄村几位村民代表来到做苗木生意的房文平家中，恳请他回村带着大家致富。经过一系列学习考察和专家论证，房文平开始在村中启动老君顶景区建设：铺公路、清河道、建垂钓园、修登山石阶、河谷漂流、高山漂流……2015年，投资8000余万元的老君顶漂流项目与游客见面。', '2016年景区内又新增滑冰场、滑雪场，老君顶冬季冰雪旅游项目也一炮打响，周边游客纷至沓来。为让村民获得更多的收入，房庄村一方面把符合条件的村民安排到景区工作，参与景区日常管理。另一方面开发旅游特色农副产品种植、生产、加工销售，以村农民经济合作社为载体，通过旅游带动农产品变成旅游商品，农产品深加工年均创收5万元。', '村民徐树安说：“给我们村整个面貌发生了翻天覆地的变化，他这个人是为老百姓办实事，包括哪家有大事小情，没有他不到的。”', '景区发展的蒸蒸日上还带动了小村庄的美丽蝶变。房庄村先后修建了复古滨水商业街、老君观祈福路、村居民巷道路，新建850平方米的综合楼，改建了120平方米的妇女之家和儿童之家，修建了村民健身文化广场，让村民幸福感十足。', '景区发展的蒸蒸日上还带动了小村庄的美丽蝶变。房庄村先后修建了复古滨水商业街、老君观祈福路、村居民巷道路，新建', '村民李枝繁说：“日子也富了，也可以在市区买房，家里有院，市里有房，想怎么住就怎么住，老百姓的日子也比较有奔头。”', '怡人的美景和优美的环境让越来越多的游客停下脚步，在房庄村小住几日。这促使房庄村加快了民宿建设的脚步。为了动态保护村里的老建筑，做好旅游配套服务，房庄村从2020年起大力发展民宿经济，坚持留住传统村落的“古”味儿，秉承修旧如旧的原则，用原汁原味的文化气息呈现“记得住的乡愁”，在绿水青山之中建设30个木屋、崖居和观星屋。', '怡人的美景和优美的环境让越来越多的游客停下脚步，在房庄村小住几日。这促使房庄村加快了民宿建设的脚步。为了动态保护村里的老建筑，做好旅游配套服务，房庄村从', '房庄村党支部书记房文平说：“我们房庄村经过多年的打造，把以前的老房子打造成现在的民宿，在建设中我们保留了老房子的古香古色，同时我们又增加了当代建筑流行的元素，现在我们的房子已经成为当地的一道风景线。”', '如今，到房庄村春季可赏花、夏季可漂流、秋季可采摘、冬季可滑雪，一年吸引游客40余万人次，已成为秦皇岛市乡村旅游发展的一张靓丽名片。村民们的“旅游饭”吃得有滋有味，2020年，村民人均年收入达到两万多元，村子美了，村民富了，真正做到了“绿水青山就是金山银山”。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>转变作风细化服务压实责任共谋发展海港区召开重点项目建设暨优化营商环境大会</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2021-11-23</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=145C41FC87D75AD7366269C9CEA0A5E9</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['\u200b转变作风 细化服务 压实责任 共谋发展 海港区召开重点项目建设暨优化营商环境大会', '11月21日，海港区召开重点项目建设暨优化营商环境大会，发布产业政策、推介招商项目、以刀刃向内的勇气剖析损害营商环境的干部作风问题，决心要以干部作风大转变提振干事创业精气神，深入贯彻落实党的十九届六中全会精神。海港区委书记员欣昇出席会议并强调，抓项目建设是海港区在建设一流国际旅游城市中当好排头兵和探路者的首要措施；抓项目建设，是海港区实现高质量发展，让群众享受更多发展成果的重要抓手；抓项目建设，是海港区助力企业发展壮大、帮助企业家梦想成真的责任和义务。全区上下要树牢“任它风吹雨打，都必须牢牢抓住项目建设”的理念，埋头苦干、勇毅前行，实现海港区高质量发展。', '区委副书记、区长鲍成超主持会议。区委副书记肖起彪，区人大常委会主任齐香民，区政协主席詹立军等区领导出席会议。市重点工作大督查驻海港区督查组组长刘红梅应邀列席会议。', '会议邀请了旅游、粮油食品加工、软件玻璃及玻璃深加工、网红等行业企业和承担省、市重点项目的企业共100家单位参会，邀请辖区17家金融机构参会。会议发布了海港区产业政策和营商环境情况，介绍了国家、省、市、区关于项目建设重点支持方向、拟寻求合作项目、拟争取上级资金项目以及银行支持项目，通报了11月18日海港区政银企对接会成果；海港经济开发区、临港物流园区以及河港集团发布了招商项目；秦皇岛银行、区行政审批局、区发改局、海港公安分局、区资源规划局、海港生态环境分局就如何优化营商环境进行了发言；参会企业对区直部门满意度测评进行现场打分并公布结果。', '会议邀请了旅游、粮油食品加工、软件玻璃及玻璃深加工、网红等行业企业和承担省、市重点项目的企业共', '会上印发了《海港区优化营商环境实施方案》《海港区开展全员招商工作实施方案》《海港区支持本地企业转型升级十条措施（试行）》《市委主要领导分包海港区“三个清单”项目明细表》《海港区区级领导包联重点项目明细表》《海港区区级领导干部包联服务民营企业助推民营经济高质量发展工作方案》，以及介绍中央预算内资金支持方向、地方政府专项债券资金投向领域，农发行秦皇岛分行、中国银行秦皇岛分行、秦皇岛银行等15家金融机构服务企业政策措施的资料汇编。', '会上印发了《海港区优化营商环境实施方案》《海港区开展全员招商工作实施方案》《海港区支持本地企业转型升级十条措施（试行）》《市委主要领导分包海港区', '海港区要矢志不渝抓好项目建设，把项目、企业当做“衣食父母”，切实在优化营商环境上下功夫，全心全意为重点项目建设保驾护航。要当好项目建设的“联络员”。做到“真心包联”，真心与企业家交朋友，构建“亲清”的政商关系；真心帮助企业解决发展中遇到的问题，提供全程、全心、全方位服务。要当好项目建设的“保障员”。全力保障重大项目用地，做到“地等项目”；适度超前完善园区内的道路、供水、供电、供气、排水、通信等配套基础设施，让项目“有路可行、给排水有保障、电力供给充足、天然气更顺畅”。要当好项目建设的“辅导员”。及时向企业家讲解上级政策，特别是中央、省、市支持的产业方向和重点，确保建设项目少走弯路；举办高质量政银企对接会，帮助企业拓宽融资渠道；加大对企业的培训力度，帮助企业上市获得更广泛的资金支持；对本土企业新上高科技及产业支持类项目给与政策支持；设立产业发展基金，对符合六大产业集群和六大服务业基地建设要求的企业给予支持。要当好项目建设的“安全员”。严厉打击“吃、拿、卡、要”等各类破坏营商环境行为，强化“谁破坏发展环境，就让谁丢饭碗”的震慑，推动“找局长”向“找市场”转变、“找门路”向“找政策”转变、“找靠山”向“找法治”转变。要当好项目建设的“服务员”。提高政务效率，实行“要件一次性告知、一次性办结、一天内办成”。针对需要现场踏勘及联合审批的事项要明确办理时限，让企业家少跑路、少操心，唱响“凡事在海港区都好办”的品牌。要当好项目建设的“领航员”。领着企业家到先进地区学习考察、开拓视野，助力企业插上翅膀加速腾飞；领着企业家洽谈项目，包联区领导带着企业以商招商，为企业延链、补链、强链，打造集群发展模式。', '发展是硬道理，作风是硬条件。海港区要坚持问题导向、责任导向、目标导向，坚决向影响营商环境的“盲”系、“庸” 系、“懵” 系、“懒” 系、“拖” 系、“怕” 系、“飘” 系、“冷” 系、“怨” 系、“伪” 系、“贪” 系、“妄” 系干部亮剑。会上印发了《中共海港区委关于开展“十二系”干部作风整顿活动的实施方案》，《方案》指出，要以“三实四细五个干六个清单”工作法进行自我革命，树立“七种新风正气”。《方案》明确，要对症下药，靶向治疗，以“五个干”措施，针对性地解决“十二系”问题。用“谁来干”解决不想干事、不敢担当的问题；用“干什么”解决方向不清、任务不明的问题；用“怎么干”解决大而化之、胸中无术的问题；用“什么时间干成”解决不催不办、拖拖拉拉的问题；用“干的效果如何”解决标准不高、得过且过的问题。通过把干部作风整顿与党史学习教育、我为群众办实事相结合，大兴学习研究之风，打破“盲”和“庸”的束缚；大兴真抓实干之风，打破“懵”和“懒”的束缚；大兴雷厉风行之风，打破“拖”的束缚；大兴攻坚克难之风，打破“怕”的束缚；大兴较真碰硬之风，打破“飘”和“冷”的束缚；大兴忘我奉献之风，打破“怨”和“伪”的束缚；大兴廉洁自律之风，打破“贪”和“妄”的束缚。通过最大限度地解放思想、凝聚共识、转变作风，提振各级干部精气神，事争一流，争先进位，以新作风引领新征程，当好建设一流国际旅游城市的排头兵和探路者。', '发展是硬道理，作风是硬条件。海港区要坚持问题导向、责任导向、目标导向，坚决向影响营商环境的']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>抚宁区赴江苏山东造纸玻纤企业学习考察</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-10-19</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=DF68ACB77A4FAF1050AD2B30BDF2F9D2</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['为加快推进留守营产业园建设及造纸玻纤企业转型升级进程，学习借鉴外地发展经验，抚宁区政府副区长、留守营产业园建设工作专班指挥长董立华带领区科工局、区生态环境分局、区发改局、区审批局、区资源规划局、抚宁经济开发区、留守营镇等留守营产业园建设工作专班成员及部分造纸玻纤企业负责人，组成造纸、玻纤考察团，赴江苏沭阳县、涟水县、建湖县以及山东单县、沂水县、河北任丘经济开发区等地学习考察。 考察团一行分别到江苏省沭阳县大丰收服装辅料有限公司、江苏凯盛纸业有限公司及涟水永丰纸业有限公司、江苏永玖纸业有限公司等4家造纸企业，学习考察园区建设和造纸产业发展工作；到山东单县盛世鑫光玻纤股份有限公司、天睿玻纤复合材料有限公司、山东玻纤集团有限公司、山东天舜环保科技有限公司和我省任丘市的河北瑞昌玻璃纤维制品有限公司、河北科苑玻璃纤维制品有限公司等6家玻纤企业，学习考察玻纤产业发展工作。 通过实地参观各企业厂区，与企业负责人及园区、政府领导就园区、企业发展等情况进行交流座谈，切实感受到了当地的投资洼地效应和良好的营商环境，两个产业发展的势头迅猛，对留守营园区建设和我区造纸玻纤产业发展有了更加客观的认识。先进地区的发展有诸多方面值得我们学习借鉴，相比之下我们在园区建设、企业发展方向、审批手续办理、项目用地挂牌、企业工艺装备、创新注册登记等方面还有很大差距。 留守营产业园建设工作专班将以此次考察为契机，进一步解放思想，坚定开发区扩区信心，积极推进既有项目建设，明确产品定位延长产业链，完善扶持企业的政策体系，加强企业规范化建设，全力推进留守营产业园建设和造纸玻纤转型升级工作。 （抚宁发布）', '为加快推进留守营产业园建设及造纸玻纤企业转型升级进程，学习借鉴外地发展经验，抚宁区', '副区长、留守营产业园建设工作专班指挥长董立华带领区科工局、区生态环境分局、区发改局、区审批局、区资源规划局、抚宁经济开发区、留守营镇等留守营产业园建设工作专班成员及部分造纸玻纤企业负责人，组成造纸、玻纤考察团，赴江苏沭阳县、涟水县、建湖县以及山东单县、沂水县、河北任丘经济开发区等地学习考察。', '考察团一行分别到江苏省沭阳县大丰收服装辅料有限公司、江苏凯盛纸业有限公司及涟水永丰纸业有限公司、江苏永玖纸业有限公司等4家造纸企业，学习考察园区建设和造纸产业发展工作；到山东单县盛世鑫光玻纤股份有限公司、天睿玻纤复合材料有限公司、山东玻纤集团有限公司、山东天舜环保科技有限公司和我省任丘市的河北瑞昌玻璃纤维制品有限公司、河北科苑玻璃纤维制品有限公司等6家玻纤企业，学习考察玻纤产业发展工作。', '考察团一行分别到江苏省沭阳县大丰收服装辅料有限公司、江苏凯盛纸业有限公司及涟水永丰纸业有限公司、江苏永玖纸业有限公司等', '通过实地参观各企业厂区，与企业负责人及园区、政府领导就园区、企业发展等情况进行交流座谈，切实感受到了当地的投资洼地效应和良好的营商环境，两个产业发展的势头迅猛，对留守营园区建设和', '区造纸玻纤产业发展有了更加客观的认识。先进地区的发展有诸多方面值得我们学习借鉴，相比之下我们在园区建设、企业发展方向、审批手续办理、项目用地挂牌、企业工艺装备、创新注册登记等方面还有很大差距。', '留守营产业园建设工作专班将以此次考察为契机，进一步解放思想，坚定开发区扩区信心，积极推进既有项目建设，明确产品定位延长产业链，完善扶持企业的政策体系，加强企业规范化建设，全力推进留守营产业园建设和造纸玻纤转型升级工作。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>我市启动退役军人就业创业导师选聘工作</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=70383046FB8663CD476C42A59D4245A7</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['本报讯（记者储学敏 通讯员高阳）近日，记者从市退役军人事务局获悉，为充分发挥社会各界在帮扶退役军人就业创业中的积极作用，在全市范围内启动退役军人就业创业导师选聘工作。即日起开始报名，6月10日截止。', '此次选聘的导师人选以企业家为主，涵盖投融资、孵化器、教学研究、工商、税务、财会、金融、法律、科技、教育、知识产权、人力资源、智库或咨询等就业创业相关领域人才，满足退役军人就业创业多元化、专业化、品牌化需求，符合条件的退役军人候选人优先入选。', '据悉，此次导师选聘将通过自荐、社会征集、机构推荐、主管部门邀请等方式开展。符合条件的申请人经所在单位或推荐机构同意后，到所在地县（区）级退役军人事务部门报名。经县（区）审核后，市退役军人事务局组成评审专家组对申请人材料进行审核、择优聘用，颁发导师聘任证书并予以公布。导师实行聘任制，聘期为2年。', '在市退役军人事务局指导下，退役军人就业创业导师重点围绕以下六个方面开展工作：在退役军人就业创业培训中担任授课讲师，传授就业创业有关知识、解答疑难问题、提示创业风险、提供业务辅导；对退役军人创业项目或初创企业进行考察、评估并提出咨询意见；与退役军人结对组合，通过上门指导、电话及“互联网+”等多种方式，开展“一对一”“一对多”“多对一”就业创业帮扶和指导工作；对挂牌的退役军人就业创业园地、教育培训基地、实习实训基地、就业基地、创业孵化基地提供建设指导，为园地（基地）内就业创业的退役军人提供咨询服务；作为评委或专家参加退役军人创业大赛、区域协作、就业创业政策调研座谈等活动，为政策制定部门提供意见建议；应邀参加各级退役军人事务部门组织的其他相关活动。', '在待遇激励方面，导师参加项目论证、咨询诊断、培训授课等就业创业帮扶活动，邀请单位可按政府采购价或市场价格标准支付导师劳务报酬。市退役军人事务局将积极开展导师学习交流活动，推荐优秀导师参加各类优秀人才评选、培训、学习考察等活动。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>抚宁区教育提升专班落实赴承德县学习考察成果</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-10-19</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=3338D6E1649B71A9BFC7C1D3214A79DB</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['9月26日至27日，在抚宁区委副书记、教育提升工作专班指挥长杨为民带领下，学习考察组一行18人赴承德县学习考察。 十年前，承德县处于教育低谷时期，县委县政府在逆境中努力求变，积极落实一系列制度措施，助力教育奋起发展。承德县委县政府全面落实教育优先发展战略，全力保障教育投入，全面落实“三个优先”和两个“只增不减”，相继出台一系列推进教育发展的制度措施，每年召开全县教育大会，表彰优秀教育工作者、教学质量先进个人，教育奖励资金逐年增加。始终将提高教育教学质量作为中心工作，做实“四个两”工程和“四个双”活动。重视三支队伍建设，坚持从教学一线选拔校长和中层干部，严格考核机制，出现一票否决项就地免职；重视教师素质提高，进行教师基本功过关考核；教师发展中心主任由教体局班子成员担任，严格遴选教研员，确保教研员个个是精兵强将。将承德县一中作为重点突破口，投资近3亿元迁建新址，优化班子成员配备，带领全体教师发扬“卧薪尝胆、脚踏实地、步步为营”的一中精神，以一中为龙头进而推动初中和小学的发展。经过十年的努力，全县已经全面形成教育事业良性发展新局面。2021年承德县一中本科上线率100%，全市历史类前十名县一中7人，夺得文科状元，物理类前十名县一中3人，有2名学生被清华、北大录取，综合指标位于承德市第一名。中考质量也逐年提升，各项指标综合评价居全市前列，承德县已经成为承德市的教育高地。 抚宁区教育提升专班深入学习承德县的成功经验和做法，第一时间组织召开专班专题会议，集中力量审阅《赴承德县学习考察报告》，从“围绕立德树人根本任务，牢牢把握教育工作正确方向、围绕激发教育发展内生动力，多措并举建强三支队伍、围绕提高教育教学质量主线，找准抚宁教育振兴突破口”三个方面，研究制定《教育教学质量提升实施方案》，明确下一步教育工作思路。 区教育提升专班将以攻坚克难的进取精神和勇于担当的工作作风，抓实抓细教育教学质量提升工程，凝心聚力共促抚宁教育发展。 （抚宁发布）', '9月26日至27日，在抚宁区委副书记、教育提升工作专班指挥长杨为民带领下，学习考察组一行18人赴承德县学习考察。', '十年前，承德县处于教育低谷时期，县委县政府在逆境中努力求变，积极落实一系列制度措施，助力教育奋起发展。承德县委县政府全面落实教育优先发展战略，全力保障教育投入，全面落实“三个优先”和两个“只增不减”，相继出台一系列推进教育发展的制度措施，每年召开全县教育大会，表彰优秀教育工作者、教学质量先进个人，教育奖励资金逐年增加。始终将提高教育教学质量作为中心工作，做实“四个两”工程和“四个双”活动。重视三支队伍建设，坚持从教学一线选拔校长和中层干部，严格考核机制，出现一票否决项就地免职；重视教师素质提高，进行教师基本功过关考核；教师发展中心主任由教体局班子成员担任，严格遴选教研员，确保教研员个个是精兵强将。将承德县一中作为重点突破口，投资近3亿元迁建新址，优化班子成员配备，带领全体教师发扬“卧薪尝胆、脚踏实地、步步为营”的一中精神，以一中为龙头进而推动初中和小学的发展。经过十年的努力，全县已经全面形成教育事业良性发展新局面。2021年承德县一中本科上线率100%，全市历史类前十名县一中7人，夺得文科状元，物理类前十名县一中3人，有2名学生被清华、北大录取，综合指标位于承德市第一名。中考质量也逐年提升，各项指标综合评价居全市前列，承德县已经成为承德市的教育高地。', '十年前，承德县处于教育低谷时期，县委县政府在逆境中努力求变，积极落实一系列制度措施，助力教育奋起发展。承德县委县政府全面落实教育优先发展战略，全力保障教育投入，全面落实', '抚宁区教育提升专班深入学习承德县的成功经验和做法，第一时间组织召开专班专题会议，集中力量审阅《赴承德县学习考察报告》，从“围绕立德树人根本任务，牢牢把握教育工作正确方向、围绕激发教育发展内生动力，多措并举建强三支队伍、围绕提高教育教学质量主线，找准抚宁教育振兴突破口”三个方面，研究制定《教育教学质量提升实施方案》，明确下一步教育工作思路。', '抚宁区教育提升专班深入学习承德县的成功经验和做法，第一时间组织召开专班专题会议，集中力量审阅《赴承德县学习考察报告》，从', '区教育提升专班将以攻坚克难的进取精神和勇于担当的工作作风，抓实抓细教育教学质量提升工程，凝心聚力共促抚宁教育发展。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>抚宁区召开党政班子联席会</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-10-15</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D92EFCB8A7B7E35D5A85157E1D272938</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['10月12日，抚宁区委书记张立红主持召开党政班子联席会，听取近期重点工作完成情况汇报，安排部署下阶段重点工作。郭继东、杨为民等区党政班子成员出席会议。区人大常委会主任史东杰列席会议。市驻抚督查组组长吴慧敏应邀参加会议。 会议听取与会区领导9月份重点工作完成情况和10月份重点工作安排情况汇报；听取区科工局、区教体局、区农业农村局、区委宣传部外出考察工作情况汇报。 张立红指出，近期我区开展的一系列外出学习考察活动，让人感触很深，不仅开阔了视野，看到了其它地区值得学习和借鉴的地方，也清楚地认识到抚宁发展仍然任重道远。各分管区领导和各部门一把手要结合学习收获和我区实际，深入研究抚宁发展路径，要有事争一流的意识，对标对表先进地区，夯实工作基础，建设一流队伍，创新性地开展工作，为“七个新抚宁”建设贡献力量。 张立红强调，要以决战的姿态，突出抓好招商选资、乡村振兴等12个工作专班的重点工作，让专班成为抚宁当前工作的总抓手。要聚焦圆满完成全年目标任务，充分利用今年最后三个月的时间，全力攻坚突破，力争在全市考核排名中名列前茅。要聚焦民生实事，特别是城区供暖和农村清洁取暖不能出任何问题，加快推进设备安装及调试，同时提前做好相关预案，提升应急处置能力，确保百姓温暖过冬。要聚焦企业需求，与企业站在一起，帮扶解决实际困难，体现党委政府的责任担当，同企业共渡难关。各级领导干部要下大力度抓好落实，务必做到上级政策清、目标要求清、基本情况清、工作思路清，并且弄懂干什么、怎么干、谁来干、干到什么程度的问题，在真抓实干中切实提高抓落实能力。 会上，张立红还就部分重点工作进行了具体安排部署。区委副书记、区长郭继东针对部分工作讲了意见。 （抚宁发布）', '10月12日，抚宁区委书记张立红主持召开党政班子联席会，听取近期重点工作完成情况汇报，安排部署下阶段重点工作。郭继东、杨为民等区党政班子成员出席会议。区人大常委会主任史东杰列席会议。市驻抚督查组组长吴慧敏应邀参加会议。', '会议听取与会区领导9月份重点工作完成情况和10月份重点工作安排情况汇报；听取区科工局、区教体局、区农业农村局、区委宣传部外出考察工作情况汇报。', '张立红指出，近期我区开展的一系列外出学习考察活动，让人感触很深，不仅开阔了视野，看到了其它地区值得学习和借鉴的地方，也清楚', '认识到抚宁发展仍然任重道远。各分管区领导和各部门一把手要结合学习收获和我区实际，深入研究抚宁发展路径，要有事争一流的意识，对标对表先进地区，夯实工作基础，建设一流队伍，创新性', '张立红强调，要以决战的姿态，突出抓好招商选资、乡村振兴等12个工作专班的重点工作，让专班成为抚宁当前工作的总抓手。要聚焦圆满完成全年目标任务，充分利用今年最后三个月的时间，全力攻坚突破，力争在全市考核排名中名列前茅。要聚焦民生实事，特别是城区供暖和农村清洁取暖不能出任何问题，加快推进设备安装及调试，同时提前做好相关预案，提升应急处置能力，确保百姓温暖过冬。要聚焦企业需求，与企业站在一起，帮扶解决实际困难，体现党委政府的责任担当，同企业共渡难关。各级领导干部要下大力度抓好落实，务必做到上级政策清、目标要求清、基本情况清、工作思路清，并且弄懂干什么、怎么干、谁来干、干到什么程度的问题，在真抓实干中切实提高抓落实能力。', '会上，张立红还就部分重点工作进行了具体安排部署。区委副书记、区长郭继东针对部分工作讲了意见。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>抚宁区到北戴河区学习考察文明城市创建工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-09-27</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6CF3B120A370F1B73787AE797468FC8C</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['9月23日，抚宁区委常委、宣传部长张悦带领各乡镇、街道办宣传委员及各社区书记到北戴河区学习考察文明城市创建工作。 考察组首先来到了东经路社区，被社区的硬件设施及环境所震撼，在工作人员的热情介绍下，考察人员进一步被他们的匠心精神所折服。统一设计风格、活动式的标牌，一室多用，这些无不体现着工作人员的创新能力；学雷锋志愿服务站建设、档案管理，每个细节能看出工作人员的良苦用心。这些也都是值得我们学习和借鉴的经验做法，大家认真学习，边看、边拍照记录。除此之外，东经路社区的健康养生、文体功能室、图书室等功能室也都得到了充分的利用，这里既是居民办理业务的场所，更是居民之家、休闲娱乐场所。 随后，考察团又来到了海滨镇陆庄村，这是一个改革开放后崛起的渔村，一进村就被村里以渔文化为主题的文化广场所吸引，海浪、渔船、渔网以及鱼型展牌等设计都展现出了村民对渔民生活的情怀。借区域优势，近几年，村民又以发展旅游民宿为主业，而村民致富也是依托村内环境的改善，大家都自觉加入到志愿服务队伍中，积极投身农村建设。 在返程后的总结会上，区委常委、宣传部长张悦要求，各单位要认真学习借鉴北戴河区先进、精细化的创建工作方式方法，对照标准查找不足，以此次学习活动为契机，切实提升整体工作，为创建省级文明城区打下坚实基础。 （抚宁发布）', '被社区的硬件设施及环境所震撼，在工作人员的热情介绍下，考察人员进一步被他们的匠心精神所折服。统一设计风格、活动式的标牌，一室多用，这些无不体现着工作人员的创新能力', '这些也都是值得我们学习和借鉴的经验做法，大家认真学习，边看、边拍照记录。除此之外，东经路社区的健康养生、文体功能室、图书室等功能室也都得到了充分的利用，这里既是居民办理业务的场所，更是居民之家、休闲娱乐场所。', '随后，考察团又来到了海滨镇陆庄村，这是一个改革开放后崛起的渔村，一进村就被村里以渔文化为主题的文化广场所吸引，海浪、渔船、渔网以及鱼型展牌', '设计都展现出了村民对渔民生活的情怀。借区域优势，近几年，村民又以发展旅游民宿为主业，而村民致富也是依托村内环境的改善，大家都自觉加入到志愿服务队伍中，积极投身农村建设。', '在返程后的总结会上，区委常委、宣传部长张悦要求，各单位要认真学习借鉴北戴河区先进、精细化的创建工作方式方法，对照标准查找不足，以此次学习活动为契机，切实提升整体工作，为创建省级文明城区打下坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>美了颜值富了经济</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-06-02</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=AFB1C5962A1F8FA9A398A9AF969AE7CC</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['石门寨镇房庄村，依山傍水，青砖瓦黛。春季，在这里登山赏花；夏秋季，在这里漂流戏水；冬季，在这里赏冰瀑，观雪景，还可以手持雪杖，足蹬滑雪板，在冰雪世界中驰骋滑翔。近年来，房庄村利用自身优势，不断发展乡村旅游，2020年村民人均年收入达两万余元，村子美了，村民富了，真正做到了绿水青山就是金山银山。', '石门寨镇房庄村，依山傍水，青砖瓦黛。春季，在这里登山赏花；夏秋季，在这里漂流戏水；冬季，在这里赏冰瀑，观雪景，还可以手持雪杖，足蹬滑雪板，在冰雪世界中驰骋滑翔。近年来，房庄村利用自身优势，不断发展乡村旅游，', '2011年，房庄村几位村民代表来到在外地经商的房文平家中，恳请房文平回村挑起村委会主任的担子，带着大家致富。当时的房庄村，人均收入只有几百块钱。面对乡亲们恳切的目光、朴实的话语，房文平动心了。2011年底，第九届村民委员会换届选举，房文平以满票当选为村委会主任。', '经过深入思考，房文平决定带领村民发展乡村旅游。2013年，他请来专家反复论证，自费到全国各地风景优美的自然景观考察项目，了解适宜乡村发展的模式，经过学习考察，决定启动老君顶景区建设。铺公路、清河道、建垂钓园、修登山石阶、河谷漂流、高山漂流……经过两年时间，2015年，老君顶的漂流项目与游客见面，2016年冰雪旅游也正式开启。据统计，房庄村2017年接待游客38余万人，村民人均收入24000元，居全市前列。', '近年来，房庄村“两委”紧紧围绕“强组织、谋发展、促经济”这一主题，发挥基层组织领导力、党员和村民代表带动力、村民积极参与自发力，按照“产业兴旺、生态宜居、乡风文明、治理有效、生活富裕”的乡村振兴总要求，大力发展乡村旅游，唱响“美丽经济”，走出了一条具有房庄特色的乡村振兴路。', '乡村旅游要发展，村集体利益要保障，村民增收致富要长远。乡村旅游投入运营开发成本远远超过旅游项目收入，收支不平衡，远远超出了边经营边投资开发循环发展的预期。房庄村村委会与景区公司始终坚持带领村民建设一个景区式的美丽家园，让大家都过上好日子。通过开发，使村民土地流转有收入，符合条件的村民在景区安排工作，村民参与景区物业管理，带动村民开展旅游特色农副产品种植、生产、加工、销售。努力建设一个以旅游文化、康养为主导，其他相关产业融合可持续发展的美丽新农村。', '在房庄村改造建设中，村“两委”班子充分尊重群众的意愿，有效夯实党在群众中的基础，在规划中充分采纳群众的合理化建议。对村庄进行进一步的“梳洗打扮”，让村庄魅力更加突显。房庄村先后修建了复古滨水商业街、老君观祈福路、村居民巷道路等6000延长米；新建综合楼面积约850平方米，具备村委会、游客中心、服务接待、文化演出等多种功能，并在未来发展和拓展使用上留有条件，具备功能可灵活变化的特质。改建了120平方米的妇女之家和儿童之家；修建了第二个约180平方米的小型村民健身文化广场等。村里共实施了改厕、改水、改线、改暖、砌筑新的院墙、建设污水站等工程。通过工程的实施，上下水通达村内家家户户，污水进入污水站进行处理，最后达标排放改厕的实施，让村民用上了清洁、卫生的双瓮式厕所，以往夏天臭气弥漫、蚊蝇乱飞的情况彻底改变；电线、网线、电话线等线路全部改入地下，再不见满天“蜘蛛网”；户户安装了新风源取暖设备，告别了烧柴烧煤的传统取暖方式；新院墙的垒砌，则让街道整洁、舒朗。村民生活环境、生活水平、生活质量不断提高。', '乡村旅游发展起来了，房庄村又开始在农产品深加工上下功夫。2019年1月，经过村“两委”多次会议研究和村民代表大会决议，重点发挥秦皇岛晋泰种植农民专业合作社作用，培育“君顶美农”“秦皇老君顶”农特产品品牌，真正实现产、供、销一条龙服务。房庄及周边村农特产品资源丰富，农副产品深加工产业很多，如茶叶、杏仁油、葵花籽油、芝麻酱、荆花蜜等。特色农业和农产品精深加工业为农产品特卖场提供多元、丰富的优质货源，通过发展商贸服务业，活跃当地及周边的农村市场。2019年，村集体第三产业的壮大，直接给村集体经济增加了5万元的收入。', '在发展乡村旅游的过程中，房庄村还不断完善民宿经营。为了动态保存村里的老建筑，做好旅游服务配套，房庄作为海港区乡村旅游的“先发部队”，决定从2020年大力发展民宿经济。把精致小屋安放在绿水青山之中，把城市现代生活转移到乡村里，一期建设木屋、崖居、观星屋共30个；龙须河以东空闲地，规划 10 万平方米精美的综合南北山水文化风格的山地合院建筑。游客张女士说：“夏天我喜欢带着家人、孩子来这里玩，空气清新，特别的舒服，再住上几天民宿，玩玩漂流，爬爬山，非常惬意。”', '在发展乡村旅游的过程中，房庄村还不断完善民宿经营。为了动态保存村里的老建筑，做好旅游服务配套，房庄作为海港区乡村旅游的', '如今的房庄村，靠山吃山、靠水吃水，真正做到了绿水青山就是金山银山，每年吸引了大量游客前来游玩，老君顶也成为了房庄村一张靓丽的名片，真正做到了“颜值”变“价值”。', '如今的房庄村，靠山吃山、靠水吃水，真正做到了绿水青山就是金山银山，每年吸引了大量游客前来游玩，老君顶也成为了房庄村一张靓丽的名片，真正做到了']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>黑龙江省佳木斯市城郊区到我市学习考察农村人居环境整治工作</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2020-12-23</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=F33B4163C9558DF4C79539B5D1F4F36E</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['月17日，由省人居办推荐，黑龙江省佳木斯市城郊区副区长王俊波一行八人到我市考察学习，以厕所改造、生活垃圾整理、生活污水治理等工作为重点，实地走访考察了海港区山前村、北杨庄、北未庄、房庄和北戴河区戴河村。市农业农村局副调研员张利华，海港区农业农村局、北戴河区农业农村局相关人员陪同考察。', '黑龙江省佳木斯市城郊区，是佳木斯市市政府所在地，为了更好的推进农村人居环境整治工作，由部分乡镇党委书记、区农业农村局和规划设计院工作人员组成考察团，到河北省参观学习。根据考察团要求，我市选取海港区和北戴河区两个区的五个村。考察团对我市农村人居环境整治工作给予了高度的评价，并表示此次考察有很大收获，收到很大启发。 （农村建设科）']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>我市选聘退役军人创业导师月日前可报名</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-05-31</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5335DDA9098E3AE40919DFBBDEFF230B</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['本报讯（通讯员高阳 记者刘迅）近日，市退役军人事务局在全市范围内启动退役军人就业创业导师选聘工作。', '据介绍，此次选聘的导师人选以企业家为主，涵盖投融资、孵化器、教学研究、工商、税务、财会、金融、法律、科技、教育、知识产权、人力资源、智库或咨询等就业创业相关领域人才，满足退役军人就业创业多元化、专业化、品牌化需求，符合条件的退役军人候选人优先入选。', '此次选聘通过自荐、社会征集、机构推荐、主管部门邀请等方式甄选导师，符合条件的申请人经所在单位或推荐机构同意后，到所在地县（区）级退役军人事务部门报名。经县（区）审核后，市退役军人事务局组成评审专家组对申请人材料进行审核、择优聘用，颁发导师聘任证书并予以公布。导师实行聘任制，聘期为两年，报名从即日起到6月10日结束。', '退役军人就业创业导师在市退役军人事务局指导下，重点围绕以下6个方面开展工作：一是在退役军人就业创业培训中担任授课讲师，为退役军人传授就业创业有关知识、解答疑难问题、提示创业风险、提供业务辅导；二是对退役军人创业项目或初创企业进行考察、评估并提出咨询意见；三是与退役军人结对组合，通过上门指导、电话及“互联网+”等多种方式，开展“一对一”“一对多”“多对一”就业创业帮扶和指导工作；四是对挂牌的退役军人就业创业园地、教育培训基地、实习实训基地、就业基地、创业孵化基地提供建设指导，为园地（基地）内就业创业的退役军人提供咨询服务；五是作为评委或专家参加退役军人创业大赛、区域协作、就业创业政策调研座谈等活动，为政策制定部门提供意见建议；六是应邀参加各级退役军人事务部门组织的其他相关活动。', '在待遇激励方面，导师参加项目论证、咨询诊断、培训授课等就业创业帮扶活动，邀请单位将按政府采购价或市场价格标准支付导师劳务报酬。市退役军人事务局积极开展导师学习交流活动，创造条件推荐优秀导师参加各类优秀人才评选、培训、学习考察等活动。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>杭州市残疾人联合会一行来海港区参观交流</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2020-10-29</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=DF585B9A9094444BC7EF966D11117244</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['近日，来自杭州市残疾人联合会一行在秦皇岛市残联党组成员、四级调研员杨光亚的陪同下，来到海港区残疾人温馨家园--残疾人辅助性就业机构天使烘焙进行参观学习考察。区残联党组成员、副理事长李业秋陪同参观。', '近日，来自杭州市残疾人联合会一行在秦皇岛市残联党组成员、四级调研员杨光亚的陪同下，来到海港区残疾人温馨家园', '考察团一行参观了天使烘焙产品包装车间、食品生产加工车间及天使烘焙残疾员工多功能文娱艺术厅，并详细询问了在天使烘焙辅助性就业残疾人的残疾类别、残疾等级及就业年龄等基本情况，并与海港区残联副理事长李业秋及天使烘焙负责人就残疾人辅助性就业机构的设立、运行、劳动技能培训、劳动职业康复及辅助性就业残疾人的生活、学习、康复、技能培训进行了全面了解，并提出宝贵意见。考察团先后观看了残疾员工加工产品包装盒及生产制作饼干、蛋糕等食品加工过程，最后残疾员工为考察团深情演唱了《我和我的祖国》，引起在场所有人员的共鸣。考察团一行对残疾人辅助性就业做出的扶持成绩给与充分肯定和高度评价，并就残疾人辅助性就业的持续性发展提出了宝贵的经验建议。', '考察中，市残联班子成员杨光亚同志对天使烘焙就业的残疾员工一年多来通过职业康复所带来的生活面貌、工作能力及生存质量的提升表示非常欣慰，并对天使烘焙残疾员工，提出殷切希望，希望他们能自强自立，通过自身的努力，掌握一技之长，实现自身价值，尽快融入社会。同时表示，市、区残联以后将在政策资金、产品销售上继续给予全方面支持与帮助。', '海港区残联副理事长李业秋借此机会表示，感谢全社会爱心企业、爱心人士的关心与关爱，天使们的成长离不开全社会的关注，离不开政府的支持，离不开他们自强自立的精神，离不开天使烘焙所有员工的默默付出，相信在党和政府的关怀下，在全社会的共同努力下，一定能为天使们撑起一片天地。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>孟慧明局长带队赴南京等地学习考察公共资源交易工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2020-11-22</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C11E3A979008AF888911D10FDD6A0B7D</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['11月5日至11月10日，市行政审批局局长孟慧明带队，赴南京市公共资源交易中心、国泰新点软件股份有限公司、湖', '智慧招采、智慧政务及数字建设三个领域信息化建设研发情况，为我市公共资源交易平台市县一体化建设积累了经验。', '深入推进公共资源交易平台市县（区）一体化建设，全力推进全程电子化、过程阳光化、服务标准化、监管智能化建设，']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>海港区村庄面貌换新颜</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2020-08-17</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=046C60BC4912285AE340F75F43DD745C</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['本报讯（记者何春雷 通讯员许思源 陈斯）今年是农村人居环境整治三年行动收官之年，海港区以农村生活垃圾治理、村容村貌提升、村庄清洁行动等为主攻方向，全区干部群众合力攻坚，农村人居环境不断提升，村庄面貌明显改善，一幅美丽的“生态画卷”正在海港区徐徐铺展开来。', '走进海港区石门寨镇北杨庄村，村内房屋平整、路面干净，房前屋后的木栅栏里，蔷薇、月季花在阳光下开得正艳。北杨庄村是第二届河北省旅发大会打造的美丽乡村，近段时间，村“两委”组织村民在原有基础上对村庄环境进行再提升，除了坚持每周六的义务劳动外，全村还实行网格化管理，每名党员、村民代表、“两委”班子成员分包到户，督促村民自觉维护村庄环境。', '“我们还想制定一个措施，谁家能达到美丽庭院标准，村里给予一定的物质奖励，激励大家保护好村里的环境卫生。”北杨庄村党支部书记杨志桥说。', '在农村人居环境整治工作中，海港区的其他乡村也都发生了明显的变化。杜庄镇车庄村按照“五清三建一改”的要求，清理了村内的垃圾和杂物，将平整出来的土地进行合理规划，建设了小游园、小菜园和小果园，主路两侧还栽植了国槐和柳树，全面提升村庄容貌。', '“首先从党员、村干部、村民代表抓起，把自家房前屋后打出样来让村民看，带动大家对村庄面貌连片进行提升。环境变好后进行常态化管理，实行门前五包，让维护环境成为自觉。”车庄村党支部书记高祥华说。', '为了确保农村人居环境整治工作取得实效，海港区制定了《农村人居环境整治实施方案》，全区党政主要领导亲自谋划、亲自部署，分管领导一线指挥、一线督导，形成了区级领导包镇（园区）、镇党政班子成员包村的制度，确保各项既定任务落实到位。同时，通过去外地学习考察、开展“百日攻坚”行动、召开推进会、现场会等形式，对整治工作进行全面深入部署。', '随着农村人居环境整治工作的不断推进，海港区打造了11个农村人居环境整治示范片区和7个样板示范村，以典型带动的方式，使村容村貌有了较大幅度的提高。同时，先后两次开展全区农村人居环境整治暨村庄清洁百日攻坚拉练活动，各镇通过观摩学习、开展擂台赛等形式，营造比学赶超的农村人居环境整治的工作氛围，使农村人居环境整治工作制度化、常态化、长效化、高效化。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>市长张瑞书对赴烟台青岛学习考察海洋经济统计工作情况的报告作了重要批示</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020-09-25</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=A07FFF4ACA086D864D32C725825C34D6</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['月18日，市长张瑞书对《赴烟台青岛学习考察海洋经济统计工作情况的报告》作了重要批示：将外地经验转化为我市的政策措施，按程序批准。', '为把全市海洋经济统计工作实质性开展起来，做好海洋经济统计工作，为海洋经济发展提供统计数据服务，经市政府同意，9月2日至3日，市统计局与市海洋渔业局、省自然资源厅海洋规划与经济处组成联合考察团，赴山东烟台和青岛两个城市进行了学习考察。', '月14日，市统计局与市海洋局联合向市政府提交了关于赴烟台青岛学习考察海洋经济统计工作情况的报告。报告详细分析了烟台、青岛两市海洋经济统计工作主要做法和两市海洋经济统计工作基本经验，并结合我市实际，从我市海洋经济统计存在的主要问题及初步工作两个方面提出建议。', '下一步，市统计局将按照市长批示要求，配合市海洋渔业局，全力做好全市海洋经济统计工作。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>秦皇岛市赴玉田县鹿泉区学习考察县域科技创新跃升</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2020-10-22</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=187EAAE0FBAA02D03D0A18992F8B03F2</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['近日，由市科技局党组书记薛顺平带队，局机关相关人员、县区科技管理部门的负责同志一行16人，往石家庄市鹿泉区、唐山市玉田县就县域科技创新跃升工作进行了学习考察。', '考察组一行结合我市县域科技创新跃升工作中的问题短板，就研发投入、创新主体培育、平台建设、科技服务等县域科技创新等方面同玉田县、鹿泉区相关人员进行了全面深入的座谈和交流。通过学习交流，大家深受触动，对于鹿泉区完善资金、人才、政策等创新链条、建设创新创业中心、以政府购买服务的方式引入专业服务机构，玉田县强化政策支撑以资金奖励激发企业创新主体活力、以科技成果转化活动推进科技招商、“科技特派员+专业服务机构+企业一帮一”的“三加”服务模式等做法给予高度赞扬。', '下一步，市科技局将认真消化考察学习的经验做法，抓好顶层设计，不断整合县域科技创新资源，建立科技创新协同发展机制，打造富有活力的创新创业服务体系，完善人才、资金、政策、服务创新链条，实现全市县域科技创新工作的新跃升。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>张瑞书考察我市对口援疆工作并看望慰问援疆干部人才</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2020-10-20</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=7A91F3DDE93171ABDC95026F44199AA1</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['本报讯（记者薛飞）为深入贯彻落实习近平总书记在第三次中央新疆工作座谈会上的重要讲话精神，在随同省党政代表团到新疆学习考察期间，10月17日，市委副书记、市长张瑞书到新疆巴音郭楞蒙古自治州博湖县考察我市对口援疆工作并看望慰问援疆干部人才。他强调，要坚决落实党中央决策部署和省委、省政府工作要求，带着感情、带着责任进一步做好对口援疆工作，为新疆长治久安和高质量发展贡献秦皇岛力量。', '“大家辛苦了！”张瑞书当天来到市援疆前指办公室，代表市委、市政府亲切看望慰问我市援疆干部人才，详细了解他们的工作生活情况。在随后召开的座谈会上，张瑞书认真听取了博湖县县情介绍和我市对口援疆工作情况汇报，并对我市对口援疆工作取得的成绩给予充分肯定。', '张瑞书动情地说，长期以来，全体援疆干部人才舍小家、顾大家，与博湖县干部群众一道，携手并肩、砥砺前行，为地方经济社会发展和民生改善作出了突出贡献，特别是在教育和医疗水平提升等方面起到了积极的促进作用，我代表市委、市政府和全市人民向大家表示亲切慰问和崇高敬意。', '张瑞书强调，对口援助新疆巴州博湖县，是中央和省交给我们的政治任务，全体援疆干部人才要珍惜这一难得的人生经历，在艰苦条件和复杂环境中磨炼意志、锤炼作风、提升本领，以强烈的政治责任感和使命感，用心用情用力做好相关工作，不辜负党和人民的重托。要立足秦皇岛和博湖发展实际，深入研究探索，有针对性开展招商引资，积极谋划建设产业项目，为博湖发展注入新动力、培育新动能。要围绕群众的所思所想所盼，着力保障改善民生，不断提升受援群众的获得感、幸福感、安全感。市委、市政府将一如既往地关心支持援疆干部人才的工作和生活，从速从优解决好大家工作生活中遇到的困难和问题，努力当好坚强后盾。', '张瑞书向博湖县委、县政府对我市援疆干部人才给予的关心支持表示感谢，并简要介绍了我市经济社会发展情况。他表示，秦皇岛和博湖两地要加强交流，互相学习，取长补短。我市援疆干部人才要认真学习新疆各级干部的好传统、好作风、好经验，当好两地人民增进感情、加深友谊的桥梁纽带。要积极组织有关部门和企业到博湖深入考察学习对接，为两地深化交流合作搭建平台，携手推动经济社会高质量发展。', '为填补博湖县没有艺术专业学校的空白，在我市援疆干部的积极沟通协调下，我市奇石教育集团用不到一年的时间援建起了博湖县奇石学校，解决了当地艺术特长生的专业培训难题。当天，张瑞书还实地考察了河北奇石教育集团职业高级中学项目建设情况，鼓励企业充分发挥自身优势，不断推进教育和产业融合发展，为当地艺术人才培养和艺术产业发展作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>丁伟带队到唐山学习考察农村人居环境整治工作</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2020-08-13</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9D31A58E0048FFC3F2D85E3B879E48CC</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['7月24日，市委副书记丁伟带队到唐山市迁安市、迁西县，学习考察农村人居环境整治工作。他强调，各级各有关部门要下定决心、坚定信心、保持恒心，以更高标准、更大力度、更实举措，推动农村人居环境整治和美丽乡村建设取得新进展、新成效。', '丁伟一行先后实地考察了迁西县东莲花院乡花乡果巷田园综合体、东城峪村、马家沟村、白庙子乡黑洼村和长河治理工程，迁安市五重安乡茶井沟村、万宝沟村、红峪口村、马兰庄镇乡村振兴片区、大五里乡大石河村，详细了解农村人居环境整治工作思路举措和取得成效。马家沟村突出“国学”特色，走出了农文旅融合发展新路；黑洼村立足资源优势，把小栗蘑做成了大产业；马兰庄镇加强乡村整理，把脏臭坑塘打造成为“水上公园”……考察组成员冒着高温酷暑，一路走一路看，边探讨边交流，纷纷表示此次学习考察受益匪浅，收获良多。', '考察过程中，丁伟对唐山市农村人居环境整治经验做法给予高度赞赏。他指出，唐山、秦皇岛地缘相近、人缘相亲，在经济社会发展特别是农业农村方面有着许多共通之处，迁安市、迁西县等地农村人居环境整治经验做法值得我市学习借鉴。各级各有关部门要把好的经验做法带回来，认真消化吸收，并结合本地实际，再鼓劲、再加压、再出发，抓紧谋划今年第二轮农村人居环境整治“百日攻坚”行动，持续巩固成果，推动农村人居环境再上新台阶。', '丁伟强调，要强化规划引领，坚持城乡统筹、全域规划，进一步理清发展思路，找准切入点和突破口。要加强乡村整理，因地制宜、因势利导，以务实管用的方法路径补齐短板、提升风貌。要突出典型示范，重点抓、抓重点，着力打造一批示范村、示范项目、示范片区，培育特色亮点，串点成线、聚线成面，最终实现全域推进、整体提升。要做大做强产业，坚持“一域一品”，大力调整优化农业产业结构，不断壮大农村集体经济、增加农民收入，为美丽乡村建设提供有力支撑。要坚持党建引领，让党旗树在整治一线，充分发挥基层党组织战斗堡垒和党员先锋模范作用，做给群众看，带着群众干，激发群众积极性、主动性和创造性。要完善保障机制，层层压实责任，全力做好资金和人员保障，不断健全完善长效管护机制，坚决打赢农村人居环境整治和美丽乡村建设这场硬仗。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>北戴河实现全区清洁取暖</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-08-04</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=3F016144FF689AD6E9230DEFDFEFD8F1</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['本报讯（记者张婉）对老旧小区外墙加装保温层，对老旧供热管网进行更换，对居民更换断桥铝双窗户给予补贴，为农村“气代煤”用户免费安装燃气报警器、上燃气安全责任险，让群众得到了实实在在的好处，取暖效果也得到了群众的普遍认可。目前，北戴河区已实现城市区和农村清洁取暖全覆盖。', '近年来，北戴河区始终贯彻“绿水青山就是金山银山”的发展理念，自2017年4月，在全市率先打响了蓝天保卫战的第一枪，举全区之力，全面实施清洁取暖改造工程。把实用、经济、高效作为供暖改造的先决条件。在改造前，组建专班多次外出学习考察，经过充足的论证和测算，为供暖方式的选择提供了可靠的决策依据和数据支撑。结合北戴河的气候条件、地理位置以及居民收入，北戴河区最终决定，按照“因地制宜、分片实施、科学高效”的总体原则，在城市区采用地源热泵取代燃煤锅炉的方式进行集中供暖，在农村地区采用“气代煤”的方式进行取暖，最终实现全区范围的清洁取暖。', '在地源热泵改造中，北戴河区坚持“政府企业一起干、城市农村一起抓、干部职工一起上”的工作思路，主要领导亲自挂帅，分管副区长日夜坚守一线，克服了早晚气温低、施工难度大、地理环境复杂等一系列不利因素，组织了1500多人的队伍，昼夜施工、连续奋战，仅仅用了两个月的时间，改造供热站46个，打井1.5万多眼，电力增容20倍，如期确保了群众温暖过冬，创造了工期缩短近15个月的“北戴河速度”。', '对于睡惯了火炕，用惯了煤炉的农户来说，改用天然气会不习惯，主要是因为大家对天然气这种取暖方式不够了解，有人认为危险，有人认为太贵，禁用散煤的困难可想而知。在这项工作中，北戴河区采用区领导包村、镇领导包户的方式，挨家挨户做工作，宣传天然气清洁、节能、安全的优势，引导群众主动放弃燃煤。同时，以置换的方式将群众家中存煤进行回收处置，将等价费用存入回收户的电卡或天然气卡中，这种方式得到了群众的广泛拥护，确保了全区全域禁煤区的成功创建。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>北戴河区实现城乡清洁取暖全覆盖</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2020-08-06</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=A06E6812C217EDB1884F21A77D659A83</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['本报讯（记者王静）“我们在全市率先打响了蓝天保卫战的第一枪，举全区之力，全面实施清洁取暖改造工程。经过两年多的不懈努力，目前我区已实现城市区和农村清洁取暖全覆盖。”近日，北戴河区委副书记、区长韩恺向记者介绍北戴河区清洁取暖改造的总体情况。', '近年来，我市大力推进清洁取暖工程，而北戴河作为全国闻名的滨海旅游地，清洁取暖改造的步伐更是走在了全市的前列。2017年4月，在全市率先打响了蓝天保卫战的第一枪，举全区之力，全面实施清洁取暖改造工程。在实施过程中，该区创新工作思路，精心组织推进，昼夜抢抓工期，紧密团结群众，克服了工程量大、覆盖面广、时间紧迫等种种困难，经过两年多的不懈努力，目前，北戴河区已实现城市区和农村清洁取暖全覆盖。', '韩恺介绍，清洁取暖改造涉及群众切身利益，北戴河把实用、经济、高效作为供暖改造的先决条件。为此，在改造前，组建了专班多次外出学习考察，经过充足的论证和测算，为北戴河区在供暖方式的选择上提供了可靠的决策依据和数据支撑。结合北戴河的气候条件、地理位置以及居民收入，按照“因地制宜、分片实施、科学高效”的总体原则，在城市区采用地源热泵取代燃煤锅炉的方式进行集中供暖，在农村地区采用“气代煤”的方式进行取暖，最终实现全区范围的清洁取暖。', '在地源热泵改造中，北戴河区坚持“政府企业一起干、城市农村一起抓、干部职工一起上”的工作思路，克服早晚气温低、施工难度大、地理环境复杂等一系列不利因素，组织了1500多人的队伍，昼夜施工、连续奋战，仅仅用了两个月的时间，改造供热站46个，打井1.5万多眼，电力增容20倍，如期确保了群众温暖过冬，创造了工期缩短近15个月的“北戴河速度”。', '北戴河始终坚持以人民为中心的发展思想，采用区领导包村、镇领导包户的方式，挨家挨户做工作，宣传天然气清洁、节能、安全的优势，引导群众主动放弃燃煤。同时，以置换的方式将群众家中存煤进行回收处置，将等价费用存入回收户的电卡或天然气卡中，这种方式也得到了群众的广泛拥护，确保了北戴河全域禁煤区的成功创建。', '清洁取暖是传统能源领域的一场革命，北戴河区始终将维护广大群众的切身利益作为贯穿整项清洁取暖改造工程的主线，坚持政府主导、企业实施、群众参与，保障每一户居民温暖过冬。为了提高供暖效果，对老旧小区外墙加装了保温层，对老旧供热管网进行了更换，对居民更换断桥铝双层窗户给予补贴，为农村“气代煤”用户免费安装了燃气报警器、上好了燃气安全责任险。通过以上举措，让群众得到了实实在在的好处，取暖效果也得到了群众的普遍认可。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>北戴河区实现城乡清洁取暖全覆盖</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-08-05</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=93282FE6B70634379C41ADEA474F3FCA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['“我们在全市率先打响了蓝天保卫战的第一枪，举全区之力，全面实施清洁取暖改造工程。经过两年多的不懈努力，目前我区已实现城市区和农村清洁取暖全覆盖。”近日，北戴河区委副书记、区长韩恺向记者介绍北戴河区清洁取暖改造的总体情况。', '近年来，我市大力推进清洁取暖工程，而北戴河作为全国闻名的滨海旅游地，清洁取暖改造的步伐更是走在了全市的前列。2017年4月，在全市率先打响了蓝天保卫战的第一枪，举全区之力，全面实施清洁取暖改造工程。在实施过程中，该区创新工作思路，精心组织推进，昼夜抢抓工期，紧密团结群众，克服了工程量大、覆盖面广、时间紧迫等种种困难，经过两年多的不懈努力，目前，北戴河区已实现城市区和农村清洁取暖全覆盖。', '近年来，我市大力推进清洁取暖工程，而北戴河作为全国闻名的滨海旅游地，清洁取暖改造的步伐更是走在了全市的前列。', '韩恺介绍，清洁取暖改造涉及群众切身利益，北戴河把实用、经济、高效作为供暖改造的先决条件。为此，在改造前，组建了专班多次外出学习考察，经过充足的论证和测算，为北戴河区在供暖方式的选择上提供了可靠的决策依据和数据支撑。结合北戴河的气候条件、地理位置以及居民收入，按照“因地制宜、分片实施、科学高效”的总体原则，在城市区采用地源热泵取代燃煤锅炉的方式进行集中供暖，在农村地区采用“气代煤”的方式进行取暖，最终实现全区范围的清洁取暖。', '韩恺介绍，清洁取暖改造涉及群众切身利益，北戴河把实用、经济、高效作为供暖改造的先决条件。为此，在改造前，组建了专班多次外出学习考察，经过充足的论证和测算，为北戴河区在供暖方式的选择上提供了可靠的决策依据和数据支撑。结合北戴河的气候条件、地理位置以及居民收入，按照', '在地源热泵改造中，北戴河区坚持“政府企业一起干、城市农村一起抓、干部职工一起上”的工作思路，克服早晚气温低、施工难度大、地理环境复杂等一系列不利因素，组织了1500多人的队伍，昼夜施工、连续奋战，仅仅用了两个月的时间，改造供热站46个，打井1.5万多眼，电力增容20倍，如期确保了群众温暖过冬，创造了工期缩短近15个月的“北戴河速度”。', '北戴河始终坚持以人民为中心的发展思想，采用区领导包村、镇领导包户的方式，挨家挨户做工作，宣传天然气清洁、节能、安全的优势，引导群众主动放弃燃煤。同时，以置换的方式将群众家中存煤进行回收处置，将等价费用存入回收户的电卡或天然气卡中，这种方式也得到了群众的广泛拥护，确保了北戴河全域禁煤区的成功创建。', '清洁取暖是传统能源领域的一场革命，北戴河区始终将维护广大群众的切身利益作为贯穿整项清洁取暖改造工程的主线，坚持政府主导、企业实施、群众参与，保障每一户居民温暖过冬。为了提高供暖效果，对老旧小区外墙加装了保温层，对老旧供热管网进行了更换，对居民更换断桥铝双层窗户给予补贴，为农村“气代煤”用户免费安装了燃气报警器、上好了燃气安全责任险。通过以上举措，让群众得到了实实在在的好处，取暖效果也得到了群众的普遍认可。', '清洁取暖是传统能源领域的一场革命，北戴河区始终将维护广大群众的切身利益作为贯穿整项清洁取暖改造工程的主线，坚持政府主导、企业实施、群众参与，保障每一户居民温暖过冬。为了提高供暖效果，对老旧小区外墙加装了保温层，对老旧供热管网进行了更换，对居民更换断桥铝双层窗户给予补贴，为农村']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>甜了桑葚富了村庄</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2020-07-08</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=AD4148367D13E3DEF53DDD82D681A2BE</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['近日，在石门寨镇柳观峪村的桑葚园里，一串串紫红色的桑葚挂满了枝头，果香四溢，吸引了很多市民、游客前来采摘。市民于得水说：“这个桑葚吃起来口感非常甘甜和细腻，入喉特别的青涩，回味又特别甘甜，让人回味无穷。节假日带着孩子来采摘，回归大自然的感觉挺好的。” 石门寨镇柳观峪村村委会主任赵友君是桑葚园的主人，2016年，他发现种植玉米收入低，老百姓对农业失去信心，要发展特色农业才能促进经济发展。通过调研学习，他看到野生桑葚含有多种氨基酸、维生素及有机酸、胡萝卜素等，营养成分十分丰富，养生价值高，于是他决定亲身试验，引进“四季6号”、“日本甜”、“红果10号”等品种桑葚近800棵尝试种植。“当上村主任以后，我就想着带大家做点啥。让老百姓自己探索产业结构调整，需要成本，还存在风险，我就拿自己家的地试验，种植了多种水果，现在看来，这个桑葚发展势头比较好，广大市民都挺喜爱。”赵友君说。 桑树栽上了，还需要精心的养护，赵友君每天付出很大的精力在桑树上，如何才能让桑葚更甜？怎样能长出更多的桑葚？桑葚都可以做什么……一个又一个问题，让赵友君的大脑每天都在高速运转中，晚上躺在床上，也想着桑树的管理。他经常到外地学习先进的技术，终于功夫不负有心人，他的桑葚长势越来越好，也吸引了很多村民前来学习。赵友君说：“栽植桑葚以后，有很多村民来我这学习考察，也想要种植桑葚，发展特色农业，我觉得付出是值得的。” 2017年，赵友君成立了会欣果业合作社，2018年，又建立了桑葚采摘基地，通过朋友圈、微信群的宣传推广，前来采摘的游客越来越多，目前桑葚园已初具规模。在发展桑葚的同时，很多在家照顾家庭的妇女也抽出时间来采摘园打工，获得了稳定的收入，赵友君也成了村民心中的领富人。柳观峪村党支部书记陈占喜说：“通过四年的发展，今年这个桑葚效益应该不错，希望这个桑葚种植能够对广大村民起到一个示范引领的作用，带动大家积极加入进来，进而带动村集体经济发展壮大。” 果园建立以来，赵友君坚持使用农家化肥，不打农药，打造纯天然绿色食品。目前，全村桑葚采摘园共有15亩，预计年收入7万余元，在为农民拓宽增收途径的同时，也盘活城郊农业观光旅游经济。在开展采摘、售卖的同时，他还想要利用合作社，对桑葚进行再加工，制造桑葚酒、果酱等食用品，提高桑葚的价值。赵友君说：“下一步，我想要进行苗木生产和产品深加工，因为桑葚的储藏期比较短，可以做成其他的产品，比如罐头、果酱、果酒等。销路打开了，再广泛发动老百姓去种植，我们保底价回收，提高他们经营的信心，带领老百姓增收致富。”', '近日，在石门寨镇柳观峪村的桑葚园里，一串串紫红色的桑葚挂满了枝头，果香四溢，吸引了很多市民、游客前来采摘。市民于得水说：', '“这个桑葚吃起来口感非常甘甜和细腻，入喉特别的青涩，回味又特别甘甜，让人回味无穷。节假日带着孩子来采摘，回归大自然的感觉挺好的。”', '石门寨镇柳观峪村村委会主任赵友君是桑葚园的主人，2016年，他发现种植玉米收入低，老百姓对农业失去信心，要发展特色农业才能促进经济发展。通过调研学习，他看到野生桑葚含有多种氨基酸、维生素及有机酸、胡萝卜素等，营养成分十分丰富，养生价值高，于是他决定亲身试验，引进“四季6号”、“日本甜”、“红果10号”等品种桑葚近800棵尝试种植。“当上村主任以后，我就想着带大家做点啥。让老百姓自己探索产业结构调整，需要成本，还存在风险，我就拿自己家的地试验，种植了多种水果，现在看来，这个桑葚发展势头比较好，广大市民都挺喜爱。”赵友君说。', '桑树栽上了，还需要精心的养护，赵友君每天付出很大的精力在桑树上，如何才能让桑葚更甜？怎样能长出更多的桑葚？桑葚都可以做什么……一个又一个问题，让赵友君的大脑每天都在高速运转中，晚上躺在床上，也想着桑树的管理。他经常到外地学习先进的技术，终于功夫不负有心人，他的桑葚长势越来越好，也吸引了很多村民前来学习。赵友君说：“栽植桑葚以后，有很多村民来我这学习考察，也想要种植桑葚，发展特色农业，我觉得付出是值得的。”', '桑树栽上了，还需要精心的养护，赵友君每天付出很大的精力在桑树上，如何才能让桑葚更甜？怎样能长出更多的桑葚？桑葚都可以做什么', '2017年，赵友君成立了会欣果业合作社，2018年，又建立了桑葚采摘基地，通过朋友圈、微信群的宣传推广，前来采摘的游客越来越多，目前桑葚园已初具规模。在发展桑葚的同时，很多在家照顾家庭的妇女也抽出时间来采摘园打工，获得了稳定的收入，赵友君也成了村民心中的领富人。柳观峪村党支部书记陈占喜说：“通过四年的发展，今年这个桑葚效益应该不错，希望这个桑葚种植能够对广大村民起到一个示范引领的作用，带动大家积极加入进来，进而带动村集体经济发展壮大。”', '果园建立以来，赵友君坚持使用农家化肥，不打农药，打造纯天然绿色食品。目前，全村桑葚采摘园共有15亩，预计年收入7万余元，在为农民拓宽增收途径的同时，也盘活城郊农业观光旅游经济。在开展采摘、售卖的同时，他还想要利用合作社，对桑葚进行再加工，制造桑葚酒、果酱等食用品，提高桑葚的价值。赵友君说：“下一步，我想要进行苗木生产和产品深加工，因为桑葚的储藏期比较短，可以做成其他的产品，比如罐头、果酱、果酒等。销路打开了，再广泛发动老百姓去种植，我们保底价回收，提高他们经营的信心，带领老百姓增收致富。”', '果园建立以来，赵友君坚持使用农家化肥，不打农药，打造纯天然绿色食品。目前，全村桑葚采摘园共有']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>丁伟带队到唐山学习考察农村人居环境整治工作</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2020-07-27</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=E9B508FF98EF44FEB4451EC306EDCCF3</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['本报讯（记者薛飞）7月24日，市委副书记丁伟带队到唐山市迁安市、迁西县，学习考察农村人居环境整治工作。他强调，各级各有关部门要下定决心、坚定信心、保持恒心，以更高标准、更大力度、更实举措，推动农村人居环境整治和美丽乡村建设取得新进展、新成效。', '丁伟一行先后实地考察了迁西县东莲花院乡花乡果巷田园综合体、东城峪村、马家沟村、白庙子乡黑洼村和长河治理工程，迁安市五重安乡茶井沟村、万宝沟村、红峪口村、马兰庄镇乡村振兴片区、大五里乡大石河村，详细了解农村人居环境整治工作思路举措和取得成效。马家沟村突出“国学”特色，走出了农文旅融合发展新路；黑洼村立足资源优势，把小栗蘑做成了大产业；马兰庄镇加强乡村整理，把脏臭坑塘打造成为“水上公园”……考察组成员冒着高温酷暑，一路走一路看，边探讨边交流，纷纷表示此次学习考察受益匪浅，收获良多。', '丁伟一行先后实地考察了迁西县东莲花院乡花乡果巷田园综合体、东城峪村、马家沟村、白庙子乡黑洼村和长河治理工程，迁安市五重安乡茶井沟村、万宝沟村、红峪口村、马兰庄镇乡村振兴片区、大五里乡大石河村，详细了解农村人居环境整治工作思路举措和取得成效。马家沟村突出', '考察过程中，丁伟对唐山市农村人居环境整治经验做法给予高度赞赏。他指出，唐山、秦皇岛地缘相近、人缘相亲，在经济社会发展特别是农业农村方面有着许多共通之处，迁安市、迁西县等地农村人居环境整治经验做法值得我市学习借鉴。各级各有关部门要把好的经验做法带回来，认真消化吸收，并结合本地实际，再鼓劲、再加压、再出发，抓紧谋划今年第二轮农村人居环境整治“百日攻坚”行动，持续巩固成果，推动农村人居环境再上新台阶。', '考察过程中，丁伟对唐山市农村人居环境整治经验做法给予高度赞赏。他指出，唐山、秦皇岛地缘相近、人缘相亲，在经济社会发展特别是农业农村方面有着许多共通之处，迁安市、迁西县等地农村人居环境整治经验做法值得我市学习借鉴。各级各有关部门要把好的经验做法带回来，认真消化吸收，并结合本地实际，再鼓劲、再加压、再出发，抓紧谋划今年第二轮农村人居环境整治', '丁伟强调，要强化规划引领，坚持城乡统筹、全域规划，进一步理清发展思路，找准切入点和突破口。要加强乡村整理，因地制宜、因势利导，以务实管用的方法路径补齐短板、提升风貌。要突出典型示范，重点抓、抓重点，着力打造一批示范村、示范项目、示范片区，培育特色亮点，串点成线、聚线成面，最终实现全域推进、整体提升。要做大做强产业，坚持“一域一品”，大力调整优化农业产业结构，不断壮大农村集体经济、增加农民收入，为美丽乡村建设提供有力支撑。要坚持党建引领，让党旗树在整治一线，充分发挥基层党组织战斗堡垒和党员先锋模范作用，做给群众看，带着群众干，激发群众积极性、主动性和创造性。要完善保障机制，层层压实责任，全力做好资金和人员保障，不断健全完善长效管护机制，坚决打赢农村人居环境整治和美丽乡村建设这场硬仗。', '丁伟强调，要强化规划引领，坚持城乡统筹、全域规划，进一步理清发展思路，找准切入点和突破口。要加强乡村整理，因地制宜、因势利导，以务实管用的方法路径补齐短板、提升风貌。要突出典型示范，重点抓、抓重点，着力打造一批示范村、示范项目、示范片区，培育特色亮点，串点成线、聚线成面，最终实现全域推进、整体提升。要做大做强产业，坚持']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>抚宁在农村人居环境整治上一个不能少一个不落下</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020-05-27</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=770782B8886F7EAF902BE235C0082DB0</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['5月21日上午，抚宁区组织农业农村局、各乡镇（管理区）负责人、17个第一轮刷村评比后进村党支部书记到抚宁镇河潮营村、张各庄村、三里杨庄村考察学习村庄清洁行动。 河潮营村在村庄清洁行动中因村制宜，在村党支部的带领下组织村民自清“四大堆”，对无清理能力的视情况由本户雇人清或由党员志愿者帮助清，村集体基本零投入实现了“四大堆”清零。张各庄村在全面清理的基础上强化长效机制建设，在全村各街道设立街长，采取村民自治村规民约、道德“红黑榜”方式将门前“五包”落到实处，环境卫生保持效果好。三里杨庄村在实现村庄净化、硬化、亮化的基础上，将农村环境往深里做、往实里走，注重提升改厕标准、注重打造美丽庭院、注重深挖村庄文化，传承诠释以文载道村庄主题。 参加学习考察的村书记深受教育和触动，表示将严格按照区委区政府要求落实村庄清洁行动，立足清、聚焦保、促进美、着力改，后进赶先进。区人居办将在近期逐村督促这批后进村整改见成效，在村庄环境改善上一个村不能少、一个不落下。 （抚宁发布）', '个第一轮刷村评比后进村党支部书记到抚宁镇河潮营村、张各庄村、三里杨庄村考察学习村庄清洁行动。', '河潮营村在村庄清洁行动中因村制宜，在村党支部的带领下组织村民自清“四大堆”，对无清理能力的视情况由本户雇人清或由党员志愿者帮助清，村集体基本零投入实现了“四大堆”清零。张各庄村在全面清理的基础上强化长效机制建设，在全村各街道设立街长，采取村民自治村规民约、道德“红黑榜”方式将门前“五包”落到实处，环境卫生保持效果好。三里杨庄村在实现村庄净化、硬化、亮化的基础上，将农村环境往深里做、往实里走，注重提升改厕标准、注重打造美丽庭院、注重深挖村庄文化，传承诠释以文载道村庄主题。', '参加学习考察的村书记深受教育和触动，表示将严格按照区委区政府要求落实村庄清洁行动，立足清、聚焦保、促进美、着力改，后进赶先进。区人居办将在近期逐村督促这批后进村整改见成效，在村庄环境改善上一个村不能少、一个不落下。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>秦皇岛四川省攀枝花两市交通部门就开通航线事宜进行对接交流</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-06-08</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=811074FDD41B16450E9734AFE1E12385</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['6月3日，四川省攀枝花市交通运输局党组书记、局长曾科，率队到秦皇岛市学习考察。曾科局长一行实地参观了秦皇岛北戴河机场，详细了解了机场运营及基础设施建设情况，在随后召开的座谈会上，双方就两市开通航线事宜进行了深入商讨对接，并对两市的交通发展、历史文化、旅游景区、特色产品、经济发展等情况进行了介绍和推介。秦皇岛市和攀枝花市共同为中国康养产业论坛主办地，目前两市分别举办了两次康养论坛，是中国“一南一北、一冬一夏”重要康养城市，两市开通航线具有重大深远的意义。', '月3日，四川省攀枝花市交通运输局党组书记、局长曾科，率队到秦皇岛市学习考察。曾科局长一行实地参观了秦皇岛北戴河机场，详细了解了机场运营及基础设施建设情况，在随后召开的座谈会上，双方就两市开通航线事宜进行了深入商讨对接，并对两市的交通发展、历史文化、旅游景区、特色产品、经济发展等情况进行了介绍和推介。秦皇岛市和攀枝花市共同为中国康养产业论坛主办地，目前两市分别举办了两次康养论坛，是中国“一南一北、一冬一夏”重要康养城市，两市开通航线具有重大深远的意义。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>迅速补齐短板彻底提升村庄环境</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2020-04-24</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=785E234535009E1F20D84A5407688A7B</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['4月22日，抚宁区召开农村人居环境整治再动员再部署会议，传达到邯郸市肥乡区考察学习情况以及4月21日区委常委研议农村人居环境整治工作会议精神，对全区农村人居环境整治重点工作再动员再部署。会议以视频形式召开，区领导付顺义、袁会民、朱颖、王华，区直有关单位负责人在主会场参加会议；各乡镇（管理区）、街道主要负责人及重点村村书记在分会场参加会议。 区委副书记、区长付顺义在讲话中强调，要客观认识成绩和不足，坚定信心，坚决打好人居环境攻坚战；要深入开展以提效率提标准、比干劲比方法、促效果促提升为主题的“双提、双比、双促”活动，在新起点上强力推进各项工作加速见效；要迅速形成比学赶超的氛围，创新推进特色人居环境打造；要加强协调调度，做好点、线、面的分工协作；要发挥包联单位优势，齐心协力打好整体战；要落实彻底拆、全面清、拓展绿、促进美的要求，强弱项、补短板、攻难点，齐动员，聚合力，集中攻克难点，迅速提升农村环境容貌，切实增强农民群众认同感、获得感和幸福感。 付顺义要求，全区上下要强化时间观念，借鉴肥乡区“一年当成两年干、一届当作两届干”的理念，切实提高工作效率，全面对标肥乡标准，不断提高农村人居环境的整治水平；要不断创新工作方式方法，全面落实村庄星级评定、城乡门前“五包”责任制、街长制网格化、道德红黑榜、村规民约等长效管理机制，新“刷村”、擂台赛等工作推进方式，不断提高村庄环境管理的常态化、制度化、持续化；要切实抓好日常保洁、厕所改造、坑塘治理、荒废宅基地整治、美丽庭院建设各项重点工作，并与发展乡村产业、建设文明乡风、加强乡村治理等有机结合，为乡村持续发展注入新的生机和动力。 区委副书记袁会民主持会议并就坑塘和荒废宅基地整治、厕所改造、信息反馈宣传等项工作提出具体要求。 会上，与会人员共同观看了赴肥乡学习考察的幻灯片；区委常委、政府党组副书记朱颖传达了区委常委会会议精神；区农业农村局主要负责人宣读了我区《农村人居环境整治“双提双比双促”活动方案》；副区长王华就散煤整治工作进行了再安排再部署。 （抚宁发布）', '月22日，抚宁区召开农村人居环境整治再动员再部署会议，传达到邯郸市肥乡区考察学习情况以及4月21日区委常委研议农村人居环境整治工作会议精神，对全区农村人居环境整治重点工作再动员再部署。会议以视频形式召开，区领导付顺义、袁会民、朱颖、王华，区直有关单位负责人在主会场参加会议；各乡镇（管理区）、街道主要负责人及重点村村书记在分会场参加会议。', '区委副书记、区长付顺义在讲话中强调，要客观认识成绩和不足，坚定信心，坚决打好人居环境攻坚战；要深入开展以提效率提标准、比干劲比方法、促效果促提升为主题的“双提、双比、双促”活动，在新起点上强力推进各项工作加速见效；要迅速形成比学赶超的氛围，创新推进特色人居环境打造；要加强协调调度，做好点、线、面的分工协作；要发挥包联单位优势，齐心协力打好整体战；要落实彻底拆、全面清、拓展绿、促进美的要求，强弱项、补短板、攻难点，齐动员，聚合力，集中攻克难点，迅速提升农村环境容貌，切实增强农民群众认同感、获得感和幸福感。', '付顺义要求，全区上下要强化时间观念，借鉴肥乡区“一年当成两年干、一届当作两届干”的理念，切实提高工作效率，全面对标肥乡标准，不断提高农村人居环境的整治水平；要不断创新工作方式方法，全面落实村庄星级评定、城乡门前“五包”责任制、街长制网格化、道德红黑榜、村规民约等长效管理机制，新“刷村”、擂台赛等工作推进方式，不断提高村庄环境管理的常态化、制度化、持续化；要切实抓好日常保洁、厕所改造、坑塘治理、荒废宅基地整治、美丽庭院建设各项重点工作，并与发展乡村产业、建设文明乡风、加强乡村治理等有机结合，为乡村持续发展注入新的生机和动力。', '区委副书记袁会民主持会议并就坑塘和荒废宅基地整治、厕所改造、信息反馈宣传等项工作提出具体要求。', '会上，与会人员共同观看了赴肥乡学习考察的幻灯片；区委常委、政府党组副书记朱颖传达了区委常委会会议精神；区农业农村局主要负责人宣读了我区《农村人居环境整治“双提双比双促”活动方案》；副区长王华就散煤整治工作进行了再安排再部署。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>青龙北山根村技术脱贫添动力</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2020-04-14</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=4081BBA683E5E40472DA903E868B1B90</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['本报讯（记者李娜 通讯员袁水清）“我家板栗树树干干枯了，应该怎么处理啊？”4月10日，青龙满族自治县隔河头镇北山根村贫困户王金利通过微信群，在线接受“农业技术驿站”专家关于祛除树干病虫害的指导。眼下正值板栗树剪枝、浇灌、施肥的季节，北山根村利用远程在线教育，让农业专家与村民开展即时网络对接，沟通交流板栗种植技术。', '北山根村“农业技术驿站”成立于2019年11月，采取“1+1+1”的模式，即一个地方、一名专家、一项技术，帮助农民群众解决农业生产中遇到的技术难题，推广先进农业技术。', '为了提高村民板栗种植效率，疫情期间，市委统战部驻北山根村工作队还为种植户送去了由“农业技术驿站”组织编写的《板栗高效栽培综合管理实用技术》一书，书中包含了板栗种植往期培训授课的重点内容和新的实用技术。“农业技术驿站”则采取线上教学、随时解答，无接触、无扎堆对农民进行技术指导。', '同时，为方便大家互相交流，隔河头镇组建了板栗技术交流群、养殖技术交流群，将相关专家和村民通过网络组织到一起，解决村民日常农业生产中遇到的问题，并定期组织技术培训和外出学习考察。', '“推动群众脱贫致富，只靠传统的农业发展方式，已经跟不上时代步伐了，脱贫致富的速度已经不能满足人民对美好生活的向往和要求，一定要结合先进技术才能有高质量、高收入。开展农业技术培训是全村科技扶贫的重要手段，也是因地制宜、结合实际总结出来的经验成果。”市委统战部驻北山根村工作队员介绍。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>青龙北山根村技术脱贫添动力</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2020-04-17</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=492630D1F1A6742B1D63856CF84B5126</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['\u200b 本报讯（记者李娜 通讯员袁水清）“我家板栗树树干干枯了，应该怎么处理啊？”4月10日，青龙满族自治县隔河头镇北山根村贫困户王金利通过微信群，在线接受“农业技术驿站”专家关于祛除树干病虫害的指导。眼下正值板栗树剪枝、浇灌、施肥的季节，北山根村利用远程在线教育，让农业专家与村民开展即时网络对接，沟通交流板栗种植技术。 北山根村“农业技术驿站”成立于2019年11月，采取“1+1+1”的模式，即一个地方、一名专家、一项技术，帮助农民群众解决农业生产中遇到的技术难题，推广先进农业技术。 为了提高村民板栗种植效率，疫情期间，市委统战部驻北山根村扶贫工作队还为种植户送去了由“农业技术驿站”组织编写的《板栗高效栽培综合管理实用技术》一书，书中包含了板栗种植往期培训授课的重点内容和新的实用技术。“农业技术驿站”则采取线上教学、随时解答，无接触、无扎堆对农民进行技术指导。 同时，为方便大家互相交流，隔河头镇组建了板栗技术交流群、养殖技术交流群，将相关专家和村民通过网络组织到一起，解决村民日常农业生产中遇到的问题，并定期组织技术培训和外出学习考察。 “推动群众脱贫致富，只靠传统的农业发展方式，已经跟不上时代步伐了，脱贫致富的速度已经不能满足人民对美好生活的向往和要求，一定要结合先进技术才能有高质量、高收入。开展农业技术培训是全村科技扶贫的重要手段，也是因地制宜、结合实际总结出来的经验成果。”市委统战部驻北山根村工作队队员介绍。', '本报讯（记者李娜 通讯员袁水清）“我家板栗树树干干枯了，应该怎么处理啊？”4月10日，青龙满族自治县隔河头镇北山根村贫困户王金利通过微信群，在线接受“农业技术驿站”专家关于祛除树干病虫害的指导。眼下正值板栗树剪枝、浇灌、施肥的季节，北山根村利用远程在线教育，让农业专家与村民开展即时网络对接，沟通交流板栗种植技术。', '北山根村“农业技术驿站”成立于2019年11月，采取“1+1+1”的模式，即一个地方、一名专家、一项技术，帮助农民群众解决农业生产中遇到的技术难题，推广先进农业技术。', '为了提高村民板栗种植效率，疫情期间，市委统战部驻北山根村扶贫工作队还为种植户送去了由“农业技术驿站”组织编写的《板栗高效栽培综合管理实用技术》一书，书中包含了板栗种植往期培训授课的重点内容和新的实用技术。“农业技术驿站”则采取线上教学、随时解答，无接触、无扎堆对农民进行技术指导。', '同时，为方便大家互相交流，隔河头镇组建了板栗技术交流群、养殖技术交流群，将相关专家和村民通过网络组织到一起，解决村民日常农业生产中遇到的问题，并定期组织技术培训和外出学习考察。', '“推动群众脱贫致富，只靠传统的农业发展方式，已经跟不上时代步伐了，脱贫致富的速度已经不能满足人民对美好生活的向往和要求，一定要结合先进技术才能有高质量、高收入。开展农业技术培训是全村科技扶贫的重要手段，也是因地制宜、结合实际总结出来的经验成果。”市委统战部驻北山根村工作队队员介绍。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>山海关区学先进定目标抓落实村庄清洁成效初显</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020-04-04</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=22A0306FF438EFCB46A71EA91EBE6B56</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['今年3月份以来，山海关区以壮士断腕的决心和勇气，迅速补齐短板，攻坚克难，村庄清洁“百日攻坚”行动初显成效，已发动党员、群众8400余人次，出动机械车辆1420余台次，清理积存垃圾16900余方，整治纳污坑塘24个，整治残垣断壁45处，累计绿化面积243.8亩。', '一是敢啃“硬骨头”。本着先难后易，连片推进的思路，在前期工作的基础上，该区将92个行政村逐村制定工作方案，梯次排队组成6大片区，从3月28日开始，每周一个片区（集中攻坚、考核、问题整改），6周后所有村庄的村容村貌显著提升，所有问题全部清零，并将基础最差、任务最多，难度最大的村首先列入推进的第一片区，精准施策，全要素投入，全过程参与，全方位督导，确保目标如期实现。', '二是虚心“学先进”。为全面提升全区农村人居环境整治水平，自觉对标先进，虚心学习请教，区党政主要领导带队赴抚宁区学习考察，对标对表完善工作制度，考察学习后，针对本区具体实际，迅速调整区级领导包联制度，丰富包联内容和标准。针对关键环节，拟定“刷村”+“街户片长”网格制+村民“门前五包”+第三方保洁+美丽庭院创建等工作规范和文件，助力提升村庄清洁上水平。', '三是细致“深摸排”。区人居办统筹协调区直牵头部门、各镇对全区所有行政村进行了逐村、逐街、逐户摸排，围绕“三项难点”(纳污坑塘整治、残垣断壁清理和废旧闲置宅基地合理利用)逐村建立难点问题整改台账，对问题点位整改前现状一一拍照留存（便于整改考核监督），逐一明确整改标准、整改时限、整改责任人，逐项研究解决办法，逐条“爆破”整改，整改一个销号一个，确保村庄环境整治工作无盲区，改到位。', '四是现场“督导实”。 区党政主管领导分头带领11个区直单位负责同志、区人大代表、政协委员、党代表组成考核专班，对第一片区15个村逐一现场刷村督导考核，对达不到验收考评标准的村予以黄牌警告，限期对标整改，整改通过的撤销黄牌，整改不力的出示红牌，对镇村主要领导全区通报。已累计下达督办问题点位清单36个，按时整改完成率100%。之后，将继续开展第二片区村庄清洁集中攻坚，梯次压茬推进，确保全区村庄面貌显著提升，圆满完成村庄清洁各项目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>市林业局组织县区林业部门赴邯郸市学习考察造林绿化</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019-06-06</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D384AFE1AC88D492963AC09C98424F0E</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['月22-24日，我局组织全市县区林业工作负责同志到邯郸市学习考察造林绿化。邯郸市造林绿化经验作法突出三项重点：一是太行山区绿化，在深远山区，突出“近自然”理念，以飞播造林、封山育林为主，人工造林为辅，集中连片实施荒山规模化治理；中浅山地区，围绕“以利促绿、兴林富民”的理念，推进山水林田湖整体保护、系统修复、综合治理。在浅山丘陵区，大力实施城区西部生态屏障建设。注重旅游景点周边和县城城镇周边绿化，建设郊野森林公园。二是交通干线廊道绿化和环城林建设。对全市高速、高铁及国省干线沿线两侧宜绿化地段通过扩建和改造提升。其中，高速、高铁两侧各营造不低于100米宽的景观林带，以“高、大、密、厚”为原则，以缺绿补绿、有绿提升为重点，确保早见绿、快见绿，尽快形成景观。三是实施村庄绿化美化。对村庄主要进出村道路全部绿化，村内主要街巷绿化框架基本形成，构建环村林带，建设示范村庄。注重改善人居环境，立足把乡村建设得更加绿美，开展村庄绿化美化行动，实现生态、景观、经济效益多赢。打造一批果树、生态旅游、苗木花卉示范村，全面提升村庄绿化水平。', '通过对邯郸市造林绿化观摩学习，邯郸市以城市周边以及村庄等重要生态区域绿化为重点，统筹推进山区生态修复、环城生态屏障建设、廊道绿化提升、村庄绿化美化、高效林果基地建设和水系滩涂绿化等六大造林绿化工程，努力践行城在绿中、人在园中的理念，特别是市、县政府大财力投入和书记一把手抓造林绿化是落实生态建设的关键值得我们学习。下步我们将结合自身实际抓好全市造林绿化。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>张瑞书带队赴唐山市学习考察城市建设工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019-11-01</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=759E1E16F060BDCC58BBACCDE0343ED2</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['本报讯（记者薛飞）10月31日，市委副书记、市长张瑞书带队赴唐山市学习考察城市建设工作。', '当天，张瑞书一行先后实地考察了唐山火车站东广场、路北区站西片区、正兴道站前路至唐胥路段、边各寨棚户区改造项目，详细了解各项目规划建设、投资模式、征地拆迁、返迁安置、政策标准等情况。', '在实地查看唐山火车站东广场后，张瑞书一行前往路北区站西片区开发建设指挥部，观看了唐山站西片区开发建设纪实，认真听取站西片区征收拆迁、基础设施建设、规划设计等情况介绍。站西片区地处唐山市区西部，是唐山市落实“一港双城”战略、推进“五区融合”的关键区域。2018年，唐山市委、市政府按照“政府主导、统一规划、连片成方、集中安置”的思路，将站西片区9个村划定为4个安置区实施棚户区改造。坚持最好的地段、最好的规划、最好的配套、最好的质量“四最”标准，规划建设回迁房，结合实际制订主正房、宅基地两种置换补偿方案，仅用60天时间就完成了4596户村民的改造动迁。', '在正兴道站前路至唐胥路段，张瑞书听取了唐山市城市畅通工程建设情况介绍。2019年以来，唐山市坚持市区联动，合力打通断头路、拓宽瓶颈路42条，目前已竣工11条。张瑞书强调，市直有关部门要学习借鉴唐山城市畅通工程的经验做法，发挥道路交通在城市发展中的引导作用，吸取以往经验教训，严格按照“先修路、后建筑”的建设思路，抓好城市道路建设工作，不断满足人民群众对畅通出行的新期待。', '调研过程中，张瑞书表示，唐山市与秦皇岛市山水相连、人文相亲、地缘相近，有着兄弟般的浓厚情谊。近年来，唐山市经济社会发展中创造了很多很好的经验做法，值得秦皇岛市认真学习借鉴。市直各有关部门和县区要以此次学习考察为契机，尽快与唐山市展开全方位的深入对接，充分吸收借鉴唐山市城市建设工作中的先进理念和经验做法，特别是在规划设计、投融资模式等方面，结合秦皇岛实际，进一步解放思想、拓宽视野，创新工作思路和举措，推动秦皇岛城市建设不断迈上新台阶，全力加快国际一流旅游城市建设步伐。', '市政府办公室、市住建局、市资源规划局、市城管执法局、山海关区和海港区相关负责同志参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>5</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>海港区幼儿园黑白名单公布</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2019-12-13</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=80D971EF3806B118937C9A2BD6DE32D8</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['为进一步推进学前教育深化改革规范发展，提高幼儿园办园水平，近日，区教体局举行学前教育工作推进会暨2019年幼儿园园长培训班开班仪式。 会议通报了幼儿园规范化管理评估检查结果，表彰了31所评估等级为优秀的幼儿园，通报了5所不合格的幼儿园，其中1所连续两年不合格，直接取消办园资格。同时，为加强民办幼儿', '会议通报了幼儿园规范化管理评估检查结果，表彰了31所评估等级为优秀的幼儿园，通报了5所不合格的幼儿园，', '园管理，启动了民办幼儿园挂牌责任督学工作。 本次培训班邀请了京唐等地专家，利用两天时间，就习近平教育思想、学前法律法规、幼儿园管理作专题讲座，并由业务人员对新修订的《海港区幼儿园规范化管理评估细则》进行全面解', '读，同时还将组织40名优秀幼儿园园长到天津学习考察。 据悉，针对当前学前教育改革发展的要求和存在的薄弱环节，海港区教体局紧紧围绕“幼儿园规范化管理评估”这条主线，多措并举，强化达标和待达标幼儿园的管理工作，提升标准园、示范园的办园水平', '对全区幼儿园实行全覆盖网格化管理机制，按区域划分，做到专人包片，专人负责幼儿园安全管理、规范办园、师德师风建设、师资情况等全面日常监管工作。', '将全区民办幼儿园划分为18个督学责任区，由30个公办幼儿园中层干部、骨干教师任120所民办幼儿园兼职责任督学，充分发挥公立示范园作用，创设学前教育示范辅导网，将示范园先进的办园思想、教科研成果等展示交流到各民办园，同时发挥管理监督指导作用，推动优质公办园与民办园协同发展。 三是健全工作制度。实行幼儿园黑白名单公示制度，定期将幼儿园评估结果、问题幼儿园和无证幼儿园名单向社会公示；修订《海港区幼儿园规范化管理评估细则》，完善评估项目，对整改不到位幼儿园，年检不予合格，责令停园整改，连续两年不合格的按照《河北省民办学校年度检查办法》予以撤销，促进全区学前教育规范办园，有序发展。 四是强化业务培训。不间断组织全区幼儿园园长、教师、保育员、卫生保健人员开展各级各类培训，全面提升我区幼儿园园长和教职工的专业素质和业务水平。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>昌黎县三举措强化人才培养机制</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2019-12-31</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=96E46F09A1289E11C510837835114430</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['昌黎县牢固树立人才是第一资源的发展理念，采取搭台子引、请进来帮、走出去学“三位一体”人才培养机制，重点加强复合型、专业型高层次拔尖人才的培养，打造出一批县域“领军型”高级专家。', '搭台子引，聚集高端人才。紧盯省市相关扶持政策，进一步完善人才评价、流动、激励等工作机制，完善引才机制，提供“绿色通道”，针对高层次拔尖人才，实行一人一议、一事一议，积极开展上门服务、预约服务、代理服务。依托秦皇岛市晟杰葡萄酒产业研究发展中心与中国工程院欧阳平凯院士达成协议建立全省级院士工作站，联系金士国际酒庄与西北农林科技大学葡萄酒学院签署战略合作协议并建立李华工作站，吸引沈阳药科大学打造“特色葡萄酒研究中心”和“实践教学与科研基地”，着力培育和搭建优秀人才集聚的土壤和舞台，带动县域人才全面发展。', '请进来帮，抓实自身技能。以人才培训和技能实训破题，有计划地对各类人才开展系统化、规范化、制度化培训，通过专家讲座、学习考察、举办培训班等形式，培养专业技术人才，提高自主创新能力。聘请河北科技师范学院、中科院花卉所等部门学者、专家，组建新型职业农民培训师资库，通过采取“分段式、重实训、参与式”培训模式，围绕我县主导产业有针对性地组织开展新技术试验示范4项，观摩培训5次，组织县内企业经营管理人才110余人举办“企业转型升级工作培训会”，引导全县企业经营管理人才转变观念，积极开展企业转型升级，全面提升县内各类人才综合素质，促进县域经济社会发展。', '走出去学，提升服务水平。重点加强驻秦驻昌高校、科研院所的人才合作与交流、人才对口培训、互派交流和多边横向交流，逐步完善互动式人才开发合作交流贯通机制、项目开发合作机制和政府部门合作机制，通过专家授课、项目对接、技术指导等途径，培养一批“候鸟型”高端人才队伍。县直医院选派15名医务人员到京津、省市三甲医院进修学习，提高卫健人员的卫生健康技术水平，邀请专家对医务人员进行集中培训10次，建立县级医院与农村卫生院对口帮扶制度。组织80名农技人员赴南京农业大学开展为期7天的农技人员能力提升班，提高农技人员专业素质，加强本地种植水平和种植效益。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>付顺义带队赴滦南县学习考察</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019-04-30</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=79AAA1CE0F017BEE43F05D9638A3B9BA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['区长付顺义带领由抚宁经济开发区、区政府办、住建局、资源规划局、城管执法局、抚宁镇、留守营镇、榆关镇等单位有关负责同志组成的考察团，赴唐山市滦南县就城市规划建设、特色产业、城市管理、园区建设等工作进行学习考察。滦南县县长吕素青，副县长丁会强及相关单位负责同志陪同考察。考察团一行首先观看了专题片《相约滦南、瞩望幸福》，听取了滦南县经济社会发展情况的介绍，并深入开展了交流座谈。吕素青指出，近年来，滦南县紧紧围绕建设新时代“沿海强县、魅力滦南”这一目标，积极实施南改、北扩战略，以完善城市功能、改善人居环境、提高城市承载能力为重点，实现了城市的快速发展。滦南县先后被评为国家级园林县城、国家级卫生城和河北省文明县城，希望和抚宁区加强交流合作，互相学习借鉴，实现共同进步、共同发展。付顺义表示，滦南县在经济社会发展中始终坚持高起点站位、高标准规划、高水平建设，全县在发展上取得了重大成就，抚宁区将认真学习借鉴滦南县的先进经验做法，不断加快抚宁“沿海强区、幸福骊城”建设步伐。座谈结束后，考察团一行先后到滦南县规划展馆、惠民广场、新一中、泽奥纺纱、大健康产业园北京航洋科技保健品项目、蒙牛乳业等地进行了实地参观考察。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>5</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>新疆昌吉回族自治州代表团来我市考察康养产业</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2019-04-24</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=DAA457A3FBAF34E8CFC0F06C9A0A5309</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['本报讯（记者王静）4月23日，新疆昌吉回族自治州代表团一行来我市，学习考察康养产业论坛举办以及康养产业发展相关经验做法。副市长廉茹艳、市政协副主席赵景阳陪同考察。', '代表团一行先后实地考察了北戴河生命健康产业创新示范区生命科学园、北大未名国际健康中心、北戴河新区规划馆，深入了解生命健康产业发展规划、产业结构、项目引进、重点项目建设等情况，详细学习了解康养产业论坛举办相关情况及做法。', '双方就康养产业发展进行了座谈交流，我市相关单位详细介绍了生命健康产业创新示范区、第二届中国康养产业发展论坛、康复辅具产业发展、康养产业及医养结合等相关情况。', '廉茹艳对代表团一行到来表示热烈欢迎，并介绍了秦皇岛市情以及大健康产业发展相关情况。她表示，昌吉回族自治州代表团一行来我市考察指导工作，虽然时间短暂，但双方交流很多，不仅增进了了解互信，也加深了双方的感情，使两个城市紧密联系在了一起。通过沟通与交流，也为我市进一步推进康养产业发展，提供了很多新的思路和借鉴。我市相关部门将根据双方产业发展需求，进一步细化完善各项工作，探索合作模式与机会，共同推进康养产业更好更快发展。', '新疆昌吉回族自治州代表团表示，将充分借鉴秦皇岛的发展经验和做法，促进当地康养产业发展。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>市委党校组织学员赴市城管执法局观摩学习</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019-04-26</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=1D8A089B18F6EB17C57711A5EC65CF05</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['，市委党校赵桂华教授带领县级领导干部进修班学员一行51人，赴市城管执法局进行观摩学习，就我市城市管理各方面工作进行学习考察。', '在一楼宣教中心展厅，工作人员详细讲述城市管理方面的经验做法，了解党建、发展历程、监督执法、公用事业以及精细化管理等内容。在二楼数字化监督指挥中心，了解智慧城管便民服务系统科技优势和快捷高效水平，在城市管理当中的主要功能和发挥的重要作用，并通过实例进行演示。', '局领导李伟主任代表市城管局，对学员的到来表示热烈的欢迎，就城市管理发展历程和重要工作进行了详细的介绍，对学员提出的问题认真的进行解答。', '市委党校赵桂华教授现场教学，从理论联系实际的方法向学员们阐述我市城市管理工作，要求学员们关心城市管理发展、关注城市管理热点，将研究学习与社会实践相结合。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>5</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>张瑞书带队赴沈阳盘锦学习考察创建国家卫生城市工作</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019-04-04</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=754CF4B7EFF36303A5B3B7930D03EDE0</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['本报讯（记者薛飞）4月2日至3日，市委副书记、市长张瑞书率我市考察组，赴辽宁省沈阳市、盘锦市，学习考察创建国家卫生城市工作。', '日上午，考察组与沈阳市政府开展座谈，共同观看了沈阳创建国家卫生城市工作纪实，并围绕环卫体制改革、城市顽疾治理、旱厕改造等工作进行了交流探讨。辽宁省政协副主席、沈阳市副市长姜军介绍了沈阳创建国家卫生城市的经验做法和心得体会。', '随后，张瑞书一行实地考察了铁西区教师新村小区、仙女湖公园、三百利虹桥市场、东站小学台站垃圾转运点、大东区二台子街道福安社区、于洪区万科千山府建筑工地等地。教师新村小区老旧小区改造，不仅更换了全部的排水管道、重做了楼顶防水，小区外墙还安装了保温板；二台子街道“城中村”改造中，用废弃红砖铺背街小巷，既节省了成本又满足了创城要求……考察组成员一路看、一路问、一路学，很多经验做法都让大家深受启发、获益匪浅。', '日上午，在盘锦市委副书记、市长汤方栋的陪同下，张瑞书一行考察了盘锦市兴隆台区兴盛街道兴旺社区、体育公园、振兴农贸市场、螃蟹沟恒大华府段等地。盘锦市与北京环卫集团开展合作，构建城乡环卫一体化体系，并让环卫工人成为网格员，真正实现了人民共建、共管、共享理念。这一做法得到了考察组的交口称赞，纷纷表示要向盘锦学习，推广这一先进经验。', '考察过程中，张瑞书对沈阳、盘锦创建国家卫生城市的经验做法给予高度赞赏。他强调，创建国家卫生城市既是“三城同创”工作的最后冲刺，也是巩固文明城市、森林城市创建成果的再出发。各级各部门要进一步统一思想、坚定信心，对标对表沈阳、盘锦先进做法，结合自身实际细化落实方案，以壮士断腕的决心和勇气，狠抓各项工作任务落实，以创城工作为抓手，补齐短板、优化环境、改善民生、锤炼作风，为实现高质量发展、建设一流国际旅游城市注入新的活力。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>副市长廉茹艳带队赴邢台市学习考察幼儿园中小学发展建设工作</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019-04-15</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=253B3F033C3A095ABADE906B6A435F5D</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['本报讯（记者孙雪梅）4月11日，副市长廉茹艳带领市教育局、市自然资源和规划局、市住房城乡建设局及海港区、秦皇岛经济技术开发区的相关负责同志，赴邢台市学习考察幼儿园中小学发展建设工作。', '廉茹艳一行实地考察了邢台精英中学、桥西一中、张东小学、永康印象幼儿园、邢台一中新校区及清山漫香林小学、幼儿园，邢台市在推进幼儿园、中小学发展建设方面的力度以及各学校的建设质量、水平给大家留下了深刻印象。考察期间，双方就小区幼儿园和中小学配建、基础教育改革发展等进行了深入座谈交流。双方一致表示，将保持经常性联系，围绕共同关心关注的事项，加强交流探讨，相互学习、相互借鉴、相互启发，共享有益思路举措，切实促进共同进步。', '廉茹艳在座谈时说，邢台市委、市政府将幼儿园和中小学发展建设作为头号民生工程，工作前瞻性强、攻坚力度大，并不断创新机制举措，形成了协调联动、加速发展的良好局面。廉茹艳表示，通过这次学习考察，学到了好经验、好做法，更看到了邢台各级各部门攻坚克难、奋力拼搏、勇于创新的工作激情和态度，回到秦皇岛后，将对这次学习考察进行认真总结分析，把学到的经验、做法充分吸收到工作中，加快推进秦皇岛中小学和幼儿园教育的发展。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>卢龙县卫计局全力推进家庭医生签约履约服务力度</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2018-09-30</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=FBE3B15A815F3A2564A4DE6416E6924C</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['先后6次召开会议， 对家庭医生签约履约工作进行详细安排部署。先后2次组织人员，进村入户进行督导检查，发现问题，及时查漏补缺。组织全县40名公卫人员，到抚宁区榆关镇学习考察，查找差距，立即整改。设计制作了《卢龙县建档立卡贫困户履约服务手册》，详细记录对建档立卡贫户的履约轨迹。', '督导各基层医疗单位结合自身实际情况组建家庭医生服务团队，将签约制度、服务团队、服务流程上墙明示。通过赶大集、入村入户、深入街头巷尾、田间地头对服务对象开展健康讲座、健康咨询以及个性化健康指导。印制健康政策明白卡1.5万份，家庭医生签约知识折页10万份，宣传挂历等特色宣传品20万份，免费发放给群众。', '组建468个签约团队，通过进村入户等形式，共与131567人签订了服务协议，签约率32.1%。全面落实健康扶贫“三个一批”中的“慢病签约管理一批”目标任务，做到建档立卡贫困人口签约服务全覆盖，贫困人口慢病患者“应签尽签”。', '家庭医生团队按照与签约居民约定的服务项目和服务频次提供服务，准确详实填写履约记录，确保履约服务质量。同时，每月及时优先向农村建档立卡贫困户提供访视服务，送药上门，保证履约质量，并积极组织开展2018年度健康体检工作，切实做好群众的“健康守门人”。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>新疆博湖县委书记一行人到我市考察交流工作</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2018-09-28</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=24FCA15D83BF1516944C3004EDB35ED3</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['9月24日至27日，我市对口支援的新疆巴州博湖县县委书记肖牛一行7人到我市考察康养、旅游等产业发展项目，市发改委副主任高德明全程陪同考察，市委书记孟祥伟、常务副市长薛永存等市领导会见了考察团成员，与考察团成员进行了工作交流。 考察团考察了鸽子窝公园、碧螺塔酒吧公园、世博园、中保绿都乐园、圣蓝海洋公园等景区，北大未名国际健康中心、北戴河生命健康产业创新示范区、生命科学园、北戴河集发健康农业园等健康产业园区（企业），金士酒庄、昌黎葡萄小镇、北戴河古城村、北戴河村等企业和特色小镇（村庄）。考察团成员就旅游景区的发展和管理与景区负责人进行了探讨和交流；详细听取了各生命健康产业园区和企业的发展理念、运作模式等情况介绍；与特色小镇、特色村庄的管理人员深入交流村镇管理模式，深入到农户与主人交流，了解他们的思想观念、经营理念。在全方位学习考察对象在旅游和康养产业发展、特色小镇和村庄建设、景区管理和运行、基层党建和管理等方面的经验后，考察团一行表示要珍惜这次考察成果，将好的观念和做法带回博湖，为博湖经济社会发展提供宝贵经验。', '9月24日至27日，我市对口支援的新疆巴州博湖县县委书记肖牛一行7人到我市考察康养、旅游等产业发展项目，市发改委副主任高德明全程陪同考察，市委书记孟祥伟、常务副市长薛永存等市领导会见了考察团成员，与考察团成员进行了工作交流。', '考察团考察了鸽子窝公园、碧螺塔酒吧公园、世博园、中保绿都乐园、圣蓝海洋公园等景区，北大未名国际健康中心、北戴河生命健康产业创新示范区、生命科学园、北戴河集发健康农业园等健康产业园区（企业），金士酒庄、昌黎葡萄小镇、北戴河古城村、北戴河村等企业和特色小镇（村庄）。考察团成员就旅游景区的发展和管理与景区负责人进行了探讨和交流；详细听取了各生命健康产业园区和企业的发展理念、运作模式等情况介绍；与特色小镇、特色村庄的管理人员深入交流村镇管理模式，深入到农户与主人交流，了解他们的思想观念、经营理念。在全方位学习考察对象在旅游和康养产业发展、特色小镇和村庄建设、景区管理和运行、基层党建和管理等方面的经验后，考察团一行表示要珍惜这次考察成果，将好的观念和做法带回博湖，为博湖经济社会发展提供宝贵经验。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>5</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>赵万山率伊春市考察团来秦考察孟祥伟张瑞书等参加活动</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2019-03-22</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=EF40569669C02F07E60839EF024B5175</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['本报讯（记者孟晓冬 史娜）今年8月下旬，伊春市将承办第二届黑龙江省旅游产业发展大会。为学习借鉴我市先进经验，3月20日至21日，伊春市委书记赵万山率考察团来秦，就秦皇岛旅游产业发展、承办省第二届旅发大会先进经验等情况进行学习考察，市委书记孟祥伟，市委副书记、市长张瑞书分别参加相关活动。实地考察结束后，双方举行座谈会，围绕规划设计、项目建设、环境整治、产业发展等内容进行深入交流。', '在秦期间，赵万山率团先后考察了河港集团西港花园，北戴河鸽子窝景区、集发农业梦想王国，北戴河新区渔岛温泉度假村，昌黎金士酒庄等处。考察团一行听介绍、看现场、问细节、观效果，深入了解重点旅游项目建设、旅发大会筹备工作、旅游产业转型升级、体制机制改革等相关情况，与我市相关县区和部门就项目规划、建设、运营等问题交换意见。', '孟祥伟首先对伊春市考察团的到来表示欢迎。他说，旅游业是推进结构调整、加快转型升级的朝阳产业，秦皇岛市委、市政府把旅游业作为基础产业、首位产业和主导产业，深刻把握旅发大会带来的重大机遇，高度重视，统一思想，立足秦皇岛生态资源优势和旅游产业基础，既精心筹办会议，又着眼长远发展，打造了山海联动的全域旅游新格局。希望两市以此次考察交流为契机，互为旅游目的地和旅游客源地，共同推动旅游业转型升级加快发展。', '就伊春市办好旅发大会，孟祥伟提出几点建议：伊春市要与省直相关部门主动沟通、积极对接，形成上下一心、齐抓共管的工作合力；要尽快确定旅游项目、观摩线路和重点区域，推动筹办工作由点到线及面迅速展开；要精准选定符合城市实际、彰显地域特色的办会主题，让本届旅发大会成为伊春市推动旅游业转型升级的突破口和引爆点。', '赵万山表示，秦皇岛历史文化厚重，旅游资源丰富，秦皇岛市委、市政府清晰定位办会宗旨，选准未来发展方向，以精彩承办河北省第二届旅发大会为契机，推动了经济社会的健康快速发展。伊春市将借鉴秦皇岛的成功经验，从狠抓转变思想观念入手，激发领导干部内生动力，进一步梳理伊春历史文化旅游资源，通过承办旅发大会，实现经济社会转型升级、绿色发展、跨越提升。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>5</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>辽宁省北镇市政协来青龙就现代服务业发展进行学习考察</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2018-09-21</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=2BE1583C66FDCD0BF2C183569E3D29E8</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['9月19日至20日，辽宁省北镇市政协来我县就现代服务业发展进行学习考察，县政协副主席韩文庭、马文波、刘金山先后陪同。 考察组一行首先在行政办公中心召开座谈会，观看了宣传片《腾飞的青龙》，与我县相关部门进行深入交流，详细了解我县关于现代服务业发展的政策保障及机制体制建设、电子商务发展、旅游产业及文化旅游融合发展、医养结合工作，以及物流产业聚集区发展和项目建设情况。 随后，考察组一行先后实地参观考察肖营子镇五指山板栗专业合作社、肖营子镇温泉小镇、百村乐电子商务都阳路物流公司、百村乐电子商务中心、都阳路居家养老中心、茨榆山乡农旅综合体，进一步详细了解我县在现代服务业发展方面的具体做法、成效和经验。 考察组表示，此次考察学习收获颇丰，通过考察学习和交流，进一步开阔了北镇市发展现代服务业的视野，增强了发展信心，回去后将结合北镇市实际，认真思考谋划，为北镇市现代服务业发展建言献策。', '日，辽宁省北镇市政协来我县就现代服务业发展进行学习考察，县政协副主席韩文庭、马文波、刘金山先后陪同。', '考察组一行首先在行政办公中心召开座谈会，观看了宣传片《腾飞的青龙》，与我县相关部门进行深入交流，详细了解我县关于现代服务业发展的政策保障及机制体制建设、电子商务发展、旅游产业及文化旅游融合发展、医养结合工作，以及物流产业聚集区发展和项目建设情况。', '随后，考察组一行先后实地参观考察肖营子镇五指山板栗专业合作社、肖营子镇温泉小镇、百村乐电子商务都阳路物流公司、百村乐电子商务中心、都阳路居家养老中心、茨榆山乡农旅综合体，进一步详细了解我县在现代服务业发展方面的具体做法、成效和经验。', '考察组表示，此次考察学习收获颇丰，通过考察学习和交流，进一步开阔了北镇市发展现代服务业的视野，增强了发展信心，回去后将结合北镇市实际，认真思考谋划，为北镇市现代服务业发展建言献策。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>5</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>市城管局召开生活垃圾分类工作推进会</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2018-09-14</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=626424318084A9B20E4374BD47B8C466</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['9月10日上午，李耀滨局长主持召开生活垃圾分类工作推进会，专题研究推进生活垃圾分类工作，对“分类收集、运输”这一重点难点问题进行了认真细致的讨论；就如何提高环资公司、餐厨垃圾处理厂、医疗垃圾处理厂和建筑垃圾处理厂等垃圾处置终端企业的经营管理水平及长远发展进行了深入讨论；就完善生活垃圾分类方案和专班机构设置、制定生活垃圾分类指导守则、建立生活垃圾分类试点、学习考察外地先进经验及做法等相关工作提出具体要求。市城管局环卫科、宣传科、政策法规科、项目管理中心负责人，环资公司、餐厨垃圾处理厂、医疗垃圾处理厂、建筑垃圾处理厂等单位领导班长成员参加了会议。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>5</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>海港区教育局四个抓手推进集团化办学</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2018-08-08</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=52925C793F4636E4B2FFEC2B89E89A6E</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['本报讯（记者刘思彤）为推进全区教育发展，扩充优质教育资源，提升办学效益和水平，促进义务教育均衡发展，海港区教育局用好“四个抓手”推进集团化办学。', '抓顶层设计，为集团化办学架梁立柱。按照“试点先行、分步推进”原则，第七中学集团、第十六中学集团、青云里小学集团、启航幼教集团四个教育集团严格落实依法治校，在对各成员校管理机制、权利与义务、教育教学管理等各方面开展调研的基础上，针对教学、科研、人事、财务等制定了详细、可操作性强的集团制度汇编手册，保障集团协调、优质发展。', '抓学习研讨，为集团化办学积累经验。为推动集团化办学科学有序发展，先后组织人员赴北京海淀区、上海奉贤区、杭州西湖区典型教育集团学习考察，就集团化办学管理模式、师资管理及流动办法、集团章程及各项管理制度制定等细节进行深入交流研讨，结合全区教育发展和各教育集团实际情况，总结经验，形成考察报告，为下一步各集团制定集团化办学工作方案和规划提供有益参考。', '抓管理融合，为集团化办学强化关键。树立“集团人”的理念，按照一定比例进行第七中学和第十四中学干部交流，以学年为单位，逐步扩大交流范围，既保证第七中学教育教学质量不受影响，又充分发挥优秀干部的引领带动作用，促进各成员校均衡发展。其他集团将根据自身情况陆续开展干部交流活动。', '抓教师发展，为集团化办学夯实基础。第七中学集团分学科有计划开展信息化集团联合教研、联合备课、定期开展德育互访及家长学校培训等一体化教育教学活动，逐步树立集团意识。区集团办邀请教师发展中心教研员、名师工作室主持人深入集团成员校对各学科教师定期进行深入指导，增强教师的教研积极性，切实推进了校风、教风、学风建设。同时，青云里小学集团和启航幼教集团正积极开展业务交流，实现相互扶助共同进步。', '日召开区教育集团成立大会，共有第七中学集团、第十六中学集团、青云里小学集团、启航幼教集团四大教育集团。第七中学集团包括第七中学、第十四中学和玉龙湾学校（新建）；第十六中学集团包括第十六中学和南岭国际学校（新建）；青云里小学集团是在青云里小学与原光明路小学合并的基础上，增加耀华小学组成；启航幼教集团包括启航幼儿园和民办滨河湾幼儿园、晨曦幼儿园。各教育集团形成了以名校为龙头，辐射带动若干新建校、薄弱校、民办校等成员学校协同发展的新模式。通过区域、学校、教师三个不同的层面的整体构建，突破差异，逐步实现优质教育资源的多向联合，达到义务教育办学水平的整体提高。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>5</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>秦皇岛市统计局五举措推进社情民意调查工作</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2018-01-10</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=2A1DD97C0F6538089D85B3C95C97944C</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['年以来，为贯彻落实国家和省统计局关于加强社情民意调查的工作要求和安排部署，秦皇岛市统计局依托现有资源条件，精心筹划、狠抓落实，通过五项举措大力推进社情民意调查工作。', '市统计局于去年初向市政府提交了《关于加强我市社情民意调查工作有关情况的报告》，提出成立“秦皇岛市社情民意调查中心”“秦皇岛市统计服务咨询中心”（加挂牌子）机构的申请，为', '实现调查机构、电话访问室“两个市级全覆盖”争取主动权，保障全市社情民意调查的系统化、规范化发展。', '副局长王忠东带领相关业务科室负责人赴邢台、衡水学习考察，对标学习两市经验做法，详细了解两地社情民意调查中心机构设置、电访室规模、软硬件配置、人员编配及应用效果等情况，为秦皇岛市社情民意调查中心建设打好基础。', '经过考察学习，结合现有资源情况，市统计局先后多次修改、完善工作方案，在有限条件下，着手搭建调查平台。目前已解决民调中心电访室办公用房，设定10个访问席位、2个监控席位。以竞价方式择优与公司签订协议，投入专项资金采购社情民意调查软件及配套平台，购置访问室工位桌、电脑椅、更衣柜和耳麦等必备的电脑硬件设施，并将部分旧办公电脑、服务器、交换机等用于电访室访问坐席使用。', '在做好软硬件设备准备的同时，市统计局向省统计局社情民意调查中心提出开通12340社情民意调查热线申请，并获得批准。目前与中国联通秦皇岛分公司达成安装使用协议，可随时开通使用。', '。由于局内电访室席位有限，难以满足大型民意电访调查，市统计局与燕山大学初步达成合作协议，使用由对方投资200万元建成的试验室（部署电话调查、网络调查、移动面访、深度访谈等数据采集软件系统及数据管理与统计分析软件SAS），加挂“秦皇岛市社情民意调查中心——燕山大学数据采集与统计分析实验室”牌子，以更好地满足社情民意调查工作需要。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>5</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>以交流促提升掀起民宿发展热潮</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2018-04-12</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=3E3B501DF32027BD12B684E25477F4C7</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['北戴河首届民宿掌柜大会结束后，我市各县区迅速掀起民宿发展热潮。继昌黎县旅游委来北戴河学习考察民宿后，卢龙县组织近百人来我区交流考察民宿工作。期间，民宿办陪同卢龙考察团人员参观了北戴河村香舍民宿、禅享民宿和费石庄桃花树下等3家精品民宿，区民宿办副主任张岩现场向大家讲解介绍了我区乡村旅游和民宿业发展现状、民宿综合管理举措、品牌包装及网络营销成果、首届民宿掌柜大会盛况等，考察团一行对在我区重点参观的3家民风淳朴、风格独特的精品民宿给予了高度的欣赏与赞叹，并表示将借鉴我区民宿业发展的先进经验和做法，进一步促进卢龙县民宿旅游事业的发展。', '同时，会后我局成立秦皇岛地区民宿交流群，广大民宿企业通过相互学习、交流，进一步提升管理水平和服务质量，旨在成为行业标杆，成为精品民宿，共同打响北戴河民宿行业这张金名片。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>5</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>衡水市桃城区考察组到我学习考察老旧小区改造等先进经验做法</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2018-06-08</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=DF162B7A0A49BCE398708CA88387B4F9</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['6月7日下午至6月8日上午，衡水市桃城区政协副主席李乃刚带领考察组一行13人，到北戴河区学习考察老旧小区改造、物业管理及休闲农业、民宿方面的先进经验做法。考察组对北戴河区相关工作取得的成效予以肯定，表示将认真加以吸收借鉴，并希望两区能够加强交流合作，为城区居民提供整洁优美、和谐发展的人居环境贡献力量。区政协副主席金晶陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>5</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>石家庄市党政代表团赴我市学习考察邢国辉孟祥伟张瑞书出席活动</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2018-07-27</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9A92D205F263B059F74F1B57F742AB5A</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['本报讯（薛飞 刘军）第四届河北省旅发大会将于明年在省会石家庄举办。为借鉴我市办会成功经验，进一步深化两市务实合作，共同推动旅游业高质量发展，7月24日至26日，省委常委、石家庄市委书记邢国辉率党政代表团赴我市学习考察。市委书记孟祥伟、市长张瑞书参加活动。', '学习考察期间，石家庄市党政代表团先后考察了海誓花园、山海旅游铁路、闆城小镇、天女小镇、葡萄小镇、金士酒庄、中保绿都心乐园、秦皇岛园博园等旅游项目。考察期间，我市良好的生态环境、山海联动的全域旅游体验、景区景点浓厚的文化气息、精细规范的城市管理、周到细致的旅游服务，给石家庄市党政代表团留下了深刻印象。', '日下午，在石家庄·秦皇岛旅游工作座谈会上，与会人员观看了我市旅游宣传片，听取我市旅游工作介绍和旅发大会承办情况。两市参会人员就旅游产业发展理念、业态融合、招商引资、项目推进、政策保障等方面进行了深入交流。', '邢国辉指出，旅游业对经济社会发展全局具有重要战略意义。习近平总书记在正定工作时，开创了国内旅游“正定模式”，为我们留下了宝贵的思想财富、精神财富和实践成果。省委、省政府对省会工作特别是旅游发展提出了一系列指示要求，为我们加快发展提供了遵循。石家庄十届市委四次全会提出，要把培育壮大旅游业作为“4+4”现代产业的重要内容大力推进。在考察期间，我们被秦皇岛推进全域旅游的建设效果所震撼，被优质高效的旅游服务所触动，尤其是秦皇岛大手笔推进旅游产业发展的先进理念、真抓实干激情澎湃的工作作风，更让我们动容。我们将以此次学习考察为契机，认真吸收借鉴秦皇岛发展旅游的好经验、好做法，进一步提升石家庄旅游产业的发展理念。认真对标精神状态，以更加饱满的精神、更加昂扬的斗志、更加扎实的作风、更加有力的措施，推动石家庄旅游再上新台阶。大力借鉴工作经验，努力在产业融合、景点打造、市场拓展等方面持续提升，切实推动全域旅游发展。积极学习创新精神，大力推进旅游体制机制改革，推出一批创新举措，着力破解旅游业发展中的短板不足和薄弱环节。', '邢国辉表示，秦皇岛是驰名中外的旅游休闲胜地，石家庄也有着丰富的旅游资源，两市在旅游发展上有广阔的合作空间。希望以这次考察为契机，进一步深化产业发展、技术创新和产品开发等方面的务实合作，进一步推动两市互为客源地、旅游目的地，进一步增进彼此友谊，把两市的友好合作关系不断推向深入。', '孟祥伟代表市委、市政府对石家庄市党政代表团表示热烈欢迎。他说，此次代表团来秦考察，进一步增进了两市友谊，也为深化了解、沟通协作提供了契机。石家庄历史文化悠久，旅游资源丰富，通过近年来的不断打造，旅游业对石家庄经济社会发展的带动作用不断增强。秦皇岛有着得天独厚的自然环境和深沉厚重的历史文化，当前，全市思想统一、信心坚定，把旅游业作为第一产业、基础产业来抓，大力推进全域旅游，精心谋划实施了一批品质高端、四季皆宜、绿色生态的旅游项目，正向着建设一流国际旅游城市的目标阔步前进。希望两市能够进一步加深交流、优势互补，携手促进两地旅游业高质量发展。', '张瑞书简要介绍了我市经济社会发展情况。他说，当前，秦皇岛以“四市战略”为引领，以创建国家森林城市、创建国家卫生城市和办好省第二届园博会三件大事为带动，经济社会发展呈现速度加快、质量提高、结构优化、环境改善、社会稳定的良好态势。作为兄弟城市，两市有着互补的城市定位，更有着巨大的合作潜力。希望石家庄市党政代表团在思路方法上为我们的发展把脉支招，在具体工作和项目上帮助支持秦皇岛。秦皇岛将竭诚为石家庄办好省旅发大会提供最真诚的助力。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>5</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>海港区科技局组织科技特派员深入海港区农业园区开展技术帮扶</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2018-03-28</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C8EFC8136A15C233583C834A790BBE41</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['近日，海港区科技局积极开展科技特派员选派工作。科技特派员的选派坚持“双向选择，供需见面”的原则，并按照特派员所从事的专业和特长，找准科农结合点，将科技特派员安排到最有利于发挥专长的地方。安排特派员深入到海港区农业园区开展技术帮扶，为园区负责人讲解无土栽培技术、温室建设、新品种新技术推广等内容。鼓励科技特派员充分利用各自技术优势，结合下派村实际需求，通过外出学习考察、发放科技资料，播放科技录像等方式，向村民传授知识，切实提高农民科技素质，培育新型农民。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>5</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>秦皇岛市政府考察组到三亚市学习考察城市双修工作</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2017-11-27</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=F35758BDCD1627093A110D990EF54593</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['为学习借鉴外地市先进经验做法，做好我市城市双修工作，2017年11月23日，市委常委、常务副市长薛永纯带领市规划局、建设局及海港区、开发区、北戴河新区相关负责同志，专程赴三亚市考察学习城市双修工作。考察组一行先后学习考察了三亚解放路改造、丰兴隆生态公园、月川生态绿道、东岸湿地公园等城市双修示范项目，并与三亚市政府相关人员进行了广泛深入的沟通交流。 此次学习考察让考察组成员对城市双修有了更加直观、深刻的认识和理解，不仅学到了三亚市的先进经验和做法，也坚定了大家做好秦皇岛市城市双修工作的信心和决心。', '市委常委、常务副市长薛永纯要求大家一定要把三亚的经验学深学透，不仅要学习了解示范项目本身情况，还要深入学习三亚市城市双修的工作组织、规划设计和实施政策等，同时要把学到的经验运用到我市的双修工作中，力争把我市的双修工作做好、做实、做出特色。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>5</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>李春副市长带队赴外地学习考察城市管理工作</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2017-11-10</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6FF5FEB4BAF3BFD806E95887C65CF1C1</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['近日，李春副市长率领秦皇岛市城市管理考察团，先后赴深圳、广州、武汉、苏州进行学习考察。学习考察行程紧凑，内容充实，重点突出。考察团参观考察了上述城市的城管体制改革、垃圾分类、数字城管、精细化管理、夜景亮化以及园博会筹办、建设、宣传等工作。深圳市城管局副巡视员杨雷、广州市城管委副主任周伟平、武汉市园林局局长周耕、苏州市风景园林投资发展集团总经理沈伟民等当地城管、园林部门领导分别座谈介绍了情况或全程陪同。各市认识上位、工作到位，卓越的城市品质和高超的园博会运管水平给考察团成员留下了深刻印象，纷纷表示不虚此行。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>5</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>秦皇岛市财政局支付中心圆满完成年新系统工资发放试运行工作</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2017-11-08</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=7309C6FA2AF34003959BBCFC0759B573</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['按照省厅国库支付改革要求，结合我市具体情况，今年底全市工资发放将纳入全省财政信息一体化平台系统。为做好这项工作，中心领导细心谋划，精心组织。首先派出业务骨干参加省厅新工资系统培训，去唐山等省内先进地市学习考察；然后组织市直235家预算单位进行新版工资系统培训；三是与信息中心沟通进行工资数据新旧版本转换、核对；四是组织接收、审核、汇总、上报新旧版本工资数据资料，两版并行，确保11月份工资及时准确发放。现全市11月份工资已通过新系统顺利发放，圆满完成2017年新版系统工资发放试运行工作，确保年底正式实现工资发放电子支付一体化工作。', '按照省厅国库支付改革要求，结合我市具体情况，今年底全市工资发放将纳入全省财政信息一体化平台系统。为做好这项工作，中心领导细心谋划，精心组织。首先派出业务骨干参加省厅新工资系统培训，去唐山等省内先进地市学习考察；然后组织市直235家预算单位进行新版工资系统培训；三是与信息中心沟通进行工资数据新旧版本转换、核对；四是组织接收、审核、汇总、上报新旧版本工资数据资料，两版并行，确保11月份工资及时准确发放。现全市11月份工资已通过']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>5</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>青龙党政代表团赴旅发大会项目现场取经</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2017-10-09</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=228C49DB8D9A20D11D9D878A283AACC9</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['10月6日，国庆小长假第六天，县委书记霍春利、县长王殿忠率领25个乡镇及部分县直部门主要负责人共70多人赴海港区、昌黎县、北戴河新区观摩第二届省旅发大会的先进经验与做法,全体在家县级领导参加观摩。 观摩团一行首先来到与我县毗邻的海港区，在海港区领导的热情陪同下，先后参观了闆城小镇、天女小镇和祖山东门。一路上，只见群山绵延，流水澄碧，路旁大片大片的花海构成醉人的芬芳世界，三个旅发大会项目更是各具特色：闆城小镇，山水林居相融、自然与建筑完美结合；天女小镇，将“海上游”与“山林游”有机衔接，形成完善的生态休闲养生旅游线路；而祖山东门，一场撼人心魄的《木兰花开》实景演出，向观众讲述了“木兰姑娘”的美丽传奇。 现场，一个个旅发大会项目带来的感染力、冲击力、以及震撼力，让代表团成员大开眼界，更新甚至颠覆着大家对旅游产业的既有观念。 霍春利指出，这次旅发大会起点高、思路新，充分体现了现代经营理念，是推进旅游产业供给侧结构性改革的成功案例，对青龙旅游产业发展具有很强的借鉴意义。他说，如今全市旅游大格局已经形成，青龙要紧抓这一机遇，认真对标取经，全力打造祖山、花果山等全县各地景点，串珠成链，快速融入全市全域旅游大格局。 随后，观摩团一行沿宁海大道，赶赴昌黎学习考察。 在昌黎县委书记、县长等多位领导的陪同下，观摩团成员参观了葡萄小镇、金士酒庄等众多项目，并详细了解各项目的理念、功能、运营等情况。 在地质公园，昌黎县委书记刘学彬向观摩团介绍了该项目“矿坑变公园”的理念与初衷：“这片区域曾经是一个巨大的废弃矿坑，被当地人称为‘昌黎的伤疤’”，这次借旅发大会这一契机，我们采用‘PPP（政府与企业合作）’模式，将矿坑改造成为公园。这既是一次生态修复，也是一项惠民工程，同时提醒大家再也不能走掠夺式发展的老路。”地质公园的成功改造，仅是昌黎县守护绿水青山、大力推进旅游产业发展的一个缩影，据了解，该县紧扣全域旅游这一主题，将昌黎全境作为一个大景区，围绕当地资源优势谋篇布局：将碣石山作为“大公园”进行整体打造，同时在该县东、中、西部分别谋划建设“红酒”、“花卉诗词”和“葡萄”3个特色小镇。 结合海港区和昌黎县的先进经验，霍春利指出，两个县区积极发展全域旅游，在改善生态环境、提升群众生活质量、带动县域经济发展方面成效初显。他叮嘱参加此次观摩的各相关部门负责人，青龙的国家生态公园规划建设和美丽乡村建设，要学习借鉴两个县区小城镇建设与乡村旅游紧密结合的思路、做法、经验，以旅游为‘引擎’，深化供给侧改革，打造旅游新业态，不断提升全域旅游承载力、吸引力和影响力。 最后，观摩团一行来到北戴河新区，参观了北戴河游客中心。北戴河新区管委主任向大家介绍了秦皇岛全域智慧旅游大数据平台运行情况，该数据平台集中呈现了秦皇岛全域客源分析、偏好分析、景区线路分析和景区热度分析。 霍春利指出，在全市大旅游的格局中，各县区全域旅游格局基本上都有了架构，青龙各单位各部门要立足本地实际，有针对性地进一步加强对标学习，不仅要学习兄弟县区发展旅游新业态的成功经验，还要积极学习各县区广大党员群众干事创业的精神状态和精神风貌。 最后霍春利总结此次观摩学习的目的： 让大家分享旅发大会的丰硕成果和成就。此次旅发大会，代表了国际国内旅游产业的先进水平，充分展现了河北和秦皇岛的风采，大家应该深切体会省委省政府决策、市委市政府承办旅发大会的重要意义，从而进一步增强干事创业的激情。 激发大家的灵感。借助此次旅发大会，秦皇岛在推动供给侧结构性改革上，走出了一条“绿水青山变金山银山”的好路子，大家要通过学习三个县区的先进经验，激发发展全域旅游，以及做好脱贫攻坚等各项工作的灵感，进一步理清发展思路，明确发展方向，点燃加速青龙发展的新引擎。 霍春利要求，各级各部门要以此次观摩学习为契机，进一步坚定生态立县的信心和决心，切实保护好建设好青龙生态，真正把生态立县落到实处，切实解决“如何更好实现生态立县”问题；进一步坚定打造全域旅游的信心和决心，树立大旅游理念，以国家生态公园为依托，全力打造全域旅游示范县，切实解决“如何高标准建设好国家生态公园”问题；进一步坚定做好以脱贫攻坚为引领的其他各项工作的信心和决心，认真落实各项任务，切实解决“如何发展好绿色产业和确保年底脱贫摘帽”的问题；进一步坚定干事创业的信心和决心，克服畏难情绪，全力以赴，扎实抓好各项工作，切实解决“如何把青龙建设得更好”的问题。', '月6日，国庆小长假第六天，县委书记霍春利、县长王殿忠率领25个乡镇及部分县直部门主要负责人共70多人赴海港区、昌黎县、北戴河新区观摩第二届省旅发大会的先进经验与做法,全体在家县级领导参加观摩。', '观摩团一行首先来到与我县毗邻的海港区，在海港区领导的热情陪同下，先后参观了闆城小镇、天女小镇和祖山东门。一路上，只见群山绵延，流水澄碧，路旁大片大片的花海构成醉人的芬芳世界，三个旅发大会项目更是各具特色：闆城小镇，山水林居相融、自然与建筑完美结合；天女小镇，将“海上游”与“山林游”有机衔接，形成完善的生态休闲养生旅游线路；而祖山东门，一场撼人心魄的《木兰花开》实景演出，向观众讲述了“木兰姑娘”的美丽传奇。', '现场，一个个旅发大会项目带来的感染力、冲击力、以及震撼力，让代表团成员大开眼界，更新甚至颠覆着大家对旅游产业的既有观念。', '霍春利指出，这次旅发大会起点高、思路新，充分体现了现代经营理念，是推进旅游产业供给侧结构性改革的成功案例，对青龙旅游产业发展具有很强的借鉴意义。他说，如今全市旅游大格局已经形成，青龙要紧抓这一机遇，认真对标取经，全力打造祖山、花果山等全县各地景点，串珠成链，快速融入全市全域旅游大格局。', '在昌黎县委书记、县长等多位领导的陪同下，观摩团成员参观了葡萄小镇、金士酒庄等众多项目，并详细了解各项目的理念、功能、运营等情况。', '在地质公园，昌黎县委书记刘学彬向观摩团介绍了该项目“矿坑变公园”的理念与初衷：“这片区域曾经是一个巨大的废弃矿坑，被当地人称为‘昌黎的伤疤’”，这次借旅发大会这一契机，我们采用‘PPP（政府与企业合作）’模式，将矿坑改造成为公园。这既是一次生态修复，也是一项惠民工程，同时提醒大家再也不能走掠夺式发展的老路。”地质公园的成功改造，仅是昌黎县守护绿水青山、大力推进旅游产业发展的一个缩影，据了解，该县紧扣全域旅游这一主题，将昌黎全境作为一个大景区，围绕当地资源优势谋篇布局：将碣石山作为“大公园”进行整体打造，同时在该县东、中、西部分别谋划建设“红酒”、“花卉诗词”和“葡萄”3个特色小镇。', '结合海港区和昌黎县的先进经验，霍春利指出，两个县区积极发展全域旅游，在改善生态环境、提升群众生活质量、带动县域经济发展方面成效初显。他叮嘱参加此次观摩的各相关部门负责人，青龙的国家生态公园规划建设和美丽乡村建设，要学习借鉴两个县区小城镇建设与乡村旅游紧密结合的思路、做法、经验，以旅游为‘引擎’，深化供给侧改革，打造旅游新业态，不断提升全域旅游承载力、吸引力和影响力。', '最后，观摩团一行来到北戴河新区，参观了北戴河游客中心。北戴河新区管委主任向大家介绍了秦皇岛全域智慧旅游大数据平台运行情况，该数据平台集中呈现了秦皇岛全域客源分析、偏好分析、景区线路分析和景区热度分析。', '霍春利指出，在全市大旅游的格局中，各县区全域旅游格局基本上都有了架构，青龙各单位各部门要立足本地实际，有针对性地进一步加强对标学习，不仅要学习兄弟县区发展旅游新业态的成功经验，还要积极学习各县区广大党员群众干事创业的精神状态和精神风貌。', '让大家分享旅发大会的丰硕成果和成就。此次旅发大会，代表了国际国内旅游产业的先进水平，充分展现了河北和秦皇岛的风采，大家应该深切体会省委省政府决策、市委市政府承办旅发大会的重要意义，从而进一步增强干事创业的激情。', '激发大家的灵感。借助此次旅发大会，秦皇岛在推动供给侧结构性改革上，走出了一条“绿水青山变金山银山”的好路子，大家要通过学习三个县区的先进经验，激发发展全域旅游，以及做好脱贫攻坚等各项工作的灵感，进一步理清发展思路，明确发展方向，点燃加速青龙发展的新引擎。', '霍春利要求，各级各部门要以此次观摩学习为契机，进一步坚定生态立县的信心和决心，切实保护好建设好青龙生态，真正把生态立县落到实处，切实解决“如何更好实现生态立县”问题；进一步坚定打造全域旅游的信心和决心，树立大旅游理念，以国家生态公园为依托，全力打造全域旅游示范县，切实解决“如何高标准建设好国家生态公园”问题；进一步坚定做好以脱贫攻坚为引领的其他各项工作的信心和决心，认真落实各项任务，切实解决“如何发展好绿色产业和确保年底脱贫摘帽”的问题；进一步坚定干事创业的信心和决心，克服畏难情绪，全力以赴，扎实抓好各项工作，切实解决“如何把青龙建设得更好”的问题。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>5</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>秦皇岛局到连云港威海开展对标学习</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2017-07-05</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=1323BA681B6CA39A52D9AFF0A582D777</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['按照市委市政府的统一部署，为进一步做好统计服务工作，更好地学习沿海开放城市在经济社会发展和统计服务工作中的先进经验和做法，6月27-30日，秦皇岛市统计局副局长李春光带领综合、核算和服务业等科室负责人，到连云港和威海市统计局开展对标交流学习。 考察组先后与连云港、威海两市统计同仁进行学习座谈，详细了解两市经济总体发展情况和新旧动能转换、产业转型升级等方面的特点，交流了海洋经济、旅游产业、文化产业等统计工作方面的思路做法，学习了两市在综合统计、服务业统计、国民经济核算统计工作的先进经验。 通过对连云港、威海两市的学习考察，结合秦皇岛市统计工作的实际情况，市统计局谋划下一步工作举措，力争从以下方面有所突破。 一是进一步搞好统计创新。要学习先进地区经验，强化创新的理念，改进工作方式方法。研究探索一套表的开发应用，努力实现统计月报等统计资料与一套表的有效衔接，提升工作效率。加强科室之间的协调配合，整合各专业所需的部门数据，探讨部门数据联网直报，尽量避免重复部署，切实减轻部门统计人员负担。完善旅游经济、海洋经济统计与核算，并做好相关资料的开发应用。 二是进一步加强统计分析。同为首批沿海开放城市，秦皇岛市与连云港、威海市面积、人口差距不大，但经济发展差距很大。要深入开展多维度统计分析，总结比对两市经济发展中的经验做法和产业结构特点，真正找出秦皇岛市经济发展的差距所在和落后的根源，积极撰写统计分析报告，提出切实可行的对策建议，为结构转型升级和供给侧改革等提供高质量的统计咨询服务。 三是进一步提升统计监测能力。学习两市统计服务方面的新举措，围绕市委市政府的中心工作，加强四大两特产业发展、全面建成小康社会、县域经济发展等各项统计监测工作，对行业趋势进行预测，对发展难点进行预警，对统计数据进行深入分析研究，服务党政领导决策和宏观经济发展。', '按照市委市政府的统一部署，为进一步做好统计服务工作，更好地学习沿海开放城市在经济社会发展和统计服务工作中的先进经验和做法，', '月27-30日，秦皇岛市统计局副局长李春光带领综合、核算和服务业等科室负责人，到连云港和威海市统计局开展对标交流学习。', '考察组先后与连云港、威海两市统计同仁进行学习座谈，详细了解两市经济总体发展情况和新旧动能转换、产业转型升级等方面的特点，交流了海洋经济、旅游产业、文化产业等统计工作方面的思路做法，学习了两市在综合统计、服务业统计、国民经济核算统计工作的先进经验。', '通过对连云港、威海两市的学习考察，结合秦皇岛市统计工作的实际情况，市统计局谋划下一步工作举措，力争从以下方面有所突破。', '进一步搞好统计创新。要学习先进地区经验，强化创新的理念，改进工作方式方法。研究探索一套表的开发应用，努力实现统计月报等统计资料与一套表的有效衔接，提升工作效率。加强科室之间的协调配合，整合各专业所需的部门数据，探讨部门数据联网直报，尽量避免重复部署，切实减轻部门统计人员负担。完善旅游经济、海洋经济统计与核算，并做好相关资料的开发应用。', '二是进一步加强统计分析。同为首批沿海开放城市，秦皇岛市与连云港、威海市面积、人口差距不大，但经济发展差距很大。要深入开展多维度统计分析，总结比对两市经济发展中的经验做法和产业结构特点，真正找出秦皇岛市经济发展的差距所在和落后的根源，积极撰写统计分析报告，提出切实可行的对策建议，为结构转型升级和供给侧改革等提供高质量的统计咨询服务。', '三是进一步提升统计监测能力。学习两市统计服务方面的新举措，围绕市委市政府的中心工作，加强四大两特产业发展、全面建成小康社会、县域经济发展等各项统计监测工作，']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>5</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>承德市代表团到我市学习筹办省旅游产业发展大会先进经验</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2017-09-25</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=4772362096F327D40C63F4DBF992B4B8</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['本报讯（记者高扬）第二届省旅游产业发展大会在我市圆满闭幕，为做好明年会议筹备工作，9月24日，承德市委书记周仲明，市长常丽虹带领近80人的代表团莅临我市，通过实地考察观摩和面对面座谈交流的形式，学习我市承办第二届省旅发大会的先进经验与做法。市委书记孟祥伟，市长张瑞书陪同观摩并出席座谈会。 当天，承德市代表团一行人先后到北戴河游客中心、国际康养中心、昌黎葡萄小镇、金士酒庄、天女小镇、板厂峪景区等旅游龙头项目进行实地参观，并乘坐山海观光小铁路，亲临体验铁路沿线的花海油葵景区、开埠地码头车站以及海誓小院等项目。所到之处，代表团成员纷纷用手机拍下沿途美景，对各个旅游项目建设的理念、功能、品牌等情况进行了详细了解。在随后的座谈会上，代表团认真听取了我市承办省旅发大会的相关工作情况汇报。 周仲明表示，前不久，秦皇岛刚刚举办了一届极具感染力、极具冲击力、极具震撼力的旅游产业发展大会，为全省全域旅游发展提供了鲜活经验，尤其是为承德举办好全省第三届旅发大会提供了生动样板，这次学习考察，对承德的意义非比寻常。周仲明指出，这是一次学习之旅，我们一路参观、一路学习、一路思考，在旅游产业发展上，既让我们看到了差距和不足，又找到了下步努力的方向，增添了成功办会的信心；这也是一次收获之旅，我们要学习秦皇岛在筹办大会过程中强烈的责任意识、机遇意识和担当意识，学习实事求是、创新发展办会的新思路，学习大手笔谋划、大手笔运作旅游项目的态度，学习充满激情、真抓实干的干部作风，学习始终坚持“以人为本”、惠及民生的发展理念；这更是一次友情之旅，承德与秦皇岛一衣带水、情同兄弟，“邻居越走越近，亲戚越走越亲”，这次学习考察，我们收获了无比宝贵的先进经验，更收获了真挚真切的友谊情感，希望两市进一步加强联系，建立更加紧密的协作关系，积极推动更宽领域、更高层次的合作与交流。 孟祥伟代表秦皇岛四大班子和300万港城人民对承德市代表团的到来表示欢迎，并指出，在第二届省旅发大会上，秦皇岛充分展示了自己的风采，其成功之处在于按照“精简、务实、发人深省”的办会总要求，在具体工作中，注重把握好旅游发展“会”和“业”的关系、旅游项目“新”和“旧”的关系、项目观摩“点、线、面”的关系、项目形象展示“虚”和“实”的关系、政府和企业的主体关系、项目建设“质”和“量”的关系、筹办会议成本和收益的关系、办会目标“物”和“人”的关系等八个关系。这次旅发大会尽管取得了成功，但也从中查找到许多不足，明确了我们今后努力的方向，真诚欢迎大家对秦皇岛旅游发展等各个方面工作多提宝贵意见。孟祥伟表示，承德作为全国首批历史文化名城和优秀旅游城市，有着生态旅游、森林草原、皇家文化等旅游资源，体量和品质是当之无愧的“河北之最”，特别是习近平总书记对塞罕坝林场建设者感人事迹作出重要指示，以塞罕坝生态文明建设范例为榜样，大力弘扬塞罕坝精神，在全国引起了强烈反响。我们坚信在省委、省政府的坚强领导下，省旅发大会一届比一届圆满，也期待着第三届旅发大会在承德精彩呈现。 参与此次考察的承德市代表团领导有韩福才、刘文勤、张泽峰、丁伟、吴清海、苏铁成、马占山、张富民等。 市领导田金昌、刘辰彦、薛永纯、李国勇、冯国林、冯志永、李春、赵方出席座谈会。', '本报讯（记者高扬）第二届省旅游产业发展大会在我市圆满闭幕，为做好明年会议筹备工作，9月24日，承德市委书记周仲明，市长常丽虹带领近80人的代表团莅临我市，通过实地考察观摩和面对面座谈交流的形式，学习我市承办第二届省旅发大会的先进经验与做法。市委书记孟祥伟，市长张瑞书陪同观摩并出席座谈会。', '当天，承德市代表团一行人先后到北戴河游客中心、国际康养中心、昌黎葡萄小镇、金士酒庄、天女小镇、板厂峪景区等旅游龙头项目进行实地参观，并乘坐山海观光小铁路，亲临体验铁路沿线的花海油葵景区、开埠地码头车站以及海誓小院等项目。所到之处，代表团成员纷纷用手机拍下沿途美景，对各个旅游项目建设的理念、功能、品牌等情况进行了详细了解。在随后的座谈会上，代表团认真听取了我市承办省旅发大会的相关工作情况汇报。', '周仲明表示，前不久，秦皇岛刚刚举办了一届极具感染力、极具冲击力、极具震撼力的旅游产业发展大会，为全省全域旅游发展提供了鲜活经验，尤其是为承德举办好全省第三届旅发大会提供了生动样板，这次学习考察，对承德的意义非比寻常。周仲明指出，这是一次学习之旅，我们一路参观、一路学习、一路思考，在旅游产业发展上，既让我们看到了差距和不足，又找到了下步努力的方向，增添了成功办会的信心；这也是一次收获之旅，我们要学习秦皇岛在筹办大会过程中强烈的责任意识、机遇意识和担当意识，学习实事求是、创新发展办会的新思路，学习大手笔谋划、大手笔运作旅游项目的态度，学习充满激情、真抓实干的干部作风，学习始终坚持“以人为本”、惠及民生的发展理念；这更是一次友情之旅，承德与秦皇岛一衣带水、情同兄弟，“邻居越走越近，亲戚越走越亲”，这次学习考察，我们收获了无比宝贵的先进经验，更收获了真挚真切的友谊情感，希望两市进一步加强联系，建立更加紧密的协作关系，积极推动更宽领域、更高层次的合作与交流。', '孟祥伟代表秦皇岛四大班子和300万港城人民对承德市代表团的到来表示欢迎，并指出，在第二届省旅发大会上，秦皇岛充分展示了自己的风采，其成功之处在于按照“精简、务实、发人深省”的办会总要求，在具体工作中，注重把握好旅游发展“会”和“业”的关系、旅游项目“新”和“旧”的关系、项目观摩“点、线、面”的关系、项目形象展示“虚”和“实”的关系、政府和企业的主体关系、项目建设“质”和“量”的关系、筹办会议成本和收益的关系、办会目标“物”和“人”的关系等八个关系。这次旅发大会尽管取得了成功，但也从中查找到许多不足，明确了我们今后努力的方向，真诚欢迎大家对秦皇岛旅游发展等各个方面工作多提宝贵意见。孟祥伟表示，承德作为全国首批历史文化名城和优秀旅游城市，有着生态旅游、森林草原、皇家文化等旅游资源，体量和品质是当之无愧的“河北之最”，特别是习近平总书记对塞罕坝林场建设者感人事迹作出重要指示，以塞罕坝生态文明建设范例为榜样，大力弘扬塞罕坝精神，在全国引起了强烈反响。我们坚信在省委、省政府的坚强领导下，省旅发大会一届比一届圆满，也期待着第三届旅发大会在承德精彩呈现。', '参与此次考察的承德市代表团领导有韩福才、刘文勤、张泽峰、丁伟、吴清海、苏铁成、马占山、张富民等。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>5</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>海港区普查中心赴唐山承德市考察学习</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2017-07-12</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9BACB0C93E0884C2171EB29CA893E648</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['为进一步做好我区基本单位名录库维护工作，更好地学习其他地市的先进经验，6月28日起我区普查中心同志在市局普查中心领导带领下，一行6人先后赴唐山、承德两市统计局学习考察。', '此行受到了两市领导及同志的热情欢迎。在学习中，两市对其如何解决市场主体多和人员少的矛盾、在协调人员力量方面的先进做法、主城区街道办统计站的建制等先进经验不吝赐教。我区同志针对“新增单位的行政区划的划分”、“任务分解”、“入户填表”“乡级延伸”、“网络建设”“特殊处理率的控制”等问题先后向唐山市路北区，承德市双桥区普查中心同志进行了虚心讨教，并深入路北区的大里街道办事处，双桥区的桥东街道办事处进行实地考察学习，和基层名录库工作的同志进行了广泛的交流探讨。', '通过对标学习，我局同志深感受益匪浅，收获颇丰。市局领导充分肯定了此次对标学习活动的成果，并提倡将此活动形式广泛推广。', '下一步，我区将对此行的学习心得进行深入梳理和总结，并以此次为契机，结合我区的实际情况对名录库工作进行优化整改。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>5</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>秦皇岛市统计局赴邢台衡水局对标学习</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2017-07-04</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=0F9308A00329E2EF5190989298BCC3E4</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['6月26-29日，秦皇岛市统计局党组成员、副局长王忠东带领工业、贸易、法规、综合等有关科室负责同志赴邢台市统计局、衡水市统计局进行对标学习考察。 学习考察组一行深入了解和学习了邢台、衡水两市统计局在统计法治建设、工业统计、贸易统计、综合统计以及统计双基建设、打造统计机关新形象等方面的好经验、好做法。在此基础上，局学习考察人员还分专业，进科室现场参观学习。两局还就在已有良好交流合作的基础上，进一步加强沟通交流、拓展合作、深化交流协作事宜达成重要共识。 通过这次对标学习活动，学习人员普遍反映，不虚此行，受益匪浅。邢台市统计局在统计执法、工业统计、综合统计等方面，衡水市统计局在贸易外经统计、综合统计、统计双基建设等方面的许多经验与做法可学可鉴，开展向两局对标学习，标杆选得准，榜样选得好，要借这次对标学习考察的东风，对标先进、正视差距、取长补短、奋力赶超，努力提高我局统计工作水平。 学习考察期间，还实地参观了衡水市养元智汇饮品有限公司和武强县文化产业基地。', '月26-29日，秦皇岛市统计局党组成员、副局长王忠东带领工业、贸易、法规、综合等有关科室负责同志赴邢台市统计局、衡水市统计局进行对标学习考察。', '学习考察组一行深入了解和学习了邢台、衡水两市统计局在统计法治建设、工业统计、贸易统计、综合统计以及统计双基建设、打造统计机关新形象等方面的好经验、好做法。在此基础上，', '两局还就在已有良好交流合作的基础上，进一步加强沟通交流、拓展合作、深化交流协作事宜达成重要共识。', '邢台市统计局在统计执法、工业统计、综合统计等方面，衡水市统计局在贸易外经统计、综合统计、统计双基建设等方面的许多经验与做法可学可鉴，开展向两局对标学习，标杆选得准，榜样选得好，要借这次对标学习考察的东风，对标先进、正视差距、取长补短、奋力赶超，努力提高我局统计工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>5</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>市委宣传部积极对接上级力求旅发大会宣传文化推介工作上水平</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2017-06-19</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D0F11485D5851A79C8809602CD41253E</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['月13日，按照市委常委、宣传部长陈玉国指示精神，市委外宣局局长、市政府新闻办主任张建军带领市委宣传部、市旅游委相关同志，到石家庄与省级宣传、旅游部门进行旅发大会工作对接，争取工作支持。省委外宣局常务副局长王凤主持召开工作对接会，会上我市汇报了承办第二届省旅发大会总体情况，以及前一阶段宣传推介及文艺演出组的工作开展情况，就近期重点工作进行研究沟通。王凤同志对我市宣传文化推介工作予以肯定，并就如何做好下一步工作提出具体要求：一是高度重视。要以旅发大会为契机，不断打造城市形象新亮点，为老牌旅游城市的新提升造势、鼓劲；二是精心谋划。要充分发挥中央、省市以及海外媒体各自的优势，多利用体量小、传播快的新型媒体传播方式，会前宣传突出氛围营造，会中宣传突出活动重点，会后宣传突出总结提升；三是精心组织。要有计划、有节奏地组织媒体采访活动，提前预热，不断升温。根据方案做好媒体采访邀请、新闻中心组建和新闻素材的准备，将各项工作做细、做实，为媒体记者提供专业周到优质的服务。', '此前，市委宣传部、市旅游委还到保定进行了深入的学习考察，将保定市承办首届省旅发大会的成功经验融入我市承办的具体工作之中，注重强化细节管理，确保“细致、精致、极致”的要求在宣传文化推介工作中全面落实。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>5</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>胡瑞东带队考察省级文明城市创建工作</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2017-04-21</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C80828CC624E57A3BAB4B2BC1EF6F9F0</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['胡瑞东带队考察省级文明城市创建工作 今年是创建省级文明城市的总评之年，为学习借鉴外地成功创建经验，更好地完成创建工作。近日，县委常委、宣传部长胡瑞东带领县文明办全体人员到承德市滦平县和唐山市滦南县就省级文明城市创建工作进行了学习考察。 胡瑞东一行先后到滦平县祥源社区、社区家长学校、城区各主次街道等地考察。并与滦平县委宣传部负责人进行了座谈交流。滦平县委宣传部常务副部长于中山简要介绍了滦平县情，详细介绍了创建省级文明城市的做法和经验。 城管局、园林局、社区等单位负责人结合部门工作实际，介绍了参与创建的工作做法。 随后，考察组又到滦南县社区、菜市场、文化广场等地进行了考察学习。 胡瑞东表示，通过亲眼看、亲耳听，亲身感受到了滦南县、滦平县在创建省级文明城市中站位高、看得远、举措细，尤其是动员群众参与、形式多样的宣传等做法让人耳目一新。在考察中，接触到的干部群众，都让人感受到了文明的魅力，查找出了自身的不足，也明晰了我们下步努力的方向。滦南、滦平的经验措施实、可复制，对卢龙有着很好的学习、思考和借鉴意义。希望我县文明办的同志将学到的经验和我县实际结合起来，认真学好、用好，在今年的创建工作中要向滦平和滦南看齐，全力以赴在今年的省级文明县城创建中取得好成绩。', '今年是创建省级文明城市的总评之年，为学习借鉴外地成功创建经验，更好地完成创建工作。近日，县委常委、宣传部长胡瑞东带领县文明办全体人员到承德市滦平县和唐山市滦南县就省级文明城市创建工作进行了学习考察。', '胡瑞东一行先后到滦平县祥源社区、社区家长学校、城区各主次街道等地考察。并与滦平县委宣传部负责人进行了座谈交流。滦平县委宣传部常务副部长于中山简要介绍了滦平县情，详细介绍了创建省级文明城市的做法和经验。', '胡瑞东表示，通过亲眼看、亲耳听，亲身感受到了滦南县、滦平县在创建省级文明城市中站位高、看得远、举措细，尤其是动员群众参与、形式多样的宣传等做法让人耳目一新。在考察中，接触到的干部群众，都让人感受到了文明的魅力，查找出了自身的不足，也明晰了我们下步努力的方向。滦南、滦平的经验措施实、可复制，对卢龙有着很好的学习、思考和借鉴意义。希望我县文明办的同志将学到的经验和我县实际结合起来，认真学好、用好，在今年的创建工作中要向滦平和滦南看齐，全力以赴在今年的省级文明县城创建中取得好成绩。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>5</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>另辟蹊径谋脱贫良策</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2017-06-02</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=44C5814BDD08216842C3055083D701A5</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['月25日，市农业局精准脱贫驻村工作组组长徐海航用5个“满”为这个“十三五”国家级贫困村描绘了一幅红火的愿景图。', '城北村位于青龙满族自治县西南长城脚下，由8个自然村组成。这8个自然村散布在8000亩山林中。村里山林多，耕地少，耕地面积只有509亩。如何让全村248户810口人满意、让贫困户脱贫，考验的不仅仅是驻村工作组的毅力与魄力，还有他们的耐心与能力。', '“城北村没有集体经济收入，村民个人收入低，村民收入来自种植玉米、板栗、核桃等，还有外出务工。”徐海航介绍。', '“我们积极发动村民种植板栗，今年村里增种板栗树苗1.5万株。”徐海航说，他们还鼓励村民在板栗树下套种中药材，全村柴胡、苍术、子母等药材种植面积近700亩，并已与满药本草药业签订了柴胡、苍术种销合同。', '城北村人均耕地6分，不适合发展大规模棚室种植，工作组就积极发动大家利用房前屋后、自家庭院建设木耳种植大棚，并组织村民到县内客源宏和木兰菌业公司学习考察菌类栽培技术。', '村集体没有经济收入，工作组就制定了村级扶贫资金使用办法，以村集体名义组织成立了种植、养殖合作社，带动村民创业增收。此外，依靠大户带动贫困户致富也是工作组谋划工作的着力点。村民们自发成立了农机、养牛、手工编织公司和家庭农场各1家，其中手工编织已与青龙茂华工艺品有限公司达成了合作意向。', '杨永清是村里的家庭农场发展大户，也是徐海航“借力发力”的一个突破口。徐海航说，他看中杨永清身上那股踏实肯干的劲。早些年杨永清靠打工帮着家里分担压力，后来年龄渐长，便琢磨着转行搞家庭农场。头脑灵活的他在网上自学，现在小日子过得红红火火。', '工作组入驻后，没少跟杨永清沟通，知道他想扩大农场规模，帮助他开垦荒山，并建集雨水窖。在种植板栗树苗时联系专家进行指导，种植适合当地环境的树苗500多棵。“小杨也有意愿带动贫困户致富，我们打算结合村民意愿，摸索更具体的操作模式，让更多人摆脱贫困。”徐海航说。', '工作组多次组织村“两委”班子、党员和村民代表研究讨论，最后确定了整治方案：修建完成田间路路基两公里；新打一眼深井，保障村民的饮水安全；修建山地集雨水窖120个、扬水站1处；筹措资金3万元，为8个自然村安装了16个高音喇叭和功放设备，翻修了村民活动中心；配备了新的体育健身设施；修建了标准化卫生室，完善了村图书室；安装120盏路灯，亮化了村庄。积极争取社会帮扶，争取到爱心企业帮扶水泥180吨，完成了50户村民的入户道路硬化。', '工作组还动员干部群众开展环境清理活动，从庭院打扫做起延伸到街道、公路，清理街道柴草、垃圾、杂物，清理残垣断壁和路障100多处。修建了24个垃圾收集点，改变了村民垃圾乱倒的习惯，村里还有了专门的保洁员，实现了环境整治经常化、制度化，保证了村庄周边无垃圾积存，村内大街小巷整洁通畅。', '扶贫先扶智。农村教育问题也是徐海航时时挂心的一件事。为了改善本村的小学教学环境，今年5月他联系北京爱心企业进行捐资助教，提供了文体用品、饮水机、空调等价值3万元的物品。', '“整个村子环境优美，产业富民，子孙后代有了永续发展的基业，村民都能享受实实在在的发展成果，这就是我们的愿望。”徐海航说。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>5</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>秦皇岛北戴河区多措并举加强三支队伍建设</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2016-10-31</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=1D4A5E5BE2E81BC42BA08838F0357192</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['近年来，北戴河区高度重视“三支队伍”建设，采取各种措施帮助、支持“三支队伍”发展壮大。 建强镇党委书记队伍，打造镇村发展“主导者”。一是注重选拔培养。严把镇党委书记选用标准，把实绩突出、敢闯敢试、群众公认的干部选拔出来。坚持“借力培训”，多次组织参加全国政协、中纪委培训中心等举办的高端理论培训；实施“走出去”战略，组织他们到海南、四川、北京等发达地区学习考察，着力提高镇级干部科学发展能力和水平。二是创新实绩考核。制定完善科学的镇党委书记考核评价办法，将科级领导班子和科级干部年度工作实绩考核与日常谈心谈话相结合，通过干部工作日志的定期检查、蹲点调研情况的抽查等方式全方位了解各镇党委书记履职情况。三是压实管党责任。把镇党委书记抓基层党建述职评议作为落实全面从严管党治党责任的有效抓手，改进评议方式，强化结果运用，推动基层党建任务落地见效。落实农村基层党建工作责任制，明确镇党委书记履行管党治党第一责任的“十个常态化”工作要求，有效传导压力、靠实责任。 建强村党组织书记队伍，选育农村引路“领头雁”。一是优中选优配强人。结合区情实际，进一步细化完善候选人“五选七不选九不宜”标准条件，加大工作力度，采取过硬举措，仅用一个半月的时间全部完成村“两委”换届任务，村书记队伍的年龄和知识结构显著优化。我区被省评为村“两委”换届工作先进单位，并在全省总结表彰大会上作书面经验交流。二是多措并举提素质。大力实施“领头雁”工程和“接班人”工程，区委主要领导与所有新当选村书记一对一面谈，教思路、教方法。举办新一届农村（社区）干部培训班，组织全区各镇、村党组织书记赴浙江、山东及邢台邯郸学习考察，进一步激发干事创业激情，确定“远学邢台前南峪、近学戴河加古城”的对标目标，并逐村制定“对标学习整改提升清单”。三是严管厚爱激活力。明确村书记抓基层党建“十带头”工作要求，实施村干部任期目标责任制和“双述双评”制度，研制村干部违反廉洁履职若干规定责任追究办法，从严从实管理村书记队伍。认真落实“一定三有”工作机制，全面提高农村干部基础职务补贴标准。通过“升职不挪位”的方法，将4名优秀中年农村党组织书记选聘为镇党委副书记，将3名威信高、经验丰富的老支书聘任为镇农村经济社会发展顾问。 建强农村致富带头人队伍，培养奔康致富“排头兵”。一是重点选树优秀标杆。建立农村致富带头人信息库，区划调整后及时添加了牛头崖镇的致富带头人信息。在农村社区“最美共产党员”的评选表扬宣传活动中将优秀致富带头人涵括进来，并结合“两学一做”学习教育选树党员标兵和先进典型，起到了示范辐射效应。二是实施教育培训工程。组织农村致富带头人观摩学习北戴河村、车站村、集发观光园、旅游民宿等有特色的教育基地，吸收先进的民宿经营产业、乡村旅游产业等经验，不断提高他们致富带富的能力。充分利用各村远程教育平台，开设与农业技术、民宿经营、乡村旅游相关的课程供需要的人点播。三是创造良好成长条件。推行把致富带头人培养成党员,把党员培养成致富带头人的“双育”计划，加速致富带头人的成长，推动农村经济发展。采取多种有效措施，吸引更多人才留在农村、服务农村，培养一批“回得去、留得住、用得上”的致富带头人。 搭好“三支队伍”建设平台，造就强村富民“顶梁柱”。结合“两学一做”学习教育，深化农村党员“亮牌践诺”制度，开展“亮身份、树形象、展风采”活动，向全区所有农村党员发放党徽并统一制作悬挂“党员家庭户”标牌，公开“十带头”承诺；注重在农村优秀人才、致富能手中发展党员，坚持完善村“两室”建设和“三会一课”制度，以农村基层党组织建设带动农村其他各类基层组织建设；探索建立“五规范一创建”村级组织规范化管理体系，推进农村基层组织建设步入法治化、规范化、制度化轨道。为科学评价村干部，进一步提高规范化管理水平，将现任村“两委”干部纳入建档管理对象，细化管理机制，明确责任主体，确保村干部档案内容客观真实、管理规范、调转顺畅。戴河联村党总支获评我市唯一一个全国先进基层党组织，初步梳理出以“四力、四式、四化”为主要内容的“李集周治村工作法”在全市农村予以推广。（冯梅）', '近年来，北戴河区高度重视“三支队伍”建设，采取各种措施帮助、支持“三支队伍”发展壮大。', '建强镇党委书记队伍，打造镇村发展“主导者”。一是注重选拔培养。严把镇党委书记选用标准，把实绩突出、敢闯敢试、群众公认的干部选拔出来。坚持“借力培训”，多次组织参加全国政协、中纪委培训中心等举办的高端理论培训；实施“走出去”战略，组织他们到海南、四川、北京等发达地区学习考察，着力提高镇级干部科学发展能力和水平。二是创新实绩考核。制定完善科学的镇党委书记考核评价办法，将科级领导班子和科级干部年度工作实绩考核与日常谈心谈话相结合，通过干部工作日志的定期检查、蹲点调研情况的抽查等方式全方位了解各镇党委书记履职情况。三是压实管党责任。把镇党委书记抓基层党建述职评议作为落实全面从严管党治党责任的有效抓手，改进评议方式，强化结果运用，推动基层党建任务落地见效。落实农村基层党建工作责任制，明确镇党委书记履行管党治党第一责任的“十个常态化”工作要求，有效传导压力、靠实责任。', '建强村党组织书记队伍，选育农村引路“领头雁”。一是优中选优配强人。结合区情实际，进一步细化完善候选人“五选七不选九不宜”标准条件，加大工作力度，采取过硬举措，仅用一个半月的时间全部完成村“两委”换届任务，村书记队伍的年龄和知识结构显著优化。我区被省评为村“两委”换届工作先进单位，并在全省总结表彰大会上作书面经验交流。二是多措并举提素质。大力实施“领头雁”工程和“接班人”工程，区委主要领导与所有新当选村书记一对一面谈，教思路、教方法。举办新一届农村（社区）干部培训班，组织全区各镇、村党组织书记赴浙江、山东及邢台邯郸学习考察，进一步激发干事创业激情，确定“远学邢台前南峪、近学戴河加古城”的对标目标，并逐村制定“对标学习整改提升清单”。三是严管厚爱激活力。明确村书记抓基层党建“十带头”工作要求，实施村干部任期目标责任制和“双述双评”制度，研制村干部违反廉洁履职若干规定责任追究办法，从严从实管理村书记队伍。认真落实“一定三有”工作机制，全面提高农村干部基础职务补贴标准。通过“升职不挪位”的方法，将4名优秀中年农村党组织书记选聘为镇党委副书记，将3名威信高、经验丰富的老支书聘任为镇农村经济社会发展顾问。', '建强农村致富带头人队伍，培养奔康致富“排头兵”。一是重点选树优秀标杆。建立农村致富带头人信息库，区划调整后及时添加了牛头崖镇的致富带头人信息。在农村社区“最美共产党员”的评选表扬宣传活动中将优秀致富带头人涵括进来，并结合“两学一做”学习教育选树党员标兵和先进典型，起到了示范辐射效应。二是实施教育培训工程。组织农村致富带头人观摩学习北戴河村、车站村、集发观光园、旅游民宿等有特色的教育基地，吸收先进的民宿经营产业、乡村旅游产业等经验，不断提高他们致富带富的能力。充分利用各村远程教育平台，开设与农业技术、民宿经营、乡村旅游相关的课程供需要的人点播。三是创造良好成长条件。推行把致富带头人培养成党员,把党员培养成致富带头人的“双育”计划，加速致富带头人的成长，推动农村经济发展。采取多种有效措施，吸引更多人才留在农村、服务农村，培养一批“回得去、留得住、用得上”的致富带头人。', '搭好“三支队伍”建设平台，造就强村富民“顶梁柱”。结合“两学一做”学习教育，深化农村党员“亮牌践诺”制度，开展“亮身份、树形象、展风采”活动，向全区所有农村党员发放党徽并统一制作悬挂“党员家庭户”标牌，公开“十带头”承诺；注重在农村优秀人才、致富能手中发展党员，坚持完善村“两室”建设和“三会一课”制度，以农村基层党组织建设带动农村其他各类基层组织建设；探索建立“五规范一创建”村级组织规范化管理体系，推进农村基层组织建设步入法治化、规范化、制度化轨道。为科学评价村干部，进一步提高规范化管理水平，将现任村“两委”干部纳入建档管理对象，细化管理机制，明确责任主体，确保村干部档案内容客观真实、管理规范、调转顺畅。戴河联村党总支获评我市唯一一个全国先进基层党组织，初步梳理出以“四力、四式、四化”为主要内容的“李集周治村工作法”在全市农村予以推广。（冯梅）']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>5</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>抚宁区考察团赴保定三县学习考察</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2016-11-14</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C5F198215D961D4EC3C0BB0F3504F035</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['月1日至3日,抚宁区长焦大伟，副区长杨占起，区农工委、规划、旅游等有关单位负责同志，部分乡镇（管理区）党政主要负责同志，美丽乡村建设相关企业以及部分重点景区、美丽乡村建设重点村主要负责人等20余人组成考察团，到河北省首届旅游发展大会举办地保定市涞水、易县、涞源三县学习考察。全面、深入、细致地学习了三县在全域旅游概念引领下，旅游、扶贫、休闲农业、美丽乡村、山区综合开发“五位一体”互融共进的典型经验和做法，走访了以旅发大会为契机，着力打造的美丽乡村建设重点村。考察期间，保定市三县相关县级领导和同志分别参加考察活动。考察结束后，区长焦大伟召开专题座谈会，考察团成员一一发言，各自结合部门、地区实际找差距、明思路，谋划明年及下一步工作举措，为明年我区借力旅发大会实现涞易涞三县“奇迹式”发展奠定思想基础。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>5</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>市发改委全员帮扶崔杖子村脱贫</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2016-09-05</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=1AB092287D0C0D1452A78999495D8311</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['为帮助青龙崔杖子村稳定脱贫，秦皇岛市发改委建立全员帮扶工作机制，突出产业扶贫和基础设施建设，有力推进了脱贫攻坚和精准扶贫工作。 建立全员帮扶工作机制。他们建立“单位包村、干部包户、工作组驻村”工作机制，形成前方出题目、后方做文章，全员想法子、找路子、促发展的工作格局。单位主要领导带队赴帮扶村现场办公，研究村庄规划，谋划增收产业，制定帮扶措施。协调与市县有关部门对接，为村里争取环境综合整治、以工代赈等项目资金28万元；协调争取爱心企业帮扶资金60万元、水泥300吨、空心砖1.5万块；积极协调保定英利集团，帮助村里争取光伏发电扶贫项目，为村民和村集体增加长期稳定收入。 突出产业扶贫和基础设施建设。为帮扶村因地制宜确定了板栗种植、中药材种植、香菇大棚栽培和养殖业四个增收产业，制定了村级扶贫资金使用办法，以村委会名义组织成立了种植和养殖两个专业合作社，带动村民创业增收。做强板栗主导产业，今年新增山场种植面积1500亩以上，使全村达到5000亩，人均5亩、300棵树，此项可为村民争取退耕还林补贴120万元。打造中药材名村，年内形成300亩黄芩、100亩苍术种植规模，并逐年扩大，建设千亩中药材基地。建设香菇栽培大村，根据村庄平地少的实际，依靠大户带动，发动群众利用自家庭院，在房前屋后建设香菇栽培大棚，两年内发展到50万袋，带动40户贫困户150人年增收50万元以上。大力发展养殖产业，力争实现年出栏肉牛100头、猪200头、羊600只。制定完善了全村道路、农田水利等基础设施项目规划。开展环境整治和美丽乡村建设，已疏浚河道清理土方、垃圾3000立方米，拆除沿岸42个厕所，沿街新建12个垃圾池，沿河岸修砌了1500米防护墙，彻底改善了村庄环境。 同时，先后组织村民到迁安太平寨镇、县内隔河头镇以及木兰菌业公司学习考察蘑菇栽培和山地集雨水窖建设，开拓了村民眼界，促进了种养业发展。与县职校建立对口技术帮扶关系，对村民开展技术和技能培训。培养以村两委班子为主体的脱贫引路人，以种养示范户为代表的致富能人，以农村合作社等为载体的擅长农产品经销农业经纪人，使村庄能够保持强劲发展势头。', '为帮助青龙崔杖子村稳定脱贫，秦皇岛市发改委建立全员帮扶工作机制，突出产业扶贫和基础设施建设，有力推进了脱贫攻坚和精准扶贫工作。', '建立全员帮扶工作机制。他们建立“单位包村、干部包户、工作组驻村”工作机制，形成前方出题目、后方做文章，全员想法子、找路子、促发展的工作格局。单位主要领导带队赴帮扶村现场办公，研究村庄规划，谋划增收产业，制定帮扶措施。协调与市县有关部门对接，为村里争取环境综合整治、以工代赈等项目资金28万元；协调争取爱心企业帮扶资金60万元、水泥300吨、空心砖1.5万块；积极协调保定英利集团，帮助村里争取光伏发电扶贫项目，为村民和村集体增加长期稳定收入。', '突出产业扶贫和基础设施建设。为帮扶村因地制宜确定了板栗种植、中药材种植、香菇大棚栽培和养殖业四个增收产业，制定了村级扶贫资金使用办法，以村委会名义组织成立了种植和养殖两个专业合作社，带动村民创业增收。做强板栗主导产业，今年新增山场种植面积1500亩以上，使全村达到5000亩，人均5亩、300棵树，此项可为村民争取退耕还林补贴120万元。打造中药材名村，年内形成300亩黄芩、100亩苍术种植规模，并逐年扩大，建设千亩中药材基地。建设香菇栽培大村，根据村庄平地少的实际，依靠大户带动，发动群众利用自家庭院，在房前屋后建设香菇栽培大棚，两年内发展到50万袋，带动40户贫困户150人年增收50万元以上。大力发展养殖产业，力争实现年出栏肉牛100头、猪200头、羊600只。制定完善了全村道路、农田水利等基础设施项目规划。开展环境整治和美丽乡村建设，已疏浚河道清理土方、垃圾3000立方米，拆除沿岸42个厕所，沿街新建12个垃圾池，沿河岸修砌了1500米防护墙，彻底改善了村庄环境。', '同时，先后组织村民到迁安太平寨镇、县内隔河头镇以及木兰菌业公司学习考察蘑菇栽培和山地集雨水窖建设，开拓了村民眼界，促进了种养业发展。与县职校建立对口技术帮扶关系，对村民开展技术和技能培训。培养以村两委班子为主体的脱贫引路人，以种养示范户为代表的致富能人，以农村合作社等为载体的擅长农产品经销农业经纪人，使村庄能够保持强劲发展势头。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>5</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>张瑞书率团赴保定学习考察</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2016-08-30</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D33CF4BC5163D9BB9B12F26A56A5278B</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['保定市委副书记、市长马誉峰，市委常委、常务副市长郭建英，市委常委、副市长李俊岭出席相关活动。', '据了解，河北省首届旅游发展大会将于9月在保定涞水县、易县、涞源县举办。为此，保定市秉承“一切围绕旅发大会转、一切围绕旅发大会干”的原则，举全市之力、集全市之智，以夙兴夜寐、激情工作的精神状态，以极致标准、工匠精神和超常效率，推动全市旅游产业发展，使“涞易涞”旅游发展水平乃至整体建设向前推进5至10年。', '在短短两天的时间里，考察团一行先后参观了正在建设的涞水县拒马河国际水岸风景线、百里峡艺术小镇、智慧景区指挥中心及游客中心、野三坡“火秀”实景演出剧场、城市微耕体验园、月亮湾健康小镇、圣诞老人小镇、白涧村旅游扶贫开发等项目，以及涞源县道路两侧“四化”及景观大道建设、荆山口美丽乡村建设、白石山旅游广场、白石山大剧院、白石山温泉度假区和白石山舍精品度假酒店等项目施工现场。所到之处，无不是机械轰鸣，人头攒动，处处呈现出一派紧张有序、热火朝天的建设场面，处处迸发出发展的活力与干事的激情。', '在短短两天的时间里，考察团一行先后参观了正在建设的涞水县拒马河国际水岸风景线、百里峡艺术小镇、智慧景区指挥中心及游客中心、野三坡', '每到一处，考察团一行都认真聆听、仔细询问，详细了解各个项目投资主体、运营模式、土地流转等建设过程中需要破解的瓶颈和制约因素。', '在野三坡“火秀”实景演出剧场施工现场，考察团在得知为确保项目如期完工，涞水全县干部群众挑战自我、挑战极限，破除重重障碍，在近3个月的时间里，将几乎不可能完成的规划变成现实后，无不为之震撼。张瑞书说，涞水县之所以能完成如此庞大的系统工程，关键是党员干部，靠涞水县全县干部群众与时间赛跑，涞水县“五加二、白加黑、三班倒、雨加晴”的奋斗精神，值得秦皇岛全市各级领导干部学习。', '27日晚，秦保两市工作座谈会在涞源县召开。保定市旅游局、涞源县、易县等有关部门和县区，分别介绍了旅发大会组织保障、工作推进等相关情况，并就土地流转、资金筹措、项目分解、统筹协调等具体工作，作了经验介绍。', '张瑞书代表考察团一行对保定市的热情接待，以及在学习考察过程中给予的帮助和支持表示感谢。他说，此次学习考察，考察团看到了保定市的真情、真景，学到了保定市的真招、真经。保定市各级领导干部过硬的工作作风和担当精神，让考察团成员为之震撼、深受启发。考察结束后，考察团要及时总结，深入学习保定市和涞易涞三县借助旅发大会的举办，推动经济社会发展、推动旅游转型升级的高远站位和深刻认识，学习他们全党动员、全民发动、党员干部带头的工作气魄和坚定决心，学习他们良好的市县乡村四级协调联动机制和资金筹措机制，学习他们在规划设计、道路绿化等方面的眼界和格局，进一步激励全市各级干部群众，以过硬的工作作风、改革创新的思维、敢于担当的精神，凝神聚力，攻坚克难，全力推动秦皇岛旅游产业跨越发展，不断开创秦皇岛旅游产业发展新局面。', '马誉峰代表保定市委、市政府对考察团一行表示热烈欢迎。在介绍保定工作做法时，他说，做好全市旅游重点项目建设，以及首届旅发大会筹备工作，省委、省政府的强力支持是工作动力，精彩、有序、安全、圆满是工作目标，领导做表率、群众广参与是工作根本，协调联动、全力配合是工作保障。他表示，保定市要将相关的工作做法经验、文字材料，毫无保留地提供给秦皇岛，助力秦皇岛旅游产业发展和人民幸福感同步提升。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>5</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>孟祥伟出席全市精神文明建设委员会全体扩大会议</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2017-04-17</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=3B72D45450754499CF2F393BB2FE4ACA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['本报讯（记者刘军）为动员全市上下立即行动起来，集中精力迅速掀起创建全国文明城市新高潮，4月16日上午，我市召开精神文明建设委员会全体（扩大）会议，对创建工作进行再部署、再推动。市委书记、市创城指挥部第一指挥长孟祥伟出席会议并讲话，他强调，创建全国文明城市，要进一步提高认识，澄清部分同志存在的错误思想，对标测评体系、坚持问题导向和惠民导向抓创建，全力以赴在这场“大考”中取得好成绩。', '会议由市委副书记、市长、市创城指挥部指挥长张瑞书主持。市委常委，市人大常委会、市政府、市政协领导班子成员，秦皇岛军分区有关领导，市文明委、市创城指挥部有关领导出席会议。', '市委常委、宣传部部长陈玉国传达了全国创建文明城市经验交流会精神和我市贯彻落实意见。各区赴镇江、宿迁学习考察的同志在会议上谈了收获和下步工作谋划（发言摘登见4版）。', '孟祥伟与市创城指挥部创建组组长、县区委书记和市直重点责任部门负责同志签订创城责任状。', '孟祥伟强调，创建全国文明城市，要进一步提高认识。目前存在“上热下冷”的状况，部分人认为创城是党委、政府的工作，与部门无关、与群众无关。我们要明白，在创城工作中，每个人都是主角，都是参与者，创城需要每个人的力量。没有大家的携手并肩、齐心协力，创城是不可能成功的；目前部分人存在创城是做表面文章的错误认识，认为创城是不顾实际、毫无用处的花架子。我们看到，镇江在创城过程中，将关系群众切身利益的公交、公厕、公园、公墓与集贸市场、停车场建设等结合起来，让群众真正得益。我们看到，在秦皇岛创城过程中，一些老大难问题和群众反映集中的问题切实得到了解决。所有获得全国文明城市荣誉的城市，都在增进民生福祉上取得了新突破；目前部分人还存在创城是搞突击、是一阵风的错误思想。就像赛跑时临近终点要冲刺，就像在考试前要总复习，在创城的关键时期，我们应该集中精力全力攻坚，然后持之以恒地将攻坚成果长期保持下去；目前部分人存在盲目乐观的错误思想，觉得成绩已经很不错了。我们看到，与先进城市相比秦皇岛的差距还不小，与排位相近的城市竞争还很激烈，一些问题和短板要得到解决还需要付出艰苦的努力；目前部分人存在侥幸心态，盼着问题不被发现，盼着能够遮掩过去，盼着不用奋斗就能成功。我们知道，不经过努力不会取得成绩，即便一时取得了也会很快丢掉。类似于这样的错误认识，不一而足。我们要坚决克服、批驳这些错误认识，将创城作为秦皇岛加快发展的牵动性、标志性事件来认识、推动，使物质文明和精神文明成为秦皇岛又好又快发展的腾飞两翼，助力建设沿海强市、美丽港城和国际化城市。', '孟祥伟强调，创建全国文明城市，要进一步明确目标。我们的任务是通过创城让市民生活得更加方便、舒心、美好，进一步提升群众的幸福指数。要对标测评体系抓创建，按照《全国文明城市测评体系》和《2017年全国文明城市工作创建标准》的要求，一个问题一个问题地解决，一个点位一个点位地落实。在此基础上持续努力提升，将体系要求和创建标准做到具体化、精细化。要坚持问题导向抓创建，目前在硬件和软件上存在的问题，就是我们的努力方向和整改内容，要做到在一线发现问题、在一线解决问题、在一线总结经验。要坚持惠民导向抓创建，坚持以人民为中心的发展思想，是我们创城的出发点和落脚点，要真正解决一大批群众最关心、最直接、最现实的利益问题，使创城工作得到群众的理解、支持和拥护。', '孟祥伟强调，创建全国文明城市，要进一步压实责任。各县区各单位要按照网格化管理推进创城，切实做到“一人一片、一天一事、一鼓作气、一以贯之”。各级网格长要切实担起第一责任人的担子，不能当甩手掌柜，要紧盯工作进度，对重大问题做到亲自研究、亲自督办、亲自解决。创城指挥部各创建组要按照职责分工，不折不扣完成交办的任务，不让所负责的领域失分。市直责任主体部门要对照相关标准逐条分析，对不达标的要制定解决方案并及时解决。', '孟祥伟强调，创建全国文明城市，要进一步营造浓厚氛围。发挥好各类媒体的宣传引导作用，开设专栏专题，持续进行大力度、广覆盖的宣传动员。发挥典型人物的示范作用，选树表彰一批群众公认、示范性强、可学可敬的身边典型，努力让文明深植于市民行为之中。要动员社会各方力量参与创建，全民参与、共建共享是测评的重要标准，也是创城最有效的手段，全市各级党组织和广大党员干部、“两代表一委员”要亮身份、作表率，各级工青妇和文化、卫生、教育等职能部门要与本职工作相结合，开展形式多样的创建活动，各街道社区要积极调动居民的热情，大家齐动手建设文明和谐家园。', '会议印发了《2017年全国文明城市工作创建标准》《秦皇岛2017年精神文明建设工作要点》《创建全国文明城市“百日攻坚”方案》等文件。', '各县区委书记、宣传部长、文明办主任，市直各单位主要负责同志，中省属驻秦单位负责同志，市创城工作县级干部督导组成员等参加了会议。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>5</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>孟祥伟率考察团赴镇江学习创建全国文明城市经验</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2017-04-07</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9CBCDD15A5FC45D629EDE32001768394</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['本报讯（记者刘军）今年是我市创建全国文明城市的决战之年，为学习借鉴外地成功创建的经验，4月5日，市委书记孟祥伟率我市考察团赴江苏镇江学习考察。在考察座谈中，孟祥伟表示，镇江历届市委、市政府将创建摆在重要位置，一任接着一任干、一张蓝图绘到底，历经12年的不懈努力，于2015年以全国第六名、江苏第一名的优异成绩，荣膺全国文明城市。镇江的经验措施实、容易学、可复制，对秦皇岛有着极强的学习借鉴意义。我们将把此次学习考察取到的真经与秦皇岛的实际情况相结合，全力以赴在今年这场“大考”中取得好成绩。', '市委常委、宣传部部长陈玉国，市委常委、海港区委书记冯国林，市文明办、海港区、北戴河区、山海关区、抚宁区、开发区和北戴河新区负责同志一同考察。', '镇江市委常委、宣传部部长童国祥，镇江市委宣传部常委副部长、文明办主任顾小俊全程陪同考察。', '当天，孟祥伟一行先后考察了镇江市北固湾广场、迎江路中心社区、西津渡历史文化街区和志愿者之家、江滨菜市场、万科社区居民服务中心等地。北固湾广场曾是镇江城市的一块疤痕，彼时，2000多名渔民聚集于此靠打鱼为生，垃圾包围了北固山，镇江通过强力整治，使之成为市民休闲散步、健身娱乐、婚纱摄影的重要地点，现在正在向更高水平的文明城市示范广场迈进。迎江路中心社区是镇江的老旧社区，户籍人口中老年人比例占到近七成，该社区以志愿服务为抓手，吸纳集聚一大批志愿者参与社区建设，面向老人、残疾人、失独家庭开展公益活动，在今年2月成为“全国最美志愿服务社区”。西津渡历史文化街区依靠镇江厚重历史人文资源，挖掘城市历史文脉，留住了城市的“文化之魂”，使人能够“一眼望千年”，社区志愿者吴华芳向孟祥伟详细介绍了自己将爱好茶道和帮残扶残结合起来的做法。江滨菜市场曾经侵街占道，环境脏乱差，镇江采取民营企业主导建设、政府主导管理的办法，使之成为周边近2万居民满意的生活购物主渠道。万科社区居民服务中心是镇江新建社区，这个社区发动居民自下而上提出建议，形成了包括“邻居见面主动问好、不在公共场合责罚孩子、在小区公共场所放低谈话音量”等居民公约，将社会主义核心价值观具体化，同时该社区在镇江全市率先启动了善行义举榜的标准化建设，突出孝、勤、和、善、信、义等内容，每季度定时更新。', '在当天下午的座谈会上，童国祥简要介绍了镇江市情，顾小俊介绍了镇江创建全国文明城市的做法和经验，镇江市公安局、住建局、城管局、丹徒区委宣传部负责同志结合部门工作实际，介绍了参与创建的工作做法。我市考察团与镇江与会同志进行了交流讨论。', '座谈中，镇江市在创建过程的务实举措让人印象深刻。以镇江市住建局为例，该局在施工工地的管理上做到了四个百分百，即标准化围挡百分百、施工道路硬化百分百、进出工地车辆冲洗百分百、建筑材料遮盖百分百。在推动群众参与文明创建上，镇江突出群众共建共享，树立民生导向，从解决群众最关心的利益问题入手，从群众最欢迎的事情做起，从群众最不满意的问题改起，让创建工作更接地气、更富有成效，在公园、公交、公厕、公墓和农贸市场建设等方面充分考虑了民生诉求。', '童国祥在座谈中表示，镇江在创建过程中的感受，一是市委、市政府高度重视，持续用力久久为功；二是坚持创建为民，努力提升群众的获得感、幸福感；三是投入是保障，完善城市基础设施、提升城市功能等离不开必要的财政投入；四是坚持发动群众，通过道德讲堂、镇江好人榜等一系列举措，培育弘扬社会主义核心价值观，进一步提升市民文明素养、提高城市文明水平，让群众成为创建的主力军；五是各职能部门协调联动、共同发力，做到层层有人抓、事事有人管、项项有指标，形成了领导带头、部门联动、全民参与的格局。虽然已经成为全国文明城市，但是镇江没有自满，以“常态长效、惠民育民、求精求特”的工作理念，正在向更高水平的全国文明城市迈进。', '孟祥伟对镇江创建全国文明城市的经验和做法高度赞赏。他说，全国文明城市是所有城市品牌中含金量最高的，也是创建难度最大的。镇江以优异的成绩获得这一殊荣，其经验做法对秦皇岛有着极强的学习借鉴意义。在镇江学习考察的几个地点，接触到的镇江干部群众，一人一物、一街一城、一言一行，都让人感受到文明的魅力和风采，都让秦皇岛感受到自己的不足，也明晰了我们下步努力的方向。镇江的做法站位高、看得远、举措细，尤其是动员群众参与、将社会主义核心价值观具体化等做法让人耳目一新。镇江的经验措施实、容易学、可复制，对秦皇岛今年的创建工作必将产生积极的促进带动作用。入宝山不能空手而归，取到真经还要念好真经，希望秦皇岛考察团的各位同志将学到的镇江经验和各区实际结合起来，在下步的创建工作中向镇江对标、向镇江看齐，全力以赴在今年的“大考”中取得好成绩。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>5</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>我市考察团赴保定学习考察工作总结会侧记</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2016-08-30</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=3EE4DD4B758DCF00055C57982FD23E55</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['白石山大剧院施工的机器轰鸣声还在耳边回响，野三坡“火秀”实景演出剧场如火如荼的建设场景还历历在目，“涞易涞”三地干部群众勇于创新、敢于担当的工作精神，让考察团每一位成员的心情久久不能平静。', '8月28日下午，我市赴保定学习考察团从涞源县返程。在疾驰的汽车上，市长张瑞书主持召开了一场别开生面、热闹非凡的学习考察工作总结会。', '两天密集的学习参观，考察团成员收获颇丰。车厢内，他们就全市旅游产业发展，并结合自身工作实际，你一言我一语，畅所欲言、各抒己见，既有自身心得体会，也有下步工作打算，既有产业发展的激烈讨论，更有以往工作的深刻反思。', '“一部精彩的文化艺术演出能代言一座城市，但内容一定要精彩、有震撼力。”北戴河新区管委会主任郑泉率先发言，并就“只有·秦皇岛”文化健康旅游项目选址进行了深入探讨，“北戴河新区将努力向‘涞易涞’三地学习，以不破法规破常规的思维，一个项目一个项目地调度，逐个解决存在的问题困难，加快推进重点旅游项目建设，争做全市旅游产业发展的排头兵、领头羊。”', '“保定市干部群众干事创业的激情和超高的工作效率对我冲击很大。下一步，海港区要借鉴‘涞易涞’三地的道路绿化工作经验，选好苗木品质和栽种区域，着力做好山海花田旅游大通道两侧绿化，以及景区周边村庄的美丽乡村建设工作。”海港区委书记冯国林也备感压力。', '“经过分析测算，来秦游客多数来自京津冀地区，而北部山区开发的难点，不仅在于海岸旅游的吸引力过强，其他地区长城旅游、山区旅游的冲击也非常大。我市应借鉴白石山景区开发经验，继续加大投入，开发旅游新业态，增强核心竞争力。”市旅游控股有限公司董事长高峰直言不讳。', '这不仅是一场高效的“汽车会”，更是一场点燃激情的动员会。飞驰的汽车里，开出了秦皇岛干部干事创业的“精气神”。', '市交通运输局局长鞠世闻将保定市旅游产业发展经验总结为“政府主导、广泛发动、资金多源、规范有序”四句话。“面临同样的压力挑战，保定能做到的，秦皇岛也能做到。”鞠世闻发言掷地有声，并建议将“高端大气、精细精致、魂牵梦绕、扬名四海”作为我市旅游业发展目标。', '“考察过程中让我体会最深的就是保定市‘想方设法干工作’的工作精神。”市委农工委书记郭爱民对保定市美丽乡村建设工作十分认可，“目前，我市应找准差距，在美丽乡村建设与旅游产业结合方面，还需进一步下深功夫。”', '“我市旅游产业转型升级要充分借鉴‘涞易涞’三地的好经验、好做法。”市旅游委主任李文生对我市旅游产业发展信心满满，并就旅游产业争取上级资金支持提出了具体建议，“较之‘涞易涞’三地，我市有着更加坚实的旅游基础，相信只要集中时间、集中精力、集中投资，狠抓旅游项目建设，特别是重点旅游项目建设，一定能够实现旅游产业的跨越发展。”', '发言讨论结束后，副市长冯志永立即对全市旅游业下步重点工作进行了安排部署。他强调，各有关部门要尽快对此次考察进行总结，成立协调推进机制，明确责任分工，全市动员、全民动员，全力加快旅游产业转型升级步伐。', '张瑞书边听边问，边讨论边破解，并对山海花田旅游大通道建设、城市形象宣传等工作提出了明确要求。在最后总结时，他强调，全市上下要拿出保定市干事创业的精神、劲头，坚持秦皇岛特色、发挥秦皇岛优势、干出秦皇岛时效，用秦皇岛旅游产业的跨越发展，证明秦皇岛的干部队伍是一支素质高、能力强、作风硬、能干事的队伍。', '就全市重点旅游项目建设工作，张瑞书强调，要进一步明确县区主体责任，尽快成立组织推进体系，以不破法规破常规的思维，加快推进规划设计、土地征拆等相关工作，以动为先、不等不靠，按照时间节点，逐项倒排工期，加快建设进度，争取在今年“十一”前形成项目建设的高潮，在明年3月前形成项目建设大干快上的全新局面。', '就全市重点旅游项目建设工作，张瑞书强调，要进一步明确县区主体责任，尽快成立组织推进体系，以不破法规破常规的思维，加快推进规划设计、土地征拆等相关工作，以动为先、不等不靠，按照时间节点，逐项倒排工期，加快建设进度，争取在今年', '会议持续了两个多小时。然而会议虽结束，车厢内的热情并未褪去，车轮满载着发展的希望继续向前奔驰。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>5</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>安徽萧县考察团到市数字城管监督指挥中心考察学习</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2016-07-13</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=F231F2F56CE4CE2FA67320374510ED19</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['月8日，安徽省萧县县委宣传部副部长、县城管局局长彭冬梅等有关领导到市数字城管监督指挥中心进行学习考察，市城管局党委副书记郭书亮、副局长李守元陪同。', '市数字城管监督指挥中心工作人员汇报了我市“数字城管”的建设、运行情况及各类考核办法，现场演示了“数字城管”工作运行流程，以及视频监控系统、数字环卫车辆GPS定位系统的运行效果。双方就“数字城管”在未来城市管理中发挥的作用进行了广泛地交流，同时也再次肯定了“数字城管”在“大城管”城市格局中所起到的积极作用。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>5</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>廊坊旅游考察团考察北戴河区乡村旅游</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2016-06-16</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=2A71F63045FDE712DB6F65779C073A1C</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['月14日，廊坊市旅游局副局长田克智率一行22人到我区就乡村旅游发展及乡村旅游示范村打造进行学习考察。', '此考察团人员范围广，既有廊坊市文广新局、廊坊市旅游局和大厂旅游局的相关领导，又有安次区调和头乡政府第什里景区负责人、各县村长、书记及农家院接待户代表。考察团一行先后对北戴河村的文化创意企业和村民文化展览室、西古城村的佳臻圆民宿和整体村庄环境进行了现场踏查，并且观看了西古城村乡村旅游发展的宣传片。廊坊旅游考察团一行对北戴河区的乡村旅游发展给予了高度评价，表示将通过此次的了解和交流，提高干事创业的本领，提升廊坊市各部门及各县区对发展乡村旅游的认识，进一步坚定推动廊坊市旅游大发展、快发展的信心和决心。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>5</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>海港区科技局强化五种意识力争五个突破</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2016-07-25</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=50769F995B195B740096B073ABB7856F</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['海港区科技局强化五种意识力争五个突破 为进一步推进机关作风建设，激发科技创新活力，海港区科技局加强自身建设，强化工作意识,力争实现五个突破。 一是强化学习意识，努力在能力素质上取得突破。以创建学习型机关为契机，开展专题辅导、知识讲座、学习考察和集体讨论等多种方式的学习教育活动，促进每个科技干部整体素质和工作水平的提高。 二是强化大局意识，努力在制度建设上取得突破。完善干部绩效考核、目标考核等激励机制，规范管理，形成全体干部“想干事，干好事”的良好氛围。 三是强化服务意识，努力在高效服务上取得突破。深入企业进行项目调研、指导，做好科技政策的宣传解读，主动推荐具备技术特点和竞争优势的项目申报上级各类科技项目，努力提高服务质量和工作效率。 四是强化责任意识，努力在“干事、创业”上取得突破。抓进度，抓质量，以实际行动推进海港区各项科技工作的落实。 五是强化创新意识，努力在服务经济建设上取得突破。坚持把推动科技自主创新摆在全部科技工作的突出位置，作为科技管理工作的出发点和落脚点，深入到科技工作的各个方面。', '为进一步推进机关作风建设，激发科技创新活力，海港区科技局加强自身建设，强化工作意识,力争实现五个突破。', '上取得突破。以创建学习型机关为契机，开展专题辅导、知识讲座、学习考察和集体讨论等多种方式的学习教育活动，促进每个科技干部整体素质和工作水平的提高。', '二是强化大局意识，努力在制度建设上取得突破。完善干部绩效考核、目标考核等激励机制，规范管理，形成全体干部“想干事，干好事”的良好氛围。', '三是强化服务意识，努力在高效服务上取得突破。深入企业进行项目调研、指导，做好科技政策的宣传解读，主动推荐具备技术特点和竞争优势的项目申报上级各类科技项目，努力提高服务质量和工作效率。', '四是强化责任意识，努力在“干事、创业”上取得突破。抓进度，抓质量，以实际行动推进海港区各项科技工作的落实。', '五是强化创新意识，努力在服务经济建设上取得突破。坚持把推动科技自主创新摆在全部科技工作的突出位置，作为科技管理工作的出发点和落脚点，深入到科技工作的各个方面。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>5</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>邢台市数字化城市管理服务中心到市数字城管监督指挥中心考察学习</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2016-08-05</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=74843338D845C40417579FD2162A8487</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['近日，邢台市数字化城市管理服务中心一行8人，到秦皇岛市数字化城市管理监督指挥中心进行学习考察。市数字城管监督指挥中心工作人员汇报了我市数字城市管理系统的建设运行情况，突发事件应对机制，以及信息系统工作市场化运行模式。随后，在中心三楼会议室召开了座谈会，主要针对近期以来我省连续遭遇强降雨天气导致城市内涝，交流经验做法。我中心以7月20日暴雨防汛工作为例，全面深入地讲解了应急预案和应对措施。同时，作为我省城市管理体制改革的两个试点城市，双方就数字城管如何结合城市管理体制改革做进一步提升进行了深入探讨。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>5</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>郝占敏带领市政协考察团赴天津学习考察</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2016-06-06</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=54A107B6DD508CFCCD61C7546FBFD53B</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['本报讯（记者孟晓冬）6月2日至3日，市政协主席郝占敏带领部分省、市政协委员赴天津滨海新区、静海区，围绕借力京津冀协同发展，促进两地政协的相互交流、产业合作主题进行学习考察，以促进京津冀协同发展成果惠及两地发展，惠及两地群众。', '在津期间，市政协考察团首先来到静海区康宁津园养老综合体项目，听取静海区政协相关负责同志介绍，并进行了实地参观。康宁津园位于天津健康产业园，占地面积500亩，建筑面积40万平方米，建有养老公寓和住宅，园区内各种适老化服务设施一应俱全，是目前天津规模最大、功能最完善、设施最先进的宜老社区。', '作为天津自贸区的重要组成部分，滨海新区中心商务区是京津冀产业布局轴带中最核心的位置，横跨海河下游两岸，规划面积46平方公里。依托海河形成“一河两岸六区”功能布局，重点发展以金融创新为主的现代服务业，同步打造科技与信息技术服务、专业服务、商贸服务等核心产业集群。考察团来到滨海新区，在滨海新区政协主席杨英涛陪同下，听取有关人员关于中心商务区片区建设及相关配套政策情况介绍，参观滨海新区规划展馆、于家堡火车站，实地考察全球购项目，并参观了我市政协委员在中心商务区的投资项目。', '考察团还应朱启钤亲属邀请，参观朱启钤故居，与天津市政协外事委主任田贵明就“朱启钤与北戴河”相关纪念活动进行了交流。', '郝占敏指出，天津滨海新区发展令人鼓舞，秦皇岛和天津地理和人文环境接近，经济渊源深厚，面对京津冀协同发展重要历史机遇，市政协将充分发挥联系广泛、智力密集的优势，积极在产业、项目的精准对接上下功夫、出实招，促进秦皇岛经济社会的健康发展，让京津冀协同发展成果更多惠及两地群众。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>5</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>新郑市考察组到新区学习交流产业新城模式</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2016-04-19</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=E9324A45314E1A3DCBFA370A173B1DB5</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['首先参观了规划展馆，随后双方进行座谈交流，新区相关部门重点介绍了产业新城项目背景情况、PPP签约前期准备工作、谈判过程中遇到的最大问题、项目推进实施过程中应当注意的方面以及新区的具体做法，', '已有2个外省市考察组来新区学习考察PPP模式实施情况，对于新区推进PPP模式、宣传推介新区、展示新区良好创新形象产生']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>5</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>我市党政考察团赴邯郸邢台进行学习考察</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2016-05-24</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=0B76C8BD3E75C7C03E3DDCA23C994E93</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['本报讯（记者刘军）5月20日至22日，市委书记孟祥伟、市长张瑞书带领秦皇岛市党政考察团，到邯郸、邢台进行学习考察，学习兄弟城市在园区建设、现代农业发展、城市建设与管理、山区综合开发等方面的先进经验和做法，切身体会兄弟城市干部身上如火般燃烧的工作激情。', '考察期间，邯郸市委书记高宏志、市长王会勇，邢台市委书记张古江、市长董晓宇等分别出席相关活动。市委常委、北戴河区委书记、北戴河新区工委书记刘宝岐，副市长王亚洲、冯志永，我市各县区党政主要负责同志，开发区负责同志以及市直有关部门负责同志参加学习考察。', '考察时间安排极为紧凑，在有限的时间内，考察团先后实地考察了邯郸市邯山区国际陆港项目、林安智慧商贸物流项目，邯郸县华耀城项目，馆陶县寿东村的粮画小镇、翟庄村的黄瓜小镇建设，邱县新鲜庄村“三清一拆”经验做法和农村产权交易中心建设，实地考察了邢台市威县君乐宝乐源牧业项目、西沙河梨产业带建设，南和县县城建设以及农业嘉年华项目，任县县城建设以及邢州湖建设，邢台县前南峪山区综合开发建设等。', '22日下午五点多考察团回秦后，带着仆仆风尘立即召开座谈会，所有参加考察的人员，分别结合自己的工作实际谈了差距与感想，谈了收获与感悟，就下步工作谋划提出意见设想。大家一致表示，邯郸、邢台的发展理念、干部作风，给人印象深刻，形成了非常强烈的冲击，有震撼，有钦佩，有压力，更有信心。一定要学思践悟，把所见所学变成实实在在的举措，高标准、高质量、严要求地落到实处，真正转化为建设沿海强市、美丽港城的强大动力。座谈会进行了近3个小时。', '孟祥伟认真听取了每位同志的发言，并就大家的发言进行了点评。在总结讲话时，孟祥伟表示，我们这次考察重点不是看兄弟城市的大项目、好项目，不是看兄弟城市的发展速度和质量，而是要学习兄弟城市干部队伍身上的精气神，破解兄弟城市取得这么好的发展成绩的基因密码。通过大家的发言，感觉大家都受到了触动，取到了真经，希望大家能够把学到的、感受到的长期保持下去，努力让秦皇岛的干部队伍也能变成由狮子带领的、见了任务嗷嗷叫不服输不甘落后的队伍，秦皇岛得天独厚的资源禀赋和被激发的主观能动性一旦完美结合，我们的各项目标任务一定能够实现，我们建设沿海强市、美丽港城的发展目标一定能够圆满完成。', '孟祥伟强调，通过学习，我们一定要进一步解放思想，在谋划发展项目上做到大、高、深、实。作为沿海开放城市，我们的思想理应比内陆城市更加解放，在项目谋划上要有足够的水平，敢于善于抓体量大、带动能力强、能成为四梁八柱的大项目、好项目；既然要上项目，就要瞄准高水平，向着国内领先世界一流努力，地球已经变成了一个村庄，任何市场竞争都会成为全球性的竞争，不瞄准高水平，很可能项目建成之日就是亏损之时；要把项目的内涵外延研究深研究透，翟庄村的黄瓜小镇建设为了做到极致，六代新老黄瓜大棚全部予以保留，开发了黄瓜宴、黄瓜食品等，千万不可抱有差不多、还可以的心态；要实打实地做好各项工作，汗水和努力不会白费，所有的收获都是血汗浇灌出来的。通过学习，我们一定要振奋精神，把干部队伍的内生动力激发出来。物质与精神可以互相转化，所有的成绩背后一定是坚持不懈的努力、久久为功的恒心，我们开展工作，要带着一股虎虎生风的精气神，困难算什么？困难是前进道路上的垫脚石，是检验干部成色的试金石，是到达梦想彼岸的压舱石，跨过了这道关就是云淡风轻、就是无限风光。通过学习，我们要进一步狠抓落实。目前最为要紧的就是定人、定岗、定责、定奖惩、定完成时限，推动各项工作真正见到实效，努力在全市干部队伍中形成狠抓落实、不讲理由、一往无前的工作习惯。要建立压力传导机制，每一名干部都不做传动力、被动力，要做原动力、加速器。通过学习，要把结果导向树立强化起来。以结果论英雄，让实干的干部得到重用奖励，让偷懒耍滑的干部没有市场。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>5</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>市科技局驻青龙镇平顶山村工作组组织部分村民再赴迁西县学习考察栗蘑产业</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2016-04-14</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=B9F3049695AB2763E4CAF74B85DD5D35</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['市科技局驻青龙镇平顶山村工作组组织部分村民再赴迁西县学习考察栗蘑产业 市科技局驻青龙镇平顶山村工作组在前期组织村干部赴唐山市迁西县学习考察栗蘑产业的基础上，4月13日又组织部分村民再次前往迁西县学习考察栗蘑产业。 考察组一行先后到迁西县虹泉食用菌合作社、北方食用菌栽培基地等进行了学习考察，与相关负责人进行了座谈交流，并实地查看了栗蘑的栽培现场。 通过此次学习考察，村民进一步了解了栗蘑栽培技术，对栗蘑产业的发展前景有了充分的认识，也进一步增强了发展栗蘑产业的信心。下一步将重点开展栗蘑栽培试验和示范，进一步推动栗蘑产业发展，带动农民增收致富，促进平顶山村经济发展。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>5</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>秦皇岛局赴沧州学习考察</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2016-04-14</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=3DD613EA3C2480BCFDE0F2862D00398C</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['为找准问题，补齐短板，进一步提高全市服务业工作水平，4月12日，秦皇岛市局局长樊海涛率服务业科及贸易科一行赴沧州局对标学习。', '樊海涛一行听取了沧州局关于大服务业统计工作情况的介绍，对沧州政府抓服务业总体部署，充分发挥服务业联席会议制度，部门统计职责机制规范化建设，统计局促成大服务业统计和增加值最大化格局、贸易统计中个性问题的处理措施、调整规模以上服务业统计标准工作、电子商务等“三新”统计、数据预测预判、精准服务、基层基础建设等方面进行了学习和探讨。', '沧州局服务业的基础工作和改革创新工作走在了全省前列，对标学习后，秦皇岛要借鉴先进经验和做法，进一步加强政府在服务业统计工作的组织领导，规范和具体化部门职责，启动部门联席会议制度经常化，统计局内部要强化服务业增加值核算的龙头作用、成立大服务业统计工作领导小组、抓好抓早调整入统标准、电子商务交易平台统计、暑期服务业调查等创新工作、抓实规上服务业数据质量，力争服务业统计工作见实效出成绩。', '沧州市统计局长于寅生对秦皇岛局的到来表示了诚挚欢迎，并介绍了沧州市情和沧州市统计局的工作情况，倪金梅副局长就服务业统计工作进行了详细介绍，相关科室对服务业统计工作的做法和经验进行了毫不保留的介绍。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>5</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>卢龙县四个结合推动工业经济发展实现首季开门红</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2016-02-26</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=369F0E1B45F33BF254CBC8B9F0642CE4</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['按照点面结合的原则，在突出对康姿百德、鹤凤翔化工等重点规上企业进行扶持的同时，深挖农产品加工业、科技型中小企业和规模以下工业企业潜力，逐一梳理制定问题清单，明确帮扶领导和责任部门，切实增强帮扶的针对性和实效性。', '对存在普遍性的问题，进行联合会诊，对个性问题，逐一制定具体措施，实行一企一策，确保取得良好效果。', '实施小微企业成长及信用培育工程，加强指导和服务，创优企业发展环境，力争年内新增规模以上工业企业', '深化企业对标行动，围绕技术创新、经营管理、节能减排、品牌创建等，创建一批“对标示范”企业，通过组织企业家讲座、外出学习考察等多种手段，打好帮扶“组合拳”，积极推动企业进行转型升级，做到向管理要效益、用品牌促转型，实现企业做大做强、创新发展。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>5</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>海港区政协委员履职锁定群众幸福清单</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2016-03-04</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=50872AE24A925BD67462E24B904443F7</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['冬日的暖阳，明媚而温暖。区政协委员在驻操营镇东贺庄小学开展“同心手拉手”捐资助教活动，', '册图书陈旧破损……为助力学校发展，区政协在全区政协系统发起爱心捐赠活动，委员们为师生们带去', '区政协立足民情民生，积极发挥政协职能作用，彰显政协组织优势，履行职责锁定群众“幸福清单”，在促进民生改善方面做了大量探索和实际工作，受到广大群众一致好评。', '针对征地拆迁极易引发社会矛盾问题，区政协组织委员多次深入村、社区视察，与群众、拆迁单位、政府相关部门交流，形成了《关于海港区房屋土地征收拆迁引发信访稳定问题的调研报告', '个月时间，通过监测蔬菜批发、零售价格，走访市、区相关部门、企业，赴沈阳、天津、寿光等地学习考察等，就蔬菜生产、流通、市场建设等方面进行深入细致的研究思考，形成了《关于海港区蔬菜价格调研情况的报告》，提出了扶持本地蔬菜种植、加强市场建设、扶持蔬菜直销体系建设等意见建议。', '区政协高度重视民生方面提案的上报和办理，连续三年开展“面向社会公开征集提案线索”和“走进社区、倾听民意、反映民忧”活动，广大政协委员深入基层，深入一线，倾听群众的呼声意见，帮助呼吁解决实际问题。', '余条。遴选《加快居家养老事业发展》、《推进基本公共卫生服务均等化的建议》等提案作为重点督办提案，有力推进民心民生工程的落实。关于群众关心的医疗卫生、社会保障、食品安全等问题，组织不同界别委员深入调研、视察，提出了推进市区医疗保险制度整合、加强基本公共卫生服务、整合食品安全检查力量等建议，得到政府相关部门采纳。', '依托政协系统“五个一”活动——开展一次集中学习活动、建立一个联系点、提交一份有价值的提案、促办一件提案或社情民意、办一件民生实事，动员广大委员投身公益事业。', '万余元，开展了捐资助学、后进村帮扶、环保宣传、敬老助残等社会服务活动。教育组委员开展了对口帮扶农村弱校、送课下乡活动，组织开展贫困大学生捐助活动，对西港路辖区']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>5</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>市科技局驻青龙镇平顶山村工作组组织村干部赴迁西县学习考察栗蘑产业</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2016-03-24</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6394F3FCC2D0407A60C402DCB4C003D1</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['3月23日，市科技局驻青龙镇平顶山村工作组组织部分村干部赴唐山市迁西县学习考察栗蘑产业。', '考察组一行首先与迁西县科技局相关人员就栗蘑产业发展总体情况进行了座谈交流，之后，赴虹泉食用菌合作社、众德食品有限公司', '进行了走访，并与种植户进行了交流，对产区重点种植户的生产管理、菌棒的科学化生产、配套销售模式', '栗蘑，学名灰树花，含有丰富的氨基酸、蛋白质等多种微量元素，其味道佳、口感好且有传承药效', '不仅了解了栗蘑工厂化生产的工艺，还针对项目、市场和平顶山村板栗产业等优势资源进行了全面的调研，为进一步推动该村栗蘑产业发展，带动农户增收起到一定的推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>5</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>市园林局组织考察团赴京津学习</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2016-02-02</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=63E9200D15DED4581B7B5E335E8B9891</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['本报讯（记者王静）为促进京津冀协同发展，加快我市园林绿化与北京、天津市的对标看齐，学习借鉴两市园林绿化方面的先进做法和宝贵经验，1月24日至1月27日，市园林局组织系统各部门赴北京、天津两市进行了学习考察。 据了解，天津、北京气候环境和地理位置均与我市多有相同之处，两市城市园林绿化工作经过多年科学规划、精心建设和精细管理，无论是从发展思路、设计理念、建设标准、管理水平，还是从总体绿量、植物配置、品种数量、花卉引种驯化、低碳节约型园林建设等诸多方面，均走在了全国前列。 此次活动由市园林局局长带队，机关中层以上干部及各县区园林部门负责同志参加，实地参观了北京海淀区“园外园”两山片区、东城区环二环城市绿道、天津富民公园等绿化景观及社会屋顶绿化。并与北京市园林绿化局、天津市市容和园林绿化委及北京林业大学科技公司就园林建设和养护的理念、机制体制及园林新技术、新成果进行深入的座谈交流。下一步，市园林局将迅速开展业务知识技能培训，邀请先进地市园林专家学者授课答疑解惑，进一步提高系统广大干部职工的专业素能，为“十三五”强势开局奠定基础。', '本报讯（记者王静）为促进京津冀协同发展，加快我市园林绿化与北京、天津市的对标看齐，学习借鉴两市园林绿化方面的先进做法和宝贵经验，1月24日至1月27日，市园林局组织系统各部门赴北京、天津两市进行了学习考察。', '据了解，天津、北京气候环境和地理位置均与我市多有相同之处，两市城市园林绿化工作经过多年科学规划、精心建设和精细管理，无论是从发展思路、设计理念、建设标准、管理水平，还是从总体绿量、植物配置、品种数量、花卉引种驯化、低碳节约型园林建设等诸多方面，均走在了全国前列。', '此次活动由市园林局局长带队，机关中层以上干部及各县区园林部门负责同志参加，实地参观了北京海淀区“园外园”两山片区、东城区环二环城市绿道、天津富民公园等绿化景观及社会屋顶绿化。并与北京市园林绿化局、天津市市容和园林绿化委及北京林业大学科技公司就园林建设和养护的理念、机制体制及园林新技术、新成果进行深入的座谈交流。下一步，市园林局将迅速开展业务知识技能培训，邀请先进地市园林专家学者授课答疑解惑，进一步提高系统广大干部职工的专业素能，为“十三五”强势开局奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>5</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>张建江带队赴北京八达岭长城景区学习考察</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2016-01-07</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=8E0E42DC42F861E73D75A1B104FD0A61</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['区长张建江，副区长张奇海一行6人赴北京八达岭长城景区进行学习考察。考察组深入学习了八达岭长城景区在景区环境整治、基础设施建设、市场秩序规范、体制机制建设等方面的先进经验，并与八达岭特区办事处进行座谈。23日，我区与八达岭长城特区办事处达成签订《山海关区人民政府与延庆县八达岭特区友好合作备忘录》意向，就建立京津冀一体化“1+1”对接机制事宜达成一致意见。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>5</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>昌黎以上率下打造干事创业环境</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2015-12-29</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=7A7E3EEF2C507A5BE3F67B1985DDAD81</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['本报讯（刘斌）在解放思想大讨论中，昌黎县坚持以上率下，要求各级领导干部把自己摆进去，带头开阔眼界，带头勤学善思，带头走在前列，努力做思想解放的先行者、改革创新的引领者、协同发展的示范者。', '昌黎县各级各部门牢牢把握京津冀协同发展有利契机，围绕“四区五园驱动、三城六业崛起”发展战略，以对接融入京津冀为着力点，深入查找制约发展的体制机制问题。针对干红酒、钢铁及精深加工、皮毛养殖加工等9大特色产业，昌黎县找差距、找目标、找责任、找方法，对标先进，主动与京津和省市同类部门对接，主动向发达地区、先进部门看齐。县委、县政府组织相关部门负责人赴桐乡市、迁安市、大厂县、安新县分别就皮毛产业发展、城市建设管理、美丽乡村建设等相关内容学习考察，主动借鉴外域先进经验，提升县域发展水平。', '抓住机遇是功臣，丧失机遇是罪人。为进一步明确工作目标，在深入分析县情的基础上，昌黎县制定印发了《〈县委中心组学习研讨暨解放思想大讨论动员部署会议〉责任分解方案》，对全县经济社会发展和党的建设等各方面重点工作进行责任分解，将重点工作划分为园区建设、产业发展、城乡统筹、项目招商、党的建设、解放思想大讨论6类，包括钢铁产业延伸链条发展循环经济、红酒产业跨界融合实施壹亩葡园项目、皮毛产业解决清洁养殖和硝染环境技术难题、对接京津冀建设“卫星城”等具体细化内容36项。明确各级领导班子是抓落实的主体，党政主要领导履行第一责任人职责，各责任部门结合《责任分解方案》进行菜单式分解，明确工作标准和完成时限。充分发扬“五加二”“白加黑”工作精神，制定路线图、时间表和工作台账，落实到岗，落实到人，确保重点工作扎实落实。', '同时，为切实转变干部作风，提高领导干部行政效能，昌黎县制定印发了《昌黎县2015年重点科（股）长晒权评议活动实施方案》和《昌黎县项目业主评价政府职能部门实施办法》，着力打造“零距离”指导、“零关系”办事、“零利益”服务、“零障碍”入驻的环境品牌，为昌黎的科学发展、绿色崛起营造风清气正、廉洁高效的环境保障。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>5</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>邢台环卫工人港城当师父</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2015-12-29</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=F139CDC2931FB3C5EED8542CF777AA73</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['本报讯（记者刘军 王静）“经过这几天的指导，感觉一下子把自己的脑子掏空了。”12月26日下午，经过9天手把手地当师父传经送宝，吴叶终于踏上了返程的汽车。 吴叶是邢台市城管局环卫处管理科的科长。12月18日至26日，她和机扫大队的吴国勋、清洁一队的白迎香、清洁七队的窦和平等同事，被海港区城管局请来为基层班组、环卫所长当老师，手把手传授邢台的经验做法，并亲自上阵清扫街道、打理卫生，为海港区城管局的环卫工人“打出个样儿”。 近年来，邢台环卫通过“六净一彻底”的精细标准、垃圾落地限时清除、“日检查、周总结、月评比、季奖惩”的考核机制、全天候清扫保洁作业模式等一系列先进做法，成为全省环卫的一面红旗，被誉为“邢环模式”，到邢台环卫考察学习的外地单位络绎不绝。 “我们到邢台学习考察后，感觉和他们比起来差距很大，尤其是在一线环卫工人的作业标准和考核监督上更是弱项。”海港区城管局局长梁安平说，“有些差距能通过看来弥补，有些差距只能通过做来弥补。吴叶、吴国勋、白迎香、窦和平都是邢台一线环卫工人里的行家里手，我们把他们请来当师父，有益于海港区一线环卫工人的学习，他们在前边给我们作榜样，我们在后边追着学。” 9天时间安排得满满当当，除了为海港区城管局下辖的10个环卫所授课讲解外，4位师父还手把手地教一线工人如何做到“六净一彻底”等邢台的先进做法，就连午饭晚饭时间，海港区的环卫工人也都“烀”着4位师父。 “以前我们觉得路上没有白色垃圾就差不多了，邢台则要求连缝隙里的土都要扫干净；以前我们认为垃圾转运站就是个中转站，没必要费劲，邢台则要求必须按规定做到干干净净；以前咱们对交通护栏是不管的，邢台则要求定期清洗路标、路椅、护栏等城市家具……”几天下来，教的人认真，学的人踏实，用海港区城管局环卫所几个所长的话来说就是“脑子开了窍，原来应该这么干”。 当然，也有教学相长之处。吴叶告诉记者，海港区城管局为环卫工人免费提供住所建立的“环卫之家”、设立“扫帚坊”对扫帚统一进行修理管理等等，都值得邢台学习。 临上车，梁安平请吴叶几个人过段时间再来，“检查一下学生的作业”。吴叶则半开玩笑半认真地说：“照这样学下去，明年恐怕就是我们到海港区学习取经啦。”', '本报讯（记者刘军 王静）“经过这几天的指导，感觉一下子把自己的脑子掏空了。”12月26日下午，经过9天手把手地当师父传经送宝，吴叶终于踏上了返程的汽车。', '吴叶是邢台市城管局环卫处管理科的科长。12月18日至26日，她和机扫大队的吴国勋、清洁一队的白迎香、清洁七队的窦和平等同事，被海港区城管局请来为基层班组、环卫所长当老师，手把手传授邢台的经验做法，并亲自上阵清扫街道、打理卫生，为海港区城管局的环卫工人“打出个样儿”。', '近年来，邢台环卫通过“六净一彻底”的精细标准、垃圾落地限时清除、“日检查、周总结、月评比、季奖惩”的考核机制、全天候清扫保洁作业模式等一系列先进做法，成为全省环卫的一面红旗，被誉为“邢环模式”，到邢台环卫考察学习的外地单位络绎不绝。', '“我们到邢台学习考察后，感觉和他们比起来差距很大，尤其是在一线环卫工人的作业标准和考核监督上更是弱项。”海港区城管局局长梁安平说，“有些差距能通过看来弥补，有些差距只能通过做来弥补。吴叶、吴国勋、白迎香、窦和平都是邢台一线环卫工人里的行家里手，我们把他们请来当师父，有益于海港区一线环卫工人的学习，他们在前边给我们作榜样，我们在后边追着学。”', '9天时间安排得满满当当，除了为海港区城管局下辖的10个环卫所授课讲解外，4位师父还手把手地教一线工人如何做到“六净一彻底”等邢台的先进做法，就连午饭晚饭时间，海港区的环卫工人也都“烀”着4位师父。', '“以前我们觉得路上没有白色垃圾就差不多了，邢台则要求连缝隙里的土都要扫干净；以前我们认为垃圾转运站就是个中转站，没必要费劲，邢台则要求必须按规定做到干干净净；以前咱们对交通护栏是不管的，邢台则要求定期清洗路标、路椅、护栏等城市家具……”几天下来，教的人认真，学的人踏实，用海港区城管局环卫所几个所长的话来说就是“脑子开了窍，原来应该这么干”。', '当然，也有教学相长之处。吴叶告诉记者，海港区城管局为环卫工人免费提供住所建立的“环卫之家”、设立“扫帚坊”对扫帚统一进行修理管理等等，都值得邢台学习。', '临上车，梁安平请吴叶几个人过段时间再来，“检查一下学生的作业”。吴叶则半开玩笑半认真地说：“照这样学下去，明年恐怕就是我们到海港区学习取经啦。”']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>5</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>北京市朝阳区政协考察团莅临我市杨宏等陪同考察</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2015-08-17</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=02DE2AF7C82235004CF81C544D9ABC16</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['本报讯（记者栾易鑫）8月13日，北京市朝阳区政协主席谢莹率考察团莅临我市，就“对接京津冀，建言‘十三五’”开展专题学习考察活动。朝阳区政协副主席汪洋、张树安，秘书长王玉华参加考察。市政协主席杨宏，市政协副主席刘建军，秘书长陆旭升陪同考察。', '考察团一行首先来到昌黎县，实地参观了中粮华夏葡萄酒庄园，详细了解华夏现代化生产技术车间的运行情况。随后，考察团来到北戴河新区，参观考察了渔岛项目和阿那亚度假村，对我市旅游产业发展情况进行深入了解。最后，考察团来到北戴河区，参观了集发生态观光园、北戴河国家湿地公园。', '据了解，今年是北京市城市总体规划修改之年，也是“十三五”规划编制之年。7月至8月，朝阳区政协开展了此次以“对接京津冀，建言‘十三五’”为主题的专题学习考察活动，目的就是为规划编制集思广益，为助推京津冀协同发展献计出力。', '谢莹表示，秦皇岛区位优势独特、交通快捷便利、文化底蕴深厚、产业基础坚实，在承接首都功能疏解和产业转移方面有着得天独厚的条件。朝阳区是北京市面积最大、人口最多、经济实力最强、发展后劲最大的一个城区，目前形成了现代服务业主导、高新技术产业支撑、文化创意产业集群发展的产业格局。朝阳区与秦皇岛合作空间广泛，潜力巨大。今后，希望两地政协进一步增进互信了解，在推进协商民主、京津冀协同发展、建言“十三五”规划等工作中进行多层次、全方位的交流合作，促进两地进一步拓宽合作领域，推动两地经济社会共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>5</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>秦皇岛火车站出租车运营秩序得到有效治理</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2015-11-06</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=4AE7528A0A1AB9DEC05A9719AFC2B9D2</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['秦皇岛火车站出租车运营秩序相对混乱由来已久，对此乘客反响强烈。自暑期以来，海港区局不断创新思路，推出新举措，加大对火车站出租车运营的管理力度，采取处罚与教育相结合的方式，全方位加强对出租车运营秩序的管理，收到了良好的社会效果。 一是强化调度指挥，领导现场督办。海港区局抽调13名管理人员现场驻站，实行24小时不间断、无缝隙的轮流职守。海港区局、城客处领导多次带队深入现场，靠前指挥，调查了解工作中存在的问题，有针对性地提出行之有效的解决方案。在全市旅游市场整治专项行动和市局出租汽车客运市场专项整治动员会后，海港区局行动迅速，局长亲自带队到北戴河火车站实地学习考察，结合秦皇岛火车站实际情况，协调相关部门调整了地下出租车运营线路走向，把原来单车道发车调整为目前S行运行线路，确保了出租汽车有序发车运行。 二是加大宣传力度，增强火车站地下出租车辆的流动性。为了改变过去少数出租车垄断火车站的怪象，从根本上根治乱象，驻站办印制了1200余张印有火车站列车时刻表的联系卡发放给广大出租车司机，鼓励、教育、引导广大出租车司机到火车站地下停靠区拉活，并通过交通广播对地下出租车的管理模式进行宣传，使得火车站出租车的流动性大大增强，改变了过去的垄断现象，运营秩序得到了明显的改观。 三是对违规车辆采取教育与处罚相结合的方式进行管理。海港区局驻站办共对出租车司机责令带车学习教育30余台次，每次学习3至5天，对于屡教不改的违规车辆进行了相应的罚款处理计20台次，通过对出租车司机进行道德思想教育，提高了营运车辆的服务质量和服务水平，收到了较好的效果。 暑期以来，司机们拾到乘客物品300余件，主动寻找失主归还物品20余件次，举报投诉电话明显减少，秦皇岛火车站出租汽车运营秩序明显好转。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>5</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>市委市政府听取城市规划工作专题汇报</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2015-11-27</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=7621D6BA50ECAA46447C3E72C0775148</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['2015年11月25日，市委、市政府在市委常委会议室听取城市规划工作专题汇报。市委书记孟祥伟、市长张瑞书、市委常委副市长邢留逮出席会议，市发改委、市国土局、海港区政府等相关单位列席参加。会议听取了市城乡规划局所作的秦皇岛城市规划基本情况及赴滨海城市学习考察情况汇报，观看海岸线规划建设相关视频；听取了深圳规划院秦皇岛市空间发展战略规划情况汇报。 市委书记孟祥伟对城市规划工作进行了详细的解读。指出所谓规划，究其根本，就是解决长远利益与眼前利益，局部利益与全局利益，个人利益与公共利益。要求三对利益解决好，务实地搞规划，真正地为这个城市，为百姓搞好规划。 强调对滨海核心资源进行重点保护，特别是沿海岸线湿地的生存环境的保护。对港城发展不协调、铁路分割城市、城市交通拥堵、组团特征、城市特色等规划问题进行的详细的分析，对城市空间发展战略进行了研究探讨。 最后要求搞好规划需要关心利益，珍视专家成果，做到城市规划人人有责，政府各个部门共同努力，集合各方智慧，把规划搞好，全域规划、城乡统筹走到全省的前列。', '年11月25日，市委、市政府在市委常委会议室听取城市规划工作专题汇报。市委书记孟祥伟、市长张瑞书、市委常委副市长邢留逮出席会议，市发改委、市国土局、海港区政府等相关单位列席参加。会议听取了市城乡规划局所作的秦皇岛城市规划基本情况及赴滨海城市学习考察情况汇报，观看海岸线规划建设相关视频；听取了深圳规划院秦皇岛市空间发展战略规划情况汇报。', '市委书记孟祥伟对城市规划工作进行了详细的解读。指出所谓规划，究其根本，就是解决长远利益与眼前利益，局部利益与全局利益，个人利益与公共利益。要求三对利益解决好，务实地搞规划，真正地为这个城市，为百姓搞好规划。', '强调对滨海核心资源进行重点保护，特别是沿海岸线湿地的生存环境的保护。对港城发展不协调、铁路分割城市、城市交通拥堵、组团特征、城市特色等规划问题进行的详细的分析，对城市空间发展战略进行了研究探讨。', '最后要求搞好规划需要关心利益，珍视专家成果，做到城市规划人人有责，政府各个部门共同努力，集合各方智慧，把规划搞好，全域规划、城乡统筹走到全省的前列。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>5</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>张利华带队考察美丽乡村建设</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2015-10-09</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=A57EADE4C2279FD8E14F101BF93E642D</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['近日副区长张利华带领区委农工委、区旅游局、区规划分局、区提升办、各镇以及三道关村等4个行政村、冀东园林生态发展有限公司、油牡丹产业发展示范单位有关负责同志分别到秦皇岛市开发区上禾牡丹示范基地、昌黎县杏树园村和西山场村、北戴河区费石庄村和北戴河村学习考察美丽乡村建设及村庄产业发展工作，详细了解当地美丽乡村建设的规划管理、旅游开发及生态资源保护利用等情况。针对我区下步工作，张利华指出，一是要根据我区实际，不断融合特色农业、特色旅游、餐饮住宿、绿色产业等元素，通过市场精准定位，统筹规划我区美丽乡村建设；二是要以全市美丽乡村建设优秀村为参考和目标，因地制宜，深入发掘我区特色产业，打响山海关品牌优势；三是要继续开阔思路，多措并举，努力吸收市场资源，共同为我区美丽乡村建设出力；四是要继续完善基础设施和绿化环境建设，以更大的决心和更有力的措施推动我区美丽乡村建设落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>5</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>长沙市公务员局就平时考核工作到我市学习考察</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2015-07-20</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5799CC7F62DB258392F69888FD4A8FC8</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['长沙市公务员局就平时考核工作到我市学习考察 日前，长沙市人力资源和社会保障局副局长、市公务员局局长一行三人到我市就公务员平时考核工作进行学习考察，认真听取了我市行政机关公务员平时考核工作经验介绍，双方就平时考核工作方式方法、制度建设、评比达标表彰活动管理、公务员登记等工作进行了深入讨论交流。', '日前，长沙市人力资源和社会保障局副局长、市公务员局局长一行三人到我市就公务员平时考核工作进行学习考察，认真听取了', '我市行政机关公务员平时考核工作经验介绍，双方就平时考核工作方式方法、制度建设、评比达标表彰活动管理、公务员登记等工作进行了深入讨论交']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>5</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>田向利张瑞书刘辰彦率团参观中国创新创业展</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2015-05-18</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C553C7FEFC25F827CF07106CA1BF7CD5</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['本报讯（记者刘军）5月17日上午，我市组成高规格的党政代表团，参观了正在北京民族文化宫举办的中国创新创业展，重点学习考察“众创空间”展览。市领导田向利、张瑞书、刘辰彦、孙国胜、张锋，以及市直相关部门和各县区、开发区、北戴河新区的负责同志，详细了解体验了“创客”带来的冲击和机遇，进一步强化了“互联网+”跨界融合创新带来的产业转型和创新发展重大契机，强化了加快推动大众创业、万众创新的紧迫感。', '科技创新是提高社会生产力和综合国力的战略支撑。近年来，以创客为典型代表的“大众创业、万众创新”浪潮在我国迅速兴起，创新创业将成为中国新常态下经济发展的新引擎。科技部、中宣部、中国科协在北京举办的全国科技活动周，以“创新创业、科技惠民”为主题，推出了众创空间等一系列重大活动。中国创新创业展作为科技活动周的重要组成部分，以创新创业大赛和众创空间等新型创业服务平台为主线，突出展示了实施创新驱动发展战略、推进科技创新创业的成就，切实营造了人人皆可创新、创新惠及人人的浓厚氛围。', '在展览会现场，浓厚的以“互联网+”思维开展的创新创业激情让人极为震撼：起点创业营聚焦于发现、孵化、投资高新科技领域的初创企业，涉及领域包括移动互联网、新材料、健康服务和环保科技，在三年里从这里走出的大批优秀项目迅速成为行业第一的领头企业。苏河汇是国内知名创业学院和天使投资机构，专注于培养和投资早期创新创业项目，在上海、江苏和浙江有超过1.1万平方米的场地免费提供给学员使用，两年时间培养出150多家优秀企业，其中大多数获得苏河汇和其合作伙伴累计2亿多元的投资。苏河汇提出，只要你有创业的想法并获得认可，苏河汇将提供免费办公场地、财务法律、人事招聘、媒体公关、创业活动、投融资等创业孵化服务。由李开复博士创办的创新工场是全方位的创业和加速创业平台，其选择的项目成熟到一定程度后进行甄选孵化，直至最后上市或被收购，五年时间里已投资孵化50多个项目，投资金额超过10亿元，投资产业估值超过220亿元。天使汇是中国最大的股权众筹平台，截至今年4月初，天使汇已经为305个项目完成融资，融资金额超过30亿元，在这一平台上注册的创业者超过10万名，登记的创业项目有44307个。36客每年服务的项目超过8000家，为项目融资超过30亿元……在基于“互联网+”创业服务平台的催生下，“草根阶层”的创新创业激情爆发开来，只要你的创意够独特，只要你的创新够吸引人，一切皆有可能。众创、众筹、众包，正在让智力资源和社会资本迅速融合，更加自由地在全社会流动。', '强化了思维，感受到震撼，那么，如何在我市落实好国务院办公厅《关于发展众创空间推进大众创新创业的指导意见》，顺应网络时代发展的新趋势，在我市加快发展众创空间等新型创业服务平台，营造大众创业、万众创新的良好环境，激发全市各层次群众创新创业活力，打造我市产业转型、科技创新、绿色崛起新引擎，就成为党政代表团一行的共同思考。', '田向利表示，这次参观，让我们深深体会到了民间蕴藏的发展激情，它就像一颗种子，只要土壤和温度合适，就一定能够破土而出。秦皇岛正处在爬坡过坎、转型升级的关键时期，迫切需要充分激发全社会创造活力，培育创业创新文化，积极吸引聚集京津及国内外技术和人才，加快形成大众创业、万众创新的生动局面。迫切需要牢牢坚持科技引领产业、创新驱动发展，把更多注意力放在发展科技产业、新兴产业上，学习运用国内外最新的“互联网+”、众创空间等新思维、新模式、新业态，打造秦皇岛经济发展升级版，让秦皇岛成为大众创业、万众创新的高地。秦皇岛打造中国北方科技之城，核心点就是把创新、创业、创意、创富结合起来，把创新转化为产品、发展成产业，让创业能够创富、最终实现价值，成为推动秦皇岛创新发展、绿色崛起的有力支撑。秦皇岛各级各部门要认真思考研究，如何推动传统产业搭上科技和互联网的快车实现转型，如何用“互联网+”思维发展新的支柱产业，如何借力大众创业、万众创新实现创新驱动发展。要充分学习外地先进经验，充分发挥政府引导和市场决定性作用，推动简政放权、放管结合、转变政府职能，下大力降低创新创业门槛，优化创新创业环境，支持创新创业公共服务，改进招商引资方式方法，加快构建一批具有秦皇岛特色的众创空间，孵化培育一批科技型中小企业和小巨人企业，形成新的产业业态和经济增长点。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>5</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>骆德新张利华率队赴山东考察大樱桃及花卉苗木产业发展</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2015-05-20</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=82014C1E79FC2DA0621954AF88F6D90E</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['日，由区委副书记骆德新、副区长张利华带领两办督察室、区林业局、各镇街及区花卉苗木协会有关负责同志组成的考察团，先后赴山东烟台市福山区、青州市学习考察大樱桃产业发展的相关政策、大樱桃产业加工技术、大樱桃节庆事宜等情况，参观了大樱桃重点乡镇张各庄镇黄楼镇北方花卉苗木国际交易中心及周边花卉批发市场，重点考察了铁皮石斛、多肉花卉和花卉观光娱乐园，详细了解了青州市在花卉苗木培育、种植和营销等方面的经验做法。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>5</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>食用菌产业成抚宁农业新宠</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2015-03-18</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=FDABE239BB450139456DBA0383DD1AC3</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['本报讯（通讯员刘文昌）近日，在抚宁县留守营镇裕民食用菌种植专业合作社，工人们正在紧张忙碌地填装菌棒、建设棚室、购置设备。据了解，该合作社还引进了香菇烘干技术，不仅解决了香菇存储难题，也避免了因香菇价格波动对合作社效益造成的影响。', '年以来，抚宁县将食用菌产业作为促进农业结构调整的重点，组织开展参观学习，研究制定扶持政策，并采取“公司+食用菌合作社+农户”的生产模式,推进全县食用菌产业快速发展，打造食用菌生产先行区，基本形成了以杏鲍菇、香菇、银耳、平菇为主，以珍菇、猴头菇、金针菇、木耳、灵芝等品种为辅的食用菌产业格局。目前，抚宁县已拥有高标准食用菌基地8个，食用菌面积400亩，总产量4000吨，总产值3800万元。', '依托资源优势，建立产业示范区。抚宁县积极引导龙头企业、食用菌种植专业合作社等建设食用菌科技示范区,带动周边乡镇以及农户开展食用菌种植。位于留守营镇山上营村的宝伶食用菌种植专业合作社研发了新型秸秆回收再利用技术，日加工玉米芯颗粒30吨，年产菌棒50万袋，固体玉米芯压块不仅满足了本地需求，而且还远销广东、福建、山东等地，带动了周边34户农民种植食用菌。', '注重学习交流，提升农户种植技能。在此基础上，该县还组织技术人员等到青龙、平泉等地学习考察食用菌，并参加了2014年全国食用菌新产品新技术博览会暨市场流通峰会、全国第十届菌需物资博览会暨食用菌工厂化发展论坛大会，通过参观学习详细了解了其他先进地区的生产情况、栽培效益、种植技术和管理经验。同时，该县还邀请河北科技师范学院等高校专家，采取现场指导和菇棚课堂相结合的技术服务方式随时接受农户技术咨询，解决广大菌农生产中的技术难题，提高菌农的生产管理水平和技术应用能力。', '延伸产业链条，促进合作社转型。为满足国内、国外市场的需求，抚宁县还鼓励食用菌种植合作社进行转型发展，引进新品种，扩大生产规模。“由龙头公司负责菌种及菌棒生产，为合作社或农户提供技术，回收产品及加工，产品统一收购，统一销售，并在适当扩大规模的同时，将发展重点转向精深加工，推动食用菌产业规模化可持续性发展。”抚宁县农牧局总农艺师张立君这样说。2014年，夏都菌业有限公司新建滑子菇生产线，并与日本合作进行工厂化滑子菇周年生产试验，首批3万余棒滑子菇长势良好，初步掌握了工厂化生产技术和流程，为生产出口日本订单奠定了基础。同时，该公司投资1100万元新建食用菌深加工生产线一条，对食用菌产品进行深加工，将食用菌鲜品做成蘑菇酱、蘑菇罐头、蘑菇冲剂、菌菇调味品等，提高了产品附加值。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>5</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>卢龙县五驾齐驱加快转型升级步伐</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2015-05-26</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6C58521BF4EEEB4284139576FE295BF4</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['本报讯（通讯员 王辉 孟翠霞）去年以来,卢龙县大力实施“项目带动主体战略”和“项目建设提质年”活动，强力推进工业项目转型升级，2014年工业技改投资33亿元，同比增长46.9%，完成转型升级项目30个，总投资28.5亿元。宏赫废料综合利用、武山实业集团等一批转型升级企业相继生产或试生产。', '加强政策扶持促转型升级。制定了《卢龙县工业企业转型升级的实施意见》，设立工业企业技术改造专项基金，落实财税、金融、土地等方面的优惠政策，对工业经济转型升级重点企业和技改项目进行扶持。积极向上争取各级各类中小企业发展和技术改造专项扶持资金284.7万元。秦皇岛鹤凤翔化工有限公司投资1.29亿元，建成了年产工业硫酸25万吨、硫酸铝5万吨、硫酸余热发电技改项目，获得省级技术改造专项扶持资金86万元。', '围绕产业发展促转型升级。围绕“五大基础产业、五大新兴产业”的发展方向，改造提升传统产业，实施了重点耗能企业节能改造、落后产能淘汰提升工程。先后到山东莱芜、文登等地学习考察，促进德惠建材、千山建材、宏赫固废处理、京通固废处理、金昊盛精密铸件等5家小钢铁企业转型升级。拆除了宝岛水泥机立窑生产线2条、佳伦纸业造纸生产线4条和武山水泥水泥磨机4台，压减钢产能150万吨、铁产能104万吨、水泥产能30万吨。秦皇岛西部工业区卢龙工业园被确定为省级循环经济工业园区，秦皇岛佰工钢铁有限公司被确定为省级循环示范企业创建单位。', '加大技改力度促转型升级。近年来，卢龙县大力实施技术改造工程，衍生了一批新工艺、新技术、新产品。佰工钢铁有限公司煤气综合利用余热发电、康姿百德公司年产3.5万套健康寝具、旭宇树脂公司年产6万吨不饱和聚酯树脂产品扩建等20余个技改项目相继建成投产。县政府拿出500万元作为中小企业发展专项资金，其中安排不少于20%比例的资金鼓励企业推进产学研结合。思嘉特专用汽车制造有限公司自行研制开发的新一代全液压微电脑控制改性乳化沥青稀浆封层车出口俄罗斯，填补了国内同类产品出口的空白。', '提升创新能力促转型升级。卢龙县出台了《关于进一步加强企业科技创新的意见》，鼓励企业实施科技创新战略，通过企业自身科技开发和利用外部资源合作研发等方式，推动县域企业向高新企业转型，思嘉特专汽、中青冶金阀门、晓示医疗器械等3家企业建立了市级工程技术中心。截至目前，全县拥有市级以上创新型企业4家，授权专利25项，县级工程技术中心16家，高新技术企业3家，科技型中小企业39家。', '强化招商引资促转型升级。本着“建链、补链、强链、延链”的原则，坚持内引外联并举，积极与重点企业和科研院所洽谈对接，着力引进和建设一批事关经济发展全局、产业关联度高、支撑作用强的好项目，促进全县项目建设提档升级。朴生源食品、华能风电等14个项目被列入市重点建设项目，今年3月28日，晶维石材、福满家卢龙生活购物广场等总投资71.75亿元的12个重点项目集中开工。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>5</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>西藏阿里地区学习考察团到昌黎县学习考察</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2015-04-20</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=E843587EAAFFDA7EDA0E1BB06E0E917D</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['长城网秦皇岛4月15日电(张潇月 记者 武佩剑 通讯员 赵亮)记者今日了解到，13日，西藏阿里地区学习考察团一行30人，在阿里地区行署副专员带领下到秦皇岛市昌黎县，就因地制宜发展第三产业、农业产业化、新农村建设以及先进企业发展经验等内容进行学习考察。', '据了解，十里铺乡紧紧依托葡萄沟旅游开发，加大对全乡葡萄种植、加工产业的结构性调整，促进了农业效益最大化。秦印庄村围绕葡萄种植产业，发展以生态观光、采摘、农家乐为主要特色的乡村旅游，带动了全村的经济发展。考察团对乡、村两级立足资源优势，发展特色产业，促进农村经济发展、农民增收、加快农业产业化进程的做法给予了高度评价，认为许多经验和做法值得学习借鉴。', '随后，考察团一行来到昌黎县方志馆，通过馆内珍藏的县区志书、年鉴和地情书籍等珍贵材料，全面了解了昌黎县的人文历史、自然资源和特色产业发展情况。作为全省首家县级方志馆，目前昌黎方志馆馆藏志书1281册。考察团认为昌黎厚重的文化积淀、独特的资源禀赋，强劲的发展态势令他们印象深刻，也希望从中学到更多先进经验和做法。', '考察团一行还先后来到耿氏酒堡和中粮华夏长城葡萄酒有限公司，实地感受了家庭酒堡的独特魅力，详细了解了中国第一瓶干红酒在昌黎诞生的过程，考察团认为耿氏酒堡自采、自酿、自饮葡萄酒的发展模式和华夏公司现代企业发展模式都很有代表性，对两家企业的发展成功表示赞赏，希望将这些成功的企业发展经验学习好、吸收好、消化好。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>5</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>广州市侨务办公室调研组到海港区学习考察</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2014-12-11</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=13FBFF0E6FE2EDE0D0536532C7A83290</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['近日，广州市侨务办公室调研组一行8人到我区“全国侨务社区示范点”—东环路街道办事处东环里社区参观考察，在详细了解我市近几年侨务工作整体情况及我区社区侨务工作的特色经验做法后，双方就侨法宣传、华侨捐赠等方面的工作进行了深入座谈交流。广州市侨务办公室调研组对我区联侨心、聚侨力，以心助侨、以情护侨等亮点工作表示赞许，希望今后能够加强交流，共同发挥侨务工作在社会各项事业建设中的积极作用。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>5</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>秦皇岛市组织开展企业家杭州深度行对标考察活动</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2014-12-05</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=038F90C987A35E207FE7A98E865633E0</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区企业管理经验，促进本地企业家创新理念、转变思维，推动我市企业转型升级，科学发展，2014年11月23日至25日，秦皇岛市工业和信息化局、秦皇岛丰收企业发展促进中心共同组织40余家企业赴长三角省会城市——杭州进行对标学习考察，先后参观了阿里巴巴集团、海康威视、贝因美婴童食品股份有限公司3家上市企业，针对创新营销、创新管理、创新技术、创新品牌等方面与企业进行了深入讨论。 本次考察有三大收获：一是看到了差距，增强了紧迫感。杭州市位于全国经济发展前沿，企业的发展理念和管理方式都极具创新性，我们必须奋起直追。二是增长了见识，学到了经验。3家企业都是实力较强的上市企业，各具发展优势和特色，无论是股权设置还是营销和品牌创建都对我市企业具有极强的借鉴意义。三是增进了交流，宣传了秦皇岛。通过座谈交流和宣传推介，为双方企业之间跨区域合作提供了商机，为我市招商引资打下了基础。', '为学习借鉴先进地区企业管理经验，促进本地企业家创新理念、转变思维，推动我市企业转型升级，科学发展，2014年11月23日至25日，秦皇岛市工业和信息化局、秦皇岛丰收企业发展促进中心共同组织40余家企业赴长三角省会城市——杭州进行对标学习考察，先后参观了阿里巴巴集团、海康威视、贝因美婴童食品股份有限公司3家上市企业，针对创新营销、创新管理、创新技术、创新品牌等方面与企业进行了深入讨论。', '看到了差距，增强了紧迫感。杭州市位于全国经济发展前沿，企业的发展理念和管理方式都极具创新性，我们必须奋起直追。', '增长了见识，学到了经验。3家企业都是实力较强的上市企业，各具发展优势和特色，无论是股权设置还是营销和品牌创建都对我市企业具有极强的借鉴意义。', '增进了交流，宣传了秦皇岛。通过座谈交流和宣传推介，为双方企业之间跨区域合作提供了商机，为我市招商引资打下了基础。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>5</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>中共秦皇岛市纪委秦皇岛市监察局关于加强二一五年元旦春节期间廉洁自律工作的通知</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2014-12-23</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=610AB008DB3861AD7B77961D999DD42A</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['年元旦、春节来临之际，为进一步落实中央八项规定精神、持之以恒狠刹“四风”，切实抓好省委巡视组反馈意见的整改落实，进一步巩固深化党的群众路线教育实践活动成果，现就加强“双节”期间廉洁自律工作通知如下：', '“双节”期间，是落实中央八项规定精神、狠刹“四风”、整治奢侈浪费等问题的关键节点。全市各级各部门要认真落实《中国共产党党员领导干部廉洁从政若干准则》、《党政机关厉行节约反对浪费条例》等政策规定，切实加强节日期间廉洁自律工作，从严防范歪风反弹。根据省委巡视组反馈意见，结合我市实际，强调重申“九条禁令”：坚决禁止巧立名目以加班费、奖金、补贴等名义违规滥发钱物；坚决禁止年底突击花钱，超预算支出“三公”经费；坚决禁止公款吃喝，特别是利用培训中心、机关食堂搞宴请、娱乐活动；坚决禁止搞团团伙伙、迎来送往，跑官要官；坚决禁止收送礼金红包、会员卡、商业预付卡及各类有价证券；坚决禁止公车私用、领导干部私驾公车、用公款支付私家车费用；坚决禁止用公款购买贺年卡、鞭炮烟花及其他节日用品；坚决禁止以学习考察名义变相公款旅游；坚决禁止用公款报销个人费用，以及向下级单位和管理服务对象摊派费用。', '各级党委（党组）要站在从严管党治党的高度，深刻认识抓好节日期间廉洁自律工作的重要性，认真履行主体责任，提要求、明政策、严管理，积极倡导文明、节俭、廉洁的节日新风，努力革除铺张、奢侈、庸俗的陋俗积弊。党委（党组）主要负责人要主动担负起“第一责任人”的责任，督促本地区、本部门以及下属单位抓好各项禁令的贯彻落实，对财务管理、公务接待、公车使用等问题易发多发的环节，严格监督管理，强化制度约束，有效预防违规违纪问题的发生，确保令行禁止。各级领导干部要以身作则、率先垂范，不折不扣地执行廉洁自律规定，严格管理配偶、子女及身边工作人员，带动党员干部作风转变，推动节日期间崇廉尚洁良好社会风气的形成。', '各级各部门要广泛宣传中央、省和市禁令规定，引导广大群众监督举报违规违纪问题。各级纪检监察机关要畅通监督渠道，创新监督方式，利用电话、邮箱等广泛受理投诉，加大明察暗访力度，发现有令不行、有禁不止，上有政策、下有对策违规违纪的，从快处理、严格追究，形成有效震慑。对典型案件点名道姓公开通报曝光，加强警示教育，坚决维护纪律的权威性和严肃性。对党委（党组）、纪委（纪检组）工作不力、放任纵容，导致地方和部门违规问题频发，以及发生严重事件的，严肃追究党委（党组）的主体责任和纪委（纪检组）的监督责任、坚决纠正执纪失之于宽、失之于软的问题，以铁腕治奢、铁律正风的坚定决心和有效举措，全力打造清廉“双节”。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>5</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>昌黎县旅游局组织乡镇村负责人赴天津蓟县学习考察乡村旅游发展成功经验</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2014-12-19</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C34909ECDD916255CDDE90BADC84D07D</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['11月21日，县旅游局组织十里铺、两山、昌黎镇以及西山场、条子峪、湾里、长峪山、正明山、五峰山、杏树园、五里营等乡镇、村负责人赴天津蓟县郭家沟村、小穿芳峪村学习乡村旅游发展成功经验。考察过程中，首先与当地乡村负责人进行了座谈，听取他们发展乡村旅游的先进经验，了解开发建设、经营管理以及打造品牌等方面的做法，并就一些具体问题深入进行了探讨。之后，进行了实地考察。通过这次学习考察，达到了开阔视野、明晰思路、借鉴经验的目的。下步，县旅游局将进一步深入挖掘整合乡村旅游资源，积极引导帮助各乡镇依据资源特色发展不同类型的乡村旅游。同时，选定重点乡镇，在旅游规划、基础设施建设、服务管理、宣传促销等方面加大扶持指导力度，进一步提升乡村旅游业的数量和质量。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>5</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>孙国胜率队考察大连高新区</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2014-07-17</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=B556774BAD676FDA5828AEECAD8AD6D9</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['7月10日至11日，副市长孙国胜率市工信局、开发区管委一行赴大连高新区学习考察软件和信息技术服务外包产业。与大连高新区及软件骨干企业探讨软件产业发展模式及要素，寻找合作空间，谋求城市与企业共赢发展。 考察组先后考察了东软软件园、大连软件园股份有限公司、大连华信计算机技术股份有限公司、IBM（大连）有限公司、惠普全球呼叫中心大连分中心等企业，考察团一行对大连软件园的总体运作和先进经验进行了全面了解，同时与大连软件园负责人就秦皇岛软件园区未来建设目标与合作前景等方面进行了充分交流。考察结束后，孙国胜与高新区副主任原驰进行了会谈，深入探讨了大连软件产业发展历程。 孙国胜表示，大连作为“国家软件产业基地”、“国家软件出口基地”，十几年来发展成就非凡，受到国内外广泛关注。大连在软件和信息服务业发展，特别是在软件园区建设方面的经验值得秦皇岛学习和借鉴。秦皇岛会把握京津冀协同发展的宝贵机遇，准确定位、引进和培育软件骨干企业、营造良好的产业发展环境，推动软件产业做大做强。', '7月10日至11日，副市长孙国胜率市工信局、开发区管委一行赴大连高新区学习考察软件和信息技术服务外包产业。与大连高新区及软件骨干企业探讨软件产业发展模式及要素，寻找合作空间，谋求城市与企业共赢发展。', '同时与大连软件园负责人就秦皇岛软件园区未来建设目标与合作前景等方面进行了充分交流。考察结束后，孙国胜与高新区副主任原驰进行了会谈，深入探讨了大连软件产业发展历程。', '孙国胜表示，大连作为“国家软件产业基地”、“国家软件出口基地”，十几年来发展成就非凡，受到国内外', '。大连在软件和信息服务业发展，特别是在软件园区建设方面的经验值得秦皇岛学习和借鉴。秦皇岛会把握京津冀协同发展的宝贵机遇，准确定位、引进和培育软件骨干企业、营造良好的产业发展环境，推动软件产业做大做强。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>5</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>张建江率队赴北戴河新区考察项目建设</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2014-09-02</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=EEC0DDA672B3A0E091A98C324448E1C1</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['日，区长张建江，区委常委、纪委书记孙志川，区委常委、常务副区长王海纯，区委常委、副区长查树臣，区委常委、宣传部部长裴海伟，副区长金晶、谢啸斌带领区政府办、发改、旅游、国土、城管和各景区等15个相关部门、单位主要负责同志，老龙头改造提升、石河南岛开发、乐岛海洋公园二期等重点项目投资商，以及北京丰联公司、北京巅峰智业旅游文化创意股份有限公司等规划设计单位专家等一行30余人，赴北戴河新区学习考察黄金假日滨海度假城项目（阿那亚）和金沙湾沙雕大世界项目。北戴河新区工委常务副书记、管委会常务副主任郑泉陪同考察。考察中，听取了两个项目基本情况的详细介绍。张建江指出，此次实地考察目的在于借鉴两大项目在项目定位、项目规划建设、生态环境建设等方面的成功经验，将现代旅游、参与性旅游、互动旅游等主题元素融入我区老龙头片区等重点项目规划建设中，提升放大长城滨海项目综合体效应，力争通过打造我区滨海项目集聚群，使山海关在环渤海区域占有重要的一席之地，成为让游客观光游览、休闲度假流连忘返首选滨海旅游目的地。他要求，各相关部门、规划设计单位等要结合此次学习考察就各自项目定位、项目规划、项目建设，以及提升景区自身发展、打造精品地产等方面进行专题研究。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>5</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>保定市政府来我市学习考察近岸海域环境综合整治工作</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2014-04-28</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=FEB4C82F64CA7DB6E73F66F1E27402DB</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['为开展好白洋淀环境综合整治工作，近日保定市委常委、常务副市长刘颖带领保定市相关部门组成考察组，来我市学习考察北戴河及相邻地区近岸海域环境综合整治工作。', '我市海域整治工作提出几点建议：一是要加强前期调研，彻底摸清区域相关污染源。二是要科学制定实施方案。空间上关注本地和外地；时间上注意', '工程并用。科技做支撑、管理做保障、工程做手段。考察组一行还走访了第一污水处理厂中水回用工程、北戴河森林湿地公园、北戴河新区人造河口综合治理工程、北戴河新区城乡垃圾一体化工程等。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>5</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>青龙县教育考察团来山海关考察</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2014-06-25</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C13780FB169EE878BE4140FFA587359F</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['6月13日，青龙县教育考察团一行八十余人，在青龙县教育局局长李胜贵的带领下，来山海关进行义务教育均衡发展学习考察。山海关教育局分别就山海关区政府、山海关区教育局在推进义务教育均衡发展工作中的先进经验及典型做法，一一向考察团作了介绍；山海关南园小学就学校如何进行内涵管理作了报告，双方围绕上述话题进行了交流和讨论。考察团一行还实地察看了两所中学、三所小学和一所幼儿园的校容校貌及办学设施，对山海关的义务教育均衡发展工作给予了高度评价。', '月13日，青龙县教育考察团一行八十余人，在青龙县教育局局长李胜贵的带领下，来山海关进行义务教育均衡发展学习考察。山海关教育局分别就山海关区政府、山海关区教育局在推进义务教育均衡发展工作中的先进经验及典型做法，一一向考察团作了介绍；山海关南园小学就学校如何进行内涵管理作了报告，双方围绕上述话题进行了交流和讨论。考察团一行还实地察看了两所中学、三所小学和一所幼儿园的校容校貌及办学设施，对山海关的义务教育均衡发展工作给予了高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>5</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>市交通运输局负责人就公交回购答记者问</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2014-06-05</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=39AD8DE49D3F960F87CF2B14DE2BDA2B</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['城市公共交通是广大市民关注度较高的热点问题之一。近一段时间，公交回购一事引起了社会各方的普遍关注。我市为什么要回购公交？公交今后将如何满足市民的出行需求？回购后的公交有什么新的经营理念？公交票价会有变动吗？就广大市民关心的一些问题，市交通运输局相关负责人接受了本报记者的采访。', '交通运输局负责人：公交公司国有回购工作是一件关系民生和社会公益性的大事，是践行党的群众路线为民办实事的重要举措。实施公交公司国有化，主要有三点原因：首先，是上级政策要求。公交优先发展已列入国家《第十二个五年规划纲要》，国务院、省政府也下发了一系列文件，要求加大公交投入，引导大容量公用交通出行，缓解交通拥堵。其次，是环境保护的需要。为有效治理大气污染，今年6月底前，我市要淘汰全部黄标车，而公交公司的大部分运行车辆属黄标车范畴，公交公司作为民营企业，自身无法承担更新车辆的巨额资金。再次，是企业运营的需要。由于公交体制的原因，政府补贴无法到位，近些年，公交投入严重不足，车辆老旧、污染严重、场站建设滞后、发展乏力。因此，企业要发展必须走政府回购的道路。', '交通运输局负责人：政府回购公交公司，并非秦皇岛开此先河。从2004年开始，全国各地的民营公交相继被政府收回。秦皇岛公共交通有限公司是2002年改制为民营企业的，改制以来，公交公司强化大局意识和社会服务意识，为我市城市建设和经济社会发展作出了应有的贡献。近年来，随着物价指数和人工成本的迅速上涨，作为全省唯一的一家民营公交企业，运营成本不断增加，连年巨额亏损。企业因不堪重负，无力经营，请求市政府回购。为此，我市适时启动了公交公司国有股权回购工作。', '交通运输局负责人：面对我市城市公交经营的困境，2013年新一届市局党委班子组建后，在充分调查研究、科学论证、学习考察的基础上，提出了“优先发展城市公交，体制改革必须先行”的工作思路，及时向市委、市政府进行专题汇报。市委市政府经过认真研究同意公交公司股权国有回购，成立了全市公交企业回购领导小组，出台了《公交公司国有回购工作方案》，明确了交通、财政、审计等部门责任。市交通运输局党委给予前所未有的重视，多次召开专门会议深入研究、破解难题，积极推进公交企业清产核资、评估审计、股权回购商谈等工作，截至目前圆满完成公交公司回购各项工作，确保了回购期间“思想不散、工作不松、管理不乱、运营不断、和谐稳定”。', '交通运输局负责人：公交回购后，在经营理念上要更多地体现公益回归，不断推出惠民举措。本着“一年打基础、两年有提升、三年上水平”的经营目标，着力建设快速公交、村镇公交、绿色公交、智能公交、满意公交“五个公交”。到2015年，中心城区公共交通站点500米覆盖率达到80%、公共交通出行分担率达到30％以上、万人公交车辆保有量达到12标台以上；绿色公交车辆比例不低于60％；中心城市周边20公里范围内城乡客运线路公交化运营率达到50％以上，县城20公里范围内农村客运线路公交化运营率达到30％以上。', '交通运输局负责人：公交回购之后，惠及市民是出发点。实事求是来说，票价应该有所调整。我市现行公交票价是1996年制定的，已有18年未作调整。随着物价指数和工资的上涨，企业运营成本不断增加，亏损严重。但是票价调整一定本着公众认可，走应有的法律程序，按照最低幅度调整票价。车辆档次的提高、服务水平的提升相伴的是经营成本的提高，下一步逐步建立起多层次、差别化的城市公交票价体系。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>5</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>秦皇岛市工商联赴浙江省学习考察</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2014-01-03</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=23F46509F730153E6ACB6C1937C7CDFC</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['日前，河北省秦皇岛市委统战部副部长、工商联党组书记李艳霞，市工商联常务副主席惠吉峰，市招商局副局长李红石带队，组织7家工商联会员企业，赴浙江省嘉兴市、舟山市、温州市就理想信念教育、企业文化建设、企业管理经验等方面进行了学习考察。', '考察团一行参观了党的一大旧址嘉兴南湖红船，与当地工商联进行了工作交流，分别与嘉兴市、舟山市、温州市总商会签订了友好商会协议，同时向所到之处宣传秦皇岛市投资环境、推介了秦皇岛市园区建设和重点招商项目、开展招商引资洽谈。考察团实地参观了天正电器有限公司、桐昆集团股份有限公司、正泰集团股份有限公司等全国500强企业并与企业负责人进行了深入座谈交流。通过对标先进找差距，企业家们纷纷表示，进一步认识到理想信念是企业成长之魂，是企业发展的重要基础。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>5</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>市商务局与海淀区商务委签署服务外包合作协议</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2013-10-22</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=FB7C180ECA7543C790650FB37838CB6C</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['本报讯（记者王静 通讯员张晓钟）日前，市商务局与北京市海淀区商务委正式签订服务外包产业合作协议书，这是市商务局认真贯彻落实我市今年7月与北京市海淀区政府达成的《合作框架协议书》的一项重要举措，也是秦皇岛市党政代表团赴海淀区学习考察、对接洽谈取得的成果之一。', '秦皇岛在区位、环境和人才等方面具有发展服务外包产业的独特优势，服务外包业已成为市政府重点发展的新兴产业。北京市海淀区是我国服务外包的发祥地和最主要的产业聚集区，正在向国际接包企业的总部基地和国际发包企业的研发中心聚集区的目标迈进。产业升级及企业发展的内生动力，使企业外延式对外发展成为必然趋势，顺应发展趋势承接辐射外溢、实现共同发展，是双方合作的现实基础。', '按照协议，双方将重点在三个方面开展合作：一是深化商务主管部门间的合作。推动双方政府间服务外包项目合作，积极支持双方企事业单位、社会组织在服务外包方面的交流与合作。二是加强服务外包平台间的合作。以开发区、北戴河新区、北戴河开发区和海淀区北部生态科技新区、中关村科学城以及中关村软件园为发展服务外包产业的主要平台，加强平台间在产业聚集、业务分包、国际化等方面开展实质性合作。三是促进服务外包企业间的合作。支持鼓励服务外包企业在双方区域交流融合发展。加强双方信息交流，推动双方服务外包培训机构间、培训机构与服务外包企业间的合作交流，推进专业人才相互交流，实现资源共享，共赢发展。下一步，我市将邀请海淀区服务外包企业协会及知名服务外包企业来秦考察，切实推进双方服务外包平台间及企业间的对接交流与合作。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>5</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>田向利率秦皇岛市党政考察团赴深圳学习考察并向企业发出邀约</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2013-11-06</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=E43D4BF8BD01541622FEAE6A38EFAF23</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['本报讯（记者刘军）初冬时节，地处南国的鹏城依旧绿意撩人，生机勃勃，活力四射。11月3日至4日，省委常委、市委书记田向利率秦皇岛市党政考察团赴深圳学习考察，与企业探讨如何推动已有合作项目的建设进度，努力寻找更加广泛的合作空间，实现城市与企业的共赢发展。', '市委常委、常务副市长马宇骏，市委常委、副市长邢留逮，市委常委、秘书长刘宝岐，副市长张锋，以及开发区、北戴河区、北戴河新区、海港区和部分市直单位主要负责同志一同学习考察。', '考察团一行风尘仆仆，行程安排十分紧凑。在3日下午4时半许抵达深圳后，立即对企业进行考察，与企业负责人举行座谈。考察期间，考察团先后考察了华润集团万象城、深圳茂业集团城市综合体、中兴通讯公司生产线、华侨城欢乐海岸等项目，并分别与华润集团有限公司董事总经理乔世波、深圳茂业集团股份有限公司董事长兼CEO黄茂如、中兴通讯股份有限公司执行副总裁田文果、华侨城股份公司董事长刘平春等企业负责人进行了深入对接洽谈。', '考察期间，田向利表示，深圳是中国改革开放的“试验田”和展示改革开放成果的窗口，创造了举世瞩目的“深圳速度”，三十多年来发展成就骄人。作为中国首批沿海开放城市，秦皇岛要勇于和最先进的城市对标，勇于向最具活力的城市看齐，借鉴深圳发展的宝贵经验，助力秦皇岛实现跨越崛起。地处深圳的企业，有着先进的管理经验、敢于开拓的勇气、敏锐的市场嗅觉、超强的捕捉机遇能力，也是秦皇岛应当学习借鉴的。秦皇岛要实现科学发展，打造河北沿海地区率先发展增长极，必须敞开胸怀，借助八方智慧，而深圳就是一座“金矿”，值得我们细细挖掘、认真品味。', '考察团短短两天时间，是一次全面推介秦皇岛的招商之旅。田向利在座谈时，对秦皇岛拥有的各种资源进行了详细介绍：如果美丽有颜色，这里都能看得见。山的青，水的碧，树的绿，花的红，沙的金，云的白，天的蓝，加上清新甜美的空气，秦皇岛是宜居之城。截至目前，秦皇岛今年接待海内外游客超过2400万人次，这是任何一个企业都不应放过的消费群体，加上秦皇岛本地不断增长的消费能力，秦皇岛越来越成为商贸物流和大型娱乐项目的发展重地。北戴河曾与夏威夷齐名，被称为“东亚避暑之冠”，名人别墅有700多座，是中国第二大别墅区，老别墅的复建既可让“沉睡的历史站起来”，也是发展总部经济的最佳平台。津秦客专、北戴河机场等重要交通设施即将投入使用，秦皇岛和京津以及其他国内外城市的来往将更加便利，作为环渤海经济区的重要节点城市，秦皇岛的辐射力、影响力将越来越强。西港搬迁改造已经正式启动，这里商机无限，为国内外企业投资秦皇岛搭建了施展拳脚的舞台。更为重要的是，首都经济圈的规划实施，和河北省委、省政府将秦皇岛纳入沿海地区率先发展增长极，为秦皇岛带来了千载难逢的历史发展机遇，而机遇对于企业来说，更不容错过。', '考察团短短两天时间，是一次坦诚交流、成效显著的合作之旅。乔世波表示，华润集团高度重视与秦皇岛的合作，尤其是双方已经在啤酒、地产、制药、燃气等领域进行了多次接洽，部分项目进入实施阶段，希望能在更多的领域和秦皇岛携手共谋发展，华润不会错过秦皇岛这座城市；“我首先报个名”，黄茂如对北戴河老别墅复建和西港搬迁改造十分感兴趣，当即表态。他同时表示，茂业在秦皇岛的城市综合体将加速建设，茂业和秦皇岛是“老朋友”，感情越走越近，愿意和秦皇岛携手，让企业和城市发展的梦想变成现实；田文果表示，中兴在秦皇岛的智慧城市项目，将强化以人为本、高效便捷的理念，让城市运行更加有效，让群众享有更多便利，同时，中兴将把秦皇岛作为智慧城市的示范项目，把秦皇岛打造成智慧城市的北方基地，在秦皇岛成立智慧城市产业联盟，同时，更期待能将智慧城市的科技成果变成现实生产力，使其成长为高新技术产业，为秦皇岛的发展作出贡献；刘平春表示，秦皇岛资源得天独厚、不可复制，华侨城将把文化、人文和秦皇岛的资源结合起来，认真寻找合作的结合点，并将派出公司高层到秦皇岛寻找适合投资的区域。', '考察团短短两天时间，是一次展现务实高效的作风之旅。考察期间，考察团成员抓住一切可以利用的时间，探讨、交流、碰撞、思考，如何为企业发展提供最优的发展环境？如何促进项目早日建成投产？企业的诉求怎样最快满足？针对企业提出的项目实施过程中遇到的问题，有关负责同志一一分析解释，并共同商讨解决之道；更让人印象深刻的是，当黄茂如表示城市综合体建设还有些问题需要进一步详细商讨时，为不影响考察团的行程安排，邢留逮与海港区负责同志主动留下，继续与黄茂如沟通交流。', '“感受到震撼，体会到激情，明晰了差距，找到了动力。”考察团成员表示，深圳一行收获良多，既加深了对企业的了解，感受到肩上沉甸甸的担子，更激起了奋进的勇气。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>5</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>卢龙县上半年三项主要经济指标增速居全市第一位</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2013-09-09</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=E9FD2E45F28F2EC0C5DE2F680E738B5A</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['积极实施“走出去”战略，总投资12亿元的保定英利集团光伏发电项目“5﹒18廊坊经贸洽谈会”成功签约；1-6月份，全县引进市外资金13.6亿元，组织实施千万元以上在建项目56个，完成投资15.78亿元；上半年，全县生产总值、固定资产、规模以上工业增加值三项主要经济指标增速均居全市第一位……今年以来，卢龙县坚定实施开放牵动、项目带动、产城互动、文化促动四大战略，加快打造沿海经济增长带重要腹地，呈现出发展势头强劲的良好局面。', '开放是发展的重要路径，没有开放，就不可能有又好又快的科学发展。卢龙县进一步树立沿海意识、开放意识和机遇意识，以开放的胸襟、开放的举措，主动融入沿海，积极对接京津唐，倾力实施招商引资提质增效工程，千方百计引进大项目、培育大企业、做强大产业。先后组团到山东滕州、上海、杭州等地进行学习考察、招商引资，参加了“津洽会”、“5﹒18廊坊经贸洽谈会”等大型招商活动，促成了光伏发电项目成功签约，一批项目达成合作意向。积极向上争取项目和资金，加大跑办力度，已到位上级专项资金5.95亿元，创历史最好水平。同时，邀请华泰汽车集团、中科院高能物理研究所、国际金融投资家联合会及北京知名投融资机构进行项目考察。', '项目和产业是发展的重要支撑。卢龙县紧密结合实际，确定了培育黑色金属压延、装备与机械制造、新型建材、绿色化工、食品加工等五大基础产业，大力发展医疗健康、新能源、新材料、现代物流、文化旅游等五大新兴产业的产业发展总体方向。在此基础上，完善招商引资和项目管理体制机制，加强与已落户重点企业和战略投资者联系，建立黄金客商库，大力推进以商招商；在国家、省、市重要机构，聘请招商顾问，帮助引进大项目、好项目；突出产业链招商，做大产业集群；抓住“四个入秦专项行动”机遇，重点加强了与华能集团、中石油、英利集团等大集团、大企业的战略合作。总投资4.6亿元的华能风电4.8兆瓦风力发电和总投资2.2亿元的中石油天然气利用工程两个与央企合作项目成功落地，总投资12亿元的保定英利集团一期40兆瓦光伏发电项目成功签约。今年上半年，共组织实施千万元以上在建项目56个，其中新开工千万元以上项目17个，竣工投产项目6个。', '城镇是产业的载体和平台，产业是城镇化的动力和源泉。在2012年成功被省政府命名为省级园林县城的基础上，卢龙县围绕建设山水园林生态新城和历史文化旅游名城目标，启动了县城建设五年行动，重点做好“水、文、绿、园”四篇文章，努力在规模等级、环境容貌、承载功能、聚集能力、居住条件、管理水平等六方面取得新突破，加快建设独具魅力的秦皇岛西部卫星城市。按照“小县大县城”的思路，不断加大城市的建设和管理力度。谋划实施了集中供热新上80吨锅炉、污水处理厂改造升级和城乡垃圾一体化项目，肥子路中段、永祥大街西段等8条市政道路和蓝钻公馆、金御龙湾等8个新建小区燃气管网配建工程顺利推进。启动了胡家仙河与东山法华寺片区征拆工作，宣传文化中心、教场河改造及景观治理等工程扎实推进。深入开展环境卫生综合整治，数字化城管系统开始试运行。', '文化是发展的软实力，也是促动发展的内在动力。卢龙县以孤竹文化和永平府古城两块独有的“金字招牌”为依托，充分挖掘利用丰富的文化资源，实现以文化促发展。启动实施了总投资2700万元的古城墙修复工程，并积极推进元代码头遗址公园、博物馆建设和西街片区改造。以蔡家坟商代遗址考古发掘为契机，深入挖掘孤竹国历史文化内涵，谋划建设孤竹文化遗址公园。与此同时，找准在秦皇岛大旅游中的定位，抓住“长城”、“文化”、“生态”、“健康”等特色，重点打造永平府古城保护开发项目和红山民俗文化基地、书院山拜学圣地、首阳山德源文化基地项目，形成文化旅游主脉络，打造旅游新的品牌和亮点。围绕龙河湾、柳河山谷和桃林口，打造“环渤海休闲旅游度假区”、“中国葡萄酒产业聚集区”和“山水边城、桃林净界”高端休闲旅游度假区。此外，加快培育鲍子沟、六峪山庄、棋盘山等乡村生态旅游，努力打造秦皇岛西部乡村旅游精品点。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>5</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>能工巧匠风采录船舶缝补师</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2013-08-19</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D1B54D44408F88316B193F921B18701B</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['沈振玉是山海关船舶重工有限责任公司的一名船舶高级焊接工。1972年，他工作不久就被派往天津新港船厂接受焊接业务培训，两年半后，沈振玉带着学成的焊接技术回厂了。', '年厂里为扩大经营，提高工作效能，花大价钱购置了当时最先进的日本原产气电力焊设备。但厂内员工对设备功能不熟悉，机器一放就是13年。期间，厂里先后组织两拨人马，对应用问题进行攻关，但都以失败告终。', '年，厂长和技术骨干外出学习考察，发现同样的设备在行业内已开始广泛应用且收效甚好。厂里下定决心第三次组织人马攻克难题，沈振玉成了攻关小组的领军人。', '他到天津新港、葫芦岛等业内船厂考察取经、搜集整理资料，带领全组20多名技术工人反复组装实验、琢磨研究。一年半后，沈振玉成功破解厂里最大的技术难题，气电力焊设备正式上马了。', '在一次在葫芦岛船厂的考察中，细心的沈振玉观察到“人”字形气电力焊随升装置应用过程繁琐，不适合生产实践。回来后，他吸纳建筑工地擦窗机的使用原理成功设计了随升焊接吊蓝架。随升焊接吊蓝架在委托厂家生产时，得到了生产厂家的一致赞誉。', '沈振玉如今已拥有4个国家8种船级社资格的认证，他还主持、参加或独立完成了11个创新项目，其中6项获省市级以上QC成果奖，1项获国家实用新型专利。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>5</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>深入协商洽谈拓展合作领域</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2013-09-04</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=8F33F386C57AF7EF62338D4764958AAD</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['本报讯（石府）8月29日至30日，副市长张锋率领市科技局、商务局、文化局、开发区、北戴河新区等相关部门的负责同志赴北京海淀区学习考察，双方就园区合作、产业对接转移、项目促进等方面进行了深入洽谈，达成了有关合作意向。', '考察组一行分别考察了海淀区中关村软件园、部分软件企业、农产品市场建设，与海淀区陈双副区长、区商务委、科委、投资促进局、中关村海淀园、软件园、北京市民营科技实业家协会及相关企业的负责同志进行了座谈交流。张锋指出，通过学习考察，我们深切地感受到，海淀区高端科技引领、高端人才储备所蕴育的强劲发展潜力，创业发展观念新颖，产业发展特色明显，引导支持政策灵活，高技术产品不断涌现，既感到了压力，找到了差距，更看到了我市与海淀区合作的前景广阔，希望双方深入贯彻落实《合作框架协议》精神，本着承接、互补、共赢的原则，深入协商洽谈，拓展合作领域，加快合作步伐，争取早日取得实质性进展。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>5</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>率先开放赶超发展奋力打造河北沿海经济增长极系列报道之开放招商篇拓展眼界八方云动</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2013-08-05</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=94EC35448304806B56AD399983769547</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['“率先开放、赶超发展，奋力打造河北沿海经济增长极”系列报道之开放招商篇——拓展眼界 八方云动', '秦皇岛，全国首批沿海开放城市。30多年后，反躬自省，曾经，我们兴于开放、立于开放，今天，与先进地区比，我们的差距在开放、潜力在开放、希望在开放。“必须毫不动摇地把开放强市置于发展战略之首，实施沿海大开放大开发，真正成为名副其实的沿海开放城市。”省委常委、市委书记田向利明确指出。', '更大力度实施开放战略，全市各级各部门开拓视野，集思广益，一个个推动沿海强市、美丽港城建设新切入点，已成为全市各部门有的放矢、卓有成效推动工作的着力点。', '，廊坊国际经济贸易洽谈会上，我市联彩石油储备基地、葡萄岛旅游综合项目等18个项目成功签约，计划总投资643亿元，这是我市参加廊坊经洽会成果最大的一次。', '“实现秦皇岛的发展目标，必须把发展民营经济作为战略举措，向全国的民企敞开大门。”7月4日，省委常委、市委书记田向利向应邀赴我市参加中国知名民企走进秦皇岛活动的民营企业家发出诚挚邀请。7月6日，“中国知名民企走进秦皇岛”招商活动中，总投资393亿元的10个项目签约，涉及旅游、航空、物流、环保、食品加工等多个领域。', '市招商办赴杭州学习考察招商引资工作，市招商办主任焦大伟说，考察中，大家发现，一个城市对集中培育的优势产业服务越完整，与之相配套基础设施越完善，企业生产经营成本越低，生产效率越高，对企业的吸引力就越强。“所以，必须集中精力，一个产业一个产业培育优势主导产业。”青龙满族自治县组织县直及乡镇负责人赴浙江大学，学习招商引资实务与创新利用外资方式探索、产业园区建设管理发展战略与招商引资等。“知识面更加宽了，思想更解放了。”县发改局局长陈坤说。', '同时，我市多方为在秦发展的央企解决发展中遇到的问题：为中信戴卡落实1000万元贷款贴息；为外运公司、华润雪花啤酒退城进郊项目落实加快发展优惠政策；为山桥产业园建造港珠澳大桥解决用电增容。市商务局先后筛选悦荣置业、正大食品、益海嘉里蛋白等10余家有增资潜力企业，跟踪服务。上半年，悦荣置业、旭硝子汽车玻璃等4家企业完成增资，新增合同外资超1亿美元。', '，百家院校走进河北合作恳谈会上，我市与中科院北京分院全面科技合作协议等8个合作项目签约，天津大学对我市打造中国数谷表现出浓厚兴趣； 7月4日，我市与北京信息科技大学达成合作协议； 7月6日，我市与北京海淀区签署合作框架协议，双方将在科技创新及成果转化、教育、旅游、生态环境建设等领域加强合作； 7月28日，“秦皇岛科技周”项目成果对接会上，秦皇岛经济技术开发区4个项目实现成功对接，“两院院士进港城”活动同时展开。', '，随着秦皇岛港三公司煤炭运输业务宣告结束，西港搬迁改造工程正式启动。按照省委常委、市委书记田向利“积极推进西港搬迁改造，加快打造一个现代化新港区，开辟一片临港产业聚集区，再造一座特色浓郁的滨海新城区，促进港城互动共赢”的要求，西港搬迁，腾出岸线、土地，打造融高端旅游、商务会展、总部经济等多功能于一体的国际一流滨海新城区，全市对外开放载体功能将进一步增强。', '让港、城深度互动，占据地利之便的海港区临港物流园区成为双方首先看好的合作阵地。河北港口集团领导走访考察临港物流园区，双方初步达成合作发展框架协议，临港物流园区借助区位、交通等便捷优势，构建港口大后方产业基地。', '北戴河新区借力“国家旅游综合改革示范区、国家现代服务业综合改革示范区、国家公共文化体系建设示范区、国家智慧城市试点和国家绿色节能建筑示范区”五个国字号示范区建设机遇，打造6个先行示范平台：国际高端旅游休闲目的地、全国现代服务业示范区、全国生态文明先行区、国家绿色建筑示范区、国家智慧城市示范区、全省城乡一体化先行区。', '秦皇岛经济技术开发区为新兴数据产业发展搭建坚实平台，数据产业基地被认定为省级高新技术区域特色产业基地、全省五大物联网产业基地。上半年，北京大学产业技术研究院（秦皇岛）医疗健康产业基地项目在开发区签约落户；开发区与河北科技风险投资有限公司合作建设秦皇岛创新创业综合服务基地；秦皇岛（中科院）技术创新成果转化基地在开发区揭牌。', '，山海关临港经济开发区内，港珠澳大桥桥梁板单元制造在中铁山桥产业园全速推进。在这座世界最大跨海大桥建造中，山桥集团应用一批国内首创、国际一流桥梁制造新技术，建成国内首条桥梁板单元制造自动化生产线。百万吨造船基地产业链条有序延长：引进一到两家超亿元船舶配套产业目标已成现实，总投资1.27亿元利阜船舶分段制造项目，年可生产船体分段及船舶配件、钢结构、舾装件及辅助产品6万吨。总投资2亿元的沐船舶舾装制造项目，年可生产船舶配件、钢结构、舾装件及辅助产品7万吨。', '将金属压延业不断向产业链高端延伸，青龙经济开发区内，秦皇岛龙汇工贸集团公司投资35亿元兴建的现代化钢铁深加工项目德龙铸业，一期工程全面竣工。项目现代化水平之高、规模之大，为青龙依托铁矿资源不断提升钢铁产业层次的最新之举。“今年，青龙开发区19个各类产业项目和社会事业项目总投资将达到32.3亿元， 比去年20.7亿元项目投资增长56%。”青龙经济开发区党政综合办公室主任樊平林说。', '卢龙经济开发区内，随着一批污水并网、道路建设等基础设施建设陆续完成，园区承载能力明显增强。今年已有总投资2亿元的柳河山庄生态园等5个项目顺利通过联审。总投资19760万元的秦皇岛佰工钢铁有限公司煤气回收能源综合利用工程项目3月初已完成全部投资，进入试运营。投资2500万美元的康师傅矿泉水收购项目、投资500万美元大湖（秦皇岛）新鲜食品果汁有限公司增上虾粉生产线项目，均在积极推进之中。', '，全面重新制定的《中共秦皇岛市委、秦皇岛市人民政府关于实施开放强市战略的意见》全市党政联席会议上获得基本通过。新的促进开放强市战略实施的纲领性文件，成为引领指导全市对外开放工作的行动指南。', '加快扩大开放步伐，支持政策力求突破创新，我市从财政、土地、融资、人才、奖励五方面制定了具体的支持政策。围绕开放统揽，全市八大重点工程陆续实施：即招商引资提质增效工程，对外贸易转型升级工程，国际合作巩固拓展工程，新兴服务业重点攻坚工程，园区建设跨越发展工程，县域经济振兴赶超工程，区域合作创新突破工程，发展环境全面优化工程。', '经济开发区是实施对外开放战略的重要承载平台，市委、市政府出台《秦皇岛市鼓励产业聚集区（园区）发展优惠政策》，建立全市产业聚集区（园区）引导资金和园区发展基金，制定财税优惠政策，支持产业聚集区（园区）内企业大力实施科技创新、增强自主研发能力。', '完备督导机制，市委、市政府制定出台《秦皇岛市产业聚集区（园区）考核评价办法（试行）》，对各经济开发区基础工作、产业发展等进行严格考核、综合评定，促进各经济开发区形成规划科学、布局合理、产业集中、企业集群、生产循环、节能降耗、资源综合利用的产业集中区。', '加快开放步伐，人才是关键，我市每年安排优秀干部到国家部委、省直部门上挂学习，选派开放部门优秀科级干部到县区、园区下挂任职，推动全市开放一线广大干部不断创新工作方法并能够深入融入到具体工作之中。', '把县区重点园区打造成对外开放重要承载平台，市发改委制定《秦皇岛市扶持重点产业聚集区工作方案》，进一步提升重点产业聚集区发展承载力。目前全市产业聚集区实际开发面积153.3平方公里，比上年同期增加31.3平方公里。完成固定资产投资66.6亿元，同比增长11.9%。', '市商务局积极会同全市各有关部门，健全贸易纠纷应对机制，推行通关单联网核查，完善进出口商品归类、审检管理办法，提高通关效率。实施外经贸“大船出海”战略，加快推进戴卡汽车零配件基地、山海关船厂修造船基地、农副产品基地、水产品基地、耀华玻璃产品基地等5个出口基地建设，以及秦皇岛南非工业园、老挝矿业基地建设，促进全市外经贸加快实现规模化、品牌化，不断迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>5</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>上半年卢龙三项主要经济指标增速居全市第一</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2013-08-26</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D4632A01A9D83406DD13DD20DC5DE6EF</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['本报讯（记者王帅 通讯员周志华 刘红军）今年以来，卢龙县坚持实施开放牵动、项目带动、产城互动、文化促动四大战略，加快打造沿海经济增长带重要腹地。上半年，全县生产总值、固定资产、规模以上工业增加值三项主要经济指标增速均居全市第一。', '全县先后组团赴山东滕州、上海等地学习考察，招商引资，参加“津洽会”、“5·18廊坊经贸洽谈会”，促成光伏发电项目成功签约，一批项目达成合作意向。积极向上争取项目及资金，已到位专项资金5.95亿元，创历史最好水平。', '围绕培育黑色金属压延、装备与机械制造、新型建材、绿色化工、食品加工等五大基础产业，大力发展医疗健康、新能源、新材料、现代物流、文化旅游等五大新兴产业的产业发展方向，加强与已落户重点企业和战略投资者联系，推进以商招商；在国家、省、市重要机构，聘请招商顾问；突出产业链招商，做大产业集群；抓住“四个入秦专项行动”机遇，重点加强了与华能集团、中石油、英利集团等大集团、大企业的战略合作。上半年，共组织实施千万元以上在建项目56个，其中新开工千万元以上项目17个，竣工投产项目6个。', '围绕建设山水园林生态新城和历史文化旅游名城目标，不断加大城市建设和管理力度,谋划实施集中供热、污水处理厂改造升级和城乡垃圾一体化项目，肥子路中段、永祥大街西段等8条市政道路和蓝钻公馆、金御龙湾等8个新建小区燃气管网配建工程顺利推进。', '以孤竹文化和永平府古城两块独有“金字招牌”为依托，挖掘利用丰富文化资源，以文化促发展。启动实施总投资2700万元的古城墙修复工程，推进元代码头遗址公园、博物馆建设和西街片区改造。以蔡家坟商代遗址考古发掘为契机，深入挖掘孤竹国历史文化内涵，谋划建设孤竹文化遗址公园。找准在全市大旅游中定位，重点打造永平府古城保护开发、红山民俗文化基地、书院山拜学圣地、首阳山德源文化基地项目。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>5</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>卢龙县党政考察团到北戴河区考察学习</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2013-07-10</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D444962C8EB1439100E52C656A5DA315</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['日前，县委书记张立群、县长高峰带队赴北戴河区考察学习城市建设、文化旅游产业发展的经验和做法。 考察团参观了华贸·松石国际高尔夫球会、华贸企业总部区、怪楼文化艺术产业园、秦皇岛歌华营地、贵德艺术馆等项目，详细了解了北戴河文化旅游产业发展情况，城市建设特别是绿道建设、绿化提升等方面的设计理念。 张立群表示，北戴河区在深化文化创意产业研究，服务区域文化旅游方面有大手笔、大气魄，我们要学习借鉴北戴河区将文化创意与旅游产业高度融合的发展方式和运作方法，坚持因地制宜，突出孤竹文化特色，切实找准发展目标，努力做足资源文章、融合文章、创意文章，促进卢龙县文化旅游产业转型升级，从而带动招商引资、城市建设等方面跨越发展。要以学习考察为契机，学习先进，查找差距，拓展思路，深入挖掘孤竹文化内涵，推动文化产业发展，进一步改造提升城市整体面貌和功能，打造城市品牌，推动卢龙县大发展、快发展、科学发展。 县领导杨俊达、杨国锋、杨忠新、李志佳、单慧英、魏增顺、卢新平、何青参加考察活动，北戴河区区委副书记王志新，区委常委、区委办公室主任赵启伟陪同考察。', '日前，县委书记张立群、县长高峰带队赴北戴河区考察学习城市建设、文化旅游产业发展的经验和做法。', '考察团参观了华贸·松石国际高尔夫球会、华贸企业总部区、怪楼文化艺术产业园、秦皇岛歌华营地、贵德艺术馆等项目，详细了解了北戴河文化旅游产业发展情况，城市建设特别是绿道建设、绿化提升等方面的设计理念。', '张立群表示，北戴河区在深化文化创意产业研究，服务区域文化旅游方面有大手笔、大气魄，我们要学习借鉴北戴河区将文化创意与旅游产业高度融合的发展方式和运作方法，坚持因地制宜，突出孤竹文化特色，切实找准发展目标，努力做足资源文章、融合文章、创意文章，促进卢龙县文化旅游产业转型升级，从而带动招商引资、城市建设等方面跨越发展。要以学习考察为契机，学习先进，查找差距，拓展思路，深入挖掘孤竹文化内涵，推动文化产业发展，进一步改造提升城市整体面貌和功能，打造城市品牌，推动卢龙县大发展、快发展、科学发展。', '县领导杨俊达、杨国锋、杨忠新、李志佳、单慧英、魏增顺、卢新平、何青参加考察活动，北戴河区区委副书记王志新，区委常委、区委办公室主任赵启伟陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>5</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>昌黎县党政代表团赴唐山学习考察</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2013-06-20</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=2EBE340ED47DD3C9A1222FCFD47EBE79</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['本报讯(记者张宏宇 佟德龙)近日，昌黎县党政考察团赴唐山市滦县、遵化市、滦南县学习考察，对标先进，查找差距，凝聚大发展、快发展的强大动力。', '在滦县，考察团先后参观了滦县文化公园、研山铁矿、文峰塔景区、滦州古城、中山公园和东海钢铁集团。滦县深入挖掘“千年古县”的文化历史内涵，投资50亿元倾力打造的“滦州古城”，为昌黎旧城改造和旅游兴县战略的实施提供了范本和标杆。滦县精心培育装备制造、精品钢材、新型建材、现代农业、文化旅游和现代物流“六大主导产业”，2012年实现地区生产总值360.93亿元，完成财政收入29亿元的骄人成绩，给考察团成员以极大的压力。', '遵化市采取“宅基地换住房、土地承包权换保障”方式，用休闲旅游度假村项目整体打造村庄环境，农民既“安居”又“乐业”的幸福乡村建设令考察团成员眼前一亮，同时，遵化市在招商、亲商、富商理念，园区建设、管理、服务、运作机制及招商引资、产业创新、产业促进政策等诸多方面值得学习借鉴。', '在滦南县，考察团重点考察了城西省级工业聚集区、河北泽澳纺纱有限公司、曼城小区、台湾D.P.O农庄项目。滦南县在旧城改造、城市建设等方面大手笔规划、以大拆促大建的工作方法以及打造城市处处皆景观的城市经营理念为考察团成员提供了新的思路。', '考察学习期间，代表团成员就结合学习到的先进经验和做法、谋求昌黎的大发展、快发展进行了充分的交流。', '大家纷纷表示，此次外出考察看到的是一流发展地区、一流工作水平和一流工作业绩，收获颇丰，要对标先进，主动作为，确立赶超目标，立即开展行动。当前重点是加快推进乡镇财政体制改革，充分调动乡镇当家理财、发展经济、培植财源的积极性。进一步完善落实招商引资奖惩政策，全面调动社会各界招商引资的积极性和主动性。坚持少说多干、立说立行，建立不同层面的责任制，以责任制管责任人。凡是量化的指标，都要按要求完成；凡有明确时限的，都能按时或提前完成。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>5</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>卢龙县潘庄镇组织镇村干部到乐亭县中堡镇对标学习</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2013-07-17</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=67315D8CFC528295385718F3C79F28A1</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['如何充分发挥村党支部的战斗堡垒作用和党员干部的模范带头作用？怎样因地制宜发展现代农业，推进农业产业化？带着这些问题，日前，潘庄镇党委、政府组织近', '考察团一行首先来到位于中堡镇双庙村的千亩现代化农业示范基地。该基地由乐亭县万事达生态农业发展有限公司建设，计划总投资', '农户”的产业化经营模式。考察团一行听取了中堡镇领导的情况介绍，之后，跟随公司负责人到大棚进行了参观，不时地就公司运作模式、土地流转方式、经济效益、建棚技术等进行询问。考察中，西蔡庄村村主任马会平可成了大忙人，不停地用自备的相机拍摄，“我们村也建了', '参观完基地后，一行人来到了该镇的老马坨村，参观了集多种功能于一体的村民中心，听取了村党支部书记兼村委会主任王德新关于在全镇率先开展“双带双晋”活动，充分发挥党员的先锋模范作用和带动引领作用的报告，并参观了该村的现代农业示范区。大家对该村的南非茄子、大棚油桃、甜瓜等作物表示出浓厚的兴趣，纷纷就建棚要领、果品品质、经济效益等关心的问题向果农进行求教。当日下午，一行人又来到了木井镇的兴园农业示范园进行考察学习。', '潘庄镇党委书记赵奎江表示，这是潘庄镇连续第四年组织的镇村干部学习考察，目的就是让广大村干部开眼界、拓思路、有所学、有所得，鼓励村干部和党员进一步发挥示范带动作用，结合镇里正在谋划的']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>5</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>市工信局赴扬州常州开展对标学习考察</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2013-06-25</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=A2382C479ED6DFFD5E038056619C2B5E</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['为全面贯彻落实市委十一届五次全委（扩大）会议精神，深入开展“解放思想、改革开放、创新驱动、科学发展”大讨论活动，进一步开阔视野思路、对标先进地市、学习赶超发展，在对比分析中确立新的发展坐标和定位，6月16至20日，市工业和信息化局党组书记、局长曹海波带领局相关部门负责人及我市部分企业家一行25人，奔赴扬州、常州市与当地工信部门及相关先进企业开展对标考察学习。 考察团一行先后参观考察了扬州广沃液压工业园、江苏信息服务产业基地——中国声谷、江苏旷达汽车织物集团股份有限公司、常州金创集团有限公司、旭辉集团股份有限公司 ，与扬州市经信委及相关处室负责人针对政府在推进工业企业发展，提高工业经济运行质量，促进工业结构转型升级，全力推进智慧城市建设等方面的有关政策措施、工作重点、经验作法展开了广泛交流，对五家先进企业的发展思路、管理理念、科研生产、质量监控、创新实践、培训服务等方面内容进行了深入讨论。 学习考察中，每到一处曹海波都热情洋溢地把发展中的秦皇岛推介给对方，希望能够争取共同发展与合作的机会。考察团还专门利用半天时间举办了一次企业家沙龙会，针对此次考察学习的感想与在座企业家们进行交流互动，谈感受、听建议，谋发展。考察队员们一致认为，此次考察活动既学习了先进地区及企业在发展高新技术产业、高标准的园区建设、加大招商引资力度，发展民营经济和加强城市规划与建设等方面的先进经验，又学习了当地政府积极营造发展环境、提高服务意识和工作效率的新举措。通过考察学习，进一步开阔了我们的视野，转变了我们的观念，丰富了我们的知识，也使我们看到了我们在观念上的差距，在发展思路和发展环境上的差距，切实感受到了发展的压力，同时在考察比较中也坚定了加快发展的信心。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>5</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>我市召开实施农村面貌改造提升行动动员会</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2013-06-13</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=26FBF1F97D654F648B0DB4931217F988</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['本报讯（记者刘军）6月9日，在收看全省实施农村面貌改造提升行动推进会后，我市召开会议对实施农村面貌改造提升行动进行动员部署。省委常委、市委书记田向利强调，全市上下要统一思想，迅速行动，把握内涵，抓住关键，动员群众，示范先行，积极投身农村面貌改造提升行动，迅速掀起“美丽乡村”建设热潮。', '田向利指出，要统一思想，迅速行动。农村面貌问题表面看是小事，实质上是牵动全局的大事，关系到全面建成小康社会目标的如期实现，关系到城乡一体化发展的进程。全市各级各部门要深刻认识到，实施农村面貌改造提升行动，是建设沿海强市、美丽港城的现实需求，是广大农村群众改善生活环境、提高生活质量的热切期盼，是必须高标准完成的硬性任务，要切实增强自觉性和主动性，积极投身农村面貌改造提升行动，迅速掀起“美丽乡村”建设热潮。', '田向利强调，要把握内涵，抓住关键。农村面貌改造提升行动要抓住四个关键问题。一是因地制宜、突出特色，注重从实际出发，因村施策、一户一策，多种模式推进；二是统筹兼顾、搞好结合，注重抓好近年来先后开展的文明生态村创建、新民居和幸福乡村建设、加强基层建设年等重点工作的统筹衔接；三是实事求是、量力而行，按照省委“三步走”的科学部署确定年度计划，既定的目标必须分期分批完成；四是改革驱动、市场运作，结合开展解放思想大讨论活动，组织县乡干部走出去学习考察，借鉴成功经验，探索运用改革的思维和市场的办法解决资金难题。', '田向利强调，要动员群众，示范先行。改造提升行动为期三年，最核心的力量是要广泛动员人民群众，用人民群众自己的双手建设自己的家园，使“中国梦”和农村群众的梦想结合起来，合力建设美丽乡村。各县区、各乡镇都要设立试点村，按照省委和市委的要求加大力度，使之成为亮点村、示范村，让群众亲身感受改造提升后的农村新面貌，激发群众参与共建共管的积极性。', '田向利要求，要加强领导，夯实保障。各县区和相关部门要把这项工作摆在重要位置，市级领导和县区、市直部门的主要负责同志，要带头协调解决分包村的困难和问题。要强化机遇意识，主动积极作为，保护鼓励基层群众的首创精神。要把握好暑期前、国庆节和年底三个时间节点，认真组织督导检查，实施严格考评。', '会上，市委副书记杨泰安对我市改造提升行动作了具体部署。市委常委、农工委书记郝占敏主持会议。市领导曹子玉、陈书增、刘志新、王亚洲、冯志永、廉茹艳出席会议。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>5</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>秦皇岛海港区科技局深化解放思想大讨论活动</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2013-05-29</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C7B2CC839BE3D70AD688F568F710504A</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['海港区科技局深入贯彻落实区委九届五次会议精神，全面深化解放思想大讨论活动，积极营造实现全局高效跨越发的浓厚氛围。', '着力强化服务、提升效能，努力创建“效能科技”。以大讨论活动为契机，深入基层调研，鼓励辖区企业、园区、镇街积极建言献策，围绕提升科技创新、优化发展环境、基层组织建设等方面展开大讨论，倾听服务对象心声，减少审批项目，为群众和企业多办事、办好事，快办事、办实事。', '着力创新创优，推动发展，全力打造加快科技发展的新亮点。围绕创新型海港区建设重点开展工作，开展创新型企业、创新型社区、创新型农业示范园建设，区财政每年设立不低于100万元创新型海港区建设专项资金，保障活动开展。瞄准国家重点扶持的节能环保、新能源、新材料等新兴产业，深入企业调研，精选项目。谋划科技成果转化基地，组织人员赴北京清华科技园学习考察，重点学习借鉴当地科技成果转化基地建设的先进经验及做法。', '着力优化环境，提高执行能力，竭力营造惠企利民的政策环境。收集整理了国家、省、市、区科技政策法规，编制了《科技政策选编》印制500册，陆续发放到全区各科技企业及相关单位。执行利用好上级的科技政策，强力推进落实，让辖区企业、园区感受到我区政策优、环境好，优化创业环境，激发创业热情。（郭继红）']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>5</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>市建管中心围绕五找五看狠抓五个环节推进大讨论活动扎实开展</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2013-04-01</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=01E29DDDE6628FEA10D89E029CC94B90</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['市建管中心以“五找五看”为载体，狠抓“五个环节”，深入推进“树讲聚促”大讨论活动。 “五找五看”即：找差距、找原因、找标杆、找路径、找动力；看有没有奋发作为的激情、看有没有干事创业的本领、看有没有开拓创新的胆量、看有没有敢于担当的勇气、看有没有勤廉高效的作风。“五个环节”主要包括：一是深化学习，突出“真”字。立足“真学、真懂、真会、真用”，把学习贯穿活动始终，切实用理论武装头脑，指导实践。二是座谈讨论，突出“心”字。分层次召开座谈会，围绕“代建工作要发展，我们怎么看、怎么办、怎么干”为主题开展大讨论，动员职工畅所欲言，为代建工作科学发展动脑筋、想措施、形成共识。做到用心谈话、用心沟通、统一思想、提高认识。三是征求意见，突出“广”字。广泛征求、海纳百川。采取召开座谈会、发放征求意见函、为代建工作科学发展“献一计”等形式，征求代建项目使用单位、参建单位及县区代建机构的意见和建议，为完善制度、规范管理、改进工作提供依据。四是对标先进，突出“比”字。以“比出差距、比出路径、比出动力”为目标，组织有关人员到省建管中心代建项目现场学习考察，学习代建工作先进经验，取长补短，推进我市代建工作上台阶。五是查找问题，突出“准”字。对征求到的意见和建议进行梳理、收集和汇总，真正把思想认识、工作方式方法、干部队伍建设方面存在的不足准确查找出来，为有的放矢地改进作风、提升工作水平奠定基础。', '市建管中心以“五找五看”为载体，狠抓“五个环节”，深入推进“树讲聚促”大讨论活动。', '“五找五看”即：找差距、找原因、找标杆、找路径、找动力；看有没有奋发作为的激情、看有没有干事创业的本领、看有没有开拓创新的胆量、看有没有敢于担当的勇气、看有没有勤廉高效的作风。“五个环节”主要包括：一是深化学习，突出“真”字。立足“真学、真懂、真会、真用”，把学习贯穿活动始终，切实用理论武装头脑，指导实践。二是座谈讨论，突出“心”字。', '。做到用心谈话、用心沟通、统一思想、提高认识。三是征求意见，突出“广”字。广泛征求、海纳百川。', '四是对标先进，突出“比”字。以“比出差距、比出路径、比出动力”为目标，组织有关人员到省建管中心代建项目现场学习考察，学习代建工作先进经验，取长补短，推进我市代建工作上台阶。五是查找问题，突出“准”字。', '真正把思想认识、工作方式方法、干部队伍建设方面存在的不足准确查找出来，为有的放矢地改进作风、提升工作水平奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>5</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>北戴河区积极开展组工干部业务大练兵活动</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2012-10-18</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6CBA97F54EF7FDF01CDDA1DBE798A47E</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['本报讯（王瑾）10月11日，会议室内学习气氛浓郁，“组工干部提素讲坛”的本期内容是日常礼仪。北戴河区委组织部每周四的“组工干部提素讲坛”采取人人授一课、共同研讨交流等形式，系统学习组织工作业务知识、文字写作、哲理寓言等，有针对性地进行充电。在“组工干部业务大练兵”活动中，北戴河区委组织部按照“立足实际、着眼长远、突出重点、务求实效”的原则，扎实推进活动深入开展。', '开展党性教育活动,夯实思想政治基础。明确组工干部讲党性具体要求，始终做到政治坚定、公道正派、求实创新、清正廉洁。定期开展学教活动，组织机关干部赴湖北鄂豫皖苏区革命历史纪念馆和辛亥革命武昌起义纪念馆开展党性教育活动，坚定理想信念。不断深化“什么是组工干部的党性”学习讨论活动，常委部长亲自为组工干部上党课。活动中共撰写党课学习体会文章30余篇。', '推进学习型机关建设，提升组工干部服务大局的能力素质。开展以组工干部“日读一文、周看一刊、月读一书”为主要内容的“三个一”活动，让学习成为自觉、成为习惯。目前，已举办各类学习活动45次。此外，加大组工干部教育培训力度，9月份组织机关全体干部赴湖北红安县、宜昌市夷陵区和武汉市江岸区百步亭社区等地学习考察干部考核管理和基层党建工作。通过学习考察，达到了开阔视野，拓展思路，强化用新思维、新理念统筹开展各项工作的目的。', '深化组织部长下基层活动，增强服务发展的推动力、联系群众的亲和力。活动中，全面推行“党员亲民爱民联系服务AB卡”制度，着力促进作风转变，树立良好形象。常委部长多次带领组工干部到基层建设年活动联系点进行专题调研，实地了解项目帮扶进展情况，积极协调相关部门，为帮扶村解决农业、水利工程项目资金问题。同时广泛征求基层党员、村民代表对镇村班子建设以及干部工作作风等方面的意见建议，帮助基层群众解决各类生产生活困难。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>5</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>抚宁农村党员培训创意多</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2013-01-06</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9E188A28F428341E337592CA7A293D1D</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['本报讯（杜万青 程新伟 李昆）近年来，河北省抚宁县倾力打造农村党员教育培训“大课堂”，探索实施订单式、基地式、接力式、远教式培训模式，收到了良好效果。', '订单式培训，为农村党员量身定制培训内容。围绕生猪、蔬菜、板栗三个主导产业，列出具体的内容清单，让农村党员从中选修课程；同时广泛征集培训需求，下发培训课程订单，让农村党员自定受训内容，在此基础上有针对性地安排培训课程。此外，还充分利用各类人才，不断整合培训师资，形成了县级讲师团—乡镇党校兼职教师—村级“科技星火带头人”三级师资队伍，组建了政治理论讲师团和农村实用技术讲师团。', '基地式培训，为农村党员悉心打造培训舞台。深入开展了“农村党员干部培训示范基地”创建活动，把具有普遍指导意义的社会主义新农村建设和产业化建设典型村打造成培训示范基地，组织农村党员参观学习，以身边的先进典型和鲜活的做法经验教育广大农村党员。该县的英武山、龙泉庄、三里杨等8个培训示范基地现已接待县内外党员干部学习考察87批次、5500余人，成为了新农村建设的“示范田”和培训农村党员的“实践课堂”。', '接力式培训，为农村党员培养梯队培训榜样。创造性地提出“科技播火计划”，在农村党员中择优确定了684名农村“科技星火带头人”，并采取多种形式，对“科技星火带头人”进行政策理论和农业生产技能培训，将他们培养成为师资力量，再由他们言传身教，对广大农村党员群众进行普及性培训，进而实现了农村党员培训的全员覆盖。', '远教式培训，为农村党员开拓培训视野。充分发挥农村党员现代远程教育系统信息丰富、覆盖面广的优势，紧紧依托全县659个终端站点，为农村党员播放政治理论、政策法规、科普知识、实用技术和技能等节目。', '目前，共培训农村党员干部4万余人次，其中有9603名党员群众成为科技带头人，辐射带动4005户农户走上致富路。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>5</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>市人才中心三个切合深入推进大讨论活动</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2013-03-29</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=BE3BBD97921CC339810FBEFC18EEB7A6</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['全市“树讲聚促”大讨论活动动员会后，市人才中心迅速行动，强化服务意识，创新服务方式，提升服务效能，促进人才交流服务工作实现三个切合，努力将大讨论活动引向深入。 一是促进人才交流服务工作与服务对象意向相切合。作为服务人才的公共服务机构，在活动开展中，坚持把业务设计与服务对象意愿相切合。通过设立意见箱、官方微博、公共邮箱等方式广泛征求意见建议，在既有服务的基础上加强人才中心“加油站”和“助推器”的建设，增设了毕业生求职登记窗口，已有128名毕业生填写了求职登记表；专程赴深圳市人才交流中心学习考察，并与该市人才中心达成合作协议，开展高等教育学历认证服务工作，为社会各界提供各类高等教育学历证书电子注册数据库的查询服务；与社会保险经办机构研究拟定了人事代理人员参加各类社会保险的业务办理程序。同时在服务大厅增设了主任值班服务岗，班子成员轮岗轮值，接受高校毕业生就业政策、社会保险政策、人才政策等各方面咨询。 二是促进人才交流服务工作与社会发展进步相切合。变“等你来，帮你办”为“上门去，为你想”，主动与市发改委联系，将人才服务工作融入全市经济社会发展全局，就我市立项开工的重点建设项目运行过程进行跟踪服务，动态掌握人才需求情况，帮项目找人，帮企业引“智”，提前与高新技术、工业项目实现人才供需对接，研究制定了2013年的人才招聘活动安排。同时会同东大软件公司对“秦皇岛人才网”进行开发升级，将中心的各项业务全部纳入“秦皇岛人才网”系统建设之中，突出人事代理办公系统和开发网上人才招聘系统相结合，建设全新的人才服务网络平台，提高了人才交流服务的信息化水平。 三是促进人才交流服务工作与上级工作部署相切合。着眼进一步改善人才交流服务环境，贯彻落实省、市一系列会议精神，努力将人才交流服务工作与“树讲聚促”大讨论活动、效能提升年活动共同谋划、同步推进。围绕“促进人才交流服务工作，我们怎么看、怎么办、怎么干”，找准制约和影响人才交流服务工作的不利因素，研究制定促进工作的政策措施，并尽快加以落实。在基础建设上，稳步推进市人才中心档案室安全管理升级改造工程；在人才引进上，加强对国家、省、市重点建设项目的跟踪服务工作，建立专门服务台帐，时时掌握用人单位人才需求情况；在人力资源市场管理上，会同社会劳动力管理中心、大中专毕业生就业指导办公室成立市场安防工作联合管理办公室，制定应急预案，配齐配全安防设施器材，确保在安全上万无一失。', '行动，强化服务意识，创新服务方式，提升服务效能，促进人才交流服务工作实现三个切合，努力将', '作为服务人才的公共服务机构，在活动开展中，坚持把业务设计与服务对象意愿相切合。通过设立意见箱、官方微博、公共邮箱等方式广泛征求意见建议，在既有服务的基础上加强人才中心“加油站”和“助推器”的建设，增设了毕业生求职登记窗口，已有128名毕业生填写了求职登记表；专程赴深圳市人才交流中心学习考察，并与该市人才中心达成合作协议，', '开展高等教育学历认证服务工作，为社会各界提供各类高等教育学历证书电子注册数据库的查询服务；与社会保险经办机构研究拟定', '在服务大厅增设了主任值班服务岗，班子成员轮岗轮值，接受高校毕业生就业政策、社会保险政策、人才政策等各方面咨询。', '变“等你来，帮你办”为“上门去，为你想”，主动与市发改委联系，将人才服务工作融入全市经济社会发展全局，就我市立项开工的重点建设项目运行过程进行跟踪服务，动态掌握人才需求情况，帮项目找人，帮企业引“智”，提前与高新技术、工业项目实现人才供需对接，研究制定了2013年的人才招聘活动安排。同时会同东大软件公司对“秦皇岛人才网”进行开发升级，将中心的各项业务全部纳入“秦皇岛人才网”系统建设之中，突出人事代理办公系统和开发网上人才招聘系统相结合，建设全新的人才服务网络平台，提高了人才交流服务的信息化水平。', '人才交流服务工作与“树讲聚促”大讨论活动、效能提升年活动共同谋划、同步推进。围绕“促进人才交流服务工作，我们怎么看、怎么办、怎么干”，找准制约和影响人才交流服务工作的不利因素，研究制定促进工作的政策措施，并尽快加以落实。在基础建设上，稳步推进市人才中心档案室安全管理升级改造工程；在人才引进上，加强对国家、省、市重点建设项目的跟踪服务工作，建立专门服务台帐，时时掌握用人单位人才需求情况；在人力资源市场管理上，会同社会劳动力管理中心、大中专毕业生就业指导办公室成立市场安防工作联合管理办公室，制定应急预案，配齐配全安防设施器材，确保在安全上万无一失。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>5</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>县党政考察团赴市开发区考察</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2012-06-27</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9B477106A7D2CE3275B6467566302D26</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['近日，我县党政考察团赴市经济技术开发区考察园区建设，县领导于春海、张立群、焦大伟、张文成、霍林国、傅兴超、孟慧明、鲍成超、石海文、马立峰参加考察活动。', '考察团一行先后到泰和精工有限公司、鹏翼化工机械有限公司及中信戴卡轮毂制造有限公司参观考察。详细了解各企业产品的生产销售、工艺流程、市场开拓、科技研发等方面情况，并与企业负责人进行了深入交流。', '万平方米。生态园设计精巧、理念科学、功能完善，景区内名木荟萃、摇曳生姿，长亭短拱、相映成趣，绿荫夹岸、碧水长流，充满了绿色气息、生态气息和人文气息，给我县考察团留下了深刻印象。', '考察结束后，我县考察团与市经济技术开发区相关负责人进行了座谈，围绕园区建设、环境治理、招商体制及优惠政策、土地征占补偿及新民居建设等方面进行了深入探讨和交流。', '于春海表示，市经济技术开发区是改革开放的先行区和示范区，为我县园区建设提供了学习榜样。相关部门要以此次考察学习活动为契机，进一步解放思想，要敢想会想、敢谋善谋，理清发展思路，破解发展难题，把学习考察的成果充分用在实践中。同时，对市经济技术开发区长久以来对青龙的关心、帮助和支持表示由衷的感谢，并希望市经济技术开发区一如既往地关心、帮助青龙，加强联系，加强沟通，进一步加深感情，推进共同发展，携手开创两地经济社会发展的美好未来。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>5</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>开发区财政局强化预算管理确保重点资金支出需求</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2012-09-26</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=AAE9A3C3A1DF87CCF231A986EC4A483D</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['一是大力压缩一般性项目支出预算。对各部门尚未执行的预算项目进行全面分析论证，区分轻重缓急，按照“保民生、保重点、压一般”的原则，集中调减非必需和可暂缓执行的一般性项目支出预算。二是进一步压缩行政运行成本。要求各预算单位要牢固树立“过紧日子”的观念，在年初预算“零增长”的基础上，进一步压缩各类会议、学习考察、公务接待等支出，对维持机关基本运转的必需支出从紧控制，避免浪费。三是严格预算支出进度考核。要求各预算单位必须严格按照项目执行时限完成支出进度，十月底各单位专项支出进度要达到90%，11月20日前执行完毕，确保全区各项目标任务如期完成。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>5</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>朱浩文率队考察青岛奥帆中心高新区等地</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2011-05-16</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=90A042A10D5BB2912AA08F991DD13A8D</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['本报讯（记者李建永）5月13日，市委副书记、市长朱浩文率队继续在青岛学习考察，先后参观考察了青岛奥帆基地、青岛港中旅海泉湾、温泉国际会展度假城、青岛高新区和海湾大桥、海底隧道等地，并进一步对我市如何对标追赶加快发展提出要求。副市长马宇骏参加考察。', '依山面海，总投资32.8亿元、总占地面积45公顷的奥帆中心，奥运比赛的各种设施均可以实现“比赛”和“旅游”功能的快速、双向切换，曾经的奥运会、残奥会帆船比赛场地，正在努力打造成中国海上运动与休闲中心。规划面积8公顷的青岛海滨雕塑园，收藏和展示中外雕塑精品，文化艺术和自然美景实现完美结合。即将建成的跨海大桥、海底隧道之壮观令人赞叹。', '位于青岛即墨市的海泉湾度假城由港中旅集团投资46亿元兴建，计划于年内正式投入运营，年可接待游客280万人，实现旅游收入4亿元。总投资200亿元的温泉国际会展度假城建成后，年可实现旅游收入10亿元，将成为东部沿海黄金旅游线上的蓝色经济新城。开发建设高新区主园区，是青岛市委市政府实施“环湾保护，拥湾发展”战略，构筑现代化城市框架，推进城市产业结构升级的决定性环节，是拥湾发展战略的关键圈层和核心区域。目前园区已累计完成基础设施投资119亿元，引进高新项目192个。综合管沟、中央智力岛、水系景观整治为代表的环境建设已成为园区靓丽名片。', '座谈中，朱浩文对高新区三年来取得的显著成就表示钦佩。他说，此行考察看到了青岛取得的骄人成绩和更加光辉的未来，感受到高新区发展的蓬勃态势、巨大潜力和潜在竞争力，令人振奋，同时也感受到加快发展的巨大压力和动力，增强了紧迫感和危机感。秦皇岛各级各相关部门将持续加强与青岛市的对标学习，希望青岛市给予大力支持与帮助。', '朱浩文要求，北戴河新区和扩区之后秦皇岛经济技术开发区要分别对照青岛高新区寻找差距和确立目标，制定具体对标追赶的路线图。要认真总结此次学习成果，按照省委省政府和市委市政府要求，对青岛市城市建设、产业发展等方面的先进理念、工作思路、具体举措和实现路径进行梳理、研究，结合自身实际进行全面思考和反思，努力实现引进、消化吸收、再创新，学以致用，进而转化为具体工作思路、工作举措和发展成果，推动我市城市建设及各方面工作再上新水平。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>5</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>邯郸市发改委到我市学习考察政府投资项目代建工作</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2012-06-01</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=ACA0E5533BDE7BB15327805B2194968D</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['近日，邯郸市发改委副调研员王胜利带领邯郸市建管中心一行5人到来秦学习考察。市建管中心主任冯瑞平、总工程师渠涛，市发改委副主任李玉堂陪同并参加了座谈会。 总工程师渠涛介绍了我市代建工作机构设置、工作职责、运作模式、代建项目进展情况及主要感受体会等情况，并与邯郸市考察组重点对代建机构与项目使用单位职责划分、代建项目范围、管理体制及运行机制等问题进行了交流，并就当前政府投资项目建设管理过程中遇到的困难和问题进行了深入探讨。 冯瑞平主任在介绍经验时指出，做好代建工作要抓好三个关键环节：一是打好基础。要围绕自身职责，以制度建设为根本，以队伍建设为关键，在抓好各项基础性工作上下功夫；二是建好工程。要扑下身子，实实在在地建几个漂亮工程，用实际行动和成果赢得社会各界的理解和支持；三是把好关口。要立足自身职能，发挥专业优势，在“四保一控”（保安全、保质量、保进度、保廉洁，投资控制）上做足文章，切实让上级部门放心、让使用单位满意。', '人到来秦学习考察。市建管中心主任冯瑞平、总工程师渠涛，市发改委副主任李玉堂陪同并参加了座谈会。', '单位职责划分、代建项目范围、管理体制及运行机制等问题进行了交流，并就当前政府投资项目建设管理过程中遇到的困难和问题进行了深入探讨。', '冯瑞平主任在介绍经验时指出，做好代建工作要抓好三个关键环节：一是打好基础。要围绕自身职责，以制度建设为根本，以队伍建设为关键，在抓好各项基础性工作上下功夫；二是建好工程。要扑下身子，实实在在地建几个漂亮工程，用实际行动和成果赢得社会各界的理解和支持；三是把好关口。要立足自身职能，发挥专业优势，在', '保安全、保质量、保进度、保廉洁，投资控制）上做足文章，切实让上级部门放心、让使用单位满意。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>5</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>北戴河成立艺术写生基地</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2011-05-12</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5EF49BC31E19F884D8C98563C4FDB93F</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['本报讯（记者孙雪梅）5月11日，北戴河艺术写生基地揭牌仪式在北戴河区劳动人民文化宫广场举行，来自齐齐哈尔大学、河北师范大学等国内高等艺术院校的师生600余人参加了揭牌仪式。本次接牌仪式也标志着北戴河区向文化艺术之城又迈进了重要的一步。市委常委、北戴河区委书记曹子玉为北戴河艺术写生基地揭牌。', '北戴河艺术写生基地的建设是充分挖掘、整合、利用区域资源发展文化旅游产业，促进富民强区的重要举措。自2010年下半年，北戴河区开始着手艺术写生基地建设工作，派人先后到北京、天津、辽宁等十个周边省市的20多个艺术院校进行走访调查，并组织人员到安徽的西递、宏村等地的写生基地进行学习考察。', '北戴河艺术写生基地成立后，将对前来写生的师生们实行景点门票优惠，随时为写生老师办画展提供免费场地。同时，定期举办写生作品展和比赛，对优秀作品颁发证书和奖金。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>5</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>我市代表团考察青岛</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2011-05-13</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=B6062B4C03A23938E8B21A0517C05689</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['本报讯（记者李建永）5月12日，以市委副书记、市长朱浩文为团长的学习考察团参观了青岛的商业和城市建设项目，绿色、时尚、品质青岛给考察团留下了深刻印象。', '朱浩文一行首先来到中国首条葡萄酒文化特色街区、被誉为“中国国际葡萄酒街”的青岛红酒坊，高雅的酒文化氛围在街区洋溢。其中利用人防工程改建的总面积近3000平方米的青岛葡萄酒博物馆，彰显内涵、博大经典。考察团随后考察了以高端餐饮为主题的特色休闲街区青岛天幕城、海泊河改造后的清流美景、德国总督楼旧址博物馆、植被颇具特色的滨海八大关和海水浴场等地。在中央商业区万达综合体参观时，朱浩文说，现代感强、体量大、业态全的商业综合体，能满足市民的综合需求，又能带动就业，海港区目前很缺乏这样的业态。在转变发展方式，加快发展现代服务业过程中，青岛市北区特色商业街、商业综合体项目经验很值得海港区和商务部门思考和借鉴。', '考察中，市领导和成员们还把青岛城建中的精彩细节用相机记录下来。13日，考察团还将赴奥帆基地、雕塑园、温泉国际会展度假城项目、高新区、海底隧道和海湾大桥等地参观学习。', '在下午召开的座谈会上，青岛市副市长王建祥介绍了青岛经济社会发展情况，市直部门介绍了青岛规划、亮化、绿化等情况。', '朱浩文代表市委、市政府和秦皇岛人民对青岛取得的瞩目成就表示祝贺，对青岛市的不吝赐教表示谢意。朱浩文说，这次率团来青岛，是全方位、多角度向青岛对标学习，特别是学习城建中好的理念思维和创新举措。选择优秀城市开展学习对标行动，是河北省委、省政府的部署要求，也是秦皇岛自身发展的需要。青岛经济社会发展取得很大成就，其魅力和竞争力吸引全世界的目光，很多理念和举措都值得我们学习、借鉴。', '朱浩文要求，对标既要全面学习，又要突出重点；既要宏观又要微观；既要学习战略又要注重战术；既要集中学也要持久学。这次学习考察拉开了多角度、全方位、立体式对标学习的序幕，通过深入学习推动我市经济社会特别是城镇化建设不断发展。', '朱浩文要求，在市级层面上，秦皇岛市直各部门和青岛对口部门要建立常态化学习途径和渠道，明确学习对接负责人，明确学习内容，建立长效学习机制。围绕三年上水平，结合本部门职能和任务，研究对标方案、追赶路线图和任务书；县区层面上，要按照自身特点选择针对性强的学习对象和对标内容，采用灵活多样的学习方式。要加强资料方面动态交流，媒体要加大对青岛经验的报道力度，各部门、各县区、开发区和北戴河新区要结合秦皇岛实际，学以致用，促进城建尽快上水平，出品位。朱浩文欢迎青岛方面到秦皇岛指导考察工作。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>5</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>朱浩文率队赴青岛考察</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2011-05-12</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5F14FE73541F09E24F34224FCD4907F4</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['本报讯（记者李建永）5月11日，市委副书记、市长朱浩文率领各县区、秦皇岛经济技术开发区、北戴河新区和发改、规划、建设、住房等部门主要负责同志赴山东青岛考察学习。在到达青岛后召开的动员部署会上，朱浩文要求，把青岛作为我市城镇建设上水平、出品位的对标城市，全方位对标先进、寻找差距，制定缩小差距、追赶跨越的路线图，推动城市规划、建设、管理品质再上新台阶。', '按照河北省委、省政府统一部署，目前我市正在全面启动与青岛的城市对标活动，主要目的是学先进、找差距、提水平。改革开放30年以来特别是“十一五”期间，我市实施了大规模绿化、亮化、美化、道路提升、旧城改造等城市建设重点工程，取得了一定成绩。但与青岛相比，发展水平还有较大差距。近年青岛市抢抓山东半岛蓝色经济区战略发展机遇，全力推进经济发展方式转变和经济结构调整，城镇建设高位规划设计、精准精细管理，五年来，基础设施建设累计投资超过2000亿元，成就令人瞩目，创造了北方沿海城市建设发展“青岛模式”。', '代表团此行学习考察的主要内容是，围绕环境质量、承载功能、聚集能力、居住条件、风貌特色、管理服务等方面，学习青岛市城市规划、建设、管理的超前思路和创新举措。两天的学习考察中，代表团将参观考察青岛市红酒街、天幕城、古建筑保护等城建项目，并和青岛方面进行座谈、交流。', '朱浩文说，当前，河北沿海地区开发建设战略正在加快实施，“双试点”工作全面开展，我市发展建设面临多载难逢的大好机遇。暑期服务保障的艰巨任务，展示河北形象重要窗口的光荣使命，使得各级各方面对秦皇岛的期待更多、支持更大、要求更高。贯彻落实省委、省政府决策部署，我们把青岛作为我们城市建设上水平、出品位的对标城市，全面开启对标行动，制定缩小差距、追赶跨越的路线图和具体措施，推动城市规划、建设、管理品质再上新台阶。近年来，青岛市经济社会发展都取得了显著成就，在产业结构调整、城市建设等方面都有许许多多可学之处，特别是同为滨海旅游城市，两市具有很多相似之处，选择青岛市作为我们的对标城市，使我们能够更好地、更准确地对标先进、寻找差距，从而制定好科学发展、跨越追赶的路线图。', '朱浩文要求，对标青岛，既要从宏观上学，又要注意从微观上学，既要看到高楼大厦，又要看到一草一木；既要从战略层面学习青岛市的规划、建设、管理理念，又要注意从战术上，学习具体的工作方法、经验和举措；既要注重有形东西的学习，又要深挖无形的，体制机制、规章制度等层面的东西。各县区、各有关部门要切实珍惜两天宝贵的学习考察时间，保持谦虚的态度，一点一滴学习、一点一滴观察、一点一滴思考，努力把好的经验做法学到手，并应用到我市城市建设的实践中，做到带着问题来，带着答案和思考回。', '朱浩文强调，学习无止境，这次学习考察拉开了全面与青岛对标的序幕。各县区、开发区、北戴河新区和各有关部门回去后，要着眼经济、城建、文化、生态等各方面，对口制定具体的学习对标方案，并保持与青岛对口部门和市区在工作上的对接，长期跟踪学习，通过全方位、多角度、立体式的学习对标，推动我市城市建设上新水平、出高品位。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>5</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>抚宁县为各类人才施展才华搭建舞台</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2011-03-25</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=7EEEAB4AF2C708D551AACAA445F7C63E</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['本报讯（郭丽冰 周小江）“为改善投资环境，鼓励县内、外投资商到我县投资兴业，从2010年开始，县政府对引进资金和项目的个人进行重奖，奖励标准为投资1000万元以上至1亿元以下的按3‰提取奖励；投资1亿元以上的按5‰提取奖励。”抚宁县商务局项目办主任韩绍勇说，每一位前来咨询引资奖励政策的人，都有可能是为抚宁县招来金凤凰的潜在“客户”。 着眼于县域经济发展实际，强化目标责任，充分发挥党政人才作用。每年年初由县委、县政府与各单位、各部门分别签订年度党建、经济工作目标责任状，量化责任，明确目标，严格奖惩，以此调动党政干部开展工作的积极性与主动性。2009年,该县出台了《抚宁县关于鼓励投资的若干规定(试行)》，对于引进资金和项目，根据固定资产实际投入给予项目引进中介人一次性奖励，极大地激发了党政干部对招商引资工作的重视和落实，有效地促进了全县经济的发展。2010年，该县在建千万元以上项目47个，其中续建9个，新开工38个，累计完成投资58.7亿元，增长180.12%，其中11个省重点项目完成投资38.67亿元。 着眼于企事业单位发展现状，明确奖惩，激发企业经营管理人才及高技能人才作用。该县将企业经营管理人才的培养作为党管人才的核心工作来抓，每年有计划地选拔一批优秀企业经营管理人才向省、市推荐，为其提供外出学习考察的机会，通过开展专题授课、座谈交流、实地考察等方式，汲取优秀企业发展壮大的先进经验和做法，激发企业管理人才创业和发展的动力。自2001年开始，该县对纳税超过百万元以上30家民营企业分别给予1万至30万的奖励，至此，已经连续10年对全县纳税超过百万元以上民营企业进行表彰奖励。 着眼于强服务、促发展，搭建专业技术人才使用平台。从2008开始，抚宁县以专业技术拔尖人才、青年学科带头人和行业技术标兵为重点，开展了“人才带动”工程和拔尖人才“五个一”活动。有121名优秀人才参加活动，帮扶内容涉及教育教学、医疗卫生、农林牧渔、工程技术、文化艺术、企业管理6大类实用生产管理技术，优秀人才通过举办免费培训班、现场技术指导等形式，为该县培训党员干部、教师、学生、医护人员、农村实用人才6000多人（次），受到了广大干部群众的欢迎。 着眼于农村发展实际，通过培育龙头企业、建合作社、建基地、结对子，发挥农村实用人才作用。该县积极为农村实用人才施展才干创造条件，充分发挥其在“新农村建设双带头人”“百万农民中专生培养工程”“科技专家进百村服务活动”“科技播火计划”“科技兴企”中的示范、骨干和致富带头作用，着力营造“培育一批能人、带动一方百姓、搞活一地经济”的人才效应。目前，全县拥有农村实用人才2.5万人，优秀农村实用人才1036人，其中农村实用人才带头人14人，农村实用人才标兵95人。2010年，在农村实用人才的带动下，该县农民人均纯收入达到6695元，比上年增长14.2%。', '本报讯（郭丽冰 周小江）“为改善投资环境，鼓励县内、外投资商到我县投资兴业，从2010年开始，县政府对引进资金和项目的个人进行重奖，奖励标准为投资1000万元以上至1亿元以下的按3‰提取奖励；投资1亿元以上的按5‰提取奖励。”抚宁县商务局项目办主任韩绍勇说，每一位前来咨询引资奖励政策的人，都有可能是为抚宁县招来金凤凰的潜在“客户”。', '着眼于县域经济发展实际，强化目标责任，充分发挥党政人才作用。每年年初由县委、县政府与各单位、各部门分别签订年度党建、经济工作目标责任状，量化责任，明确目标，严格奖惩，以此调动党政干部开展工作的积极性与主动性。2009年,该县出台了《抚宁县关于鼓励投资的若干规定(试行)》，对于引进资金和项目，根据固定资产实际投入给予项目引进中介人一次性奖励，极大地激发了党政干部对招商引资工作的重视和落实，有效地促进了全县经济的发展。2010年，该县在建千万元以上项目47个，其中续建9个，新开工38个，累计完成投资58.7亿元，增长180.12%，其中11个省重点项目完成投资38.67亿元。', '着眼于企事业单位发展现状，明确奖惩，激发企业经营管理人才及高技能人才作用。该县将企业经营管理人才的培养作为党管人才的核心工作来抓，每年有计划地选拔一批优秀企业经营管理人才向省、市推荐，为其提供外出学习考察的机会，通过开展专题授课、座谈交流、实地考察等方式，汲取优秀企业发展壮大的先进经验和做法，激发企业管理人才创业和发展的动力。自2001年开始，该县对纳税超过百万元以上30家民营企业分别给予1万至30万的奖励，至此，已经连续10年对全县纳税超过百万元以上民营企业进行表彰奖励。', '着眼于强服务、促发展，搭建专业技术人才使用平台。从2008开始，抚宁县以专业技术拔尖人才、青年学科带头人和行业技术标兵为重点，开展了“人才带动”工程和拔尖人才“五个一”活动。有121名优秀人才参加活动，帮扶内容涉及教育教学、医疗卫生、农林牧渔、工程技术、文化艺术、企业管理6大类实用生产管理技术，优秀人才通过举办免费培训班、现场技术指导等形式，为该县培训党员干部、教师、学生、医护人员、农村实用人才6000多人（次），受到了广大干部群众的欢迎。', '着眼于农村发展实际，通过培育龙头企业、建合作社、建基地、结对子，发挥农村实用人才作用。该县积极为农村实用人才施展才干创造条件，充分发挥其在“新农村建设双带头人”“百万农民中专生培养工程”“科技专家进百村服务活动”“科技播火计划”“科技兴企”中的示范、骨干和致富带头作用，着力营造“培育一批能人、带动一方百姓、搞活一地经济”的人才效应。目前，全县拥有农村实用人才2.5万人，优秀农村实用人才1036人，其中农村实用人才带头人14人，农村实用人才标兵95人。2010年，在农村实用人才的带动下，该县农民人均纯收入达到6695元，比上年增长14.2%。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>5</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>昌黎县万基层党员干部集中充电</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2010-12-14</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9794CC0A82F6E698692CF258B26FF1C9</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['本报讯（张文斌 岳兴武）今年以来，昌黎县结合创先争优活动深入开展了基层党员干部大培训活动，活动中该县坚持“四个并重”，先后组织各类培训3000余次，培训基层党员干部3.6万人次，进一步提升了基层党员干部的素质和能力。 坚持党性教育与技能培育并重。深入推进党员“双育工程”，集中开展了党性教育推进月活动，对不同领域的党员进行党性教育专题培训，组织党员进行党性分析，深入剖析党性党风党纪方面的突出问题，明确整改方向。全县基层党组织共召开党性分析会890多场次，在职党员撰写党性分析材料7600多份，评选各类党员先进典型1200名。在此基础上，整合教育培训资源，加强党员致富技术、创业和再就业技能培育，依托“阳光工程”“新农村双带头人培养工程”，举办了高效农业、设施林果、畜牧养殖等4期主题培训示范班，重点培训农村党员“双带之星”230多名。昌黎职教中心、昌黎电大共确立教学实训场所15个，录批学员1500人作为首批“双带工程”的培养对象，培育了一支农村党员科技致富和技术管理双带头人队伍。 坚持农村干部与党员并重。举办乡镇干部专题培训班和农村“两委”干部能力提高培训班，对50多名乡镇组工干部和所有农村党支部书记、村委会主任进行重点培训，提升了乡镇干部的工作水平，强化了农村党支部书记抓党建促发展的能力。县委举办了农村党员和村民代表培训示范班，引导全县党组织积极开展全员培训。各级党组织充分利用村级组织活动场所、党员活动中心、业余党校和现代远程教育网络，采取“送学下乡、菜单培训”等多种形式，集中对2万多名农村党员干部、1000多名村民代表进行全员培训。 坚持会议培训与基地培训并重。根据不同类别、不同层次、不同岗位党员干部的特点和工作需求，采取课堂教学、集中学习等形式进行专题会议封闭式集中培训，科学设置农村政策、法律法规、民主管理、专业技能、经营能力等教育培训内容。建立了五峰山李大钊活动旧址、马芳营设施蔬菜等10个党员教育培训基地，积极推行双向互动教学方式，加强培训教员和参训党员的双向交流。截至目前，依托“双育工程”培训基地举办各类培训17期，重点培训“两委”干部2100多人次、党员5000多人次。 坚持请进来与走出去并重。该县邀请3名省市级知名专家做客“碣石大讲堂”，讲授中央政策、党建知识等内容。组建讲师团，邀请业务骨干就政治理论、现代农业、新农村建设等内容，深入到镇村举办专题讲座。定期邀请农业、林业、水利、畜牧等涉农部门的专业技术人员“上门”为农村党员进行实用技术培训，进行“手把手”的技术指导。开展走出去培训活动，组织40名乡镇、村两级党员干部到廊坊、邯郸、天津、河南等新民居建设先进地区学习考察。', '本报讯（张文斌 岳兴武）今年以来，昌黎县结合创先争优活动深入开展了基层党员干部大培训活动，活动中该县坚持“四个并重”，先后组织各类培训3000余次，培训基层党员干部3.6万人次，进一步提升了基层党员干部的素质和能力。', '坚持党性教育与技能培育并重。深入推进党员“双育工程”，集中开展了党性教育推进月活动，对不同领域的党员进行党性教育专题培训，组织党员进行党性分析，深入剖析党性党风党纪方面的突出问题，明确整改方向。全县基层党组织共召开党性分析会890多场次，在职党员撰写党性分析材料7600多份，评选各类党员先进典型1200名。在此基础上，整合教育培训资源，加强党员致富技术、创业和再就业技能培育，依托“阳光工程”“新农村双带头人培养工程”，举办了高效农业、设施林果、畜牧养殖等4期主题培训示范班，重点培训农村党员“双带之星”230多名。昌黎职教中心、昌黎电大共确立教学实训场所15个，录批学员1500人作为首批“双带工程”的培养对象，培育了一支农村党员科技致富和技术管理双带头人队伍。', '坚持农村干部与党员并重。举办乡镇干部专题培训班和农村“两委”干部能力提高培训班，对50多名乡镇组工干部和所有农村党支部书记、村委会主任进行重点培训，提升了乡镇干部的工作水平，强化了农村党支部书记抓党建促发展的能力。县委举办了农村党员和村民代表培训示范班，引导全县党组织积极开展全员培训。各级党组织充分利用村级组织活动场所、党员活动中心、业余党校和现代远程教育网络，采取“送学下乡、菜单培训”等多种形式，集中对2万多名农村党员干部、1000多名村民代表进行全员培训。', '坚持会议培训与基地培训并重。根据不同类别、不同层次、不同岗位党员干部的特点和工作需求，采取课堂教学、集中学习等形式进行专题会议封闭式集中培训，科学设置农村政策、法律法规、民主管理、专业技能、经营能力等教育培训内容。建立了五峰山李大钊活动旧址、马芳营设施蔬菜等10个党员教育培训基地，积极推行双向互动教学方式，加强培训教员和参训党员的双向交流。截至目前，依托“双育工程”培训基地举办各类培训17期，重点培训“两委”干部2100多人次、党员5000多人次。', '坚持请进来与走出去并重。该县邀请3名省市级知名专家做客“碣石大讲堂”，讲授中央政策、党建知识等内容。组建讲师团，邀请业务骨干就政治理论、现代农业、新农村建设等内容，深入到镇村举办专题讲座。定期邀请农业、林业、水利、畜牧等涉农部门的专业技术人员“上门”为农村党员进行实用技术培训，进行“手把手”的技术指导。开展走出去培训活动，组织40名乡镇、村两级党员干部到廊坊、邯郸、天津、河南等新民居建设先进地区学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>5</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>抚宁县不断加大农村党员示范建设工作</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2009-10-20</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C8A0C8F32F714434AD489B682D64ABFF</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['本报讯（周泽辉 刘城）近年来，抚宁县不断加大农村党员示范基地建设力度，加强基础设施改造、完善各种规章制度，实现了“一个培训教室、一个现场观摩点、一个讲解员、一套培训制度、一部宣传片”的“五个一”标准，做到阵地、师资、教材、经费“四落实”。 在第三批深入学习实践科学发展观活动中，该县将８个农村党员示范基地确定为农村干部中专学历班的教学示范基地和学习实践活动先进典型教育示范基地，依托生猪养殖、板栗种植、棚室蔬菜等县域农业主导产业，最大限度地发挥基地的培训示范引领作用。学习实践活动开展以来，８个示范基地已接待县内外党员干部学习考察８批次、１５００余人，成为新农村建设的“示范田”、科学发展的“示范点”和培训农村党员干部的“实践课堂”。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>5</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>邢留逮调研贸促会工作及企业发展情况</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2010-07-09</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=23508D64F19F12CC89CC5C0A6420C2C8</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['本报讯（记者李楠）７月８日，副市长邢留逮带领相关部门人员，到市贸促会及部分企业进行现场调研。邢留逮要求市贸促会多打造品牌，为促进企业和谐发展作出贡献，各级政府、部门要一如既往地支持企业做大做强，为企业提供更为便利的发展条件。 邢留逮一行先来到市贸促会，听取了相关的工作汇报，并与工作人员进行了座谈。据了解，为发挥好企业与国际经济运行对接的桥梁作用，市贸促会采取多种个性化手段做好服务工作，近年来，促使我市与沙特阿拉伯、苏丹、约旦等８个国家的商会组织签订了友好商会协议；促进我市与印度发展双边贸易、投资、交流、展览等活动；联系１３家域外金融机构和５８家商会代表来我市举办了银企对接洽谈会；组织百家企业赴唐山曹妃甸工业区学习考察，加强了秦唐两地的交流与合作。 并积极参与上海世博会，通过世博广泛宣传推介秦皇岛。随后，邢留逮又深入天秦塑胶、双轮环保、方圆玻璃三家企业的生产车间，详细了解了企业的生产运行情况，来到家惠超市了解企业的经营销售情况。 邢留逮指出，市贸促会要重点创造品牌，早列项、早计划、早启动，举办有特色的品牌招商，着力吸引外资贸易项目，让更多的外地客商来秦皇岛发展，要注重做好服务贸易促进工作，加强与各地区、各国家的经贸合作。各企业要进一步搞好规划，利用好品牌效应，扩大经营范围，加强自主创新。相关部门要继续做好服务工作，优化创业环境，为企业发展排忧解难，保驾护航。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>5</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>王三堂率我市党政代表团赴西安重庆学习考察</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2010-09-13</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=13403C2811489F45729EC9FA66C71736</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['本报讯（石伟）９月５日至１０日，市委书记王三堂率领我市党政代表团，赴西安市、重庆市学习考察文化旅游发展和城市建设、绿化生态建设等重点工作。王三堂强调，学习借鉴西安、重庆两市的经验，最重要的是紧紧咬住既定发展目标，不断解放思想，对标先进，拓宽思路，创新举措，以更大气魄和站位推动重点工作实现新跃升。要进一步解决对旅游立市战略的认识和重视问题，不断增强系统思维和统筹理念，坚持全方位体现文化、全产业融合旅游、全市域优化生态，构建“旅游＋文化＋生态”互动发展的大格局，全面推动秦皇岛经济社会更好更快发展。市领导李秦生、时晓峰、曹子玉和各县区、市直有关部门主要负责人参加了学习考察。', '这次外出学习考察，是在我市确立并实施旅游立市战略一年之际和暑期工作基本结束、谋划部署下步重点工作和旅游发展进入关键时期组织的，同时也是深入开展“征求意见、发现问题、破解制约、改进工作”大讨论活动的重要举措。为期６天的学习考察行程紧凑，内容充实，重点突出。先后考察了西安市的城市建设和夜景亮化、曲江新区、高新技术产业开发区、大唐芙蓉园、曲江池遗址公园、大明宫遗址保护改造工程等重点项目，重庆市的城市建设和两江夜景亮化、市规划展览馆、三峡博物馆、万盛区旅游发展和景区建设、武隆县旅游发展和景区建设，并与西安市曲江新区和重庆市万盛区、武隆县进行座谈交流，重点学习了两市在旅游产业发展、文化事业和文化产业发展、绿化生态建设、城市规划建设管理、投融资平台建设等方面的工作经验。', '西安、重庆两市虽地处西部地区，但近年来坚持重大战略带动、重大项目拉动、改革创新促动、统筹协调推动，奋力推动新一轮大发展。代表团所到之处，无不强烈地感受到大投入、大建设、大发展的强劲态势和浓厚氛围。西安市抢抓西部大开发重大机遇，提出建设富有历史文化特色的国际化大都市新目标，重点打造曲江新区、高新区等“四区一港两基地”板块经济，今年上半年实现生产总值１３７２亿元，增长１６．８％；实现财政总收入２６４亿元，增长３０．２％；完成全社会固定资产投资１５９７亿元，增长２９％，其中“四区一港两基地”对全市投资贡献率为３８．２％。重庆市紧紧抓住中央直辖、全国城乡统筹改革实验区和中央批准设立“两江新区”等重大机遇，以宜居、畅通、森林、平安、健康“五个重庆”建设为抓手，大力推动主城、区县城、小城镇和广大农村统筹发展，形成汽车摩托车、石油天然气化工、装备制造、材料冶金、电子信息、综合能源、劳动密集型产业等７大产业集群。今年上半年，重庆市生产总值增长１７．６％，居西部地区第一；全社会固定资产投资２５５０亿元，增长３１％。', '西安、重庆两市高度重视旅游产业发展，切实摆上产业结构调整和发展方式转变的核心位置。西安市以古都历史和唐文化为依托，强力推动文化和旅游产业融合，以大园区催生大项目，以大融资促进大建设，初步建成曲江新区、高新区、经济开发区、浐灞生态区等七大文化产业板块，去年文化产业增加值达到１５１亿元，连续三年增长２０％以上；实现旅游业总收入２９７亿元，增长２２．１％；接待国内外游客３９２９万人次，增长２２％。曲江新区精心打造国家级文化产业示范区，发展壮大文化旅游、影视、演艺、会展等优势文化产业，投资建设大唐芙蓉园、大唐不夜城、法门寺文化景区、大明宫遗址保护等一批重大文化产业项目，创造了闻名全国的“曲江模式”。特别是通过资产的商品化流动化，土地的资本化市场化，运作的公司效益化，使曲江文化产业投资集团５年内总资产由６０００万元增加到现在的１５８亿元，增长了近３００倍，成为西安文化旅游产业发展的重要投融资平台和主体。重庆市各区县都成立了旅游发展领导小组，党政主要领导亲自抓，下大力整合旅游资源，建设旅游精品，提升服务水平，扶持旅游重点企业和集团做大做强，今年上半年接待国内外旅游者７８９６万人次，增长３１．５％；旅游总收入４５１亿元，同比增长３１．７％；新签约旅游重大招商项目５２个，总金额５７３．６亿元。', '重庆市武隆县以成功申列世界自然遗产地和重庆一小时经济圈建设为契机，提出建设旅游强县和国际旅游目的地目标，确立“一年大起步、两年大突破、三年大跨越”的思路，县政府出资１亿元组建旅游投资公司，筹资５亿元回购核心景区经营权，实现了景区所有权、保护权、经营权和开发权“四权合一”，通过打好“遗产、体育和文化”三张牌，创立了旅游、体育、文化“三位一体”的关联产业互动、品牌组合营销的发展模式，从去年起每年筹资６０００万元强力宣传营销，统筹全县各部门乡镇旅游营销任务，先后举办８届国际山地户外运动公开赛，从严规划旅游地产开发，加大五星级酒店等旅游配套设施建设力度。今年上半年，武隆县接待游客４７８万人次，实现旅游收入２３亿元，仅用半年时间就达到了去年全年的水平。该县计划到２０１５年，年接待游客达到２０００万人次（其中境外游客２００万人次），旅游年收入１００亿元。重庆市万盛区以旅游发展促资源城市转型，筹资６８００万元回购黑山谷等核心景区，由政府掌控旅游资源，组建黑山旅游开发区管委会和区政府出资的旅投公司，通过政府赋予的景区土地一级开发，去年投入３．９亿元完成黑山谷景区提升改造，建成旅游地产 ６万平方米，并委托国内专业公司实施景区和旅游酒店的经营管理，借智推动发展。今年上半年，万盛区已接待游客６７７万人次，旅游经济占经济总量比重由２０００年的４．７％提高到目前的１１％，初步形成旅游地产、旅游文化、旅游商品、旅游服务等多元发展格局。', '西安、重庆两市高度重视绿化生态建设，高标准提升城市建设水平，大手笔推进造林绿化建设。重庆市推进“森林重庆”建设魄力非常大、速度非常快，一年多投入１７８亿元，植树造林７９８万亩，增速全国第一，比前１０年总和还多，可以说“一年种了十年的树”，并实施“大树进城、古树进城”，在城区大量栽植银杏、香樟等名贵树种。今年重庆又将植树造林５００万亩，集中打造百个万亩示范片。万盛区大力实施６大森林工程，积极建设良好生态系统，靠区级财力三年投入环保建设２．２１亿元，两年多时间新建森林１０．６万亩，超过前１０年植树造林的总量；城市建成区绿化覆盖率达３５．６％，实现翻番。武隆县作为国家级贫困县，去年地方财政收入仅４．８９亿元，但全县每年绿化投入高达１亿元，努力打造“山水秀美、生态良好、和谐宜居、充满魅力”的现代山水园林城市。西安市从２００８年起实施“三年植绿行动”，迄今共完成绿化投资６亿元，栽植乔木、亚乔木４１．９万株，栽种大树４．８万株，新增绿化面积７５０万平方米。今年又开展了第二轮“绿满西安、花映古城、三年植绿大行动”，上半年新增绿地面积４００万平方米，建成绿地广场４７个，工程造林６．７２万亩。', '此次学习考察，既是一次对标先进、查找差距的过程，也是一次统一思想、谋划工作的过程。代表团一行边走边看、边思考边讨论，每位同志都深受震撼。９月９日晚，代表团在住地召开了学习考察总结会，大家畅所欲言，纷纷谈考察体会、谋今后打算，从比较中看差距，从差距中学经验，从经验中再思考，从思考中求发展，会议一直开到凌晨。', '在总结会结束时，王三堂指出，这次外出考察虽然时间较短，但时机、角度和地点选得好，在解放思想、开拓思路、学习经验、查找差距、增加压力、坚定信心等方面取得了明显收获。要认真整理消化考察成果，抓紧研究完善思路，抓好贯彻落实，继续开展深入学习和延伸学习，用实践来检验考察收获，推动重点工作有一个大的跃升和提高。要进一步解决对旅游工作的认识问题和重视问题，做到从上到下真认识、真重视，着力在全市、全年、全方位发展旅游和全产业融合旅游上下功夫。要增强系统思维和统筹理念，通过学习借鉴外地经验做法，高站位、高起点进行总体谋划、整体规划、突出重点、全面展开，不能零打碎敲、顾此失彼。要注意处理好旅游发展与其他产业、其他工作的关系，以旅游发展为总抓手推动其他产业和其他工作，做到全方位体现文化、全产业融合旅游、全市域优化生态，构建“旅游＋文化＋生态”互动发展的大格局。注重旅游与城市建设尤其是城镇基础设施建设的有机融合，与民生工作的有机融合。既要重视内在功能，又要重视外在形象，既要重视外地基本经验，又要学习外地基本做法，重在促进旅游工作和其他工作有机结合上下大功夫。', '王三堂强调，要通过学习外地经验，进一步推动我市文化旅游产业更好更快发展。一要打造文化旅游产业聚集区。全市旅游核心资源要逐步实现园区化管理，由政府主导统一规划、统一管理，同时注重投融资模式探索，破解文化旅游产业资本资源不足的瓶颈。二要做强文化旅游产业集团。高度重视文化旅游资源整合开发的规模化、集约化，加快培育一批文化旅游企业集团和投资公司。三要推动文化旅游体制机制创新。对旅游资源坚持以政府主导进行有效整合，把分、散的资源和景点连成片、串成线，进行整体规划建设和资本运作。四要加快培育文化体育、健康养生产业。五要加强公共文化设施建设，包括会展文化设施建设和旅游地产规划建设，推动文化旅游与新民居建设有机结合，注意饮食文化的发掘和培育。六要加强旅游宣传营销，学习武隆经验，按照市县区各有侧重的原则搞好旅游营销促销。探索委托经营，借智推动发展。', '王三堂指出，抓绿化就是抓生态、抓旅游、抓美化、抓净化、抓民生。各县区要对标先进，进一步重视和加大绿化生态建设力度，不断解放思想，舍得在绿化上花钱，进一步增加体量，精选树种，优化结构，提升层次，提高水平。要多渠道想办法，确保每年在绿化建设上投入足够资金，下决心在短期内实现绿化生态建设的大幅度跃升。要不断优化树种，多样化配置绿地栏杆，重视发展墙体绿化、屋顶绿化等立体绿化，推动绿化与美化、亮化、文化建设相结合，重视城市雕塑和文化符号建设，下大力拓展完善城市亮化工程，完善市政设施建设的材料使用和文化创意，既上规模，又上精品。城镇规划要多留公共用地，多留生态游园用地。', '王三堂要求，要切实加强对文化旅游产业发展的领导。各县区和市直各部门都要学习武隆、对标武隆，看看对旅游发展的认识是不是到位、重视是不是到位。没有成立旅游发展委员会的要抓紧成立，党政一把手必须亲自抓，在运作资金、融资、投资、经营管理等方面直接参与，统筹处理好各方面关系。充分发挥政府主导作用，推进旅游资源深度整合、关联产业深度整合，充分借鉴外地鲜活的发展理念和发展实践，进一步把秦皇岛文化和旅游产业更好更快地推向前进。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>5</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>全市产业聚集区园区对标活动全面展开</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2010-08-31</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9F9A3C8CA286DC125EA33E051C508D0F</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['本报讯（记者常虹）记者近日从市发改委了解到，我市最新下发《秦皇岛市产业聚集区（园区）“对标”活动方案》，全市各产业聚集区（园区）对标活动全面展开。按照方案部署，全市各县区、产业聚集区、开发区、园区将与国内一流工业聚集区、开发区、园区展开对标，通过查找自身发展差距和薄弱环节，及时制定追赶、跨越措施，推进各产业聚集区（园区）在招商引资、项目建设、基础设施配套、融资平台建设、机制体制创新等方面实现全面提升。', '通过与国内一流开发区、园区开展对标活动，全面提高我市产业聚集区（园区）发展质量，区内国内生产总值、引进项目数量、开发面积等实现较快增长，单位ＧＤＰ能耗低于全市平均水平。到２０１５年，建成主营业务收入超５００亿元产业聚集区（园区）２个，主营业务收入超１００亿元产业聚集区（园区）５个。', '《活动方案》还明确了产业聚集区（园区）开展对标活动的对标体系：综合类，包括地区生产总值（其中工业增加值）、税收；外贸类，包括进出口总额、实际利用外资；高新技术发展方面，包括高新技术企业数、高新技术增加值；基础设施建设方面，包括累计开发面积，建成区面积；投融资平台建设、机制体制创新方面。', '产业聚集区（园区）对标活动通过组织动员，确立标杆、查找不足，制定方案、明确责任，建立对标长效机制。', '在确立标杆、查找不足阶段，全市各产业聚集区、开发区、园区围绕对标体系，结合自身实际，瞄准国内、省内一流开发区、园区，选择确定对标标杆，并组织专人，集中各种资源，认真搞好分析对比，找出差距，分析原因。', '在制定方案、明确责任阶段，各产业聚集区（园区）要研究制定对标方案，提出总体目标和阶段性目标，明确具体措施，分解落实责任。要把对标赶超的各项指标分解到各个部门，确保目标明晰，节点分明，责任到位。', '在建立对标长效机制方面，全市各产业聚集区（园区）要定期认真总结对标活动的成果和先进经验，积极推广在对标活动中创造的新思路、新方法、新模式，进一步充实和完善本单位对标活动实施方案，并根据实际情况适时调整和提高标杆标准，达到循序渐进的效果。', '《活动方案》要求，要切实加强对产业聚集区（园区）对标活动的组织领导。市产业聚集区（园区）建设领导小组办公室负责组织开展全市产业聚集区（园区）对标活动，做好组织协调、考核评估、督导检查等工作。各县区人民政府、各产业聚集区（园区）管委要高度重视，主要领导负总责、亲自抓，同时要明确一位分管领导抓好对标的日常工作；要成立相应的组织领导机构，制定落实方案，建立对标行动激励机制，落实办公机构、工作人员和工作经费，迅速开展对标行动。', '建立激励奖惩机制，促进产业聚集区（园区）对标活动不断向纵深推进。全市每年安排一定数额的产业聚集区（园区）对标活动工作经费，用于活动的组织宣传、学习考察以及对先进单位、个人的奖励。同时建立对标效果与产业聚集区建设引导资金挂钩机制，对于对标成效显著的产业聚集区、开发区、园区，在安排产业聚集区建设引导资金时适度倾斜。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>5</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>市党政考察团赴德州廊坊学习考察</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2010-03-18</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=E5B10E6CA1D25D37EBC2B62B532E8E69</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['本报讯（记者司玉明）为学习借鉴先进地区统筹城乡发展、推进新民居建设的经验和做法，进一步解放思想，开拓思路，破解难题，增强危机感紧迫感，全力推动我市统筹城乡发展和新民居建设取得新突破，３月１４日至１７日，由市委书记王三堂带队，四县三区和部分市直部门的主要负责同志参加的我市党政考察团，专程赴山东德州、河北廊坊进行学习考察。 在德州市，考察团一行首先听取了该市关于城乡统筹发展加快合村并居的经验介绍，之后深入平原县恩城镇西城社区，龙门街道办事处郭刘社区、金河源社区、光明社区、督府社区，开发区新城家园社区；禹城市市中街道办事处夏季社区；齐河县华店乡新华社区、刘桥乡洪州社区，晏城镇南北社区，开发区开泰社区和永峰社区进行实地学习考察。在廊坊市，考察团一行重点学习考察了廊坊市的农村新民居建设情况，先后深入考察了永清县韩村镇“九兴区”、董家务村新民居建设，固安县牛驼镇林城新民居示范区，香河县安平镇燕都鑫城社区、运河国际生态城社区，新华街道办事处山水田园社区等。此外，考察团还实地参观了德州、廊坊两市及部分县城的重点工程建设项目及德州市皇明太阳能股份有限公司、廊坊市星奥集团等高科技企业项目。 在不到４天的时间里，市党政考察团不辞劳苦，一路奔波，边走边议。每到一地，考察团成员都认真听取当地的情况介绍，详细询问具体情况，与相关部门和基层干部进行交流，利用各种机会学习可资借鉴的思路和做法。德州、廊坊两市在统筹城乡发展、推动新民居建设方面的实践探索，以及项目建设、园区建设、城镇建设和生态建设等方面日新月异的发展变化，给市党政考察团一行留下了深刻印象，大家深受震撼、倍感压力、收获很大。 考察团成员认为，德州、廊坊两市统筹城乡发展、推进新民居建设的探索实践，具有起步早、站位高、思路清、方法活、措施实、效果好的特点。两市经验做法既有相同的地方，也有不同之处，但主题和目标相同，都是从村庄连片并居和建设新型农村社区入手，用活城乡建设用地增减挂钩的政策，推动农民向城镇和新型社区集中，土地向规模经营集中，企业向产业聚集区集中，努力加快新型工业化、新型城镇化和农业现代化步伐。德州市围绕促进人口集中居住、产业集聚发展、土地集约利用，从２００８年下半年开始，举全市之力推进村庄合并和农村社区建设工作。截至去年底，全市由原来的８３１９个行政村合并为３３３９个行政社区（村），减少行政村４９８０个，合并率达６０％，今年该市将有２１５个农村社区启动并居，加快探索发展中地区统筹城乡发展、加快城镇化进程、建设社会主义新农村的路子。廊坊市把新民居建设放在统筹城乡发展的大格局中通盘考虑，坚持典型引路、区域突破、强化特色，着力打造组团式环京津新民居建设村镇群。目前，该市新民居建设完成投资３４．５亿元，建成多层公寓式和别墅式新民居９８５栋、１１２１０户，４个先行示范区建设如火如荼，２０１２年廊坊１５％以上的行政村将完成新民居建设与改造任务。同时，两市都坚持把统筹城乡发展和加快新民居建设作为一项重大发展战略来实践，在城乡规划、产业发展、基础设施、公共服务、社会管理等方面进行了强有力的组织实施。 考察期间和考察结束时，考察团先后两次挤时间召开会议，组织大家谈体会、谈打算、谈建议，对考察收获进行讨论交流和总结，并观看了河南新乡市统筹城乡发展的经验专题片。在最后召开的学习考察总结会上，市委书记王三堂谈了四点感受：一是德州、廊坊的实践经验充分证明，统筹城乡发展和推进新民居建设，是关乎全局、牵一发而动全局的系统工程，是功在当代、利在千秋的民心工程，是统筹解决“三农”问题、促进农村协调可持续发展的治本之策，是当前乃至今后一个时期工作的重中之重。二是思路活、办法多是两市统筹城乡发展、推进新民居建设的突出特点，也是他们的成功之道。三是不能单纯就新民居抓新民居建设，而必须站位全局、统筹推进城乡一体化发展。四是这些地方工作取得显著成效的关键，在于党委、政府把统筹城乡发展和推进新民居建设作为重大任务和一把手工程来高度重视。对于德州、廊坊两市的探索实践和经验做法，我们要认真学习借鉴，从中获得启发，思考我们自己的路子和方法，因地制宜地发挥自身优势和特点，创造性地开展工作，站在更高的起点上做好统筹城乡发展、加快新民居建设这篇大文章。 王三堂指出，当前我市在统筹城乡发展和推进新民居建设工作中，首先要进一步解放思想。任何事情只要办起来就有法，只要干起来就能活。当务之急是在统筹城乡新民居建设上先干起来、先动起来，在工作中发现问题，在工作中解决问题，在工作中探索路子。抢抓当前国家政策性机遇，以敢闯敢试敢冒的精神，敢于攻坚破难，勇于探索创新，在解疑释惑、统一思想中加快起步，在破除误区、规避风险中加快推动，在落实责任、破解难题中加快前进。要增强紧迫感，加大力度，加快进度，长远整体地做谋划，中期启动的做规划，近期要马上启动一批新民居社区项目。每个县区近期都要抓好并村联建新民居社区试点，通过试点来积累经验、破解难题、完善政策。在此基础上，按照试点先行、典型引路、先易后难、由点到面、快速推开的思路，启动实施更多的新民居建设。要注意把小城镇建设作为重点，以新民居建设为载体，加快新型工业化、城镇化和农业现代化建设步伐。 王三堂强调，要统筹各方、整体推进新民居建设和城乡一体化发展。特别是统筹城乡发展、经济社会发展和生产、生活、生态，统筹长远和当前，统筹全市各县区、工作各环节及各个时间段，统筹各方面利益调节和平衡。要注重把握科学的推进方法，注重发现和解决问题，注重借鉴外地经验，把大胆探索创新与规范操作和严格程序结合起来。要重点抓好与中冶公司合作推进新民居建设，同时积极探讨、齐头并进其他开发模式。抓工作不能顾此失彼、畸轻畸重，要在统筹兼顾的同时突出重点，主动而不被动抓好各项工作，切实把项目建设、结构调整、园区建设、城镇建设、生态建设等重点工作统筹结合起来加以推进。 王三堂要求，要加大统筹城乡发展和推进新民居建设的组织领导、协调推进、考核奖惩力度。各级党委政府一把手负总责。加大新民居建设的帮扶力度，充分调动全社会的积极性。各级各部门都要立足自身职能，整合各方面力量和资源，向新民居建设特别是首批启动村建设倾斜。进一步组织各层面的对口专项学习考察，抓紧研究制定相关政策。从实际出发，积极稳妥推进农村基层行政管理体制改革。加大宣传报道力度，努力营造良好的工作推进环境和舆论氛围。 市领导李洪卫、郝占敏、曹子玉、王亚洲参加了学习考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>5</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>市考察组赴张家口和承德学习考察</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2009-09-11</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=697518696A16FD21D7D5F64E9707EA98</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['本报讯（记者李楠）９月７日至１０日，市委常委、纪委书记郝占敏和副市长王亚洲，带领水务、林业、园林等相关部门人员，赴张家口市、承德市学习考察水系治理和城市绿化工作。 考察组在张家口市考察了清水河与洋河河道治理、桥梁、快速路、亮化景观建设等方面的情况，在承德市考察了武烈河橡胶坝、热溪园、音乐喷泉、四海公园的建设情况，以及滦河、武烈河水景观整治工程，随后又赴承德县考察河流生态治理和绿化工作。 据了解，张家口市在河道治理上，分四期对清水河实施综合治理，共建成橡胶坝３０座、拦沙坝１１道，贯穿市区的２３公里河道全部得到治理，并围绕水景铺路架桥，构建环河游廊，如今清水河上１７座桥梁已成为张家口市的标志建筑。在绿化上，张家口市针对城市生态环境脆弱的情况，实施“增绿添彩”工程，连续７年共绿化城市周边荒山５７．１万亩。以主次干道绿化为骨架，先后完成了６０余次主次干道的绿化工程。以公园绿化为亮点，实施了１０大游园及３０块街头绿地建设工程，以庭院绿化为补充，实施４００个庭院、小区绿化。 承德市科学规划城市水环境，对流经市区的武烈河，规划建设双峰寺水库，对流经城市的６７公里滦河干流，规划建设３０道橡胶坝。规划确定后，先后实施了武烈河水环境综合整治、武烈河音乐喷泉和水幕投影，武烈河滨河绿化亮化、滦河市区水环境综合整治等一大批水环境工程。在绿化工作上，承德市突出武烈河和滦河两条沿线，彰显山体森林休闲公园的特色，打造武烈河和滦河、迎宾大道和京承旅游路、环避暑山庄和环城市山体的“两河、两路、两环”绿化景观，２００９年实施了２５项绿化工程，目前城市覆盖率达到４１．１９％，绿地率达到３７．２０％。 郝占敏在座谈会上指出，张家口市和承德市的变化让人大开眼界。总结经验，张家口的变化归结于大气魄决策、大手笔规划、大框架构建、大平台运作、高品位提升、高水平组织六个方面。而承德市给我们的经验是，大手笔建设与艺术化的精细管理相结合、旧城改造与新城建设一体化、河流治理与两岸绿化相结合，在水系治理与建设中充分挖掘文化内涵。张家口、承德市委、市政府高度重视，部门全力参与，社会广泛支持，形成了浓厚氛围和强大合力。在规划过程中，准确把握城市发展的定位、定性、定向，以超前的思维、科学的规划设计，凸显城市的个性、内涵和品位，并不断拓宽筹资渠道，鼓励社会投入，争取项目资金，组建投资平台，为城市绿化及河道治理提供了资金保障。有关部门要及时对口学习、对口交流，真正将经验学到手，结合我市旅游立市战略，使我市的水系治理和绿化工作再上台阶。 王亚洲指出，我市的自然条件要优于张家口、承德两市，各相关部门要进一步解放思想，拓宽思路，善于创新，提高执行能力，加大运作力度，将学到的经验消化吸收好，结合我市实际拿出站位高、有可操作性的方案，下决心将我市的水系治理和城市绿化工作搞好，造福于全体市民和各地游客。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>5</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>杨泰安等市领导率队赴天津学习考察城市建设</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2009-09-30</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6FEB61BEBBC296F83F9197F9A0D54945</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['本报讯（记者李建永）为加快推进旅游立市战略又好又快实施，９月２８日至２９日，市领导杨泰安、郝占敏、时晓峰、王亚洲率各县区、市建设和文化系统负责人组成的党政代表团，赴天津考察学习城市建设和管理、文化旅游项目开发、乡村旅游基础设施建设和新民居建设等工作。 考察团一行首先来到大气而精致的东丽区华明示范镇，这里的楼宇、街道、绿化，无不散发着建设品位和管理品位。华明示范镇是天津市第一批宅基地换房试点单位，成功入选上海世博会城市最佳实践展区。政府通过宅基地复垦、开发经营土地等办法，实现了耕地占补平衡和建设资金的平衡。一样的土地，农民过上了不一样的生活。盘龙谷文化城建设正酣，项目总投资３００亿元，以“影视、音乐、艺术、传媒”四大产业为内核，力争建设世界级复合型文化城、世界一流的国际影视颁奖中心、国际传媒总部、影视内景拍摄基地、动漫及影视制作基地等项目。蓟县官庄通过上大项目促进新农村建设。随后，代表团一行还考察了天津市规划展览馆、津湾广场项目、五大道历史风貌区、小白楼欧式风情街、海河意式风情街、海河沿岸亮化等项目。每到一地，代表团一行带着问题和天津有关方面认真切磋，认真思考、学习和交流。 杨泰安说，两天的学习考察收获很大，大家开阔了思路和视野，增长了见识，学到了方法和经验，但最为重要的，是落实到加快发展的行动上。杨泰安要求各县区按照王三堂书记的指示，学习“华明”开发模式，各县区最少马上启动一片，争取更多，一片最少５个村以上，争取出现成建制乡镇启动模式；各县区要启动精品、文化、特色街区或镇区建设，最好明年暑期前做一两条街，其中三个城市区要分别做三条以上，或大面积成片开发；城市管理要上水平，绿化建设、规范化标志建设要全面推开；学习蓟县经验，全面加强旅游规划、谋划、项目招商和开发建设水平，尤其是既有的项目开发要提高层次，增加文化含量。下决心引进战略合作者，建设文化旅游项目、高端旅游项目等。 杨泰安要求，各县区、各部门要结合自身实际，尽快拿出推动上述工作的具体办法和完成时限，学习他人经验，应比人家做得更好，更有自身特色，更有品位。 郝占敏、时晓峰、王亚洲分别针对加快新农村建设、做大做强文化产业、做强文化高端旅游提出要求。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>5</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>燕大学子赴华西村参观学习</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2009-08-04</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=744307D1173AC83F840936BF8CB81287</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['日前，燕山大学暑期社会实践小分队赴中国第一村——华西村参观学习，在感受改革开放带给农村的巨大变化的同时，接受华西村提出的“三不忘”教育。 “过去，在网上或朋友那里总能听到对华西村这样的描述：家家有别墅，户户有轿车，每家存款超过百万……通过参观考察，我们亲眼见到、亲耳听到、亲身感受到华西村的文明富足，我们眼前为之一亮。”参观学习小分队负责人李翔介绍说。 华西村曾是一个贫穷的乡村。４０多年来，华西村始终坚持解放思想、实事求是，始终坚持率先发展、科学发展、和谐发展，走出了一条以工业化教育农民、以城镇化发展农村、以产业化提升农业的华西特色发展之路。 据李翔介绍，燕大赴华西村参观考察的小分队，将举办学习考察图片展，通过展出小分队在参观考察中记录的大量文字资料、影像资料，让更多的学生对有“中国第一村”美誉的华西村有一个更加清晰的了解，对改革开放以来我国社会主义新农村建设的情况有更好的认识，以便更好地服务农村，服务社会。（记者傅春秘）']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>5</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>海港区全力打造省内一流主城区</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2009-09-02</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=73DB111EFF3E03F1858FC42E92B722C6</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['本报讯（记者傅春秘）今年以来，海港区重点项目建设扎实推进。上半年，实施千万元以上在建项目６２个，完成投资３０．８５亿元，为年度计划的７５％，列全市第一。其中，新开工千万元和亿元以上项目分别为３４个和１２个，完成投资２６．７５亿元。 近年来，海港区通过开展解放思想大讨论、“三双”主题教育和“树创促”等多项主题实践活动，促进了区域经济平稳较快发展，社会和谐稳定。在学习实践科学发展观活动中，海港区认真查摆制约区域经济发展存在的问题，即：科学发展水平不高、创新能力不强、经济结构不尽合理、增长方式单一、保障科学发展的体制机制不健全等。为此，海港区先后邀请了国务院经济研究中心主任陈宝国、北大教授陈少峰作了专题讲座，并赴唐山、迁安等地学习考察，进一步完善主城区发展战略和工作举措，出台了《关于转变作风狠抓落实促进科学发展的意见》，通过实施“三大战略”、推进“五大工程”，建设综合性服务中心和现代化滨海港口城市。同时，建立四大班子领导捆绑式使用机制，形成分工具体、责任明确、团结协作、整体联动的工作机制，凝聚推进工作开展的整体合力。 据了解，“三大战略”是指环境立区、工业强区、和谐兴区战略；“五大工程”是指强区工程、民心工程、精品工程、生态工程、基础工程。“五大工程是相互联系的统一整体，既体现全面，又突出重点。”海港区委书记张经华说，实力是首位，如果实力上不去，其他一切工作就无从谈起，一流主城区的战略就会成为空想。 为最终将主城区打造成为区域性贸易中心、金融中心、信息中心和高新技术产业中心，今年以来，海港区强力推进园区建设，全力完善“一区三园”的产业发展格局。北部高新技术产业园区贷款６亿元用于基础设施建设，目前商务中心已投入使用。北港大街东延伸、红旗北路等工程有序推进，民族路北延伸工程将于国庆前竣工。东部循环经济园区重点谋划了园区路网设施建设规划，龙港路已启动地面附着物清点工作，港东变电站主体封顶，环保热电项目１号机组计划于１０月１日前并网发电。临港物流园区管理机构已经市编办批准并正在组建中，园区融资平台也正在筹建中，中首物流、北方义乌小商品城、兴龙商贸物流等项目建设积极推进，彩龙商贸广场将于国庆前试营业。 上半年，全区完成地区生产总值１５９．４亿元，同比增长５．２％；全社会固定资产投资和城镇固定资产投资分别完成７０．５亿元和６０．９亿元，同比分别增长３３．６％和２７．２％，实际利用外资和引进内资分别为１．４亿美元和６．７８亿元，同比分别增长３６％和５９％。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>5</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>第五届中国山海关国际长城节隆重开幕</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2009-07-30</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=909EB33672375946284AC5214F28C649</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['７月２９日，第五届中国•山海关国际长城节在天下第一关广场隆重开幕。山海关这座历史文化厚重、明清风格浓郁、万里长城无双的国家级历史文化名城，迎来了海内外宾朋。 第十届全国人大常委会副委员长何鲁丽，省委常委、宣传部部长聂辰席，马达加斯加大使维克托•希科尼纳，中宣部宣教局副局长王开忠，国际交流促进会副会长徐建国，国家旅游局旅游促进与国际联络司副司长王燕，著名长城专家、文物专家罗哲文，中国长城学会常务副会长董耀会，中国长城学会代理秘书长吴国强，中宣部宣教局企业处处长郑辉，省委宣传部副部长王景武，省发改委副主任张少华，省文化厅党组成员、文物局局长张立方，省旅游局副局长吕力，省委宣传部宣传处处长葛成锁，省委宣传部文艺处处长牛兰东，市委副书记杨泰安，市人大常委会主任菅瑞亭，市十届政协主席张玉书，市十届政协主席周卫东，市委常委、市委秘书长邢留逮，市委常委、宣传部部长时晓峰，副市长李秦生，市政协副主席田永生出席开幕式。 开幕式还邀请到了来自阿尔巴尼亚、埃及、马达加斯加、毛里求斯、尼泊尔、以色列、保加利亚、俄罗斯、韩国、美国、乌拉圭、伊拉克、匈牙利、阿根廷、黑山共和国等１５个国家的驻华使节及夫人。 光临开幕式的嘉宾还有：联合国经社理事会负责人，中国长城学会有关领导，长城沿线友好城市的有关领导，知名长城专家学者，以及山海关籍知名人士代表，甘肃４０４总厂领导代表，浙江临海市党政学习考察团，新疆巴州和静县党政领导代表，绥中县党政领导代表，我市离退休老同志，各县区、部门、企事业单位、驻秦部队的代表。 开幕式由时晓峰主持。 何鲁丽宣布第五届中国•山海关国际长城节开幕。本届长城节由省政府、国家文物局、中国长城学会主办，省委宣传部、市政府、省文化厅、省旅游局、省文物局承办，市委宣传部、山海关区人民政府、市文化局、市旅游局协办。本届长城节以“和平、友谊、发展”为主题，旨在通过文化交流、发展论坛、主题表演、经贸招商、旅游观光等活动，展示绚丽多彩的长城文化，进而增进友谊，扩大交流，深化合作，同建和谐，共享繁荣。 聂辰席在开幕式上讲话。他说，长城作为无数中华儿女勤劳和智慧的结晶，作为世界文化遗产，已经成为中华民族的象征。长城文化和精神早已深深地融入中华民族的血脉之中，成为我们取之不尽用之不竭的精神财富和文化源泉，更好地保护长城，更好地传承弘扬长城文化和长城精神是我们这一代人义不容辞的责任和义务。第五届中国•山海关国际长城节是一次文化和友谊的盛会。我们将把长城节的成功举办作为向新中国成立６０周年献礼的重要内容，进一步挖掘整理长城文化，传承弘扬长城精神，深化爱国主义教育，不断提高和扩大河北、秦皇岛、山海关的知名度和美誉度。 董耀会在致辞中说，万里长城是中华民族的伟大象征，是历代劳动人民杰出的创造和智慧的结晶，是宝贵的世界文化遗产。在万里长城最精髓的地段——山海关举办长城节，更是对长城文化最好的传承和弘扬。这座古老而年轻的城市，点点滴滴都蕴含着秀气、灵气和大气，时时处处都彰显着魅力、活力和动力。相信本届长城节的举办，必将赋予古老的长城文化以崭新的内涵，必将把长城系列旅游提高到一个新的水平，必将广泛地增进河北、秦皇岛、山海关人民与世界各国、各地人民的传统友谊，为扩大对外文化交流和商贸合作提供更广阔的平台。 杨泰安在开幕式上致辞。他说，长城陪伴和影响了一代又一代秦皇岛儿女，长城文化已深深融入到秦皇岛人的血脉中。万里长城的雄奇壮美和蕴含的伟大精神，始终是我们艰苦奋斗、开拓进取的精神支柱和动力源泉。这次长城节的举办，一定会更加充分展示长城的悠久历史和灿烂文化，更加充分展示秦皇岛的独特魅力和时代风采，让秦皇岛和山海关走向世界，让世界了解秦皇岛和山海关。在长城文化的滋养和长城精神的激励下，秦皇岛这座历史文化名城必将在科学发展的伟大征途中，焕发出巨大的活力、魅力和竞争力，秦皇岛的明天将会更加灿烂辉煌。 开幕式上，中央电视台著名主持人朱環、马斌宣读了罗哲文为山海关题写的雄壮豪迈的长城楹联《长城赞》。 国家文物局还发来贺电，对第五届中国•山海关国际长城节的开幕表示祝贺。 本届长城节历时三天，至７月３１日结束。节庆活动中既有国内外音乐家、歌唱家联袂奉献的大型文艺专场演出《长城放歌》，还有“游长城、看古城”“商贸洽谈招商会”“长城远征拉力”“古城盛世消夏游”等文体及商贸活动。众多国内外长城专家、长城爱好者还将参与具有国际水平的“长城和平论坛”，共同抒写繁荣与发展的新篇章。（记者王莹 张莹莹）']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>5</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>抚宁县组团学习迁安经验</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2008-12-08</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=1D69C4460FFBC2DACB2F1A372193CF75</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['为进一步加快县域经济发展，１１月２８日，抚宁县组成由县级领导，乡镇、部分县直单位党政主要负责人在内的考察团，一行４０余人到迁安市学习考察。 近年来，抚宁县坚持以项目建设为核心，大力实施“突破跨越、赶超进位”发展战略，使县域经济步入快速发展轨道。２００７年，完成全部财政收入９．４亿元，今年１至１０月份，完成财政收入１３．１５亿元，同比增长５７％。然而，与周边的县级市——迁安相比，仍存在很大差距。近年来，迁安市通过狠抓项目建设，全市经济社会快速发展，自２００２年起，综合经济实力连续六年位居河北县级３０强之首，今年１至１０月份，实现财政收入６７．３亿元。 考察团一行先后考察了迁安市工业发展、城镇建设和新农村建设等各方面情况。所到之处，考察团成员都被迁安市的快速发展所震撼，在看到了抚宁与迁安差距的同时，也激发了他们加快发展的斗志和勇气。大家纷纷表示，今后要虚心向迁安学习，明确方向，脚踏实地谋发展，要有大气魄、抓大项目、搞大开放，早日实现打造“富庶文明和谐、宜居宜业宜游”新抚宁的发展目标。（通讯员陈永存 记者司玉明）']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>5</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>唐山市党政代表团来我市参观考察</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2009-07-15</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=E3CBB264AED803AF72E90F69C28C1E70</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['本报讯（记者娄一雪）７月１３日至１４日，省委常委、唐山市委书记赵勇，唐山市市长陈国鹰率领唐山市党政代表团一行１２０余人，就加快推进秦唐两市交流合作来我市参观考察。王三堂、朱浩文、杨泰安等市委、市人大、市政府、市政协领导陪同考察。 秦皇岛与唐山地缘相近、人文相亲，两地人民感情深厚，一直有着良好的合作传统。去年以来，市委、市政府先后三次组织领导干部到唐山学习取经，对照先进找差距，站在更高起点上推动经济社会又好又快发展。今年４月在迁安市召开了全市学习考察现场会，唐山火热生动的发展实践和激情四溢的发展热潮，极大地鼓舞了秦皇岛的干部群众。随着冀东经济区战略构想的实施，秦皇岛与唐山两地经济社会发展的交流与合作日益广泛和深入。 唐山市党政代表团一行先后观看了北戴河《海上生明月》演出，实地考察了北戴河保二路街道景观整治改造工程、北戴河湿地恢复工程、山海关船舶重工有限责任公司和中石油宝石顺（秦皇岛）钢管有限公司重点项目建设、山海关长城博物馆和山海关古城开发项目等，并详细听取了有关负责人的情况汇报。考察期间，两市举办了区域合作协议签字仪式，省委常委、唐山市委书记赵勇和市委书记王三堂分别致辞，市长朱浩文与唐山市市长陈国鹰共同签署了《冀东经济区建设——唐山市人民政府、秦皇岛市人民政府合作协议》。 秦皇岛蓬勃向上、生机勃勃的发展景象，给唐山市党政代表团一行留下深刻印象。赵勇说，秦皇岛是河北的窗口和名片。近几年，秦皇岛大力推进科学发展、和谐发展、跨越发展，城市发展日新月异，产业发展大大提速，区域合作迈出了实质性步伐，很多好的经验和做法值得唐山学习。尤其是这次又签署了新的合作协议，标志着两市在加快推动冀东经济区发展的道路上又迈出了一步。今后，两市应该按照省委、省政府提出的建设冀东经济区的战略决策，进一步加强秦唐更高层次、更广泛的合作，努力实现五个“一体化”，即：加快推进总体规划的一体化，加快推进两市交通路网的一体化，加快推进产业一体化，加快推进城市群的一体化和加快推进社会公共服务的一体化，真正实现秦唐两地的无缝隙对接。通过这次协议的签署，从一个一个具体的项目做起，努力在推进五个一体化方面迈出实质性的步伐，为两市人民的共同利益，为了两市又好又快发展，为实现建设沿海强省的战略目标做出我们不懈的努力。 王三堂代表市委、市政府，对唐山市党政代表团的到来表示欢迎，并介绍了我市近年来经济社会发展的主要思路和基本情况。他说，秦皇岛与唐山地缘相近、人文相亲，合作源远流长，有着跨越崛起的共同理想和追求。唐山是科学发展的示范区，各项工作走在全省前列，更是秦皇岛学习的榜样。希望代表团一行把唐山的好经验、好做法传授给秦皇岛。同时，通过此次考察不断加深双方在各领域的交流与合作，共同推进冀东经济区的发展。 王三堂表示，唐秦过去是一家，现在是一家，冀东经济区战略规划的实施把我们更紧密地结合在一起。省委、省政府作出统筹冀东经济区发展的战略决策，符合科学发展观的要求，符合区域经济一体化的趋势，也更加符合我们两市人民共同的愿望。秦唐两地过去就有良好的合作基础，这次冀东经济区建设合作协议的签订，必将在更高层次、更宽领域和更大范围内开启两市合作的新局面。秦皇岛将按照协议约定，认真履行各项承诺，把两市的合作不断提升到新水平。希望通过一体化合作的深入发展，使秦唐两市之间的友谊、交流与合作不断迈上新台阶、取得新成绩。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>5</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>王三堂带领我市考察团赴唐山滦县学习考察</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2009-03-13</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=64EBF1A51E1608509850B8D1F60E1D91</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['作为全市开展深入学习实践科学发展观活动的重要内容，３月１２日，市委书记王三堂带领市发改委、市工业经济运行局、市委农工委等有关部门和昌黎、卢龙两县负责人，赴唐山滦县学习考察，对照先进找差距，认真谋划科学发展、富民强市和壮大县域经济、加快城镇化步伐的思路和举措，积极推动冀东经济区战略合作。市委常委、常务副市长马誉峰，市委常委、市委秘书长邢留逮陪同考察。 在唐山市委、市政府领导和滦县负责人的陪同下，我市考察团先后参观了唐山晔联管件有限公司、河北蓝贝酒业集团有限公司、唐钢滦县司家营铁矿有限责任公司等重点企业，滦县新城容貌和文化公园、时代广场、森林公园等城市建设景观，正在建设的茨榆坨装备制造产业园区和响堂镇岩山新村，并就加强区域合作以及谋划滦河流域综合治理和整体规划开发问题进行了探讨。 在新一轮经济发展中，滦县紧紧抓住曹妃甸新区建设机遇，深入实施“两带隆起、三点联动、两翼齐飞、全面崛起”战略，全面开展“大项目会战年”活动，加快县城镇基础设施和新兴工业园区建设，去年完成地区生产总值１９０亿元，固定资产投资８０亿元，全部财政收入１２亿元。综合经济实力连续６年位列全省３０强，是河北唯一荣获国家卫生县城和园林县城“两城”称号的县城。考察团成员所到之处，无不被滦县日新月异的发展速度、发展气魄和发展潜力所震撼，“学他山之长、创我们之新”，汲取周边地区先进经验，推动县域经济大跨越、科学发展上水平，成为考察团成员的共识。 考察结束的返程路上，就与滦县比我们的差距是什么、学什么、怎么办，昌黎、卢龙两县领导及我市有关部门负责人分别谈了各自的感受和今后的工作打算，大家纷纷就进一步加强区域合作提出了初步的建设性意见。 听了大家的发言，王三堂指出，当前，我市正处在学习实践科学发展观活动的开局起步阶段，这一阶段的主要任务就是解放思想、查找差距。我们之所以组织此次学习考察活动，一方面是要通过学习先进来查找差距、增加压力、解放思想，另一方面是要积极推动区域开放合作。通过向与我们相邻的地区学习，可以更好地找出我们能够借鉴的模式、经验和破解难题的办法，促进我们自身发展。 王三堂说，滦县虽然是县级市，但发展理念新、工作水准高、发展速度快、综合环境优，许多经验很值得我们学习借鉴。当前最重要的是学习滦县在城市规划、建设、管理方面的经验，好好下功夫谋划我们的城镇化建设，加快推进各县区的城镇面貌三年大变样工作。滦县时代广场全部由社会资金投入建设，文化公园建设资金一半也来自社会，而我们各县城基本没有博物馆、文化公园，历史传承的文化也缺乏深度挖掘和表现，今年一定要抓紧启动一批城镇建设重要亮点工程，要拓宽建设思路，不要等有钱之后再启动。 王三堂强调，要下大力气狠抓项目特别是县域重大产业项目，营造氛围，上下联动，全党、全社会、全民凝心聚力抓大项目和好项目。要敞开胸怀抓开放，更新观念搞好园区建设，尽快扭转县域园区落后的局面。要进一步重视加强造林绿化和生态建设。一路之上，滦县建了很宽的绿化带，两侧都新栽了很多树，这点值得学习借鉴。和滦县相邻的昌黎、卢龙两县包括其他县区都要在绿化方面下功夫，切实开展好重点道路环境整治和绿化工作，确保暑期前城镇环境形象得到进一步提升和实现更大突破。 王三堂指出，秦皇岛地处冀东经济区的中部，具有特殊的地理位置，要抢抓机遇，积极参与和融入冀东经济区建设，坚持以我为主，发挥自身优势，扩大开放合作，借力曹妃甸开发建设，接受曹妃甸辐射带动，有针对性吸引唐山资金和项目来秦投资兴业，加快产业结构调整、重大项目建设和县域经济发展，尽快增强秦皇岛综合经济实力。要重视滦河流域的综合治理、规划开发问题，昌黎、卢龙两县要与滦县、乐亭统筹谋划、搞好对接、加强合作，从长远角度把滦河共同规划建设好、开发治理好。 王三堂要求，唐山以及滦县等县（市）与我们有着较深的地缘、人缘和文化的渊源，各县区都要借助这些地区强劲的发展势头，主动推进与这些地区的交流合作，多组织各级干部前去考察学习、挂职学习，好好下功夫研究先进地区的做法，积极引进好做法、好经验和好资金、好项目，为我所用，加快县域经济发展步伐。（记者常虹）']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>5</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>卢龙党员干部赴怀来考察取经</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2009-03-17</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6A3DE2C00D5C8DAEFAE910C8D4DCB42A</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['３月１３日至１４日，卢龙县深入学习实践科学发展观领导小组成员，到张家口市怀来县就深入学习实践科学发展观活动进行学习考察，汲取先进经验。 怀来县作为全国深入学习实践科学发展观活动的试点县，从去年９月至今年２月，共组织４０００多名党员干部开展了为期半年的学习实践活动。学习实践活动提高了广大党员干部的思想认识，理清了发展思路，确定了发展举措，推进了科学发展，改进了干部作风，使怀来县的各项事业得到了快速发展。在怀来的学习考察让卢龙县学习考察人员收获颇丰。大家认识到，要搞好学习实践科学发展观活动，就必须有高度统一的思想认识，必须有坚强有力的领导班子，必须有操作性强的指导方案，必须有富有地方特色的主题，必须有丰富有效的载体，必须有强有力的督导，必须有经得住检验的先进典型，必须有实实在在的效果。 从怀来回来后，卢龙县结合县情实际，明确了全县深入学习实践科学发展观的主题，即“科学发展、开放创新、提速进位、富民强县”。活动按照“学、看、研、谈、找、验”的“六步学习法”，稳步推进。通过开展“千名干部访万户群众”县情大调研活动，真正摸清县情，理清发展思路。３月１６日，卢龙县召开了“百日集中招商”活动动员大会，决定从３月份开始，集中开展百日招商活动。县委、县政府给县直各部门包括群团组织、维稳部门，一律下达了招商引资指标；每个乡镇在活动期间至少引进一个投资千万元以上的项目，县直各单位至少引进一个项目或达成一个项目意向。以“百日集中招商”活动为载体，以实际行动践行科学发展观。（通讯员杨震 王小刚）']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>5</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>山海关长城博物馆举行开馆仪式</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2009-07-30</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=ACC80F52E310913A2A58F0A07E51594D</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['７月２９日，我国第一个以长城为主题的博物馆、国家级爱国主义教育示范基地，被誉为反映长城历史和文化积淀的“百科全书”的山海关长城博物馆举行开馆仪式，正式免费对外开放。 省委常委、宣传部部长聂辰席，马达加斯加大使维克托•希科尼纳，中宣部宣教局副局长王开忠，国际交流促进会副会长徐建国，国家旅游局旅游促进与国际联络司副司长王燕，著名长城专家、文物专家罗哲文，中国长城学会常务副会长董耀会，中国长城学会代理秘书长吴国强，中宣部宣教局企业处处长郑辉，省委宣传部副部长王景武，省发改委副主任张少华，省文化厅党组成员、文物局局长张立方，省旅游局副局长吕力，省委宣传部宣传处处长葛成锁，省委宣传部文艺处处长牛兰东，市委副书记杨泰安，市人大常委会主任菅瑞亭，中国人民解放军总后勤部少将巫致中，市委常委、宣传部部长时晓峰，副市长李秦生，市政协副主席田永生出席开馆仪式。 开馆仪式由李秦生主持。 开馆仪式邀请了来自阿尔巴尼亚、埃及、毛里求斯、尼泊尔、以色列、保加利亚、俄罗斯、韩国、美国、乌拉圭、伊拉克、匈牙利、阿根廷、黑山共和国等１５个国家的驻华使节及夫人。 出席开馆仪式的嘉宾还有：联合国经社理事会负责人，中国长城学会有关领导，长城沿线友好城市的代表，浙江临海市党政学习考察团，新疆巴州和静县党政领导代表，我市部分离退休老同志，各县区、部门、企事业单位、驻秦部队的代表。 聂辰席在讲话中指出，山海关长城博物馆开馆是长城文化发展史上的重要里程碑，也是河北文化建设进程中的一件大事。对山海关长城的保护和山海关长城博物馆的建设，中央和省委、省政府一直高度重视。近年来，在社会各界的大力支持下，山海关长城保护和长城博物馆建设取得了明显成效，已经成为我省乃至全国爱国主义教育和红色旅游的重要品牌。随着二期工程的完工，山海关长城博物馆的功能和品位得到了很大的改善和提升。希望山海关长城博物馆以改陈扩建为契机，立足新起点，实现新发展，把传承民族文化，服务当代社会作为宗旨，保护好、宣传好、发挥好长城特有的资源禀赋和文化内涵，努力把长城博物馆建设成为中华民族历史文化教育基地、爱国主义教育基地和青少年科普基地，在弘扬优良传统，传播时代文明，推动科学发展，促进社会和谐中发挥更大的作用。 王开忠在开馆仪式上讲话。他说，山海关长城博物馆的顺利开馆是新中国成立６０周年文化建设的一项重要成果，必将在爱国主义教育和优秀传统文化教育方面发挥更加积极的作用，必将为传承和弘扬长城文化，促进国际、国内文化交流中产生更大的影响。希望博物馆工作者，以对历史、对人民高度负责的态度，深挖历史内涵，紧贴时代需要，提高管理水平，更好地展现博物馆的历史文化底蕴和文化内涵，使之成为弘扬长城文化的重要窗口，成为学术交流的重要平台，成为加强爱国主义教育的重要阵地，为促进文化旅游更好更快地发展作出新的贡献。 杨泰安在开馆仪式上致欢迎辞。长城博物馆的开馆，是山海关乃至秦皇岛文化建设浓墨重彩的一笔。我们将以此为契机，不断丰富文物史料，改进布展陈列，使之成为中国长城文化遗产保护、传承和交流的重要阵地，成为展示山海关、秦皇岛以及河北发展形象和独特魅力的重要窗口。博物馆要坚持高标准管理，培育特色文化品牌，为传承文化、教育民众、服务社会发挥重要作用。希望各位领导、各位专家，一如既往地关心支持长城博物馆的建设，多提宝贵意见，将长城博物馆真正打造成为全国一流的精品博物馆。 山海关长城博物馆始建于１９９１年。该馆基本展陈“华夏脊梁”曾荣获“全国博物馆十大陈列展览精品奖”。为了更好地弘扬长城文化的深厚底蕴，进一步发挥山海关长城博物馆的爱国主义教育和社会教育功能，２００７年，在中央和省委领导的关注和支持下，国家、省、市投资４２００万元再次对该馆进行改陈和扩建。经过改扩建后的长城博物馆展览陈列分为《万里长城》和《万里长城——山海关》两大主题，共包含长城历史、长城建筑、长城经济文化、今日长城、龙首春秋、雄关军事、名关人文、龙珠异彩八个部分，在原有的基础上充分展示出中国长城的历史与文化积淀、长城建筑的结构与布局、历史上发生在长城内外的重大军事活动及长城沿线分布的历史名胜、人文景观，再现了长城内外兄弟民族长期共同发展、相互交融的史实及全国各民族、世界各国人民对长城的关心与爱护。 改扩建后的博物馆展陈面积达３６００平方米，展线１５００延长米，共展出各类图片、图表６２３幅，文物１１００余件（套），雕塑艺术品３６件，模型景观１８组，多媒体９组、立体电动图表９组，是目前全国布局规模最大、展出内容最为丰富的长城博物馆。（记者王莹 张莹莹）']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>5</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>社区干部培训班开班马誉峰寄语社区干部做到四要</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2008-11-28</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=B1205EA60BEFA5FC48F31AADA6A4BBDD</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['１１月２６日，全市第一期社区居委会干部培训班开班，市委常委、常务副市长马誉峰寄语社区干部人品要好、心肠要热、观念要新、能力要强。 来自海港区、北戴河区、山海关区、开发区的１００多名社区干部，将就社区低保知识、社区干部素质和能力、社会工作方法、社区服务、社区自治等方面接受一周的培训，并学习考察天津市街道、社区建设工作的经验和做法。 马誉峰说，社区工作千头万绪，工作对象千差万别，社区干部应做到人品要好、心肠要热、观念要新、能力要强。人品要好指社区干部要为人厚道、处事公道、诚实守信、尊老爱幼、通情达理；心肠要热指社区干部要善于帮人、乐于助人、敢于管人；观念要新指社区干部要跟得上时代、城市和世界的变化，根据社区的实际情况，培养创新能力、法制观念、市场观念和以人为本的观念；能力要强指社区干部要提高执行政策的能力、应对复杂局面的能力、凝聚群众的能力、加快社区发展的能力。（记者禹超）']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>5</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>关城各级干部服务群众显身手</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2008-11-04</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=F529C46D9C4486F39C2B2980D5BEA482</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['“这次学习考察真是长了见识，咱们村也应该引进新技术和新品种，把村里的大棚经济搞活。”近日，山海关区孟姜镇梁家沟村“两委”班子成员和村民代表在蹲点调研单位区人防办的组织下，来到北戴河集发观光园考察。 前不久，山海关区广大干部分两批深入到全区７９个村、１７个社区和２０个企业蹲点调研，了解和解决群众的实际问题。 “娱乐文化设施建设、菜地灌溉用水的天然蓄水池建设，一直是我们村民关心并亟待解决的问题。”第一关镇小北园村村干部告诉区妇联蹲点干部。当他们得知这些情况后，先是带领该村“两委”班子成员到北戴河区北戴河村、古城村参观，学习他们的治村之道，回来后与水务部门工作人员深入到水库实地查看了池塘的堤坝、配电设施等情况，制定了可行的实施方案进行改造；在村委会门前清理出开阔的空地，帮助修建了村民活动广场。 孟姜镇回马寨村是远近闻名的种菜大村。为了帮助菜农们掌握先进的种植技术，山海关区农牧局聘请省内知名专家举办了蔬菜大棚种植等农业技术培训班，为这个村免费发放种菜技术资料５００余份。同时还协调孟姜镇电管站帮助解决山坡地建造日光温室急需上电问题。该区农牧局的同志说：“农民种田要靠技术当家，我们要利用好这次蹲点调研的机会，帮助广大菜农化解疑问，提高技能，把好种植技术关。” 山海关区商务局组成测算、产权调查、物业调查、文字综合４个工作组深入到兴华市场，对市场改造项目土地面积测量，市场门店的位置、产权、面积、经营项目、日营业额、日客流量，水电暖配套情况，市场周边环境等进行细致的调查摸底，为该市场日后改造建设奠定基础。 截至目前，山海关区１３４名区直各单位领导成员，分别深入１１６个工作点，帮助群众解决实际问题６０余个。（记者高智虹 通讯员朱立江）']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>5</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>抚宁倾力打造农村党员干部加油站</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2008-11-05</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=4CDB4AEAEF36670052CA2066F8DF80BD</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['日前，抚宁县首个“农村党员干部培训示范基地”在驻操营镇龙泉庄村落成，标志着该县在农村党员干部培训工作方面又迈上了一个新台阶。 为进一步促使农村党员干部解放思想、增长见识、提升素质，推进社会主义新农村建设，抚宁县委通过不断探索，形成了集“办班讲学、规划述评、参观见学”于一体的培训模式。同时，在每年通过课堂教学模式进行培训的基础上，积极拓展外埠培训基地，组织农村党员干部外出学习考察。２００７年以来，已先后组织三批３００余人次赴山东寿光，河南鹤壁、新乡、洛阳，河北邢台等农业产业发展比较好的地区参观学习。今年４月，该县又组织１０名优秀农村党支部书记赴新加坡南洋理工大学进行了为期一周的培训。通过培训，广大农村党员干部受益匪浅，并将学到的先进理念、先进经验转化为推动本村经济社会发展的实践，不断创造新的业绩，加快新农村建设的步伐。 为了整合教育资源，加强县内培训基地建设，培树一批具有致富带富能力的先进典型，推动广大农村的更大发展，今年秋季，抚宁县将驻操营镇龙泉庄村、茶棚乡上官营村、石门寨镇英武山村等８个农业典型示范村作为首批“农村党员干部培训示范基地”，以此为载体不断推进农村党建工作的有序开展。据了解，今后，该县还将加大对示范基地的扶持力度，不断加强基地建设，把培训示范基地真正建设成为新农村建设的“示范田”和培训农村党员干部的“实践课堂”。 （记者郭丽冰 通讯员杜万青）']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>5</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>王三堂带领市党政考察团赴唐山市学习考察</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2008-11-21</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=F8FD1FAD4085DD2E270807CCAE723DBA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['在目前经济暂时困难的大环境下，如何突破一般性思路，增强机遇意识，加快城镇化建设步伐，推动全市经济更好更快发展？１１月２０日，市委书记王三堂带领由规划、建设、国土、房产等部门及各县区有关负责人组成的党政考察团，赴唐山市进行为期一天的学习考察。 省委常委、唐山市委书记赵勇，唐山市委副书记杨永山，唐山市委常委、副市长陈学军，就各考察项目为我市党政考察团作了详细讲解。 我市党政考察团先后参观了迁安市沙河驿镇唐庄子村和杨店子镇洼里村科学发展示范村建设情况、马兰庄镇马兰社区建设情况，实地考察了唐山市城市展览馆、唐山地震遗址公园、南湖生态城工程、长青楼社区震后老旧小区改造工程、凤凰山公园扩绿和内部整治工程以及住友重机械唐山工程机械产业基地项目。 在开展城镇面貌三年大变样活动中，唐山市因地制宜，创新多种模式，实施农村新民居建设。在因村而异抓好规划编制的前提下，唐庄子村以“一顶、一墙、一能、一炕、一沼卫、一灶”的“六个一”模式开展新农居建设，住宅墙体采用新型保温建筑材料，安装太阳能取暖及供水设施，建设节能环保的吊炕、沼气池、卫生厕所、博士灶，同时进行配套基础设施建设，推动农村社会事业发展，极大地提高了农民的生活质量。马兰社区是根据群众意愿，由马兰庄镇的７个村采取异地联建方式，探索建设的农村生态宜居新型社区。新民居建设广泛采用环保节能的新材料、新技术，应用太阳能作为供应热水、路灯照明的主要能源，并建有集中水窖和中水回收及污水处理系统，实现废水循环利用。天然气、数字电视、宽带网、自来水、电话全部入户。同时参照新型城市社区的管理标准，建设了社区服务中心、学校、邮局等公共配套服务设施，成为推进村居社区化、农民城市化的样板工程。 在推进城市区拆迁改造工程中，唐山市大力实施了南湖生态城建设项目，打造环城水系，使南湖生态城逐步成为一个融自然生态、历史文化和现代文明的多功能区域，成为资源型城市转型、重建良好生态的典范。同时实施的生态建设工程还有，将城市中心区的凤凰山公园进行大规模扩绿和内部整治，为城市增添一处生态景观；长青楼区域整体改造项目，这是唐山市政府今年实施的城市危陋住宅改造重点项目。在项目实施中，唐山市政府创新思路，引进大连万达集团作为战略投资者，对长青楼区域实施整体改造开发，形成集团式开发、集团式经营的新型商业经营模式。 在住友项目群建设工地，大规模的基础设施建设正在进行中。据省委常委、唐山市委书记赵勇介绍，坐落于唐山现代装备制造工业区的住友项目群，在目前经济普遍不景气的情况下进行标准厂房建设，其建设成本可下降２０％到３０％，等经济一旦好转就可以立即发挥作用。 考察结束后，考察团进行座谈，对照自身找差距，瞄准目标求发展。王三堂要求，针对当前经济困难的形势，学习借鉴唐山经验，务必在下一步工作中做到“五不能、七加大”。 “五不能”就是：在经济形势面临严峻考验的时刻，不能有畏难情绪，不能老强调不利因素，无所作为。应增强机遇意识，增强大发展的意识。要把挑战当成机遇，跑项目、争取银行贷款、建设成本低都是机遇；不能老是自我感觉良好，不能老是自己和自己比，应该增强危机感、紧迫感；不能工作老是满足一般性思路，应该拓宽思路，提高标准，提高站位，思路决定出路，站位决定将来的地位，只有站位高才能视野宽；抓工作不能顾此失彼，畸轻畸重，应该统筹兼顾，科学发展。要抓住重点，开拓创新，使我们的整体工作不落后；不能四平八稳、按部就班抓工作，改变持续抓工作的激情不够足的现状，要振作精神，创造性开展工作，要有事争一流的精神状态。 “七加大”就是：加大植树造林生态建设力度。市委、市政府下达的植树造林任务只许多不许少，时间只许提前不许错后，质量只许提高不许降低。要尽可能多栽大树、多栽好树；加大新民居建设力度。根据秦皇岛特色和各县区实际，借鉴外地经验，设计不同的模式。每个县区都要谋划启动，要首先抓点，取得成功经验后，迅速向面上推广；加大既有房屋节能改造力度。学习借鉴唐山的模式，新建房要注重使用新材料、新工艺、新的建筑节能模式，对既有房屋节能改造，要结合秦皇岛实际，学习唐山经验，马上谋划试点，然后从点到面迅速推开，有关部门要对此项工作制订具体实施方案和分步实施时间表；加大拆墙透绿和平改坡力度。要和既有房屋的节能改造结合，不仅市区内要平改坡，主要道路两旁有保存价值的房子也要平改坡，四区四县都要加大这项工作力度；加大拆迁改造建设力度。要下大决心，主动走出去，有针对性地吸引城市建设的战略投资者；加大园区建设、项目建设、基础设施建设力度。 既有项目要加大建设力度，谋划的项目要加大跑办力度，同时注重开拓各自发展新空间；加大工作推动力度。各县区要根据工作需要，注重组织对口专项考察学习，要和既有工作结合起来，再来一次抓好当前工作的动员，落实目标责任制，加强调度和督查，加大既有工作的推动力度，加大工作的谋划力度，加大协调、督查和责任追究工作力度，以领导力度推动工作进度、发展速度和标准的高度。 市领导杨泰安、曹子玉、刘辰彦一同考察。（记者常虹 安淼）']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>5</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>王三堂朱浩文等市领导会见鹤岗党政学习考察团</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2008-05-26</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9A49E094F6663E72E46C1ADB2A081A66</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['５月２５日，市委书记王三堂，市委副书记、市长朱浩文会见了以鹤岗市委书记朱清文，市委副书记、市长张雨浦为团长的鹤岗市党政学习考察团，双方就两地经贸合作进行了广泛交流。 鹤岗市地处黑龙江省东北部，是以煤炭为主的资源型城市，煤炭地质储量２６亿吨，是我国优质动力煤和化工煤的重要生产基地。鹤岗也是一个对俄口岸城市，拥有丰富的旅游资源，著名的龙江三峡位于这里。 ２４日上午，考察团先后参观了我市金梦海湾、汤河带状公园等项目，并就我市城市建设情况进行了详细的考察。 王三堂在会见时说，鹤岗市是一个资源型城市，近年来城市发展很快，我们为你们取得的成就感到高兴和钦佩。 这次鹤岗市党政学习考察团来到秦皇岛，对双方加强交流、增进了解、开展合作有很大帮助。现在鹤岗市有很多企业在秦皇岛设有项目，我们感谢这些企业为秦皇岛发展做出的贡献，也希望能够为企业创造更好的服务环境，吸引更多的鹤岗市企业在秦皇岛投资置业。 朱清文说，鹤岗市近年来面临着城市建设和产业结构的调整，秦皇岛和鹤岗两市地缘相似，有合作基础，希望双方在旅游开发、高新技术领域加强合作。他同时要求鹤岗驻秦企业规范经营、守法经营，为鹤岗企业树立良好的形象。希望两地加强合作，优势互补，取得共赢。 市委副书记、市长朱浩文，市委常委、市委秘书长邢留逮，副市长刘辰彦会见时在座。（记者鄢玲）']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>5</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>我市召开解放思想大讨论活动工作会议</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2008-05-16</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6FFBFF57ED12607451A33886A9EDAE16</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['５月１５日，我市召开解放思想大讨论活动工作会议，总结前一阶段的工作，要求全市党员干部群众在新的起点上继续深化思想解放，以更大的气魄推动秦皇岛科学发展、和谐发展、文明发展。市委常委、宣传部长时晓峰在会议上强调，各县区各部门要始终运用解放思想这个法宝，用思想的大解放推动事业的大发展。 自去年１２月５日我市解放思想大讨论活动开展以来，全市各级各部门紧紧围绕打开解放思想这一“总阀门”，牢牢把握贯彻落实科学发展观这一主题，充分利用“请进来、走出去、走下去”这一载体，在深入学习、提高认识、查摆差距的基础上，广泛征求意见，逐步聚焦问题，认真进行整改，取得了阶段性成果。据统计，全市共举办各类讲座１４００余场次，参与人数达到４万多人次，共组织各种形式的学习考察９４０批次。全市共查摆问题和征集建议３８２１条，归纳提炼为５大方面２２个共性问题。通过开展解放思想大讨论活动，全市党员干部的思想认识明显提高，发展思路更加清晰，项目建设成效明显，民生问题得到妥善解决，发展环境不断优化。 时晓峰指出，尽管解放思想大讨论活动取得了阶段性的成效，解决了一些问题，但与省委要求和全市人民的期盼相比，我们在思想观念、工作作风、长效机制等方面还存在一定差距。在新的历史阶段，面对难得的战略机遇期，各县区各部门要继续解放思想，用思想的大解放推动事业的大发展。要进一步拓展活动外延，将活动延伸到农村、社区、学校、厂矿等基层。要进一步创新长效机制，使解放思想、改革创新成为一种常态、一种机制、一种文化、一种制度。要进一步健全工作制度，把“边学边查边改”等制度纳入到日常工作中去，体现到干事创业中去，落实到岗位职责上来，通过经常性的学习检查和评先树优，达到自我教育、自我管理、自我激励、切实改进工作的目的。（记者刘军）']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>5</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>王三堂率我市代表团赴广州深圳学习考察</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2008-06-17</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=3942B7E842BFD43423DC1062604B29D9</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['在全市上下深入总结解放思想大讨论经验、部署开展城镇面貌三年大变样活动、全力推进经济社会又好又快发展之际，６月１０日至１３日，市委书记王三堂率代表团赴广州、深圳学习考察，深入学习广州、深圳等地在城市规划建设、精细管理、空间拓展、生态建设等方面的成功经验，着眼长远，谋划我市进一步解放思想、推进科学发展大计。 改革开放三十年来，广州、深圳两市始终坚持解放思想，大力推进改革开放，成为全国经济社会发展最具实力、活力、魅力、竞争力的现代化城市之一，综合经济实力稳居全国城市前列，基本建立社会主义市场经济体制，创造了罕见的工业化、城市化和现代化发展速度，向全世界昭示了中国特色社会主义的勃勃生机和光明前景。其中，广州市按照“科学发展、环境优先，关切民生、解决民忧”的工作思路，努力在广东新一轮思想大解放、实践科学发展观上闯出新路子、迈出新步伐。２００７年广州生产总值达到７０５１亿元，仅次于上海、北京位于全国城市第３名；财政一般预算收入２１１６亿元，增长２２．４％；实际利用外商直接投资３２．９亿美元，在广州投资的世界５００强企业达１６０家。深圳市提出进一步解放思想，坚定地高扬经济特区这面旗帜，以改革开放之初“杀出一条血路”的精神，以“特”的意识、“特”的思考和“特”的举措，叫板国际一流城市，努力建设中国特色社会主义示范市。２００７年深圳生产总值达到６７６５亿元，人均生产总值在内地大城市中率先突破１万美元；每平方公里土地创造生产总值３．４６亿元；地方财政一般预算收入一年净增１５７亿元，达６５８亿元，增长３１．４％；全社会固定资产投资１３４５亿元。城市建设日新月异，环境容貌优美整洁，建成一批事关城市长远发展和提升辐射力、竞争力的重大基础设施，正在阔步向着中国特色、中国风格、中国气魄的国际化城市迈进。 考察中，代表团处处感受到广州、深圳干部群众那种昂扬向上的精神状态、干事创业的执著追求和不自满、不松懈、不停步的发展气势。两个城市虽然已处全国发展前列，但始终洋溢着居安思危、务实创新、抢抓机遇、快走一步的工作劲头，面对不断出现的新变化、新制约，善于用科学理念发展自己，用创新思维审视自己，用生态文明提升自己，用不懈奋斗激励自己，发展面前从不分散精力，始终做到敢闯敢试、敢想敢干、敢为人先，勇于冲破制约发展的思想观念、体制机制等障碍束缚和不遗余力、一以贯之地推动解放思想、改革开放和创新发展。代表团成员边学习边反思：没有思想的大解放，哪来经济的大发展；秦皇岛要在全国新一轮科学发展的大潮中抢占先机、补课追赶，建设宜居宜业宜游新秦皇岛，就必须不断打开解放思想这个总阀门。 广州、深圳的城市规划建设给代表团留下了深刻印象。广州市围绕大广州发展布局，加快拓展城市新空间。广州珠江新城地处广州新城市中轴线的核心，规划科学严谨，气势宏大壮观，其中投资４００多亿元的新城核心区市政交通项目，是目前广州乃至全国规模最大的地下空间开发项目，沿中轴线依次建设的市民广场、双塔广场、文化广场、海心沙广场，连成我国最大的城市广场群，并配以七大地标性建筑，成为广州商业航母、文化中心和城市最亮丽的名片。广州南沙新区自２００２年开发建设以来，市委、市政府专门成立建设指挥部，统筹南沙的规划及开发建设，创立了集规划、国土、建设、财政、经济社会发展集中高效、服务亲商的政府管理和开发体制，指挥部行使广州市一级经济管理权限，并适时调整行政区划，实行合署办公，打造了南沙大开发的平台，２００７年南沙新区实现生产总值３０６亿元，增速高达４３％。近年来，深圳市高起点规划建设了光明新城、龙华新城、大运新城和坪山新城，科学规划城市发展布局。特别是去年深圳市政府代表团和１０个专项小组大规模赴新加坡深度学习考察先进城市管理经验，考察成果转化成为加强生态文明建设的３年行动纲领以及９个行动方案、８０个具体工作项目，计划通过３年时间的持续推进，大大提升城市的品位和内涵。 代表团还考察了广州科学城、广州大学城、广州港南沙港区和深圳会展中心、市民中心、观澜湖高尔夫球会、东部华侨城等重点项目及企业。代表团一行边走边看、边思考边讨论，认为广州、深圳与秦皇岛同处沿海开放前沿，但经济社会发展速度和水平远远超过秦皇岛，特别是城市规划建设理念新、水平高，是我们学习追赶的标杆。总结广州、深圳的城市规划建设经验，一是具备国际化的视野和理念，敢于和善于瞄准世界先进城市，下大力强化城市的国际化功能，追求卓越，勇争第一；二是科学规划，并且严格按照规划来建设，始终做到高层次、高品位、有特色、重创新；三是牢固树立绿色价值观和生态政绩观，以提高居民生活品质为根本宗旨，以生态文明建设为突破口，力促人与城市、自然的和谐统一；四是机制灵活，坚持政府主导和社会动员，充分运用市场机制有效配置资源，吸引国内外优质资金和技术参与城市规划建设；五是十分重视城市设计，保证每一处社区、建筑和街道都科学设计、精雕细刻、力求完美，精心打造并不断强化城市风格和特色；六是创新体制机制，全面推进城市管理的科学化、规范化、标准化、专业化、精细化、长效化。 考察结束时，王三堂同考察团成员进行了座谈讨论和总结交流。王三堂指出，这次外出考察虽然时间较短，但针对性强、收获很大，对我们在更高层次上谋划未来、完善思路、推进工作，具有重要借鉴意义。要通过学习广州、深圳的发展经验，有效凝聚起秦皇岛进一步解放思想、开放创新、富民强市的后发优势，从实际出发，真正把理念转变为思路，把敢想转变为敢干，把讨论转变为行动，把学习转变为实践，把问题转变为措施，把少数人解放思想转变为更多的人解放思想，以高度负责的态度来谋划和做好自己的工作。一要进一步高度重视解放思想、改革创新，用世界眼光和全国一流的标准来审视自己，既学习沿海地区发展的成功经验，又汲取沿海一些地方的深刻教训，牢固树立以人为本、生态优先的发展理念，统筹生产、生活和生态，转变经济发展方式。二要进一步高度重视统筹协调、科学发展，不断促进社会发展由传统社会向公民社会转型，产业发展由低端产业向高端产业转型，城市规划建设由二元结构向城乡一体化转型，城市管理由粗放型向精细化、长效化转型。三要进一步高度重视生态文明建设，强化生态政绩、生态文化、生态环境理念，满足广大人民群众不断增长的生态需求和应享有的生态权益，实现人与自然的和谐统一和永续发展。四要进一步高度重视城市的规划建设管理，瞄准国内乃至世界先进城市，虚心学习，缩小差距，深化和细化城市建设的各项标准要求。五要进一步高度重视产业规划的制定、产业布局的调整和发展方式的转变，细化落实“三大基地、一个中心”产业定位，精心培育总部经济、会展经济、文化创意、服务外包、海洋经济等新兴经济业态，打造河北新经济、新产业的重要增长极。六要进一步高度重视黄金海岸新区的建设，不断整合行政资源，严格新区土地利用和生态环境的管控，抓紧新区战略研究、发展定位和规划制定，抓紧就相关工作向上汇报和争取支持，及早谋划启动基础设施建设和重大项目招商。 市委常委、副市长李洪卫和市直有关部门、昌黎县、抚宁县、黄金海岸新区管委的主要负责人参加了学习考察。（通讯员 石伟）']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>5</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>我市党政考察团专程赴省会考察三年大变样活动</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2008-09-02</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=838584F736557A147DCFA22B01F69AF1</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['８月３１ 日至９月１日，由市委书记王三堂任团长，市委常委、副市长李洪卫任副团长，各县区委书记、主管城建副县区长和建设、规划、国土等市直部门负责人等一行６０余人组成的秦皇岛市党政考察团，专程赴省会石家庄学习考察城镇面貌三年大变样工作的经验做法，并在石家庄召开我市三年大变样工作调度会，分解布置拆迁工作任务，对下步工作进行再部署。 全省城镇面貌三年大变样活动开展以来，石家庄市坚持以拆为先、拆建结合、以拆促建，整体拆迁改造呈现出“势如破竹、所向披靡”之势。考察团一进石家庄市区，就明显感受到大规模拆迁拆破带来的变化，宽阔怡人的城市绿化、鳞次栉比的高楼、城中村拆除后正在崛起的片片新楼宇，无不彰显着这座城市的生机活力和美好前景。今年以来，石家庄市已经累计完成拆迁面积８２０万平方米，特别是裕华区完成２２２万平方米，占全市拆迁总面积的四分之一，平均每天拆迁面积１．３万平方米以上。石家庄市在全力以赴抓拆迁的同时，还集中精力抓建设，多管齐下促整治，主城改造、新区开发、路网建设、园林绿化、城市管理等各项工作也取得了阶段性突破。考察团在石期间，受到省委常委、石家庄市委书记吴显国，石家庄市委副书记、市长冀纯堂等的热情接待，并实地参观考察了裕华区东岗头村、赵卜口村、大马村等城中村拆迁改造，正定县太平河生态治理，小商品市场拆迁建设以及鹿泉市海山公园、中心区旧城改造等重点项目。 ９月１日下午，我市在石家庄河北会堂召开城镇面貌三年大变样工作调度会，与会人员交流了学习考察体会。大家一致认为，石家庄市确实变化很大，拆迁改造给人以很大的震撼，感触很深，并分别结合各自实际谈了下步工作。 会上明确了我市城镇面貌三年大变样基本目标，就三年大变样拆迁任务进行责任分解，同时就三年大变样活动专项考核奖励办法进行了讨论。 王三堂在调度会上作了重要讲话。他指出，市委、市政府高度重视三年大变样工作，已经进行多次部署。在奥运会刚刚落幕之际，就组织这次高规格、大规模的学习考察活动，旨在传递抓住重点、力促突破的强烈信号，迅速形成促进三年大变样工作深入开展的浓厚氛围。希望各部门各县区认真分析形势，增强责任感和紧迫感，把各项工作抓起来，使强项更强，弱项变强，查找不足，尤其是学习石家庄市的拆迁经验，加大力度，强力推进拆迁工作，实现突破性进展。 王三堂强调，要按照四个“进一步”的要求，抓好三年大变样工作。首先，要进一步端正指导思想，全面理解三年大变样工作的内涵和要求，把三年大变样工作融入到“宜居宜业宜游、富庶文明和谐”新秦皇岛的建设中去。总体要求是全面启动，重点突破，整体谋划，分步实施。既要重视外在形象变化，又要重视提升城市功能，不搞则已，搞则一流。以拆迁为突破口，以拆促建，以拆促变，以拆促“三生”统筹，一切从实际出发，以三年大变样工作促进各项工作的大推进。 其次，要进一步明确工作思路，把握一个突破口（全力推进拆迁），抓住两条战线（城市区、县城镇），完成三项大调整（城市空间布局调整、功能结构调整和产业结构调整），实施四大工程（黄金海岸新区建设、西港东迁、金梦海湾、一批基础设施建设和重大公益项目），力求五方面突破（拆迁拆除、基础设施、生态建设、水系治理和标志性建筑）。 第三，要进一步明确任务，强力推进拆迁工作。各部门各县区要认真对照分析和了解任务目标。所分解任务只是最低要求或指令性任务，只能多完成不能少完成，只能早拆不能晚拆，拆迁改造还应包括重点镇、重点旅游景区周边和城市主要道路两侧，对所有临建和低水平建设都要加大拆迁力度。落实好三年大变样工作，必须做到实施主体明确\ue584各责任单位和实施主体要明确任务，作为铁的工作任务来完成。党政机关要带头，发挥模范带头作用，主动为全市拆迁工作作贡献。 第四，要进一步加强领导，严肃工作纪律。各级各部门，各责任单位要坚决贯彻市委、市政府的决策部署，特别是主要负责同志要亲自组织，亲自部署，亲自调度。要强化协调联动机制，各级各单位都要以拆迁大局为重，决不能各行其是，切实形成强有力的组织保障体系。要做到文明和谐拆迁、有情拆迁，文明执法、公正执法，严肃认真地落实好各项拆迁政策。各级信访部门要深入一线，现场办公，务必把信访问题解决在一线。 最后王三堂强调，搞好三年大变样工作，必须严肃考核奖惩纪律。三年大变样既是一项常规性工作，也是一项严肃的政治任务，务必引起大家的高度重视，进一步加大考核奖惩力度，定期督导，定期考核，定期通报。新闻单位要加大舆论宣传力度，不断营造推进城镇面貌三年大变样活动的浓厚氛围。凡是达不到进度和工作要求的，要坚决按照专项考核的有关规定处理，绝不姑息迁就。 市委常委、副市长李洪卫主持了会议。（记者李建永）']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>5</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>北戴河区着力提高农村党员干部素质</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=D21374E475882BD1EF18398F8AC4EFA8</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['为进一步提高农村党员干部的综合素质，培养一支“懂科学、有技能、会管理”的基层党政人才队伍，为构建和谐新农村服务，北戴河区大力实施“农村党员干部素质”培养工程，使广大村干部的政策水平、法律意识、管理能力明显增强。 推进“双向培养”，提高农村党员队伍的先进性。一方面把乡土人才培养成党员，把１６５名致富能手培养成为入党积极分子和预备党员。另一方面把农村党员培养成乡土人才。聘请专家讲解家庭旅馆发展方向，传授花卉苗木、蔬菜果品种植知识，组织农村党员干部实地参观市内先进县的蔬菜种植和花卉栽培等。目前全区共培养出农村党员致富能手１６７人。 加大“双型培育”，构筑农村人才资源“高地”。利用基层党员信息化教育体系向广大党员和群众传递科技新知识和农业适用技术，使他们在农业产业结构调整中至少熟悉某一产业领域，熟练掌握该产业各个环节的相关生产管理知识、实践技能，并且能够不断钻研、创新，成为某一产业领域的科技带头人；定期组织农村党员赴外地考察学习，使他们都能交一批朋友、掌握一批信息、学好一身本领、带回一批客商、引进一批项目。目前，已培养科技型实用人才１００人、外向型实用人才５４人。 实施“双带互动”，推动农村经济发展。着眼于提高各村村书记、村主任的“双带能力”，先后组织举办了各类农村党员干部培训班。通过组织村书记、村主任到外地就花卉业、家庭旅馆业的发展进行学习考察，增强其致富创业的信心，充分发挥其引领带头作用。今年以来，１６名村书记、村主任带头创办致富项目２８个，党员致富能手与群众结成帮扶对子９００多个。（通讯员 王瑾）']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>5</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>市规划局再次赴昌黎抚宁两县现场调研指导环境整治工作</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2008-03-20</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=4D289343670F21E61422A4D736604FF6</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['为确保在2008年暑期前完成南戴河、黄金海岸两个旅游度假区的环境综合整治工作，2008年3月18日，结合上周赴青岛、厦门、烟台等沿海城市学习考察的先进经验，市规划局党组书记、局长彭云带领局相关科室人员再次赴昌黎、抚宁两县，就南戴河一小区、黄金海岸北区环境整治工作进行了现场调研和指导。在整治工作现场，彭云局长详细了解了整治工作进展情况，就一些具体问题与两县领导进行了研究和交流，并对下一步工作提出了指导性意见。两县领导表示将认真按照市委、市政府的要求，克服困难，按时、保质完成环境整治工作。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>5</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>解放思想大讨论出真招见实效</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2008-02-20</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=80A57C06C9B2A66713144AA31A138FE4</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['在解放思想大讨论活动中，海港区国税局针对纳税人反映的办税服务厅硬件“缺位”等突出问题，投资１０余万元在一楼增设了办税服务厅，分流业务近５０％；更新了电子触摸屏，升级了查询功能。为避免解放思想大讨论活动“空对空”、“走过场”，海港区将活动开展与强化学习、激发干劲、谋划工作有机结合，力促解放思想大讨论活动取得实效。 学然后知不足，学习是思想解放的基础。在活动中，海港区注重抓好学习这一环节，通过举办专家讲堂、全民创业论坛等载体，积极引导全区广大党员干部向专家学精神、向书本学理论。此外，还在威海、昆山等地建立了干部培训基地，开展了大规模学习考察和挂职交流活动，以提高各级干部的执政能力。 针对全区干部队伍中存在的沿海意识不强、机遇意识淡薄、责任意识较弱、精品意识缺乏等问题，该区在全区树立“不管是搞活动还是抓工作，干不好不行，干的一般也不行，干就要干成最好；主城区要事事争一流，处处当先进，要勇于率先领跑，敢于在全省经济社会发展中充当排头兵、领头雁和主力军”的理念，层层传递压力，点燃各级干部干事创业的激情。同时，该区还根据区位特点重新审视定位，将经济发展的侧重点放在新兴工业和现代服务业上，着力打造以商贸流通、餐饮娱乐、地产建筑、信息商务、物流配送为重点的服务业产业链，大力发展高新技术、文化创意、现代农业等产业，提升全区的整体竞争力。（记者刘军 通讯员王文龙） 又讯（通讯员周志华）日前，卢龙县围绕经济发展、农民增收、全民创业和民营经济、党的建设等８个方面问题展开解放思想大讨论活动。 整个活动坚持“三个结合”、“三个找准”，实现“三个转化”。“三个结合”即与“热爱家乡、建设家乡、再创辉煌”县情教育活动相结合，与开展党员承诺教育活动相结合，与做好当前工作相结合。“三个找准”即找准工作定位、找准发展要求、找准突破口。实现“三个转化”即把上级精神转化成谋划科学发展的正确思路，转化成领导科学发展的实际能力，转化成促进科学发展的政策措施。在方式方法上抓好“学、看、问”三个环节。 在活动开展中，卢龙县重点解决五个方面的突出问题，实现“五个突破”：着力破除按部就班的保守观念，解决信心不够、动力不足问题，在激发发展激情上实现新突破；着力破除低点定位的惯性思维，解决出手不高、魄力不足问题，在制定更高发展目标上实现新突破；着力破除工作方式上的固有套路，解决办法不多、措施不活的问题，在创新发展上实现新突破；着力破除本位主义的权力观念，解决环境不好、服务不优的问题，在打造亲商、安商、富商的环境品牌上实现新突破；着力破除工作疲沓的飘浮作风，解决执行缓慢、得过且过问题，在雷厉风行抓落实上实现新突破。 又讯（记者孟晓冬）近日，市委政法委机关召开专门会议，要求全体党员干部，进一步解放思想、提高认识，以昂扬奋进的精神状态推进各项政法、综治和维护稳定工作，实现全市政法工作新跨越。 按照省委政法委和市委的要求，市委政法委要求机关全体党员，要深刻理解和准确把握解放思想大讨论活动的重大意义，在转变工作思路、丰富工作方法、优化工作机制上彻底解放思想，做到先行一步。在解放思想中统一思想，在统一思想中推进又好又快发展，从而营造良好的社会和法制环境。 又讯（记者张莹莹 实习生杨薇）园区发展的趋势是什么？为什么要发展高新技术产业？日前，海港区解放思想大讨论专家讲堂在市工人文化宫举行。海港区科级以上领导干部５００多人聆听了国务院发展研究中心李左军博士和博士后、省发改委高新技术产业处副处长丁进军的精彩讲座。 为进一步推进海港区解放思想大讨论活动深入开展，研究制约海港区经济发展的思想观念、体制机制、思路举措等方面的突出问题，为完善全区经济社会发展思路提供有益借鉴，海港区解放思想大讨论活动领导小组办公室举办了本次讲座。 李左军博士是我国著名的经济学家、中国经济研究中心副主任、国务院发展研究中心学术办主任。他针对改革开放以来我国取得的思想突破，中国未来面临的机遇、挑战，园区发展的若干趋势等问题作了生动精辟的讲解。 丁进军博士后就我省高新技术产业发展情况、我省的成功经验、“十一五”我省高新技术产业发展规划等方面进行了系统全面的阐述和解析，并结合海港区实际，提出了很好的建议。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>5</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>王三堂带队赴厦门青岛烟台等地学习考察</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2008-03-18</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=FBFFEA0C9C7B3D9C49D3E1F7EA4A405C</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['３月１０日至１５日，市委书记王三堂带领我市党政考察团赴厦门、青岛、烟台三市，就城市建设、园区建设、项目建设和县域经济发展进行了学习考察。副市长刘辰彦和各县区、市直有关部门主要负责人参加了学习考察。 这次学习考察是我市深入开展解放思想大讨论活动、进一步对照先进找差距、做好今年开局起步的各项工作、推动经济社会又好又快发展的重要举措。为期六天的学习考察，日程紧凑，内容充实。每到一地，考察团立即投入紧张的工作，利用一切机会，抓紧一切时间，重点实地考察了厦门文化艺术中心、厦门软件园产业基地、五缘湾片区改造、海岸线综合整治、城市夜景亮化、园博园、青岛经济技术开发区、青岛软件园、海信信息产业园、奥帆中心、黄岛金沙滩改造、青岛港招商局国际集装箱码头、烟台城市建设和旧城改造、国际博览中心、烟台经济技术开发区、龙口市南山集团等重点项目，参观了厦门明达光电、ＡＢＢ开关、金龙汽车、青岛中海油海洋工程制造基地、中船重工海西湾船舶产业集群、海尔集团、烟台浪潮乐金数字移动、上海通用东岳汽车、张裕卡斯特酒庄、富士康科技烟台工业园等重点企业，详细了解和虚心学习先进经验和做法，结合实际思考和谋划补课追赶的思路举措，整个学习考察活动达到了预期效果。所到之处，厦门、青岛、烟台三市给予了高度重视和热情周到的接待，并分别组织了座谈交流。 通过学习考察，考察团成员亲眼目睹和切身感受了三市加快发展、科学发展的生动景象和蓬勃生机，倍受震撼和触动。厦门、青岛、烟台三市同为首批沿海开放城市，近年来认真落实科学发展观，始终以经济建设为中心，聚精会神搞建设，一心一意谋发展，以大思路、大手笔和大气魄来推动又好又快发展，整体呈现出宏大的建设气势、强劲的增长态势和良好的发展后劲。厦门面积不足秦皇岛的五分之一，改革开放之初两市的起点基本相同，但去年厦门生产总值已超过秦皇岛２倍，全社会固定资产投资、财政收入和实际利用外资分别是秦皇岛的３倍、４倍和４倍。青岛去年地区生产总值突破３７８６亿元，地方财政收入达到２９２亿元，外商直接投资３８亿美元，远远地将秦皇岛甩在了后面。烟台近年来着力引进和建设一批重大项目，地区生产总值１９８４年是秦皇岛的２．４倍，去年扩大到秦皇岛的３．４倍，全年实际利用外资２４亿美元，接近秦皇岛改革开放以来引进外资的总量。烟台提出要在去年基础上，用５年时间实现生产总值翻一番，达到５８００亿元，地方财政收入达到３２０亿元，再造一个文明富庶的新烟台，充分展示了沿海先进地区永不懈怠、跨越发展的豪情与自信。 一路上，考察团成员边参观、边学习、边思考，自觉对照先进地区的工作，深刻反思和审视自己，认真查找工作中的不足。共同感到厦门、青岛、烟台三市的发展建设站位高、气魄大、理念新、机制活、后劲足，与秦皇岛全面拉开差距的序幕才刚刚开始，危机感和紧迫感陡增。普遍反映受到了深刻的教育和启发，收获颇丰，不虚此行。特别是通过学习考察，学到了经验，开阔了眼界，解放了思想，拓宽了思路。大家一致表示，要切实克服自满情绪、畏难情绪和躁动情绪，激发知耻后勇、发奋图强的决心斗志，以勇争一流的精神和求真务实的作风，干出成效，干出水平，努力把各项工作做得更好，推动秦皇岛又好又快发展。 学习考察期间，考察团先后在厦门、烟台召开会议，进行座谈讨论和总结交流。会上，考察团成员分别畅谈了考察感受，实事求是地分析了差距，对本地区、本部门和全市发展提出打算、措施和建议。王三堂高度概括总结了这次学习考察的收获、先进地区的特点和经验，并就放大学习考察成效、加快秦皇岛发展讲了重要意见。王三堂指出，走出去学习考察和招商推介是解放思想、推动工作、加快发展的重要方法，面对与沿海先进地区的巨大差距，我们既要增强责任感、压力感和危机感，大力破除自我感觉良好的思想状态，又要发掘自身的后发优势和特色，不能妄自菲薄，以此增强信心，坚定决心，扬长避短，负重奋进，在更高的层次上谋划补课追赶、又好又快发展。要下决心继续坚持走出去，组织全市各县区、市直各部门和各级干部进行专门考察和深入学习，组成有针对性、专业性的小团组开展招商推介活动。要注重做好学习考察的后续工作，认真对这次学习考察的成果进行整理归纳、研究分析、消化吸收和总结反思，切实把学习考察成果融入到今年的工作思路和今后的战略谋划之中。 王三堂要求，借鉴学习先进经验，重在破解瓶颈制约，促进又好又快发展。要把学习考察之后工作干得怎么样，作为衡量考察结果的唯一标准，坚持开放总揽、环境先导、民营突破、园区承载、项目攻坚的基本思路和统筹协调的基本方法，切实将学习考察的实际成果，体现落实到谋划发展的大思路、大手笔、大气魄和大行动上。要以问题为导向，找准落实基本思路和基本方法的制约因素，深入研究和进行破解，以大项目整合大资源。要结合学习考察，认真思考和解决好七个方面的突出问题，确保有实质性突破和大的成效：一是如何进一步解放思想、开拓思路、扩大开放、招商引资；二是如何进一步加快项目建设步伐，着力解决好土地、资金、园区建设等突出问题；三是如何加快拓展城市发展空间；四是如何加快海岸线规划建设和港口岸线调整；五是如何在更高层次上推动城市规划、建设、管理和基础设施建设；六是如何加快培育新型经济业态；七是如何抓住机遇，加快发展奥运经济和旅游产业。 王三堂强调，借鉴学习先进经验，加快秦皇岛经济社会发展，关键在人，关键在领导人，关键在主要领导人。各县区、市直部门和各级领导干部必须增强事业心、责任感，珍惜宝贵的工作机遇和岗位资源，沉下心来，埋头苦干，踏实工作。要坚持一切从工作出发，工作从实际出发，加大工作力度，提高工作效率，敢抓敢管，敢闯敢冒。要立足于大局，做长远打算，着眼于打基础，下笨功夫、实功夫和硬功夫。要注重加强干部队伍建设，在全市树立鲜明的干部导向和工作导向。 刘辰彦就学习考察谈了体会并提出要求。他强调，要进一步鼓励全市各级干部走出来学先进，找差距，定措施，促改进。要正视差距，认知自己，发挥比较优势，推动加快发展。把现有的资源优势和人的积极性、创造性结合起来，实现潜在后发优势向现实优势和发展优势的转化。要勇于担当责任，注重打好基础，抓紧研究细化城市发展规划和产业定位布局，抓紧基础设施建设。创新城市规划、建设和管理，注重听取专家学者的意见。重视解决基础设施建设的投融资问题，注重用市场手段筹集发展建设资金。要抓紧操作城市空间拓展和跨区域合作。 学习考察中，考察团就加强秦皇岛与厦门、青岛、烟台三市的联系，推动区域交流合作进行了探讨并达成初步意向，各市愿意在经济社会发展各方面建立合作交流机制，实现优势互补，互利共赢。此外，考察团还与福建省富贵鸟集团等大企业进行了招商洽谈活动。（记者 石伟）']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>5</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>市畜牧局有关人员赴哈兽研等单位学习考察</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2008-01-23</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=F09B56B8101A7A7585C2762FC95BF1D6</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['近日，市畜牧局副局长王福宽、佟文远带领该局有关人员赴中国农科院哈尔滨兽医研究所及长春皓月集团等单位进行了学习考察。 在哈尔滨兽医研究所，考察团一行就我市高致病性禽流感免疫程序和高致病性猪蓝耳病免疫中存在的问题进行了咨询，与哈兽研相关专家进行了座谈。专家们认真分析并提出了很好的建议。针对去年秋季高致病性猪蓝耳病免疫反应强烈等问题，研究员们理论结合实际地给予详尽解释并提出有效免疫程序。 考察团一行还对长春皓月集团进行了参观考察。该集团是一家以肉牛屠宰深加工为主营产品的民营股份制企业，总资产达23.5亿元人民币；涵盖六大产业，即牛羊养殖、饲料加工、食品生产、皮革加工、生化制品业和有机肥产业。考察团在对屠宰、分割、加工车间进行参观的同时，还就我市肉牛产业的发展前景和合作意向同皓月集团相关人员进行了探讨。']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>5</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>海港区着力实施五大工程</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2007-12-21</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=02C092B63FBEB60E8920F283DFDB527F</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['以思想解放的大飞跃，加快推进省内一流主城区的建设进程。１２月１４日，海港区委、区政府召开解放思想大讨论动员大会。 本次活动以“迎接新挑战，再创新优势，推进新发展”为主题，以开展“请进专家讲座、外出学习考察、深入基层问策、坐下集中研讨”活动为载体，着力解决制约该区发展的思想观念、工作作风、体制机制等方面的突出问题，全力做好“环境立区、产业强区、和谐兴区”三篇文章，扎实推进全面打造省内一流主城区步伐。将围绕干部队伍建设、城区发展总体战略思路、发展经济、新农村建设、城市建设与管理、构建和谐社会和改善民生、文化建设、为全区又好又快发展营造良好环境等事关全局的８个问题展开讨论。 据介绍，海港区本次解放思想大讨论，将把落脚点放在解决阻碍改革与发展的突出问题上，拿出解决问题的具体办法，把解放思想落到具体问题、具体项目、具体事实上来。通过解放思想，点燃发展激情，营造奋力赶超的浓厚氛围。同时在掌握发展大势的基础上，努力完善符合区情实际的发展思路，谋划重点工作，努力推进经济社会更好更快发展，并在转变工作作风、提高各级干部的执行能力和落实能力上下功夫。把解放思想大讨论活动和开展明年工作相结合，实施“五大工程”，即强区工程，壮大经济实力；民心工程，提升人民幸福指数；精品工程，提升城区整体形象；生态工程，推进城乡协调发展；基础工程，加强党的建设。（记者鄢玲 通讯员张瑞东）']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>5</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>昌黎海产品养殖加工协会带富一方农民</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2007-12-05</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=CD1AAC857B55FA398AA7703458BA679D</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['近日，记者来到了昌黎县团林乡，刚刚成立不久的昌黎县海产品养殖加工协会会长肖秋利说：“协会成立的主要目的是为协会会员及老百姓办点实事，宣传科学养殖方法，增加经验交流，让大家多了解一些养殖知识，减少些损失，都能过上好日子。” 据了解，协会的骨干成员由昌黎几位水产养殖大户组成，协会成立不久，他们在县里领导的带领下，一同到外地学习考察，在学习和交流过程中，大伙增长了见识，更增加了信心。考察回来后，会员们集中到一起交流学习心得，取长补短。协会下设工厂化养殖、海产品加工、渔民、滩涂养殖和扇贝养殖等五个分会，共吸收会员４５０名，协会定期组织会员开展有针对性的科技培训，积极推广标准化生产，建立水产品绿色无公害养殖基地。协会在网上建立了信息交流平台，定期向广大水产养殖加工户发布供求和养殖技术信息。协会的建立与发展规范了产业行为，密切了产业关系，大大增强了水产行业抵御风险的能力，促进了昌黎县水产品养殖加工产业的良性发展。（记者刘城）']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>5</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>一论结合我市实际学习贯彻党的十七大精神</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2007-11-12</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=DF7AAC70AD5AC71968EB8376BAECF861</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['党的十七大是在我国改革发展关键阶段召开的一次十分重要、具有里程碑意义的大会，十七大报告是我们党在新的历史起点上继续发展中国特色社会主义的政治宣言和行动纲领。省委七届三次全会专门做出了《关于认真学习贯彻党的十七大精神的决议》，要求迅速兴起学习宣传贯彻十七大精神的热潮。学习贯彻好党的十七大精神，对于我市广大党员、干部、群众进一步解放思想，实现又好又快发展，努力开创秦皇岛富民强市、加快崛起、全面小康的新局面有着非常重要的意义，是我们当前首要的政治任务。 学习贯彻好十七大精神，是解放思想，统一认识，凝聚人心，率先建设沿海经济社会发展强市的需要。党的十七大报告鲜明地回答了在改革发展的新阶段我们党举什么旗，走什么路，以什么样的精神状态朝着什么样的发展目标继续前进等重大理论和实际问题。省第七次党代会后，我市提出了“率先建设沿海经济社会发展强市”的奋斗目标，这一目标切合实际，鼓舞人心。要实现这一目标，任重而道远。当前首要任务应是进一步解放思想，更新观念。省委七届三次全会上张云川同志强调，贯彻好十七大精神，从我省来讲，很重要的一个问题是进一步解放思想。近一时期，我们通过学习考察，更深刻认识到了我市和国内及省内先进地区之间的差距。而最根本的差距是思想观念上的差距。如果我们思想不解放，观念不更新，差距会越来越大。另外，发展中必然要遇到一些困难和问题，要破除制约发展的瓶颈和障碍，就需要全市人民心往一处想，劲往一处使，用统筹的理念和科学的方法来解决好前进中的问题。党的十七大报告提出了许多新观点、新思想、新举措，为我们自觉把握和践行科学发展观、如何实现奋斗目标指明了方向。我们必须按照党的十七大精神进一步解放思想，统一认识，自觉地把思想和行动统一到党的十七大精神上来，把智慧和力量凝聚到尽快实现建设沿海经济社会发展强市的目标上来。 学习贯彻好党的十七大精神，是坚持以经济建设为中心，实现秦皇岛又好又快发展的需要。党的十七大报告强调“必须坚持把发展作为党执政兴国的第一要务，牢牢把握经济建设这个中心，坚持聚精会神搞建设，一心一意谋发展，不断解放和发展社会生产力”。省委七届三次全会明确提出：发展，对于实现我们的既定目标具有决定性意义，应当抓住一切机遇，调动一切积极因素，始终把这个第一要务紧紧抓在手上，任何时候都不能松懈和动摇。我们一定要认真思考和领会这些要求对秦皇岛的重要意义。科学发展观的第一要义是发展，做好秦皇岛工作，首先是要解决好发展问题。在发展的问题上，我们不能有丝毫动摇，秦皇岛一步也不能再耽误！没有经济的发展，一切社会事业的发展和民生问题的解决都将失去基础，任何把发展和民生、环境割裂或对立起来的做法都是不正确的。我们结合秦皇岛实际学习贯彻十七大精神，必须立足这一基本认识来思考问题，始终坚持经济建设为中心不动摇，树立“发展高于一切，实力决定一切，稳定压倒一切”的意识，抓住多载难逢的机遇，毫不动摇地上项目、打基础、壮实力，尽快改变经济规模不大、发展后劲不足、综合实力不强的状况，让全市人民生活得更加富裕、更加幸福。同时，牢固树立科学发展观，注重提高发展质量，注重优化发展环境，注重增强发展后劲。当前，要重点做好沿海港口和沿海城市两篇大文章，注重转变发展方式，加快推动开放创新。加快临海生态经济新区建设，加强生态建设和环境保护。要动员全社会力量，争创优美人居环境，通过我们不懈努力，建设宜居宜业宜游的“三宜”之城，建设富庶文明和谐新秦皇岛，实现真正意义上的又好又快发展。 学习贯彻好党的十七大精神，是做好当前我市各项工作的需要。党的十七大精神是做好工作的行动纲领和指南。当前，我市正处在发展的关键时期，也是发展的最好机遇期。按照十七大精神，我们必须进一步加强政治建设、经济建设、文化建设、社会建设。省委七届三次全会也着重提出，当前要努力促进经济又好又快发展，大力推进社会主义民主政治建设，积极推动文化的大发展、大繁荣，切实加强以民生为重点的社会建设。前不久，市委、市政府对７个方面２８项重点工作进行了责任分解，现在距年末不到两个月，各县区、各单位各项目标完成得如何？如有差距，就需要我们振奋精神，合力攻坚，奋起直追，确保完成任务。我们要以“三双”教育为载体，加强党的思想建设，提高党员素质，提高干部队伍的执政能力。要进一步加大项目建设力度，提高县域经济水平，壮大民营经济实力，抓好社会主义新农村建设；要全力推进文化事业、文化产业进一步发展，多措并举，打造文化强市；要切实关注民生，把百姓的事情作为第一大事，多办好事、实事。当前，已进冬季，领导干部要切实关心、关注百姓冷暖，扎扎实实帮助群众解决好实际问题。这一切，都必须用十七大精神作指导，使各项工作落到实处，取得实效。 目前，全市上下正在形成加快发展的共识，方方面面工作都有了新的进展，这一局面来之不易，必须倍加珍惜。各地各部门各单位必须充分认识学习贯彻好十七大精神的重要意义，按照省委七届三次会议要求，把学习贯彻好十七大精神放在头等重要位置。 千里之行，始于足下，让我们在党的十七大精神指导下，发奋图强，顽强拼搏，锐意进取，用我们的行动和实绩描绘秦皇岛更加美好的明天。']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>5</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>日本富山市民病院访问团到市第一医院参观讲学</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2007-10-30</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=6F26FFE2BC9A50425B63FCD89149A5C7</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['１０月２９日，以日本富山市民病院康复部长池上澄子为团长的医疗技术访问团来到市第一医院，就医疗护理等问题进行为期２天的参观讲学及学术交流活动。 １９８１年，我市与富山市结成友好城市，１９８６年起，市第一医院与富山市民病院缔结了友好关系，相互之间开始了学术交流。２０多年来，两家医院友好往来，市第一医院先后派出２０余名医生到日本进行学习交流，富山市民病院也６次派出访问团来市第一医院学习考察，对增进双方了解，促进医院管理水平、医疗水平、护理水平的提高起到了促进作用。 池上澄子一行参观了市第一医院的综合病房、药库、消毒供应中心、手术室、ＣＣＵ及门诊。当天下午，访问团与市第一医院的医护人员进行了深入的研讨，池上澄子还就人性化护理的相关问题进行了讲解。（记者 禹超）']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>5</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>我市奥运食品安全考察团赴京取经</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2007-12-20</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=1C522E6BB7C0BBD1319A189BFA664D7D</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['奥运食品安全不仅关系参赛运动员的身体健康和竞技水平，更关乎国家形象。作为２００８北京奥运的协办城市，为了确保奥运期间的食品安全，１２月１７日至１８日，由秦皇岛市委副书记王志欣和副市长李秦生带队的我市考察团赴北京，学习考察奥运食品安全工作。 考察团由市直各相关部门和１０家奥运备选企业的负责人组成。两天时间里，考察团分别来到北京市食品安全监控中心、金宝花园酒店、顺沿特种蔬菜种植基地、北京顺鑫农业股份有限公司创新食品分公司和鹏程食品分公司进行考察。北京市建设的食品安全技术平台，适应国际化大都市食品安全和奥运食品安全监管工作需要。先进的物流配送企业，完善的物流配套设施，网上业务操作的物流信息平台，现代化的屠宰企业，智能化屠宰，电子跟踪智能化切割，全程１８道检疫等国内一流、国际领先的部门和企业，让考察团的成员感触颇深。 在北京市食品安全监控中心，考察团了解了奥运食品安全检测体系建设情况，听取了北京市食品安全办公室关于奥运食品安全保障工作的经验介绍。同时，与北京市相关部门进行了座谈。 王志欣在座谈时指出，北京市先进的奥运食品追溯系统，实用的技术平台，食品安全方面拥有的专业、敬业的团队，都已基本适应了奥运会的要求。秦皇岛的相关部门和企业要虚心学习，在服务暑期、服务市民、服务奥运方面，根据自身特点，借助奥运契机，加快建设和完善具有本地特色的食品安全监控体系，确保圆满完成奥运期间食品安全保障工作。 副市长李秦生希望各相关部门要指导企业在标准化上下功夫，把企业做大做强。各相关企业要借助奥运，进一步提升企业品牌知名度，树立企业形象。（记者孟晓冬）']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>5</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>秦皇岛市天然气转换全部完成</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2007-11-02</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=A86CED1E643276177FBE466D73948F1F</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['我市天然气转换工程自６月２０日正式开始实施，经过近四个半月的艰苦努力，于１０月３０日全部完成。从此，我市１３万余煤气用户彻底告别了人工煤气时代，开始使用上了清洁高效、无毒环保的新型能源天然气。 我市天然气转换工程共涉及海港区１３万余煤气用户的整体转换。由于转换户数多，转换工作艰巨复杂，市煤气总公司在学习考察并借鉴其他城市天然气转换成功经验的基础上，根据我市实际情况，科学合理安排部署，将全市１３万余煤气用户分２４个批次逐区片进行转换，每批次转换５０００余用户，同时完成该区片范围内公建用户的转换工作。自６月２０日天然气转换工作从玉峰里等首批居民小区正式开始实施，整体转换工作按预定计划积极有序地向前推进。每周转换一批，进入９月底以后，转换工作进程加快，开始每周转换两批，入户转换全部安排在双休日进行。（记者王志起）']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>5</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>抚宁加快发展图强进位</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2007-10-29</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9E16498F7EF5BB615388F94172AFD5F5</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['１０月２４日，抚宁县召开县级领导干部“学习十七大精神，开展学霸州、比发展、争进位、建强县专题活动研讨会”\ue584贯彻落实科学发展观，谋求经济又好又快发展。 抚宁县以学习贯彻落实十七大精神为契机，进一步完善学习制度，健全交流机制，拓宽学习渠道，在全县各级领导班子和广大干部中营造求知、求学、求进的良好氛围。在学习内容上，把贯彻落实科学发展观、推进以改善民生为重点的社会建设为重点，深入理解掌握十七大精神实质。在学习方式上，采取集中宣讲，分散学习，举办学党章学十七大知识竞赛，在县电视台开辟“学习十七大精神，开展学霸州比发展争进位建强县”专栏、在党建网开辟学习十七大专题、组织科级干部到霸州学习考察挂职锻炼等形式，把学习贯彻十七大精神不断引向深入。 结合学习十七大精神，抚宁县委、县政府明确要坚持深入贯彻落实科学发展观，按照“五重”（重点思路、重大项目、重点工作、重要活动、重要举措）工作责任制要求\ue584突出抓好项目建设、城镇建设、文化建设和社会事业等项工作。要以富士康项目落户开发区为契机，积极谋划打造抚宁龙福电子工业园和首钢秦皇岛工业园两大园区建设，努力打造抚宁钢铁产业和电子产业集群。以大思路、大手笔规划城镇化建设，将城市外在形象和内在文化统筹起来，突出特色，打造亮点，努力提升总体形象。（通讯员张德胜 记者司玉明）']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>5</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>秦皇岛市党政考察团赴天津滨海新区邯郸等地学习考察启示录</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2007-09-21</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=9D7BCE6C89DA8ECD52296504008A0A06</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['壮大实力 彰显活力 “我们这儿的失地农民全部纳入养老保险，农村学生全部接受免费教育，６０岁以上老人全部免费体检……”邯郸高新技术产业开发区党工委书记、管委会主任闫德英说，项目建设、园区建设壮大了地区经济实力，也给老百姓带来了巨大实惠。 邯郸高新技术产业开发区是１９９２年经省政府批准设立的省级开发区。开发区定位于新材料、生物医药、装备制造产业，引进一批高科技产业。其中，投资１．２亿元的清华高技术陶瓷产业化基地项目和投资２．１亿元的汉光ＯＰＣ鼓项目均为国家“８６３”计划重点产业化项目，派瑞克创新园、鑫诺光纤等一批产业项目的科技含量都处于国内或国际领先水平，清华大学国际技术转移中心、河北工业大学产学研基地、邯郸“才智港”等为新区建设孵化了一大批高科技项目。 邯郸新材料产业基地孵化园坐落在邯郸高新技术产业开发区内，基地建成后，接纳百余项高技术成果和产业化项目，可创造两万个以上就业岗位，年产值可达５０亿元。 正是因为有了像邯郸新材料产业基地孵化园这样一批创业基地，邯郸高新技术产业开发区为众多企业提供了良好的发展环境，并为企业合资、合作搭建了平台。２００４年，开发区主要经济指标综合增幅列全省开发区第一位，创业环境列第二位，２００６年单位面积投资强度列全省开发区第一位，已逐渐成长为投资环境佳、服务效能高、产业特色优势强的特色经济板块。 实力决定一切，有了强大的经济实力支撑，才能给老百姓谋来更多的实惠，才能彰显地区社会发展的活力。发展意识、实力意识已成为时代的主题，发展是第一要务，坚持科学发展、跨越发展，这是建设和谐社会的时代要求。 民生优先 造福百姓 “我们这儿有个女孩子，父母双亡，成了孤儿，曾三次想自杀。我们把她接到‘爱心家园’后，多方关照、教育，孩子情绪转变很快，学习也很好，在学校的每次考试中都是第一名。”在廊坊市固安县“爱心家园”，工作人员给考察团人员讲了一个女孩子的故事。 固安县“爱心家园”是按照廊坊市委、市政府“进一步做好孤儿救助工作，全面提高孤儿救助水平”的精神，本着“以人为本，民生优先”的原则而兴建的，设有宿舍、阅览室、文体活动室、教室、卫生保健室、餐厅等，集生活、娱乐、学习、教育、保健、健身于一体，设施齐全，功能完备。全县共有孤儿７３名，目前全部在这儿实行集中供养、集中就读。 和“爱心家园”同在一个院子里的，还有一个固安县中心敬老院。走进老人们居住的房间，卫生间、彩电、衣橱等设施一应俱全。老人们说，住在这儿，饿不着，冷不着，还有浴室、健身室、医疗保健室等，生活方便、自在，感谢党和政府给我们办的大好事。 据工作人员介绍，中心敬老院承担着固安镇、工业园区及附近几个乡镇五保对象的供养任务，入住五保老人１４６名，老人在这儿实现了老有所养、老有所医、老有所乐，如今，敬老院的建设已达到省、市三星级建设标准。 让全县孤儿集中供养，让五保老人老有所养，这是大大的好事，但资金从哪来？据固安县委的一位领导介绍，“爱心家园”、中心敬老院一年所需的经费是２００万元，加上其他地方建设的敬老院投入，全县一年需经费１６００万元，这些钱全部由县财政负担。他还说，县里启动这些民心工程的建设，完全来自这几年全县经济实力的不断壮大。经济发展了，就要坚持“以人为本，民生优先”的原则给老百姓多办实事。 ８月３０日，在邯郸市丛台区城镇合作医疗中心服务大厅，有五六个人拿着票据及相关材料在办理医疗费报销手续。一位姓王的妇女告诉记者，自己现在没有工作，上月住院花了好几千元，有了合作医疗，能报销一部分，家里的负担就轻多了。 丛台区今年初实施的新型城镇合作医疗制度，是旨在解决城镇无业人员、下岗失业职工“病有所医”、实现医疗保障全覆盖的重大举措。如今参合居民达到１０．７万多人，参合率达到９８．５％。目前，共为３７１１人报销医疗费近百万元。 据了解，为方便群众就医，丛台区按照“坚持标准、合理布局”的原则，选择了４９家医疗机构，全部做到居民群众步行一刻钟就能到定点医院看病治疗。为使这项惠民政策让老百姓得到更多实惠，丛台区还结合实际，出台了城镇合作医疗二次补偿标准，降低了起付线，提高了报销比例，住院费报销金额比原来提高了30%. “实施新型城镇合作医疗制度，受到广大市民的欢迎和拥护。让更广大的人民群众享受社会发展成果，让一方百姓过上幸福生活，是政府义不容辞的责任，而政府履行这个责任，必须以经济发展为后盾。”丛台区一位区领导介绍说。 固安县建设“爱心家园”、丛台区实行合作医疗制度，无一例外是地区经济快速发展的最好证明。要想给老百姓解决诸如养老、看病等重点、难点问题，没有经济发展的实力作保障，即使有再好的愿望也难以实现。“巧妇难为无米之炊”，作为各级政府，要给老百姓谋实惠之“炊”，就要先求经济实力之“米”。 统筹城乡 共享成果 以工促农，以城带乡，促进城乡统筹协调发展，是新时期建设和谐社会的重大命题。廊坊、沧州、邢台、邯郸等地，在加快项目建设、园区建设、城市建设的同时，以强大的经济实力作后盾，坚持城乡协调发展，从群众最关心、最直接、最现实的利益问题入手，从最需要关心帮助困难群众的事情做起，让广大群众充分享受经济发展成果，尤其给广大农村带来实惠。 近年来，廊坊市委、市政府每年在广泛征求群众意见的基础上，都要兴办“十件实事”，让广大群众充分享受经济发展的成果，让百姓在经济发展中受益。统计数据显示，２０００年以来，廊坊市先后投入资金６０多亿元，着重解决了与市民生活密切相关的就业、社保、医疗、居住、出行、教育、食品安全、水电气供应等方面的实际问题上百项、近万件。 为解决好社会事业“短腿”的问题，统筹城乡发展，缩小城乡差距，廊坊市把农村作为工作重点，从２００５年开始，针对农村救助体系不健全，百姓出行难、就医难等实际问题，在农村全面实施“医、学、路、水、保、养”六项工程，并把五保户集中供养作为突破口，试点先行，以点带面，全面推开。 两年来，围绕解决农民最现实、最紧迫的生活问题，廊坊市累计投入资金１０多亿元，农村“六项工程”让农民实现了病有所医、老有所养，吃干净水、走柏油路，子女有学上、吃穿有保障。农村敬老院由过去的９３所整合为４５所，改善了生活设施，使五保老人的集中供养率提高了４３．１％，２００６年集中供养率达到５８％。新建改建乡镇卫生院３８所，完成村卫生室标准化改造１８０所，新型农村合作医疗参合总人数８４．５万人。为５万多名义务教育阶段贫困家庭学生免费提供教科书，为３．６万名贫困家庭学生补助了生活费，使１３００多名农村辍学学生重返校园，确保了无一名学生因家庭贫困辍学。４．５万户低保户实现了应保尽保，２５６个村街、２１．４万人告别了高氟水或苦咸水。在全省率先实现村村通油路。（记者司玉明）']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>5</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>秦皇岛市党政领导赴廊坊天津滨海新区沧州邢台邯郸等地学习考察</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2007-09-03</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5EA929876391288016A52DE58D0ED95E</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['８月２７日至３１日，由市委书记王三堂，市委副书记、市长菅瑞亭带队，带领四县三区、开发区和部分市直部门的主要负责同志，专程赴廊坊市、天津滨海新区、沧州市、邢台市、邯郸市进行学习考察。 这次学习考察是在全面建设沿海经济社会发展强市的大背景下组织的。市委、市政府精心选择了周边发展迅猛、变化较大的地区进行有针对性学习，以期激发全市各县区和市直各部门干事创业、加快发展的激情，因而具有十分重要的意义。学习考察的主要内容是先进地区加强项目建设的经验，特别是吸引、推进立市立县重点项目的成功做法；城市规划、建设、管理的新思路、新举措；工业园区建设的好经验、好做法；维护民生民计、促进社会和谐的亮点工作；利用学习考察的机会，推介秦皇岛发展环境和投资商机，推动地区间的信息交流和战略合作。 五天来，考察团不辞劳苦，一路奔波，先后考察了廊坊市的城市规划展示馆、固安工业园区、永清工业园区，天津市的滨海新区、天津港、东疆保税港区、集装箱码头，沧州市的渤海新区、黄骅港、神华集团二期煤码头，邢台市的宁波工业园区、七里河综合治理工程，邯郸市的鑫港国际会展中心、经济技术开发区才智港、第七一八研究所派瑞产业科技园、邯钢新区、邯郸机场、邯郸博物馆等。同时兼顾考察了廊坊华为北方基地、富士康电子制造基地、京东方移动显示技术、沧州中捷石化集团、国华沧东电厂、大化集团５万吨ＴＤＩ项目、邢台中煤旭日焦化公司、中钢邢机、邯郸西瓦科电气、重汽路神、奥德特种玻璃等骨干企业和重点项目，参观学习了固安爱心家园、廊坊人民公园、新世纪步行街、天津滨海新区规划建设展馆、邢台市城市规划展、邯郸市赵苑公园、拉德芳斯住宅小区、丛台新城合运行中心、龙湖公园等城市建设、市容环境和重点民生工程。每到一地，考察团都认真听取当地的情况介绍，利用各种机会学习可资借鉴的思路和做法，深入思考回来之后的工作新思路、新举措，不断增强加快发展的紧迫感。 近年来，廊坊、天津滨海新区、沧州、邢台和邯郸等地思想理念之新、发展氛围之浓、经济跃升之快、城市环境之美以及在重点建设上的大思路、大手笔、大气魄、大变化，给市党政考察团一行留下了深刻印象，每位成员都深受震撼，倍感压力，触动很大。一路之上，考察团边走边学边议，晚上挤时间讨论交流，从比较中看差距，从差距中增压力，从压力中谋发展。为确保学习考察取得实效，王三堂特别要求参加考察的各县区、开发区及有关部门负责人，要高度重视此次学习考察机会，虚心学习，认真学习，深入学习，不断学习，通过学习，振奋精神，立大志，谋大事，在工作中树大思路，增大气魄，努力克服自满情绪、畏难情绪、躁动情绪，扎实做好我们的项目建设、园区建设及城市建设等工作。 考察结束时，考察团专门组织了学习讨论活动，考察团每位成员都做了简要发言，深入总结和交流这次考察的初步成果，一直持续到深夜。王三堂要求以学习考察为新起点，放大考察的成果效应，深化对经济建设为中心的理解，增强更好更快发展的紧迫感，理性借鉴先进地区发展经验，从本地实际出发制定新的思路和大的举措，扎实务实地推进各项工作部署。王三堂指出，我们考察过的这些地方，在发展上各有各的高招，各有各的亮点，都有值得我们学习借鉴的地方。小思路小发展，大思路大发展；小气魄小发展，大气魄大发展。我们要看到差距，奋起直追，增强信心，加快发展。要从实际出发，以大气魄和高站位谋划思路、推动工作，扎实搞好项目建设、园区建设、城市建设、民生和谐等重点工作。要从自己做起，谋事干事，激发激情，点燃激情，传递激情，保持激情，调动每个人的工作积极性，层层施加压力，层层落实责任，实实在在上些好项目，实实在在为老百姓谋利益。 菅瑞亭在讨论时说，我们考察的这些地方，在项目建设、园区建设、城市建设等方面都有许多值得学习的好经验、好做法，我们要看到不足，明确今后发展的方向。要增强强烈的发展意识，把精力集中到经济建设上来，正视问题，解决问题，用大思路、大手笔谋划工作，加大力度，站在新的起点上促进经济社会更好更快发展。 考察期间，考察团还利用各种机会宣传、推介我市的发展环境和投资商机，并立足发挥自身优势，围绕与沿海先进地区开展战略合作，带动和服务内陆腹地发展，积极扩大沿海开放，促进区域间互利共赢，与各地进行了深入交流和探讨，取得了一批重要的区域合作意向和成果。 市委副书记王志欣，市委常委、常务副市长马誉峰参加了学习考察活动。（记者司玉明）']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>5</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>市党政考察团赴廊坊天津滨海新区沧州邢台邯郸学习考察启示录</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2007-09-25</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=4E9A23BAF7A203CB1F4DB010EA368630</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['规划重于泰山 规划须先行 天安门正南５０公里、１０条高速全程直通、大北京经济圈一小时成本洼地、电子信息产业基地……走进廊坊市固安工业园区规划馆，看展厅、观模型、听讲解，工业园区的区位、成本、产业集群等优势让人一目了然。 固安工业园区在２００２年６月以“固发新城市”的概念正式奠基。工业园区成立以来，以“市场化运作、多元化投入、企业化经营、专业化招商、标准化管理、个性化服务”为基本特点的发展机制，赋予了工业园区旺盛持久的生命力，引进了包括美国亚新科、国内最大的汽车钢圈制造商福建在兴车轮集团、全球最大的平板电脑显示屏京东方科技股份有限公司等一大批大型企业。２００６年，被省政府批准为省级开发区。 固安工业园区坚持规划先行，科学定位，聘请国际四大著名咨询机构之一的德国罗兰贝格公司对工业园区进行产业定位研究，运用产业价值链分析、资源匹配性分析、产业类型综合评估等研究办法，结合工业园区开发实际，确立了以电子信息制造业、汽车零部件和民生用品三大核心产业。 同时，固安工业园区还以“未来城市试验区”为核心理念的发展定位，聘请世界规划设计行业的领袖企业美国ＤＰＺ公司、ＥＤＳＡ公司和英国阿特金斯事务所为其担纲负责概念性总体规划、起步区总体规划，并由师从吴良镛院士的清华大学博士后专家、国际资深城市规划师、ＤＰＺ亚洲首席专家及马来西亚、澳大利亚等８个专业领先国家的２０余名顶尖专业人士组成“国际咨询工作营”，为工业区城市景观和战略发展等作出规划方案。 高标准规划、高标准建设、高层次招商，建区以来，固安工业园区投资规模达到１０４亿元、１３３４５万美元，成为大北京经济圈一个国际化、标准化、生态优美和可持续发展投资空间。 在廊坊市，有一个在全国第一个以宣传城市规划为主要内容的主题广场，叫未来广场。广场主体是一座高１６米、由１０００多块花岗岩砌筑而成的“规划山”，规划山正中刻有八个大字：规划即法，执法如山。据廊坊城市规划展示馆的负责人介绍，修建规划山的主旨，就是城市规划一经人大批准，即具法律效力，就要毫不动摇地坚决执行，任何单位和个人不得擅自更改。同时，时时刻刻提醒全体市民，要自觉遵守城市规划，严格执行城市规划，主动监督城市规划，积极参与城市规划，让城市建设按照科学、规范、可持续发展的道路健康发展。 走活“一盘棋” 乘车行驶在通往黄骅大港的公路上，两边是沉寂着的一眼望不到边的滩涂。沧州市的一位新闻同行说：“你可别小看眼前这些盐碱滩，过不了几年，这里就会崛起一座座现代化的城镇呢！” 原因就是这里正在崛起一个现代化的经济新区——渤海新区。 渤海新区，指的是沧州东部临海区域，包括黄骅市、海兴县、黄骅港开发区、临港经济技术开发区、南大港管理区和临港化工园区六个县级行政区域。长期以来，这六个区域为促进当地经济发展，都各自进行了规划。但以更广阔的视角审视，则存在着重复建设、资源浪费等现象。同时，由于行政区划的阻隔，一些地方的产业聚集也大受限制。“成立渤海新区，进行体制机制创新，这将有助于建立港口、港城和工业区之间的统一高效的行政管理体制，理顺条块之间，政府、工业区和企业之间的关系。”沧州渤海新区管委会一位负责人说，新区赋予省级开发区职能，负责对所辖区域进行统一规划、统一组织、统一管理、统一资源配置。与过去的“各自为战、盲目发展”相比，渤海新区强调的是“一盘棋”思想。 如今，在沧州沿海临港这张２０００多平方公里的大“棋盘”上，沧州市专门委托国际国内知名设计单位和一流专家进行统一规划，高标准、高质量地完成了《渤海新区发展规划》《港口综合交通规划》和《临港产业发展规划》等。科学的规划是一个地区发展的基础，沧州市为了完成这些规划共斥资１７００万元。 黄骅港，在苍茫的渤海湾显得格外年轻而富有活力，这儿是渤海新区发展的“龙头”，是沧州临港经济发展的“引擎”。进入港区，水波激荡的港池、巨龙似的煤炭传输设备和泊航的万吨巨轮，充分展示着一个现代化大港的风采。 沧州市政府的一位负责人介绍，发展临港经济对沧州来说是一个崭新的课题。该市多次组织国家和省内的专家学者举行研讨会，就如何发展临港经济征求专家学者意见，并及时制定了临港产业发展的中长期规划。在这个中长期规划中，确定了以黄骅港开发区、临港化工园区、南大港管理区、海兴、黄骅等沿海临港区域为载体，充分利用丰富的海水、石油等资源，吸引生产要素向沿海聚集，全力打造化工、电力、先进制造业和物流集散中心的沿海经济发展。 “昔日荒凉地，如今化工城。”在沧州，人们这样描述渤海湾畔亘古荒地上发生的巨变。在距黄骅港不到２０公里的沧州临港化工园区，呈现出一派厂房林立、红红火火的建设场面。“目前，进园企业已达４５家，投资规模超过１００亿元，其中正在建设的５万吨ＴＤＩ项目居国内领先水平。未来几年，临港化工园区将完成投资２５０亿元，实现销售收入３８０亿元。”园区工作人员这样的描述让人们看到了沧州渤海新区生机盎然的明天。 人文＋科学 今年８月１５日，邢台市规划局聘请的３０名市民规划师正式上任。 为实现城市的有序发展，推进城市规划的科学化、规范化，扩大市民的知情权、建议权、监督权，实现阳光行政和公众参与，邢台市从众多申报者当中，选出了３０名市民规划师。被聘请的市民规划师来自机关单位、社会团体、新闻媒体、司法、文化等各个领域，他们关心城市建设，大部分具有本科以上学历，具有较高的素质。 作为市民规划师，他们要参加城市规划的咨询决策；要求市规划局就有关城市规划和建设问题予以答复；提出规划建议和意见；向规划部门反映市民的意愿和要求；向市民宣传城市规划法律法规；发现、举报违法建设工程。 没有好的规划，一个城市就等于没有了灵魂，项目建设、园区建设更是不能没有科学的规划。 在廊坊、沧州、邢台、邯郸等地，每个地方的城市规划展示馆和一些工业园区的规划馆给考察团人员留下深刻印象。这些规划馆成为展示城市形象、文化、发展的浓缩点，成为市民参与规划、走近规划的重要桥梁，成为促进城市间相互了解的宣传窗口，成为展示区位优势、产业优势、招商政策的有效载体等等。 在廊坊市人民公园、新世纪步行街，邯郸市的赵苑公园、龙湖公园等，这些民生工程的规划建设都独具匠心。赵苑公园是邯郸市最大的公园，如今成为众多市民和游客游玩的好去处。赵苑公园的建设规划由中国对外园林建设总公司完成总体规划设计，按照“赵都＋绿网”“文化＋绿化”的城市园林绿化总体特色，营造“城市之肺”，创造良好的人居生态环境；营造传统文化氛围，展示国家级历史文化名城和全国“成语典故之乡”的风采。 邢台市的“阳光规划”值得提倡，而让高水平的规划公司和专业人员进行规划更是关键所在。如为了切实做好滨海新区规划工作，按照“统一规划，综合协调，建设若干特色鲜明的功能区”的要求，天津市滨海新区管理委员会和天津市规划局于２００６年１０月初至２００６年１２月２５日期间，联合组织对包括滨海高新技术产业区、海港物流区、临空产业区、滨海中心商务商业区和海滨休闲旅游区等五大功能区进行规划设计方案国际征集，以提高规划设计水平。（记者司玉明）']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>5</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>秦皇岛市党政考察团赴廊坊天津滨海新区等地学习考察启示录</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2007-09-12</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=C0EAC4BCBBBC65C04198108BE00B9835</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['编者按：为学习先进经验，查找差距不足，增强发展压力，创新工作思路，实现补课赶超，加快建设富有实力、充满活力、独具魅力的沿海经济社会发展强市，８月２７日至３１日，由市委书记王三堂，市委副书记、市长菅瑞亭带队，带领四县三区、开发区和部分市直部门的主要负责同志，组成党政考察团，专程赴廊坊市、天津滨海新区、沧州市、邢台市、邯郸市就项目建设、园区建设、城市建设等进行学习考察。从今天起，本报刊发《市党政考察团赴廊坊、天津滨海新区、沧州、邢台、邯郸学习考察启示录》系列报道，全面介绍这些地区加强项目建设的经验，城市规划、建设、管理的新思路、新举措，工业园区建设的好经验、好做法，维护民生民计、促进社会和谐的亮点工作等，以期对我市项目建设、园区建设、城市建设等工作有所启示，激发广大干部群众的工作积极性，寻找差距，增加压力，拓宽思路，加快发展。 爱拼才会赢 ８月２７日，市党政考察团来到廊坊市固安工业园区内亚新科汽车零部件项目基地，这个项目由美国大型汽车零部件制造企业——ＡＳＩＭＣＯ投资建设。一期项目已开工生产，年产值达到３．５亿元，年纳税额３５００万元，产品５０％出口美国和欧洲。目前，二期项目正在建设之中，达产后，固安工业园区将成为国际汽车零部件生产基地，随着众多配套企业的建立，这里将形成一个中国最大的汽车零部件产业集群。 走进廊坊，一股干事业、上项目、求发展的热潮便扑面而来。在与市党政领导交谈时，在与有关部门负责人的接触中，尤其是来到项目工地上，这种印象愈加深刻。廊坊市委、市政府紧紧围绕“全党抓经济，重点抓工业，集中精力上项目”的思路，充分发挥环京津、临渤海的“双重”优势，几年如一日改善发展环境，连续实施了“大项目攻坚年”“招商引资突破年”和“项目质量提高年”，加快项目建设。廊坊市还叫响“引进项目是真本事、建成项目是真业绩”，把项目建设作为干部的第一责任、第一能力、第一政绩。每季组织一次项目拉练，市委书记、市长带领市直主要部门和各县（市、区）党政一把手，逐县实地观摩新开工项目、竣工达产项目。市里每年筹集１０００万元资金，用于项目工作专项经费，着力锻造一支招商引资的高素质团队。每名市级领导分包１个亿元以上大项目，从项目洽谈到竣工投产全程负责。同时，成立了投资项目服务中心，以政府支持、市场运作、个性服务为运行模式，为招商引资、项目建设提供全方位服务。富士康等一批大项目落户廊坊，正是他们长年坚持不懈、集中攻坚的结果。在项目建设的拉动下，廊坊市２００６年全部财政收入达到７４亿多元，同比增长２７．３％，今年更是有望突破１００亿元。 有首很流行的歌曲叫《爱拼才会赢》。实干才是最美妙的音符。廊坊市的实践告诉我们，事业是干出来的，干是真功，干是硬道理，干是最有说服力的行动。对看准的事情、认准的目标，就要不遗余力、心无旁骛地去做。只要保持咬定青山不放松的精神，坚守不达目的不罢休的韧劲，就能干成事、干大事。 奇招出奇效 七里河是纵贯邢台市南部的一条主要行洪河道，市区河道总长２０．４公里。长期以来，七里河区域由于缺乏有效的治理，河道淤积严重，生态环境恶化，致使市区环境和市民生活质量受到极大影响，同时也给城市防洪安全带来重大隐患，直接影响邢台市的对外开放和投资环境。 ２００５年６月，邢台市做出了实施七里河综合治理工程的决定，并依照“防洪、生态、休闲、宜居”的要求，坚持堤、林、路、桥、河综合整治的原则，“十一五”期间投资５０亿元，力争把七里河区域建成高品位的生态旅游区、宜居生活区和循环经济示范区。为把这个项目搞好，邢台市在财政十分紧张的情况下，斥资２．１１８亿元，用于前期准备工作，并清理出可用土地５平方公里。同时，授权邢台市路桥建设总公司为七里河治理工程的项目业主，由该公司按市场模式运作，自主融资投资、自主建设施工、自主经营管理、自负盈亏。业主整理出来的７５００多亩土地用于综合开发，土地出让金返还给业主，治理工程免收各种行政性收费，建设项目税赋先征后返，除依法上缴外，全额返还业主。这一政策的出台，使政府不背包袱，业主有利可图。工程完工后，河道防洪标准由以前的不足５年一遇达到５０年一遇，可为市区８０万人口人均新增水面９．５平方米，新增绿地１４．４平方米。目前，七里河综合治理工程已投入１３亿多元，河道清障工作全面完成，河上的钢铁路大桥、新华路大桥已竣工通车。 面对规模宏大、初见成效的七里河综合治理工程，市委书记王三堂由衷赞叹：综合治理，一举多得！他还专门叮嘱随行考察的山海关区委书记郑宝亮，要认真学习邢台经验，抓紧启动石河的综合治理工作。在考察过程中，考察团成员纷纷评价：邢台的城市升值了，产业升级了，人气升高了\ue525 谋事在人，成功在于实干。邢台市在启动七里河综合治理工程时，当时也面临许多困难和问题，但都一个个迎刃而解。此所谓，有志者事竟成。当面对困难或问题时，有的人可能产生畏难情绪，不主动去想办法解决困难或问题；有的人可能产生“不到长城非好汉”的心理，会动脑筋、想办法。要想有奇效，就要有奇招；要想有奇招，就要有奇人。人的智慧是无穷的，关键是要有开启智慧的志向和决心。不怕事情做不到，就怕没有实干精神。我们要以大手笔、大气魄，认真谋划好符合自己实际的工作思路，以实干的精神把事干好。实干论英雄 总投资１９３亿元、占地４００９亩的邯钢新区全部开发，进入投资高峰期；邯郸飞机场投入正式运营；河北国电龙山电厂１号机组开始了单体试运行，２号锅炉各种设备安装达６０％；天铁冶金集团３８０万吨热轧板卷工程各种设备安装完成，正在进行单机试车；峰峰集团煤化工项目２号焦炉已竣工并投入使用，１号焦炉建设进入扫尾阶段……去年邯郸市是近几年来项目建设形势最好的一年，全市固定资产投资完成６００亿元。为把这种良好的发展态势巩固下去，邯郸市今年年初就制定了全市建设目标，即全市固定资产投资完成７５０亿元，力争完成８００亿元，增速达到３３％，一年增加２００亿元，这在邯郸历史上是前所未有的。 这个宏伟的目标是由邯郸市经济增长的特点决定的。对经济发展尚处于“投资推动阶段”的邯郸来说，没有一定的投资规模，要保持经济持续快速增长是不可能的。２００５年，邯郸市委、市政府审时度势，制定了与“十一五”规划相配套的“四大”建设指导纲要，以大产业为支柱，大基地为依托，大园区为平台，大项目为载体，四位一体，构筑起全市经济发展的战略布局。 “今天的固定资产投资，就是明天的经济总量。”邯郸市委书记孙瑞彬掷地有声，“四大”建设的核心是项目。抓“四大”就是抓投资，抓投资就是抓项目。只要符合国家产业政策、环保政策、土地政策和全市规划，就可以放心大胆地干。 项目向园区集中，形成产业集群——８００亿元固定资产投资目标，不仅意味着以项目为主的“四大”建设理念上的升华，更使其有了质的飞跃，一批拉动全市发展的大项目、好项目迅速“成长”。 目前，“在项目建设上比高低、在项目建设上论英雄”的热潮已在邯郸市上下涌起，“四大”建设以更加蓬勃之势迅猛向前，邯郸市制定的建设四省交界区域经济中心的宏伟蓝图已经掀起崭新的一页。']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>5</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>河南省委常委郑州市委书记王文超会见我市学习考察团</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2006-09-14</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=BB3257E6BF1270CC7C2669E1C551F9D2</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['结束了在苏州的学习考察活动后，我市学习考察团一行于９月１２日晚抵达了地处中华腹地、九州之中的河南省省会郑州市。河南省委常委、郑州市委书记王文超等郑州市党政领导亲切会见了考察团一行，双方就经济社会发展方面的经验进行了交流。 近年来，郑州市以加强城市建设、拉长工业短腿、发展县域经济为突破口，综合实力得到显著增强。特别是在城市总体规划建设方面采取了多项战略举措，既注重老城区的改造，又开始建设新城区，短短几年所取得的成就令国内外刮目相看。抵达郑州市当晚，学习考察团就参观了郑州市的城市亮化工程。 ９月１３日上午，考察团来到郑东新区参观。经过３年的建设，这个区已初见规模，其中央商务区、龙湖区和商住物流区占地３３平方公里，无论是规划设计还是建设水准都是国内一流。学习考察团再一次为大规划、大手笔、大气魄所带来的大效应深感触动。 王文超对我市学习考察团的到来表示欢迎。他向来宾介绍了郑州市近几年经济、社会、文化等各方面发展所取得的成绩和经验，并就郑州未来如何落实科学发展观、加快发展、维护稳定、为民谋利、促进中原崛起进行了阐述。 我市学习考察团团长、市委书记宋长瑞对王文超书记拨冗会见表示感谢。他简要介绍了我市的自然环境、经济及社会各项事业发展成就，希望通过这次学习考察，把郑州市在城市建设等各方面好的经验、好的理念、好的做法带回去，为建设“绿色、和谐、活力、魅力秦皇岛”作出贡献。 学习考察团一行还参观了河南博物馆等地。（记者王志起）']</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A197" t="n">
+        <v>5</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>河北省委召开全省领导干部会议</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2007-09-03</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=FB2F351796A1B35FFA524D16F133DD74</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>['中央组织部副部长张纪南传达中央决定并作重要讲话。白克明、张云川也分别在会上讲话。省委副书记、省长郭庚茂主持会议。 张纪南首先传达中共中央决定：张云川同志任河北省委委员、常委、书记，白克明同志不再担任河北省委书记、常委、委员职务。 张纪南在讲话中指出，党的十六大以来，河北省委、省政府高举邓小平理论和“三个代表”重要思想的伟大旗帜，按照胡锦涛总书记在西柏坡学习考察时提出的“交一份优异答卷”的要求，团结带领全省广大党员干部和人民群众，深入贯彻落实科学发展观，在经济建设、政治建设、文化建设、社会建设和党的建设等方面都取得了明显成效。近年来，各项主要经济指标均实现了两位数增长，特别是在2005年全省生产总值过万亿元，财政收入过千亿元，达到“双超一”，实现了历史性突破，综合经济实力跨上了新台阶。目前，全省广大干部群众正围绕省第七次党代会提出的建设沿海经济社会发展强省的奋斗目标，锐意进取，努力拼搏，全省上下呈现出人心思进、团结奋斗、开拓前进的良好局面。 张纪南说，中央对白克明同志的工作是充分肯定的。白克明同志在担任河北省委书记近五年时间里，为河北的改革、发展和稳定倾注了大量心血，作出了重要贡献。他说，白克明同志政治上强，自觉同党中央保持高度一致。思想敏锐，政策理论水平高，驾驭全局的能力强。思路清晰，能够结合实际创造性地开展工作。勤奋敬业，作风深入，关心群众疾苦。坚持民主集中制，重大问题能认真听取意见，注意调动领导班子成员的积极性。为人正派，性情耿直，敢抓敢管，对自己要求严格，在干部群众中有较高威信。 张纪南在介绍了张云川同志的简历后说，张云川同志政治上强。坚持以邓小平理论和“三个代表”重要思想为指导，自觉树立和落实科学发展观，坚决贯彻执行党的路线方针政策。在重大原则问题上头脑清醒、旗帜鲜明，自觉同党中央保持高度一致。张云川同志经过地方多个层次、多个领导岗位的锻炼，对党务和经济工作都比较熟悉，驾驭全局和处理复杂问题的能力强。事业心和责任感强。善于学习，勤于思考，接受新事物比较快。作风扎实，经常深入基层调查研究。坚持民主集中制原则，注重发挥班子成员作用，重大问题集体研究决定。重视党风廉政建设和反腐败工作，要求自己严格，群众威信较高。中央认为，张云川同志担任河北省委书记的职务是合适的。 张纪南指出，这次省委主要领导的调整变动，正值党的十七大召开前夕，省内外都很关注。希望全省各级领导干部认真贯彻中央的指示精神，把思想和行动统一到中央精神上来，讲政治、顾大局、守纪律，恪尽职守，团结协作，以实际行动确保省委工作的顺利交接、平稳过渡，努力维护全省团结稳定的大好局面，保持经济社会发展的良好势头，让中央放心，让全省人民满意。 张纪南要求，全省广大党员和干部群众要认真学习贯彻胡锦涛总书记6月25日在中央党校省部级干部进修班上发表的重要讲话精神，深刻领会科学内涵，准确把握精神实质，切实把广大干部群众的思想和行动统一到高举中国特色社会主义伟大旗帜上来，统一到党中央作出的一系列重大决策部署上来，联系河北实际，按照省第七次党代会确定的奋斗目标，切实做好建设沿海经济社会发展强省开局之年的各项工作。要切实发挥好首都“护城河”作用，扎实深入地做好维护稳定工作，为党的十七大胜利召开创造良好的外围环境。要充分调动各方面的积极性，推动经济社会又好又快发展。 白克明在讲话中表示，完全拥护中央关于河北省委人事调整的决定，对张云川同志担任省委书记表示衷心支持。他对五年来河北广大党员干部和人民群众给予的关心、支持与帮助表示深深感谢，对省委、省人大、省政府、省政协各位领导同志和河北的老同志，各民主党派和人民团体领导同志，省军区和驻冀部队领导同志给予的关心、支持与帮助表示深深感谢。他说，去年，省第七次党代表大会提出了建设“沿海经济社会发展强省”的宏伟目标，这是6800万河北人民的共同心声和强烈愿望。实现这个目标任重而道远，必须倍加珍惜当前好的形势，必须始终不渝地朝着这个目标开拓进取。事业在协作中推进，理想在实干中展现。相信只要全省广大干部群众团结协作、真抓实干，我们既定的目标就一定会实现，也一定能够实现。他表示，将会始终关心河北的发展，并为同志们不断取得的新成绩而由衷地高兴。 新任省委书记张云川在讲话中表示，将和省委及各套班子的同志们一道，坚决贯彻执行以胡锦涛同志为总书记的党中央的一切工作方针、政策和决定，保持政令畅通、行动一致；高高举起建设中国特色社会主义的伟大旗帜，坚持以邓小平理论和“三个代表”重要思想为指导，深入贯彻科学发展观，大力推进和谐社会建设和党的建设；一切从河北的实际出发，以人民群众的利益为本，调动一切积极因素，形成合力，一心一意谋发展，聚精会神搞建设，恪尽职守，努力工作。将虚心地向同志们学习，向老同志学习，向群众学习，向驻冀的解放军指战员、武警部队官兵学习，从中汲取智慧和力量；遵守国家法律和党的纪律，牢记“两个务必”，严格要求自己，为官做事廉洁公道正派，听取同志们的意见并接受监督，把个人有限的力量融入到建设以实力、活力、竞争力为主要标志的“沿海经济社会发展强省”的事业中去。 郭庚茂表示坚决拥护中央的决定。他说，作为省委领导班子成员和省政府主要负责人，我一定积极配合、全力支持张云川同志的工作，努力把河北的事情办得更好。全省各级党组织要在以张云川同志为班长的省委领导下，高举中国特色社会主义伟大旗帜，坚持以邓小平理论和“三个代表”重要思想为指导，全面贯彻落实科学发展观，倍加顾全大局，倍加维护团结，倍加努力工作，在迎接十七大、学习贯彻十七大精神的新形势下，在建设沿海经济社会发展强省、实现河北振兴新的征程中，不断创造新的业绩，让党中央放心，让全省人民满意。 出席今天会议的有：省委常委，省人大常委会、省政府、省政协领导成员，省军区政委，省法院院长、省检察院检察长，武警河北总队总队长、政委，其他省级干部，副省级以上老同志；省委委员、候补省委委员；各市市委书记、市长，各县(市、区)委书记；省直各单位主要负责人；省各民主党派、工商联主要负责人；省委管理领导人员的企业、省属本科骨干院校主要负责人。']</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A198" t="n">
+        <v>5</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>秦皇岛市召开四大班子联席会通报赴鲁苏豫冀学习考察团考察学习情况</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2006-09-18</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=5C1258FCBA5FDA09F9F425EC95375539</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>['行万里长路，取发展真经，我市赴鲁、苏、豫、冀学习考察团一行征尘未洗，９月１６日上午即召开了全市四大班子联席会议，通报这次学习考察情况，并围绕做好当前工作和谋划“十一五”发展进行研究讨论。 ９月６日至１５日，由宋长瑞任团长，王志欣、马誉峰、时晓峰为副团长的我市学习考察团一行，历时十天，辗转万里，分赴山东、江苏、河南、河北等省的１５个市、县及５０余处园区、企业等单位实地学习考察。所到之处思想观念之新、发展氛围之浓、经济跃升之快、城市环境之美、思想作风之实都给考察团成员留下了深刻印象。考察团边走边看边学边议，逐渐形成了共识，那就是状态是发展第一助力，项目是发展第一抓手，园区是发展第一载体，规划是发展第一要素，工业是发展第一方略，企业是发展第一主体，环境是发展第一竞争点，富民是发展第一导向。市委副书记王志欣代表考察团汇报了这次学习考察的主要收获、体会，并就如何落实提出了初步建议。 市委书记宋长瑞在通报会上指出，这次学习考察可以说是一次思想解放之旅、观念更新之旅、心灵震撼之旅，也是一次感受压力之旅、找回危机感之旅，对比先进地区我们看到了观念的差距、价值取向的差距、工作状态和工作作风的差距以及抓落实能力的差距，因此必须加快消化吸收和落实，抓当前，抓长远，抓统筹，抓发展。他还就当前及今后一段时间经济发展、项目建设、县域经济、推进机制、环境及规划等问题提出了具体要求。 市委副书记、市长菅瑞亭在讲话时要求，一定要把焕发的激情延续下去，并结合我市实际抓出成效。抓项目建设要集中精力、高起点，并且善于解决存在的问题；要按照布局集中、产业集聚、土地集约的原则抓好园区建设；环境建设要抓好向下的延伸和向外的扩展；宣传推介要坚持高标准的创意。坐而论重要，起而行更重要，各项工作要从现在做起。 市委常委、常务副市长马誉峰在讨论时谈到，对考察地区凝神聚力、心无旁骛抓项目、抓发展的劲头以及重视规划、重视园区建设、重视会展经济并且敢于“无中生有”的观念和思路感受最深。他建议，要高标准、高站位、高起点进行空间发展规划战略研究，加大项目资源整合及建设力度，全社会营造亲商、安商、扶商的环境，适时谋划新城区建设，加强港城互动，加大城市品牌和服务型、效益型政府的打造力度。 市委常委、宣传部长、山海关区委书记时晓峰结合学习考察的感受提出，全市下一步应全力营造科学发展、提速发展、和谐发展的氛围，增强市场的观念和经营城市的理念，着力打造城市品牌，真抓实干，全力促进项目的落地。她建议把城市发展定位与城市空间布局和产业结构有机结合；由市委、市政府集中调度上亿元的大项目；进一步完善切实可行的招商政策；给各县区工业园区以最大的支持；加快发展文化产业，使经济发展和文化发展有机结合，成为我市对外开放和城市品牌的载体。 会议还就下一步召开全市学习考察报告会暨大干第四季度动员会，在全市开展更宽领域、更深层次的解放思想大讨论等内容作出了初步安排。 市委、市人大、市政府、市政协四大班子领导及学习考察团成员参加了当天的会议。（记者王志起）']</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A199" t="n">
+        <v>5</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>秦皇岛赴鲁苏豫冀学习考察专递之六</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2006-09-15</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=8BD878E7CDF137C56112A29601CCD079</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>['９月１４日，我市学习考察团来到廊坊市，与当地党政领导就经济社会发展的经验进行交流。廊坊市在项目建设、园区建设及壮大县域经济等方面的成功实践，给我市学习考察团成员留下了深刻印象。 廊坊临近京津，处于河北“一线两厢”之“一线”的中间地带，近年来，特别是“十五”期间，经济社会取得长足发展。今年１至８月份，全市地区生产总值、规模以上工业增加值、城镇固定资产投资、财政收入等多项指标均实现了两位数的增长，全市经济整体呈现出增速加快、质量提高、后劲增强的发展态势。 在１４日中午召开的经验交流会上，廊坊市委副书记、市长王爱民向我市学习考察团介绍了廊坊市近年来如何抓项目、抓载体、抓民营经济，如何破解土地、资金矛盾制约等方面的经验。我市学习考察团团长、市委书记宋长瑞简要介绍了秦皇岛市近几年经济社会发展等方面的情况后说，作为兄弟城市，廊坊市的发展思路清楚、定位清楚、重点清楚，而且全市上下满怀激情，有许许多多的经验值得我们学习。我们要把这些绝招、妙招变成我们分享的经验、发展的动力，并且用“责任风暴”促使全市干部实现一次观念的突围、实现一次状态的革命，用挑战和竞争激发干事敬业的激情。 学习考察团当天下午参观考察了廊坊开发区文化艺术广场、廊坊城市规划展示馆、华为北方基地、新奥高尔夫球场、新奥博为技术有限公司、香河县鑫亿隆家居文化广场、第一城等地。考察团队伍也壮大了不少，市直及各县区相关部门负责人共计３０多人１４日当天从秦皇岛赶到廊坊，于先期考察团会合，共同进行在廊坊和唐山两市的学习考察活动。（记者王志起）']</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A200" t="n">
+        <v>5</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>秦皇岛市学习考察团抵达石家庄</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2006-09-14</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=DBD893E2E367841975D3BB3E8285E676</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>['９月１３日１８时３０分，我市学习考察团一行在结束了对郑州市的考察学习活动之后，抵达我省省会石家庄，开始今后三天在省内的学习交流。石家庄市委书记、市长吴显国等石市领导与我市考察团进行了交流。 近年来，石家庄市坚持以人为本和科学发展观，紧紧围绕建设“宜居宜看城市”和“全省首善之区”的目标，以加快推进重大项目实施为核心，以解决城市建设和管理的突出矛盾为突破口，不断抓亮点、促重点、攻难点，城市面貌明显改善，城市载体功能明显增强，省会形象明显提升。 吴显国对秦皇岛由市委书记带队出去学习考察的做法表示赞赏，希望把学来的经验、体会进行交流，促进两市的共同提高。宋长瑞对石家庄市近年来取得的成就表示钦佩，他简要介绍了此次学习考察的意义及收获，并预祝即将召开的石市党代会取得圆满成功。 市领导王志欣、马誉峰、时晓峰参加了会见。（记者王志起）']</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A201" t="n">
+        <v>5</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>昆山和张家港的城市精神内涵和快速发展之路启迪</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>2006-09-12</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>http://www.qhd.gov.cn/front_pcthi.do?uuid=3B77FA846D76C827AF6600D1CE913743</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>['“张家港精神”、“昆山之路”和“园区经验”被称为苏州的三大法宝。在结束了苏州市的学习考察后，秦皇岛市学习考察团９月１１日来到昆山和张家港这两个苏州所辖的县级市，继续探究他们的城市精神内涵和快速发展之路。 近年来，昆山市紧紧围绕“第一个率先”目标，坚定不移地实施外向带动、民营赶超、服务业跨越“三大战略”，全市综合实力不断增强。２００５年完成地区生产总值７３０亿元，工业总产值２３３３亿元，全口径财政收入１１６．８亿元，其中地方一般预算收入５１．６亿元。完成进出口总额３３２亿美元，全年新批外资项目４３５个，合同注册外资２５亿美元，到账外资１１．２亿美元。去年，昆山市荣登全国百强县市榜首，并在全省率先实现江苏全面建成小康社会指标，基本达到全面小康社会水平。 １１日上午，学习考察团先后来到昆山出口加工区、张浦工业集中区及新镇区、昆山体育馆、城市生态森林公园、城市规划馆、民营投资创业有限公司、昆山科技文化博览中心等地参观学习，成员们还就各自关心的问题与昆山市相关部门负责人进行了交流探讨。 处于长江和沿海两大经济带交汇处的张家港市，上世纪９０年代初期，在各方面基础相对薄弱的情况下，把张家港精神突出体现在“拼搏、奋进”上，抢抓机遇，奋力超越，实现了张家港的大变化、大发展。上世纪９０年代中后期，在工业化、城市化的潮流面前，把张家港精神突出体现在“务实、创新”上，遵循规律，克难求进，实现了全市的大开发、大进步。在经济社会进入全面转型阶段的新世纪，他们又把科学发展观融入张家港精神，突出体现“统筹、协调”，讲求质量，协调发展，促进了全市的大开放、大提高。去年，张家港成为全国唯一获得“全国文明城市”殊荣的县（市）。１１日下午，学习考察团在参观了张家港市的暨阳湖生态园、梁丰生态园、沙钢集团、东海粮油公司、保税区化工品交易市场、城西新区等地后，与张家港市的党政领导及相关部门进行了座谈。 两天的苏州之行，学习考察团成员都感觉收获很大。９月１１日晚，市委书记宋长瑞在考察团驻地主持召开了第二次小结会。全体成员就苏州市在发展理念、城市规划、招商氛围、宣传推介、工作状态、运行机制等多方面的成功经验，结合实际，谈感受，讲体会，理思路，议举措。小结会持续了２个多小时。９月１２日，学习考察团将结束在苏州的活动，转赴河南郑州。（记者王志起）']</t>
         </is>
